--- a/analysis/xlsx/RealisticEval-Data.xlsx
+++ b/analysis/xlsx/RealisticEval-Data.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10324" uniqueCount="2062">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10324" uniqueCount="2073">
   <si>
     <t>task_id</t>
   </si>
@@ -4802,13 +4802,42 @@
 </t>
   </si>
   <si>
-    <t>处理Markdown文件内容，从字符串中去除多余的星号，只保留最外层的星号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Process the contents of the Markdown file, remove unnecessary asterisks from the string, and keep only the outermost asterisks
+    <t>double_check</t>
+  </si>
+  <si>
+    <t>将输入文本中符合 (*...*) 格式的部分的内部星号删除，并保持外部 (* 和 *) 不变。例如，(*he*l*lo*) 会被转换为 (*hello*)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Match the text with (*... *) The inner asterisks in the part of the format are removed and the outer parts (* and *) are left unchanged. For example,(*he*l*lo*) would be converted to (*hello*)
 </t>
   </si>
   <si>
+    <t>将两行字符串左对齐排列，如果长度不够，使用空格补充</t>
+  </si>
+  <si>
+    <t>Align two lines of string to the left, supplementing with Spaces if the length is not enough</t>
+  </si>
+  <si>
+    <t>查找给定ip列表中的重复ip，排除指定忽略的ip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find duplicate IPs in the given IP list and exclude IPs specified to ignore
+</t>
+  </si>
+  <si>
+    <t>使用指定列中的第一个有效值，填充pandas dataframe中该列的缺失值</t>
+  </si>
+  <si>
+    <t>Uses the first valid value in the specified column to fill the pandas dataframe with the missing value for that column</t>
+  </si>
+  <si>
+    <t>将文件大小从字节单位转换为更易读的格式（例如KB，MB，GB）例如 2120B，转换位2KB，仅保留整数部分</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convert the file size from byte units to a more readable format (e.g. KB, MB, GB) such as 2120B, convert the bits to 2KB, keeping only the integer parts
+</t>
+  </si>
+  <si>
     <t>Appends a new row to a CSV file if there isn't a row with matching values in the first three columns.</t>
   </si>
   <si>
@@ -4816,6 +4845,13 @@
   </si>
   <si>
     <t xml:space="preserve">Classify an array of file names according to its file extension, and return the final class result in the form of a dictionary
+</t>
+  </si>
+  <si>
+    <t>处理csv文件，删除有两列为空的行</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Process the csv file and delete rows with two empty columns
 </t>
   </si>
   <si>
@@ -8375,7 +8411,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E7" sqref="E7"/>
+      <selection pane="topRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>
@@ -25568,7 +25604,7 @@
       <c r="O2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q2" s="38"/>
@@ -25630,7 +25666,7 @@
       <c r="O3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q3" s="38"/>
@@ -25686,7 +25722,7 @@
       <c r="O4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q4" s="38"/>
@@ -25742,7 +25778,7 @@
       <c r="O5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="P5" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q5" s="38"/>
@@ -25798,7 +25834,7 @@
       <c r="O6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="P6" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q6" s="38"/>
@@ -25854,7 +25890,7 @@
       <c r="O7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P7" s="11" t="s">
+      <c r="P7" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q7" s="38"/>
@@ -25910,7 +25946,7 @@
       <c r="O8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P8" s="11" t="s">
+      <c r="P8" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q8" s="38"/>
@@ -25966,7 +26002,7 @@
       <c r="O9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="P9" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q9" s="38"/>
@@ -26022,7 +26058,7 @@
       <c r="O10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P10" s="11" t="s">
+      <c r="P10" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q10" s="38"/>
@@ -26078,8 +26114,8 @@
       <c r="O11" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P11" s="11" t="s">
-        <v>24</v>
+      <c r="P11" s="23" t="s">
+        <v>1510</v>
       </c>
       <c r="Q11" s="38"/>
       <c r="R11" s="11"/>
@@ -26134,7 +26170,7 @@
       <c r="O12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P12" s="11" t="s">
+      <c r="P12" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q12" s="38"/>
@@ -26190,7 +26226,7 @@
       <c r="O13" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P13" s="11" t="s">
+      <c r="P13" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q13" s="38"/>
@@ -26246,7 +26282,7 @@
       <c r="O14" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P14" s="11" t="s">
+      <c r="P14" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q14" s="38"/>
@@ -26273,13 +26309,13 @@
         <v>20</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>119</v>
+        <v>1511</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="I15" s="8">
         <v>5</v>
@@ -26302,8 +26338,8 @@
       <c r="O15" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P15" s="11" t="s">
-        <v>24</v>
+      <c r="P15" s="23" t="s">
+        <v>1510</v>
       </c>
       <c r="Q15" s="38"/>
       <c r="R15" s="11"/>
@@ -26358,7 +26394,7 @@
       <c r="O16" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P16" s="11" t="s">
+      <c r="P16" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q16" s="38"/>
@@ -26414,7 +26450,7 @@
       <c r="O17" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P17" s="11" t="s">
+      <c r="P17" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q17" s="38"/>
@@ -26470,7 +26506,7 @@
       <c r="O18" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P18" s="11" t="s">
+      <c r="P18" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q18" s="38"/>
@@ -26526,7 +26562,7 @@
       <c r="O19" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P19" s="11" t="s">
+      <c r="P19" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q19" s="38"/>
@@ -26582,8 +26618,8 @@
       <c r="O20" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P20" s="11" t="s">
-        <v>24</v>
+      <c r="P20" s="23" t="s">
+        <v>1510</v>
       </c>
       <c r="Q20" s="38"/>
       <c r="R20" s="11"/>
@@ -26638,7 +26674,7 @@
       <c r="O21" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P21" s="11" t="s">
+      <c r="P21" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q21" s="38"/>
@@ -26694,8 +26730,8 @@
       <c r="O22" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P22" s="11" t="s">
-        <v>24</v>
+      <c r="P22" s="23" t="s">
+        <v>1510</v>
       </c>
       <c r="Q22" s="38"/>
       <c r="R22" s="11"/>
@@ -26750,7 +26786,7 @@
       <c r="O23" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P23" s="11" t="s">
+      <c r="P23" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q23" s="38"/>
@@ -26806,7 +26842,7 @@
       <c r="O24" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P24" s="11" t="s">
+      <c r="P24" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q24" s="38"/>
@@ -26862,7 +26898,7 @@
       <c r="O25" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P25" s="11" t="s">
+      <c r="P25" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q25" s="38"/>
@@ -26918,7 +26954,7 @@
       <c r="O26" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P26" s="11" t="s">
+      <c r="P26" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q26" s="38"/>
@@ -26972,7 +27008,7 @@
       <c r="O27" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P27" s="11" t="s">
+      <c r="P27" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q27" s="38"/>
@@ -27028,7 +27064,7 @@
       <c r="O28" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P28" s="11" t="s">
+      <c r="P28" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q28" s="38"/>
@@ -27084,8 +27120,8 @@
       <c r="O29" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P29" s="11" t="s">
-        <v>24</v>
+      <c r="P29" s="23" t="s">
+        <v>1510</v>
       </c>
       <c r="Q29" s="38"/>
       <c r="R29" s="11"/>
@@ -27140,8 +27176,8 @@
       <c r="O30" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P30" s="11" t="s">
-        <v>24</v>
+      <c r="P30" s="23" t="s">
+        <v>34</v>
       </c>
       <c r="Q30" s="38"/>
       <c r="R30" s="11"/>
@@ -27196,7 +27232,7 @@
       <c r="O31" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P31" s="11" t="s">
+      <c r="P31" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q31" s="38"/>
@@ -27232,7 +27268,7 @@
         <v>209</v>
       </c>
       <c r="I32" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J32" s="5" t="s">
         <v>24</v>
@@ -27252,7 +27288,7 @@
       <c r="O32" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P32" s="11" t="s">
+      <c r="P32" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q32" s="38"/>
@@ -27308,7 +27344,7 @@
       <c r="O33" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P33" s="11" t="s">
+      <c r="P33" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q33" s="38"/>
@@ -27338,10 +27374,10 @@
         <v>217</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>218</v>
+        <v>1513</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>219</v>
+        <v>1514</v>
       </c>
       <c r="I34" s="8">
         <v>5</v>
@@ -27364,7 +27400,7 @@
       <c r="O34" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P34" s="11" t="s">
+      <c r="P34" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q34" s="38"/>
@@ -27400,7 +27436,7 @@
         <v>224</v>
       </c>
       <c r="I35" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J35" s="5" t="s">
         <v>24</v>
@@ -27420,7 +27456,7 @@
       <c r="O35" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P35" s="11" t="s">
+      <c r="P35" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q35" s="38"/>
@@ -27476,7 +27512,7 @@
       <c r="O36" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P36" s="11" t="s">
+      <c r="P36" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q36" s="38"/>
@@ -27532,7 +27568,7 @@
       <c r="O37" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P37" s="11" t="s">
+      <c r="P37" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q37" s="38"/>
@@ -27588,8 +27624,8 @@
       <c r="O38" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P38" s="11" t="s">
-        <v>24</v>
+      <c r="P38" s="23" t="s">
+        <v>1510</v>
       </c>
       <c r="Q38" s="38"/>
       <c r="R38" s="11"/>
@@ -27644,7 +27680,7 @@
       <c r="O39" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P39" s="11" t="s">
+      <c r="P39" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q39" s="38"/>
@@ -27700,7 +27736,7 @@
       <c r="O40" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P40" s="11" t="s">
+      <c r="P40" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q40" s="38"/>
@@ -27756,7 +27792,7 @@
       <c r="O41" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P41" s="11" t="s">
+      <c r="P41" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q41" s="38"/>
@@ -27812,7 +27848,7 @@
       <c r="O42" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P42" s="11" t="s">
+      <c r="P42" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q42" s="38"/>
@@ -27848,7 +27884,7 @@
         <v>263</v>
       </c>
       <c r="I43" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J43" s="5" t="s">
         <v>24</v>
@@ -27868,7 +27904,7 @@
       <c r="O43" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P43" s="11" t="s">
+      <c r="P43" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q43" s="38"/>
@@ -27924,7 +27960,7 @@
       <c r="O44" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P44" s="11" t="s">
+      <c r="P44" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q44" s="38"/>
@@ -27980,7 +28016,7 @@
       <c r="O45" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P45" s="11" t="s">
+      <c r="P45" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q45" s="38"/>
@@ -28036,7 +28072,7 @@
       <c r="O46" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P46" s="11" t="s">
+      <c r="P46" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q46" s="38"/>
@@ -28092,7 +28128,7 @@
       <c r="O47" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P47" s="11" t="s">
+      <c r="P47" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q47" s="38"/>
@@ -28148,7 +28184,7 @@
       <c r="O48" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="P48" s="18" t="s">
+      <c r="P48" s="28" t="s">
         <v>24</v>
       </c>
       <c r="Q48" s="38"/>
@@ -28204,7 +28240,7 @@
       <c r="O49" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P49" s="11" t="s">
+      <c r="P49" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q49" s="38"/>
@@ -28260,7 +28296,7 @@
       <c r="O50" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P50" s="11" t="s">
+      <c r="P50" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q50" s="38"/>
@@ -28290,13 +28326,13 @@
         <v>298</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>299</v>
+        <v>1515</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>300</v>
+        <v>1516</v>
       </c>
       <c r="I51" s="8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J51" s="5" t="s">
         <v>24</v>
@@ -28316,7 +28352,7 @@
       <c r="O51" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P51" s="11" t="s">
+      <c r="P51" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q51" s="38"/>
@@ -28372,8 +28408,8 @@
       <c r="O52" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P52" s="11" t="s">
-        <v>24</v>
+      <c r="P52" s="23" t="s">
+        <v>1510</v>
       </c>
       <c r="Q52" s="38"/>
       <c r="R52" s="11"/>
@@ -28428,7 +28464,7 @@
       <c r="O53" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P53" s="11" t="s">
+      <c r="P53" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q53" s="38"/>
@@ -28484,7 +28520,7 @@
       <c r="O54" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P54" s="11" t="s">
+      <c r="P54" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q54" s="38"/>
@@ -28540,7 +28576,7 @@
       <c r="O55" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P55" s="18" t="s">
+      <c r="P55" s="28" t="s">
         <v>24</v>
       </c>
       <c r="Q55" s="38"/>
@@ -28596,7 +28632,7 @@
       <c r="O56" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P56" s="11" t="s">
+      <c r="P56" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q56" s="38"/>
@@ -28652,7 +28688,7 @@
       <c r="O57" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P57" s="11" t="s">
+      <c r="P57" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q57" s="38"/>
@@ -28708,7 +28744,7 @@
       <c r="O58" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P58" s="11" t="s">
+      <c r="P58" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q58" s="38"/>
@@ -28764,8 +28800,8 @@
       <c r="O59" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P59" s="11" t="s">
-        <v>24</v>
+      <c r="P59" s="23" t="s">
+        <v>1510</v>
       </c>
       <c r="Q59" s="38"/>
       <c r="R59" s="11"/>
@@ -28820,7 +28856,7 @@
       <c r="O60" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P60" s="11" t="s">
+      <c r="P60" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q60" s="38"/>
@@ -28876,7 +28912,7 @@
       <c r="O61" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P61" s="11" t="s">
+      <c r="P61" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q61" s="38"/>
@@ -28932,7 +28968,7 @@
       <c r="O62" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P62" s="11" t="s">
+      <c r="P62" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q62" s="38"/>
@@ -28988,7 +29024,7 @@
       <c r="O63" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P63" s="11" t="s">
+      <c r="P63" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q63" s="38"/>
@@ -29044,7 +29080,7 @@
       <c r="O64" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P64" s="11" t="s">
+      <c r="P64" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q64" s="38"/>
@@ -29080,7 +29116,7 @@
         <v>367</v>
       </c>
       <c r="I65" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J65" s="5" t="s">
         <v>24</v>
@@ -29100,7 +29136,7 @@
       <c r="O65" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P65" s="11" t="s">
+      <c r="P65" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q65" s="38"/>
@@ -29156,7 +29192,7 @@
       <c r="O66" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P66" s="11" t="s">
+      <c r="P66" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q66" s="38"/>
@@ -29212,7 +29248,7 @@
       <c r="O67" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P67" s="11" t="s">
+      <c r="P67" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q67" s="38"/>
@@ -29268,7 +29304,7 @@
       <c r="O68" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P68" s="11" t="s">
+      <c r="P68" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q68" s="38"/>
@@ -29324,7 +29360,7 @@
       <c r="O69" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P69" s="11" t="s">
+      <c r="P69" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q69" s="38"/>
@@ -29354,13 +29390,13 @@
         <v>390</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>391</v>
+        <v>1517</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>392</v>
+        <v>1518</v>
       </c>
       <c r="I70" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J70" s="5" t="s">
         <v>24</v>
@@ -29380,7 +29416,7 @@
       <c r="O70" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P70" s="11" t="s">
+      <c r="P70" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q70" s="38"/>
@@ -29436,7 +29472,7 @@
       <c r="O71" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P71" s="11" t="s">
+      <c r="P71" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q71" s="38"/>
@@ -29492,7 +29528,7 @@
       <c r="O72" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P72" s="11" t="s">
+      <c r="P72" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q72" s="38"/>
@@ -29548,7 +29584,7 @@
       <c r="O73" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P73" s="11" t="s">
+      <c r="P73" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q73" s="38"/>
@@ -29604,7 +29640,7 @@
       <c r="O74" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P74" s="11" t="s">
+      <c r="P74" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q74" s="38"/>
@@ -29660,7 +29696,7 @@
       <c r="O75" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P75" s="11" t="s">
+      <c r="P75" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q75" s="38"/>
@@ -29716,7 +29752,7 @@
       <c r="O76" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P76" s="11" t="s">
+      <c r="P76" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q76" s="38"/>
@@ -29772,7 +29808,7 @@
       <c r="O77" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P77" s="11" t="s">
+      <c r="P77" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q77" s="38"/>
@@ -29828,7 +29864,7 @@
       <c r="O78" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P78" s="11" t="s">
+      <c r="P78" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q78" s="38"/>
@@ -29884,7 +29920,7 @@
       <c r="O79" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P79" s="11" t="s">
+      <c r="P79" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q79" s="38"/>
@@ -29940,7 +29976,7 @@
       <c r="O80" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P80" s="11" t="s">
+      <c r="P80" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q80" s="38"/>
@@ -29996,7 +30032,7 @@
       <c r="O81" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P81" s="11" t="s">
+      <c r="P81" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q81" s="38"/>
@@ -30026,10 +30062,10 @@
         <v>982</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>983</v>
+        <v>1519</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>984</v>
+        <v>1520</v>
       </c>
       <c r="I82" s="8">
         <v>5</v>
@@ -30052,7 +30088,7 @@
       <c r="O82" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P82" s="11" t="s">
+      <c r="P82" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q82" s="38"/>
@@ -30108,7 +30144,7 @@
       <c r="O83" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P83" s="11" t="s">
+      <c r="P83" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q83" s="38"/>
@@ -30164,7 +30200,7 @@
       <c r="O84" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P84" s="11" t="s">
+      <c r="P84" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q84" s="38"/>
@@ -30220,7 +30256,7 @@
       <c r="O85" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="P85" s="18" t="s">
+      <c r="P85" s="28" t="s">
         <v>24</v>
       </c>
       <c r="Q85" s="38"/>
@@ -30256,7 +30292,7 @@
         <v>1007</v>
       </c>
       <c r="I86" s="34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J86" s="31" t="s">
         <v>24</v>
@@ -30276,7 +30312,7 @@
       <c r="O86" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="P86" s="18" t="s">
+      <c r="P86" s="28" t="s">
         <v>24</v>
       </c>
       <c r="Q86" s="38"/>
@@ -30309,7 +30345,7 @@
         <v>1011</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>1512</v>
+        <v>1521</v>
       </c>
       <c r="I87" s="8">
         <v>4</v>
@@ -30332,7 +30368,7 @@
       <c r="O87" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P87" s="11" t="s">
+      <c r="P87" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q87" s="38"/>
@@ -30388,7 +30424,7 @@
       <c r="O88" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P88" s="11" t="s">
+      <c r="P88" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q88" s="38"/>
@@ -30444,7 +30480,7 @@
       <c r="O89" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P89" s="11" t="s">
+      <c r="P89" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q89" s="38"/>
@@ -30500,7 +30536,7 @@
       <c r="O90" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P90" s="11" t="s">
+      <c r="P90" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q90" s="38"/>
@@ -30530,10 +30566,10 @@
         <v>1032</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>1513</v>
+        <v>1522</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>1514</v>
+        <v>1523</v>
       </c>
       <c r="I91" s="8">
         <v>5</v>
@@ -30556,7 +30592,7 @@
       <c r="O91" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P91" s="11" t="s">
+      <c r="P91" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q91" s="38"/>
@@ -30612,7 +30648,7 @@
       <c r="O92" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P92" s="11" t="s">
+      <c r="P92" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q92" s="38"/>
@@ -30668,7 +30704,7 @@
       <c r="O93" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P93" s="11" t="s">
+      <c r="P93" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q93" s="38"/>
@@ -30724,7 +30760,7 @@
       <c r="O94" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P94" s="11" t="s">
+      <c r="P94" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q94" s="38"/>
@@ -30780,7 +30816,7 @@
       <c r="O95" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P95" s="11" t="s">
+      <c r="P95" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q95" s="38"/>
@@ -30836,7 +30872,7 @@
       <c r="O96" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P96" s="11" t="s">
+      <c r="P96" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q96" s="38"/>
@@ -30872,7 +30908,7 @@
         <v>1071</v>
       </c>
       <c r="I97" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J97" s="5" t="s">
         <v>24</v>
@@ -30892,7 +30928,7 @@
       <c r="O97" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P97" s="11" t="s">
+      <c r="P97" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q97" s="38"/>
@@ -30948,7 +30984,7 @@
       <c r="O98" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="P98" s="18" t="s">
+      <c r="P98" s="28" t="s">
         <v>24</v>
       </c>
       <c r="Q98" s="38"/>
@@ -31004,7 +31040,7 @@
       <c r="O99" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P99" s="11" t="s">
+      <c r="P99" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q99" s="38"/>
@@ -31060,7 +31096,7 @@
       <c r="O100" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P100" s="11" t="s">
+      <c r="P100" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q100" s="38"/>
@@ -31116,7 +31152,7 @@
       <c r="O101" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P101" s="11" t="s">
+      <c r="P101" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q101" s="38"/>
@@ -31146,10 +31182,10 @@
         <v>1094</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>1095</v>
+        <v>1524</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>1096</v>
+        <v>1525</v>
       </c>
       <c r="I102" s="8">
         <v>5</v>
@@ -31172,7 +31208,7 @@
       <c r="O102" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P102" s="11" t="s">
+      <c r="P102" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q102" s="38"/>
@@ -31228,7 +31264,7 @@
       <c r="O103" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P103" s="11" t="s">
+      <c r="P103" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q103" s="38"/>
@@ -31284,7 +31320,7 @@
       <c r="O104" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P104" s="11" t="s">
+      <c r="P104" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q104" s="38"/>
@@ -31340,7 +31376,7 @@
       <c r="O105" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P105" s="11" t="s">
+      <c r="P105" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q105" s="38"/>
@@ -31396,7 +31432,7 @@
       <c r="O106" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P106" s="11" t="s">
+      <c r="P106" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q106" s="38"/>
@@ -31452,7 +31488,7 @@
       <c r="O107" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P107" s="11" t="s">
+      <c r="P107" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q107" s="38"/>
@@ -31508,7 +31544,7 @@
       <c r="O108" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="P108" s="18" t="s">
+      <c r="P108" s="28" t="s">
         <v>24</v>
       </c>
       <c r="Q108" s="38"/>
@@ -31564,7 +31600,7 @@
       <c r="O109" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="P109" s="18" t="s">
+      <c r="P109" s="28" t="s">
         <v>24</v>
       </c>
       <c r="Q109" s="38"/>
@@ -31600,7 +31636,7 @@
         <v>1144</v>
       </c>
       <c r="I110" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J110" s="5" t="s">
         <v>24</v>
@@ -31620,7 +31656,7 @@
       <c r="O110" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P110" s="11" t="s">
+      <c r="P110" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q110" s="38"/>
@@ -31676,7 +31712,7 @@
       <c r="O111" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P111" s="11" t="s">
+      <c r="P111" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q111" s="38"/>
@@ -31732,7 +31768,7 @@
       <c r="O112" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P112" s="11" t="s">
+      <c r="P112" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q112" s="38"/>
@@ -31788,7 +31824,7 @@
       <c r="O113" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="P113" s="18" t="s">
+      <c r="P113" s="28" t="s">
         <v>24</v>
       </c>
       <c r="Q113" s="38"/>
@@ -31844,7 +31880,7 @@
       <c r="O114" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P114" s="11" t="s">
+      <c r="P114" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q114" s="38"/>
@@ -31900,7 +31936,7 @@
       <c r="O115" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P115" s="11" t="s">
+      <c r="P115" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q115" s="38"/>
@@ -31936,7 +31972,7 @@
         <v>1377</v>
       </c>
       <c r="I116" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J116" s="5" t="s">
         <v>24</v>
@@ -31956,7 +31992,7 @@
       <c r="O116" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P116" s="11" t="s">
+      <c r="P116" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q116" s="38"/>
@@ -31983,13 +32019,13 @@
         <v>44</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>1515</v>
+        <v>1526</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>1515</v>
+        <v>1526</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>1516</v>
+        <v>1527</v>
       </c>
       <c r="I117" s="8">
         <v>3</v>
@@ -32012,7 +32048,7 @@
       <c r="O117" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P117" s="11" t="s">
+      <c r="P117" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q117" s="38"/>
@@ -32039,13 +32075,13 @@
         <v>20</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>1517</v>
+        <v>1528</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>1517</v>
+        <v>1528</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>1518</v>
+        <v>1529</v>
       </c>
       <c r="I118" s="8">
         <v>4</v>
@@ -32068,7 +32104,7 @@
       <c r="O118" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P118" s="11" t="s">
+      <c r="P118" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q118" s="38"/>
@@ -32095,13 +32131,13 @@
         <v>20</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>1519</v>
+        <v>1530</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>1520</v>
+        <v>1531</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>1521</v>
+        <v>1532</v>
       </c>
       <c r="I119" s="8">
         <v>4</v>
@@ -32124,7 +32160,7 @@
       <c r="O119" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P119" s="11" t="s">
+      <c r="P119" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q119" s="38"/>
@@ -32151,13 +32187,13 @@
         <v>20</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>1522</v>
+        <v>1533</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>1523</v>
+        <v>1534</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>1524</v>
+        <v>1535</v>
       </c>
       <c r="I120" s="8">
         <v>4</v>
@@ -32180,7 +32216,7 @@
       <c r="O120" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P120" s="11" t="s">
+      <c r="P120" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q120" s="38"/>
@@ -32207,13 +32243,13 @@
         <v>30</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>1525</v>
+        <v>1536</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>1526</v>
+        <v>1537</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>1527</v>
+        <v>1538</v>
       </c>
       <c r="I121" s="8">
         <v>3</v>
@@ -32236,7 +32272,7 @@
       <c r="O121" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P121" s="11" t="s">
+      <c r="P121" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q121" s="38"/>
@@ -32263,16 +32299,16 @@
         <v>20</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>1528</v>
+        <v>1539</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>1528</v>
+        <v>1539</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>1529</v>
+        <v>1540</v>
       </c>
       <c r="I122" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J122" s="5" t="s">
         <v>24</v>
@@ -32292,7 +32328,7 @@
       <c r="O122" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P122" s="11" t="s">
+      <c r="P122" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q122" s="38"/>
@@ -32319,13 +32355,13 @@
         <v>44</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>1530</v>
+        <v>1541</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>1531</v>
+        <v>1542</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>1532</v>
+        <v>1543</v>
       </c>
       <c r="I123" s="8">
         <v>4</v>
@@ -32348,7 +32384,7 @@
       <c r="O123" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P123" s="11" t="s">
+      <c r="P123" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q123" s="38"/>
@@ -32375,13 +32411,13 @@
         <v>37</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>1533</v>
+        <v>1544</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>1533</v>
+        <v>1544</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
       <c r="I124" s="8">
         <v>4</v>
@@ -32404,8 +32440,8 @@
       <c r="O124" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P124" s="11" t="s">
-        <v>24</v>
+      <c r="P124" s="23" t="s">
+        <v>1510</v>
       </c>
       <c r="Q124" s="38"/>
       <c r="R124" s="8"/>
@@ -32431,13 +32467,13 @@
         <v>30</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
       <c r="G125" s="8" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
       <c r="H125" s="8" t="s">
-        <v>1536</v>
+        <v>1547</v>
       </c>
       <c r="I125" s="8">
         <v>4</v>
@@ -32460,7 +32496,7 @@
       <c r="O125" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P125" s="11" t="s">
+      <c r="P125" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q125" s="38"/>
@@ -32487,13 +32523,13 @@
         <v>44</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>1537</v>
+        <v>1548</v>
       </c>
       <c r="G126" s="8" t="s">
-        <v>1537</v>
+        <v>1548</v>
       </c>
       <c r="H126" s="8" t="s">
-        <v>1538</v>
+        <v>1549</v>
       </c>
       <c r="I126" s="8">
         <v>7</v>
@@ -32516,7 +32552,7 @@
       <c r="O126" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P126" s="11" t="s">
+      <c r="P126" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q126" s="38"/>
@@ -32543,13 +32579,13 @@
         <v>20</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>1539</v>
+        <v>1550</v>
       </c>
       <c r="G127" s="8" t="s">
-        <v>1539</v>
+        <v>1550</v>
       </c>
       <c r="H127" s="8" t="s">
-        <v>1540</v>
+        <v>1551</v>
       </c>
       <c r="I127" s="8">
         <v>5</v>
@@ -32572,8 +32608,8 @@
       <c r="O127" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P127" s="11" t="s">
-        <v>24</v>
+      <c r="P127" s="23" t="s">
+        <v>1510</v>
       </c>
       <c r="Q127" s="38"/>
       <c r="R127" s="8"/>
@@ -32599,13 +32635,13 @@
         <v>20</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>1541</v>
+        <v>1552</v>
       </c>
       <c r="G128" s="8" t="s">
-        <v>1541</v>
+        <v>1552</v>
       </c>
       <c r="H128" s="8" t="s">
-        <v>1542</v>
+        <v>1553</v>
       </c>
       <c r="I128" s="8">
         <v>4</v>
@@ -32628,7 +32664,7 @@
       <c r="O128" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P128" s="11" t="s">
+      <c r="P128" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q128" s="38"/>
@@ -32655,13 +32691,13 @@
         <v>20</v>
       </c>
       <c r="F129" s="8" t="s">
-        <v>1543</v>
+        <v>1554</v>
       </c>
       <c r="G129" s="8" t="s">
-        <v>1543</v>
+        <v>1554</v>
       </c>
       <c r="H129" s="8" t="s">
-        <v>1544</v>
+        <v>1555</v>
       </c>
       <c r="I129" s="8">
         <v>4</v>
@@ -32684,7 +32720,7 @@
       <c r="O129" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P129" s="11" t="s">
+      <c r="P129" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q129" s="38"/>
@@ -32711,13 +32747,13 @@
         <v>20</v>
       </c>
       <c r="F130" s="8" t="s">
-        <v>1545</v>
+        <v>1556</v>
       </c>
       <c r="G130" s="8" t="s">
-        <v>1545</v>
+        <v>1556</v>
       </c>
       <c r="H130" s="8" t="s">
-        <v>1546</v>
+        <v>1557</v>
       </c>
       <c r="I130" s="8">
         <v>6</v>
@@ -32740,7 +32776,7 @@
       <c r="O130" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P130" s="11" t="s">
+      <c r="P130" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q130" s="38"/>
@@ -32767,13 +32803,13 @@
         <v>20</v>
       </c>
       <c r="F131" s="8" t="s">
-        <v>1547</v>
+        <v>1558</v>
       </c>
       <c r="G131" s="8" t="s">
-        <v>1547</v>
+        <v>1558</v>
       </c>
       <c r="H131" s="8" t="s">
-        <v>1548</v>
+        <v>1559</v>
       </c>
       <c r="I131" s="8">
         <v>6</v>
@@ -32796,7 +32832,7 @@
       <c r="O131" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P131" s="11" t="s">
+      <c r="P131" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q131" s="38"/>
@@ -32823,16 +32859,16 @@
         <v>44</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>1549</v>
+        <v>1560</v>
       </c>
       <c r="G132" s="8" t="s">
-        <v>1549</v>
+        <v>1560</v>
       </c>
       <c r="H132" s="8" t="s">
-        <v>1550</v>
+        <v>1561</v>
       </c>
       <c r="I132" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J132" s="5" t="s">
         <v>24</v>
@@ -32852,7 +32888,7 @@
       <c r="O132" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P132" s="11" t="s">
+      <c r="P132" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q132" s="38"/>
@@ -32879,13 +32915,13 @@
         <v>30</v>
       </c>
       <c r="F133" s="8" t="s">
-        <v>1551</v>
+        <v>1562</v>
       </c>
       <c r="G133" s="8" t="s">
-        <v>1551</v>
+        <v>1562</v>
       </c>
       <c r="H133" s="8" t="s">
-        <v>1552</v>
+        <v>1563</v>
       </c>
       <c r="I133" s="8">
         <v>4</v>
@@ -32908,7 +32944,7 @@
       <c r="O133" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P133" s="11" t="s">
+      <c r="P133" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q133" s="38"/>
@@ -32935,16 +32971,16 @@
         <v>44</v>
       </c>
       <c r="F134" s="8" t="s">
-        <v>1553</v>
+        <v>1564</v>
       </c>
       <c r="G134" s="8" t="s">
-        <v>1553</v>
+        <v>1564</v>
       </c>
       <c r="H134" s="8" t="s">
-        <v>1554</v>
+        <v>1565</v>
       </c>
       <c r="I134" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J134" s="5" t="s">
         <v>24</v>
@@ -32964,7 +33000,7 @@
       <c r="O134" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P134" s="11" t="s">
+      <c r="P134" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q134" s="38"/>
@@ -32991,13 +33027,13 @@
         <v>30</v>
       </c>
       <c r="F135" s="8" t="s">
-        <v>1555</v>
+        <v>1566</v>
       </c>
       <c r="G135" s="8" t="s">
-        <v>1555</v>
+        <v>1566</v>
       </c>
       <c r="H135" s="8" t="s">
-        <v>1556</v>
+        <v>1567</v>
       </c>
       <c r="I135" s="8">
         <v>5</v>
@@ -33020,7 +33056,7 @@
       <c r="O135" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P135" s="11" t="s">
+      <c r="P135" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q135" s="38"/>
@@ -33047,13 +33083,13 @@
         <v>44</v>
       </c>
       <c r="F136" s="8" t="s">
-        <v>1557</v>
+        <v>1568</v>
       </c>
       <c r="G136" s="8" t="s">
-        <v>1557</v>
+        <v>1568</v>
       </c>
       <c r="H136" s="8" t="s">
-        <v>1558</v>
+        <v>1569</v>
       </c>
       <c r="I136" s="8">
         <v>3</v>
@@ -33076,7 +33112,7 @@
       <c r="O136" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P136" s="11" t="s">
+      <c r="P136" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q136" s="38"/>
@@ -33103,13 +33139,13 @@
         <v>20</v>
       </c>
       <c r="F137" s="8" t="s">
-        <v>1559</v>
+        <v>1570</v>
       </c>
       <c r="G137" s="8" t="s">
-        <v>1559</v>
+        <v>1570</v>
       </c>
       <c r="H137" s="8" t="s">
-        <v>1560</v>
+        <v>1571</v>
       </c>
       <c r="I137" s="8">
         <v>4</v>
@@ -33132,7 +33168,7 @@
       <c r="O137" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P137" s="11" t="s">
+      <c r="P137" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q137" s="38"/>
@@ -33159,13 +33195,13 @@
         <v>30</v>
       </c>
       <c r="F138" s="8" t="s">
-        <v>1561</v>
+        <v>1572</v>
       </c>
       <c r="G138" s="8" t="s">
-        <v>1561</v>
+        <v>1572</v>
       </c>
       <c r="H138" s="8" t="s">
-        <v>1562</v>
+        <v>1573</v>
       </c>
       <c r="I138" s="8">
         <v>4</v>
@@ -33188,7 +33224,7 @@
       <c r="O138" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P138" s="11" t="s">
+      <c r="P138" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q138" s="38"/>
@@ -33215,13 +33251,13 @@
         <v>44</v>
       </c>
       <c r="F139" s="8" t="s">
-        <v>1563</v>
+        <v>1574</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>1563</v>
+        <v>1574</v>
       </c>
       <c r="H139" s="8" t="s">
-        <v>1564</v>
+        <v>1575</v>
       </c>
       <c r="I139" s="8">
         <v>4</v>
@@ -33244,7 +33280,7 @@
       <c r="O139" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P139" s="11" t="s">
+      <c r="P139" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q139" s="38"/>
@@ -33271,13 +33307,13 @@
         <v>20</v>
       </c>
       <c r="F140" s="8" t="s">
-        <v>1565</v>
+        <v>1576</v>
       </c>
       <c r="G140" s="8" t="s">
-        <v>1565</v>
+        <v>1576</v>
       </c>
       <c r="H140" s="8" t="s">
-        <v>1566</v>
+        <v>1577</v>
       </c>
       <c r="I140" s="8">
         <v>5</v>
@@ -33300,7 +33336,7 @@
       <c r="O140" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P140" s="11" t="s">
+      <c r="P140" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q140" s="38"/>
@@ -33327,13 +33363,13 @@
         <v>20</v>
       </c>
       <c r="F141" s="8" t="s">
-        <v>1567</v>
+        <v>1578</v>
       </c>
       <c r="G141" s="8" t="s">
-        <v>1567</v>
+        <v>1578</v>
       </c>
       <c r="H141" s="8" t="s">
-        <v>1568</v>
+        <v>1579</v>
       </c>
       <c r="I141" s="8">
         <v>5</v>
@@ -33356,7 +33392,7 @@
       <c r="O141" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P141" s="11" t="s">
+      <c r="P141" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q141" s="38"/>
@@ -33383,16 +33419,16 @@
         <v>103</v>
       </c>
       <c r="F142" s="8" t="s">
-        <v>1569</v>
+        <v>1580</v>
       </c>
       <c r="G142" s="8" t="s">
-        <v>1569</v>
+        <v>1580</v>
       </c>
       <c r="H142" s="8" t="s">
-        <v>1570</v>
+        <v>1581</v>
       </c>
       <c r="I142" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J142" s="5" t="s">
         <v>24</v>
@@ -33412,7 +33448,7 @@
       <c r="O142" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P142" s="11" t="s">
+      <c r="P142" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q142" s="38"/>
@@ -33439,13 +33475,13 @@
         <v>103</v>
       </c>
       <c r="F143" s="8" t="s">
-        <v>1571</v>
+        <v>1582</v>
       </c>
       <c r="G143" s="8" t="s">
-        <v>1571</v>
+        <v>1582</v>
       </c>
       <c r="H143" s="8" t="s">
-        <v>1572</v>
+        <v>1583</v>
       </c>
       <c r="I143" s="8">
         <v>5</v>
@@ -33468,7 +33504,7 @@
       <c r="O143" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P143" s="11" t="s">
+      <c r="P143" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q143" s="38"/>
@@ -33495,13 +33531,13 @@
         <v>20</v>
       </c>
       <c r="F144" s="8" t="s">
-        <v>1573</v>
+        <v>1584</v>
       </c>
       <c r="G144" s="8" t="s">
-        <v>1574</v>
+        <v>1585</v>
       </c>
       <c r="H144" s="8" t="s">
-        <v>1575</v>
+        <v>1586</v>
       </c>
       <c r="I144" s="8">
         <v>5</v>
@@ -33524,7 +33560,7 @@
       <c r="O144" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P144" s="11" t="s">
+      <c r="P144" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q144" s="38"/>
@@ -33551,13 +33587,13 @@
         <v>44</v>
       </c>
       <c r="F145" s="8" t="s">
-        <v>1576</v>
+        <v>1587</v>
       </c>
       <c r="G145" s="8" t="s">
-        <v>1576</v>
+        <v>1587</v>
       </c>
       <c r="H145" s="8" t="s">
-        <v>1577</v>
+        <v>1588</v>
       </c>
       <c r="I145" s="8">
         <v>5</v>
@@ -33580,8 +33616,8 @@
       <c r="O145" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P145" s="11" t="s">
-        <v>24</v>
+      <c r="P145" s="23" t="s">
+        <v>1510</v>
       </c>
       <c r="Q145" s="38"/>
       <c r="R145" s="8"/>
@@ -33607,16 +33643,16 @@
         <v>20</v>
       </c>
       <c r="F146" s="8" t="s">
-        <v>1578</v>
+        <v>1589</v>
       </c>
       <c r="G146" s="8" t="s">
-        <v>1578</v>
+        <v>1589</v>
       </c>
       <c r="H146" s="8" t="s">
-        <v>1579</v>
+        <v>1590</v>
       </c>
       <c r="I146" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J146" s="5" t="s">
         <v>24</v>
@@ -33636,7 +33672,7 @@
       <c r="O146" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P146" s="11" t="s">
+      <c r="P146" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q146" s="38"/>
@@ -33663,13 +33699,13 @@
         <v>20</v>
       </c>
       <c r="F147" s="8" t="s">
-        <v>1580</v>
+        <v>1591</v>
       </c>
       <c r="G147" s="8" t="s">
-        <v>1581</v>
+        <v>1592</v>
       </c>
       <c r="H147" s="8" t="s">
-        <v>1582</v>
+        <v>1593</v>
       </c>
       <c r="I147" s="8">
         <v>5</v>
@@ -33692,7 +33728,7 @@
       <c r="O147" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P147" s="11" t="s">
+      <c r="P147" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q147" s="38"/>
@@ -33719,13 +33755,13 @@
         <v>20</v>
       </c>
       <c r="F148" s="8" t="s">
-        <v>1583</v>
+        <v>1594</v>
       </c>
       <c r="G148" s="8" t="s">
-        <v>1583</v>
+        <v>1594</v>
       </c>
       <c r="H148" s="8" t="s">
-        <v>1584</v>
+        <v>1595</v>
       </c>
       <c r="I148" s="8">
         <v>5</v>
@@ -33748,7 +33784,7 @@
       <c r="O148" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P148" s="11" t="s">
+      <c r="P148" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q148" s="38"/>
@@ -33773,13 +33809,13 @@
       </c>
       <c r="E149" s="7"/>
       <c r="F149" s="8" t="s">
-        <v>1585</v>
+        <v>1596</v>
       </c>
       <c r="G149" s="8" t="s">
-        <v>1585</v>
+        <v>1596</v>
       </c>
       <c r="H149" s="8" t="s">
-        <v>1586</v>
+        <v>1597</v>
       </c>
       <c r="I149" s="8">
         <v>5</v>
@@ -33802,7 +33838,7 @@
       <c r="O149" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P149" s="11" t="s">
+      <c r="P149" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q149" s="38"/>
@@ -33829,13 +33865,13 @@
         <v>20</v>
       </c>
       <c r="F150" s="8" t="s">
-        <v>1587</v>
+        <v>1598</v>
       </c>
       <c r="G150" s="8" t="s">
-        <v>1587</v>
+        <v>1598</v>
       </c>
       <c r="H150" s="8" t="s">
-        <v>1588</v>
+        <v>1599</v>
       </c>
       <c r="I150" s="8">
         <v>5</v>
@@ -33858,7 +33894,7 @@
       <c r="O150" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P150" s="11" t="s">
+      <c r="P150" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q150" s="38"/>
@@ -33876,22 +33912,22 @@
         <v>17</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>1589</v>
+        <v>1600</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>1590</v>
+        <v>1601</v>
       </c>
       <c r="E151" s="7" t="s">
         <v>30</v>
       </c>
       <c r="F151" s="8" t="s">
-        <v>1591</v>
+        <v>1602</v>
       </c>
       <c r="G151" s="8" t="s">
-        <v>1591</v>
+        <v>1602</v>
       </c>
       <c r="H151" s="8" t="s">
-        <v>1592</v>
+        <v>1603</v>
       </c>
       <c r="I151" s="8">
         <v>5</v>
@@ -33914,7 +33950,7 @@
       <c r="O151" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P151" s="11" t="s">
+      <c r="P151" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Q151" s="38"/>
@@ -33932,22 +33968,22 @@
         <v>17</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>1593</v>
+        <v>1604</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>1594</v>
+        <v>1605</v>
       </c>
       <c r="E152" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F152" s="8" t="s">
-        <v>1595</v>
+        <v>1606</v>
       </c>
       <c r="G152" s="8" t="s">
-        <v>1595</v>
+        <v>1606</v>
       </c>
       <c r="H152" s="8" t="s">
-        <v>1596</v>
+        <v>1607</v>
       </c>
       <c r="I152" s="8">
         <v>4</v>
@@ -33970,7 +34006,7 @@
       <c r="O152" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P152" s="5" t="s">
+      <c r="P152" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q152" s="38"/>
@@ -33991,19 +34027,19 @@
         <v>1123</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>1597</v>
+        <v>1608</v>
       </c>
       <c r="E153" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F153" s="8" t="s">
-        <v>1598</v>
+        <v>1609</v>
       </c>
       <c r="G153" s="8" t="s">
-        <v>1598</v>
+        <v>1609</v>
       </c>
       <c r="H153" s="8" t="s">
-        <v>1599</v>
+        <v>1610</v>
       </c>
       <c r="I153" s="8">
         <v>3</v>
@@ -34026,8 +34062,8 @@
       <c r="O153" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P153" s="5" t="s">
-        <v>24</v>
+      <c r="P153" s="22" t="s">
+        <v>1510</v>
       </c>
       <c r="Q153" s="38"/>
       <c r="R153" s="8"/>
@@ -34047,19 +34083,19 @@
         <v>1123</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>1600</v>
+        <v>1611</v>
       </c>
       <c r="E154" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F154" s="8" t="s">
-        <v>1601</v>
+        <v>1612</v>
       </c>
       <c r="G154" s="8" t="s">
-        <v>1601</v>
+        <v>1612</v>
       </c>
       <c r="H154" s="8" t="s">
-        <v>1602</v>
+        <v>1613</v>
       </c>
       <c r="I154" s="8">
         <v>5</v>
@@ -34082,7 +34118,7 @@
       <c r="O154" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P154" s="5" t="s">
+      <c r="P154" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q154" s="38"/>
@@ -34103,19 +34139,19 @@
         <v>1108</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>1603</v>
+        <v>1614</v>
       </c>
       <c r="E155" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F155" s="8" t="s">
-        <v>1604</v>
+        <v>1615</v>
       </c>
       <c r="G155" s="8" t="s">
-        <v>1604</v>
+        <v>1615</v>
       </c>
       <c r="H155" s="8" t="s">
-        <v>1605</v>
+        <v>1616</v>
       </c>
       <c r="I155" s="8">
         <v>5</v>
@@ -34138,8 +34174,8 @@
       <c r="O155" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P155" s="5" t="s">
-        <v>24</v>
+      <c r="P155" s="22" t="s">
+        <v>1510</v>
       </c>
       <c r="Q155" s="38"/>
       <c r="R155" s="8"/>
@@ -34156,22 +34192,22 @@
         <v>17</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>1593</v>
+        <v>1604</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>1606</v>
+        <v>1617</v>
       </c>
       <c r="E156" s="7" t="s">
         <v>103</v>
       </c>
       <c r="F156" s="8" t="s">
-        <v>1607</v>
+        <v>1618</v>
       </c>
       <c r="G156" s="8" t="s">
-        <v>1607</v>
+        <v>1618</v>
       </c>
       <c r="H156" s="8" t="s">
-        <v>1608</v>
+        <v>1619</v>
       </c>
       <c r="I156" s="8">
         <v>5</v>
@@ -34194,7 +34230,7 @@
       <c r="O156" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P156" s="5" t="s">
+      <c r="P156" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q156" s="38"/>
@@ -34212,25 +34248,25 @@
         <v>17</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>1609</v>
+        <v>1620</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>1610</v>
+        <v>1621</v>
       </c>
       <c r="E157" s="7" t="s">
         <v>103</v>
       </c>
       <c r="F157" s="8" t="s">
-        <v>1611</v>
+        <v>1622</v>
       </c>
       <c r="G157" s="8" t="s">
-        <v>1611</v>
+        <v>1622</v>
       </c>
       <c r="H157" s="8" t="s">
-        <v>1612</v>
+        <v>1623</v>
       </c>
       <c r="I157" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J157" s="5" t="s">
         <v>24</v>
@@ -34250,7 +34286,7 @@
       <c r="O157" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P157" s="5" t="s">
+      <c r="P157" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q157" s="38"/>
@@ -34268,25 +34304,25 @@
         <v>17</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>1609</v>
+        <v>1620</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>1610</v>
+        <v>1621</v>
       </c>
       <c r="E158" s="7" t="s">
         <v>103</v>
       </c>
       <c r="F158" s="8" t="s">
-        <v>1613</v>
+        <v>1624</v>
       </c>
       <c r="G158" s="8" t="s">
-        <v>1613</v>
+        <v>1624</v>
       </c>
       <c r="H158" s="8" t="s">
-        <v>1614</v>
+        <v>1625</v>
       </c>
       <c r="I158" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J158" s="5" t="s">
         <v>24</v>
@@ -34306,7 +34342,7 @@
       <c r="O158" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P158" s="5" t="s">
+      <c r="P158" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q158" s="38"/>
@@ -34324,22 +34360,22 @@
         <v>17</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>1609</v>
+        <v>1620</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>1610</v>
+        <v>1621</v>
       </c>
       <c r="E159" s="7" t="s">
         <v>103</v>
       </c>
       <c r="F159" s="8" t="s">
-        <v>1615</v>
+        <v>1626</v>
       </c>
       <c r="G159" s="8" t="s">
-        <v>1615</v>
+        <v>1626</v>
       </c>
       <c r="H159" s="8" t="s">
-        <v>1616</v>
+        <v>1627</v>
       </c>
       <c r="I159" s="8">
         <v>4</v>
@@ -34362,7 +34398,7 @@
       <c r="O159" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P159" s="5" t="s">
+      <c r="P159" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q159" s="38"/>
@@ -34380,22 +34416,22 @@
         <v>17</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>1609</v>
+        <v>1620</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>1610</v>
+        <v>1621</v>
       </c>
       <c r="E160" s="7" t="s">
         <v>103</v>
       </c>
       <c r="F160" s="8" t="s">
-        <v>1617</v>
+        <v>1628</v>
       </c>
       <c r="G160" s="8" t="s">
-        <v>1617</v>
+        <v>1628</v>
       </c>
       <c r="H160" s="8" t="s">
-        <v>1618</v>
+        <v>1629</v>
       </c>
       <c r="I160" s="8">
         <v>5</v>
@@ -34418,7 +34454,7 @@
       <c r="O160" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P160" s="5" t="s">
+      <c r="P160" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q160" s="38"/>
@@ -34436,22 +34472,22 @@
         <v>17</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>1619</v>
+        <v>1630</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>1620</v>
+        <v>1631</v>
       </c>
       <c r="E161" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F161" s="8" t="s">
-        <v>1621</v>
+        <v>1632</v>
       </c>
       <c r="G161" s="8" t="s">
-        <v>1621</v>
+        <v>1632</v>
       </c>
       <c r="H161" s="8" t="s">
-        <v>1622</v>
+        <v>1633</v>
       </c>
       <c r="I161" s="8">
         <v>5</v>
@@ -34474,7 +34510,7 @@
       <c r="O161" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P161" s="5" t="s">
+      <c r="P161" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q161" s="38"/>
@@ -34492,22 +34528,22 @@
         <v>17</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>1623</v>
+        <v>1634</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>1624</v>
+        <v>1635</v>
       </c>
       <c r="E162" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F162" s="8" t="s">
-        <v>1625</v>
+        <v>1636</v>
       </c>
       <c r="G162" s="8" t="s">
-        <v>1625</v>
+        <v>1636</v>
       </c>
       <c r="H162" s="8" t="s">
-        <v>1626</v>
+        <v>1637</v>
       </c>
       <c r="I162" s="8">
         <v>5</v>
@@ -34530,7 +34566,7 @@
       <c r="O162" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P162" s="5" t="s">
+      <c r="P162" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q162" s="38"/>
@@ -34548,22 +34584,22 @@
         <v>17</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>1627</v>
+        <v>1638</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>1628</v>
+        <v>1639</v>
       </c>
       <c r="E163" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F163" s="8" t="s">
-        <v>1629</v>
+        <v>1640</v>
       </c>
       <c r="G163" s="8" t="s">
-        <v>1629</v>
+        <v>1640</v>
       </c>
       <c r="H163" s="8" t="s">
-        <v>1630</v>
+        <v>1641</v>
       </c>
       <c r="I163" s="8">
         <v>5</v>
@@ -34586,7 +34622,7 @@
       <c r="O163" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P163" s="5" t="s">
+      <c r="P163" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q163" s="38"/>
@@ -34604,22 +34640,22 @@
         <v>17</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>1631</v>
+        <v>1642</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>1632</v>
+        <v>1643</v>
       </c>
       <c r="E164" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F164" s="8" t="s">
-        <v>1633</v>
+        <v>1644</v>
       </c>
       <c r="G164" s="8" t="s">
-        <v>1634</v>
+        <v>1645</v>
       </c>
       <c r="H164" s="8" t="s">
-        <v>1635</v>
+        <v>1646</v>
       </c>
       <c r="I164" s="8">
         <v>4</v>
@@ -34642,7 +34678,7 @@
       <c r="O164" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P164" s="5" t="s">
+      <c r="P164" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q164" s="38"/>
@@ -34663,19 +34699,19 @@
         <v>88</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>1636</v>
+        <v>1647</v>
       </c>
       <c r="E165" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F165" s="8" t="s">
-        <v>1637</v>
+        <v>1648</v>
       </c>
       <c r="G165" s="8" t="s">
-        <v>1637</v>
+        <v>1648</v>
       </c>
       <c r="H165" s="8" t="s">
-        <v>1638</v>
+        <v>1649</v>
       </c>
       <c r="I165" s="8">
         <v>5</v>
@@ -34698,7 +34734,7 @@
       <c r="O165" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P165" s="5" t="s">
+      <c r="P165" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q165" s="38"/>
@@ -34719,22 +34755,22 @@
         <v>88</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>1636</v>
+        <v>1647</v>
       </c>
       <c r="E166" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F166" s="8" t="s">
-        <v>1639</v>
+        <v>1650</v>
       </c>
       <c r="G166" s="8" t="s">
-        <v>1639</v>
+        <v>1650</v>
       </c>
       <c r="H166" s="8" t="s">
-        <v>1640</v>
+        <v>1651</v>
       </c>
       <c r="I166" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J166" s="5" t="s">
         <v>24</v>
@@ -34754,8 +34790,8 @@
       <c r="O166" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P166" s="5" t="s">
-        <v>24</v>
+      <c r="P166" s="22" t="s">
+        <v>1510</v>
       </c>
       <c r="Q166" s="38"/>
       <c r="R166" s="8"/>
@@ -34775,19 +34811,19 @@
         <v>1467</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>1641</v>
+        <v>1652</v>
       </c>
       <c r="E167" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F167" s="8" t="s">
-        <v>1642</v>
+        <v>1653</v>
       </c>
       <c r="G167" s="8" t="s">
-        <v>1642</v>
+        <v>1653</v>
       </c>
       <c r="H167" s="8" t="s">
-        <v>1643</v>
+        <v>1654</v>
       </c>
       <c r="I167" s="8">
         <v>5</v>
@@ -34810,7 +34846,7 @@
       <c r="O167" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P167" s="5" t="s">
+      <c r="P167" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q167" s="38"/>
@@ -34828,22 +34864,22 @@
         <v>17</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>1644</v>
+        <v>1655</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>1645</v>
+        <v>1656</v>
       </c>
       <c r="E168" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F168" s="8" t="s">
-        <v>1646</v>
+        <v>1657</v>
       </c>
       <c r="G168" s="8" t="s">
-        <v>1646</v>
+        <v>1657</v>
       </c>
       <c r="H168" s="8" t="s">
-        <v>1647</v>
+        <v>1658</v>
       </c>
       <c r="I168" s="8">
         <v>7</v>
@@ -34866,7 +34902,7 @@
       <c r="O168" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P168" s="5" t="s">
+      <c r="P168" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q168" s="38"/>
@@ -34884,22 +34920,22 @@
         <v>17</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>1648</v>
+        <v>1659</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>1649</v>
+        <v>1660</v>
       </c>
       <c r="E169" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F169" s="9" t="s">
-        <v>1650</v>
+        <v>1661</v>
       </c>
       <c r="G169" s="8" t="s">
-        <v>1651</v>
+        <v>1662</v>
       </c>
       <c r="H169" s="8" t="s">
-        <v>1651</v>
+        <v>1662</v>
       </c>
       <c r="I169" s="8">
         <v>5</v>
@@ -34922,7 +34958,7 @@
       <c r="O169" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P169" s="5" t="s">
+      <c r="P169" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q169" s="38"/>
@@ -34940,22 +34976,22 @@
         <v>17</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>1652</v>
+        <v>1663</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>1653</v>
+        <v>1664</v>
       </c>
       <c r="E170" s="7" t="s">
         <v>103</v>
       </c>
       <c r="F170" s="8" t="s">
-        <v>1654</v>
+        <v>1665</v>
       </c>
       <c r="G170" s="8" t="s">
-        <v>1654</v>
+        <v>1665</v>
       </c>
       <c r="H170" s="8" t="s">
-        <v>1655</v>
+        <v>1666</v>
       </c>
       <c r="I170" s="8">
         <v>5</v>
@@ -34978,7 +35014,7 @@
       <c r="O170" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P170" s="5" t="s">
+      <c r="P170" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q170" s="38"/>
@@ -34999,19 +35035,19 @@
         <v>112</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>1656</v>
+        <v>1667</v>
       </c>
       <c r="E171" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F171" s="8" t="s">
-        <v>1657</v>
+        <v>1668</v>
       </c>
       <c r="G171" s="8" t="s">
-        <v>1657</v>
+        <v>1668</v>
       </c>
       <c r="H171" s="8" t="s">
-        <v>1658</v>
+        <v>1669</v>
       </c>
       <c r="I171" s="8">
         <v>5</v>
@@ -35034,7 +35070,7 @@
       <c r="O171" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P171" s="5" t="s">
+      <c r="P171" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q171" s="38"/>
@@ -35052,22 +35088,22 @@
         <v>17</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>1659</v>
+        <v>1670</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>1660</v>
+        <v>1671</v>
       </c>
       <c r="E172" s="7" t="s">
         <v>644</v>
       </c>
       <c r="F172" s="8" t="s">
-        <v>1661</v>
+        <v>1672</v>
       </c>
       <c r="G172" s="8" t="s">
-        <v>1661</v>
+        <v>1672</v>
       </c>
       <c r="H172" s="8" t="s">
-        <v>1662</v>
+        <v>1673</v>
       </c>
       <c r="I172" s="8">
         <v>5</v>
@@ -35090,7 +35126,7 @@
       <c r="O172" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P172" s="5" t="s">
+      <c r="P172" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q172" s="38"/>
@@ -35108,22 +35144,22 @@
         <v>17</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>1663</v>
+        <v>1674</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>1664</v>
+        <v>1675</v>
       </c>
       <c r="E173" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F173" s="8" t="s">
-        <v>1665</v>
+        <v>1676</v>
       </c>
       <c r="G173" s="8" t="s">
-        <v>1665</v>
+        <v>1676</v>
       </c>
       <c r="H173" s="8" t="s">
-        <v>1666</v>
+        <v>1677</v>
       </c>
       <c r="I173" s="8">
         <v>5</v>
@@ -35146,7 +35182,7 @@
       <c r="O173" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P173" s="5" t="s">
+      <c r="P173" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q173" s="38"/>
@@ -35167,22 +35203,22 @@
         <v>170</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>1667</v>
+        <v>1678</v>
       </c>
       <c r="E174" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F174" s="8" t="s">
-        <v>1668</v>
+        <v>1679</v>
       </c>
       <c r="G174" s="8" t="s">
-        <v>1668</v>
+        <v>1679</v>
       </c>
       <c r="H174" s="8" t="s">
-        <v>1669</v>
+        <v>1680</v>
       </c>
       <c r="I174" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J174" s="5" t="s">
         <v>24</v>
@@ -35202,7 +35238,7 @@
       <c r="O174" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P174" s="5" t="s">
+      <c r="P174" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q174" s="38"/>
@@ -35223,19 +35259,19 @@
         <v>170</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>1667</v>
+        <v>1678</v>
       </c>
       <c r="E175" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F175" s="8" t="s">
-        <v>1670</v>
+        <v>1681</v>
       </c>
       <c r="G175" s="8" t="s">
-        <v>1670</v>
+        <v>1681</v>
       </c>
       <c r="H175" s="8" t="s">
-        <v>1671</v>
+        <v>1682</v>
       </c>
       <c r="I175" s="8">
         <v>6</v>
@@ -35258,7 +35294,7 @@
       <c r="O175" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P175" s="5" t="s">
+      <c r="P175" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q175" s="38"/>
@@ -35279,19 +35315,19 @@
         <v>170</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>1667</v>
+        <v>1678</v>
       </c>
       <c r="E176" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F176" s="8" t="s">
-        <v>1672</v>
+        <v>1683</v>
       </c>
       <c r="G176" s="8" t="s">
-        <v>1672</v>
+        <v>1683</v>
       </c>
       <c r="H176" s="8" t="s">
-        <v>1673</v>
+        <v>1684</v>
       </c>
       <c r="I176" s="8">
         <v>4</v>
@@ -35314,7 +35350,7 @@
       <c r="O176" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P176" s="5" t="s">
+      <c r="P176" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q176" s="38"/>
@@ -35335,22 +35371,22 @@
         <v>170</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>1667</v>
+        <v>1678</v>
       </c>
       <c r="E177" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F177" s="8" t="s">
-        <v>1674</v>
+        <v>1685</v>
       </c>
       <c r="G177" s="8" t="s">
-        <v>1674</v>
+        <v>1685</v>
       </c>
       <c r="H177" s="8" t="s">
-        <v>1675</v>
+        <v>1686</v>
       </c>
       <c r="I177" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J177" s="5" t="s">
         <v>24</v>
@@ -35370,7 +35406,7 @@
       <c r="O177" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P177" s="5" t="s">
+      <c r="P177" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q177" s="38"/>
@@ -35388,22 +35424,22 @@
         <v>17</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>1676</v>
+        <v>1687</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>1677</v>
+        <v>1688</v>
       </c>
       <c r="E178" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F178" s="8" t="s">
-        <v>1678</v>
+        <v>1689</v>
       </c>
       <c r="G178" s="8" t="s">
-        <v>1678</v>
+        <v>1689</v>
       </c>
       <c r="H178" s="8" t="s">
-        <v>1679</v>
+        <v>1690</v>
       </c>
       <c r="I178" s="8">
         <v>6</v>
@@ -35426,7 +35462,7 @@
       <c r="O178" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P178" s="5" t="s">
+      <c r="P178" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q178" s="38"/>
@@ -35444,22 +35480,22 @@
         <v>17</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>1680</v>
+        <v>1691</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>1681</v>
+        <v>1692</v>
       </c>
       <c r="E179" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F179" s="8" t="s">
-        <v>1682</v>
+        <v>1693</v>
       </c>
       <c r="G179" s="8" t="s">
-        <v>1682</v>
+        <v>1693</v>
       </c>
       <c r="H179" s="8" t="s">
-        <v>1683</v>
+        <v>1694</v>
       </c>
       <c r="I179" s="8">
         <v>5</v>
@@ -35482,8 +35518,8 @@
       <c r="O179" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P179" s="5" t="s">
-        <v>24</v>
+      <c r="P179" s="22" t="s">
+        <v>34</v>
       </c>
       <c r="Q179" s="38"/>
       <c r="R179" s="8"/>
@@ -35500,22 +35536,22 @@
         <v>17</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>1684</v>
+        <v>1695</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>1685</v>
+        <v>1696</v>
       </c>
       <c r="E180" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F180" s="8" t="s">
-        <v>1686</v>
+        <v>1697</v>
       </c>
       <c r="G180" s="8" t="s">
-        <v>1686</v>
+        <v>1697</v>
       </c>
       <c r="H180" s="8" t="s">
-        <v>1687</v>
+        <v>1698</v>
       </c>
       <c r="I180" s="8">
         <v>5</v>
@@ -35538,7 +35574,7 @@
       <c r="O180" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P180" s="5" t="s">
+      <c r="P180" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q180" s="38"/>
@@ -35556,22 +35592,22 @@
         <v>17</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>1688</v>
+        <v>1699</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>1689</v>
+        <v>1700</v>
       </c>
       <c r="E181" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F181" s="8" t="s">
-        <v>1690</v>
+        <v>1701</v>
       </c>
       <c r="G181" s="8" t="s">
-        <v>1690</v>
+        <v>1701</v>
       </c>
       <c r="H181" s="8" t="s">
-        <v>1691</v>
+        <v>1702</v>
       </c>
       <c r="I181" s="8">
         <v>5</v>
@@ -35594,7 +35630,7 @@
       <c r="O181" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P181" s="5" t="s">
+      <c r="P181" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q181" s="38"/>
@@ -35612,22 +35648,22 @@
         <v>17</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>1688</v>
+        <v>1699</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>1689</v>
+        <v>1700</v>
       </c>
       <c r="E182" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F182" s="21" t="s">
-        <v>1692</v>
+        <v>1703</v>
       </c>
       <c r="G182" s="8" t="s">
-        <v>1692</v>
+        <v>1703</v>
       </c>
       <c r="H182" s="8" t="s">
-        <v>1693</v>
+        <v>1704</v>
       </c>
       <c r="I182" s="8">
         <v>4</v>
@@ -35650,7 +35686,7 @@
       <c r="O182" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P182" s="5" t="s">
+      <c r="P182" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q182" s="38"/>
@@ -35671,19 +35707,19 @@
         <v>58</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>1694</v>
+        <v>1705</v>
       </c>
       <c r="E183" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F183" s="8" t="s">
-        <v>1695</v>
+        <v>1706</v>
       </c>
       <c r="G183" s="8" t="s">
-        <v>1696</v>
+        <v>1707</v>
       </c>
       <c r="H183" s="8" t="s">
-        <v>1697</v>
+        <v>1708</v>
       </c>
       <c r="I183" s="8">
         <v>4</v>
@@ -35706,7 +35742,7 @@
       <c r="O183" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P183" s="5" t="s">
+      <c r="P183" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q183" s="38"/>
@@ -35724,22 +35760,22 @@
         <v>17</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>1698</v>
+        <v>1709</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>1699</v>
+        <v>1710</v>
       </c>
       <c r="E184" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F184" s="8" t="s">
-        <v>1700</v>
+        <v>1711</v>
       </c>
       <c r="G184" s="8" t="s">
-        <v>1700</v>
+        <v>1711</v>
       </c>
       <c r="H184" s="8" t="s">
-        <v>1701</v>
+        <v>1712</v>
       </c>
       <c r="I184" s="8">
         <v>5</v>
@@ -35762,7 +35798,7 @@
       <c r="O184" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P184" s="5" t="s">
+      <c r="P184" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q184" s="38"/>
@@ -35780,22 +35816,22 @@
         <v>17</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>1698</v>
+        <v>1709</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>1699</v>
+        <v>1710</v>
       </c>
       <c r="E185" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F185" s="8" t="s">
-        <v>1702</v>
+        <v>1713</v>
       </c>
       <c r="G185" s="8" t="s">
-        <v>1702</v>
+        <v>1713</v>
       </c>
       <c r="H185" s="8" t="s">
-        <v>1703</v>
+        <v>1714</v>
       </c>
       <c r="I185" s="8">
         <v>5</v>
@@ -35818,7 +35854,7 @@
       <c r="O185" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P185" s="5" t="s">
+      <c r="P185" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q185" s="38"/>
@@ -35836,22 +35872,22 @@
         <v>17</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>1698</v>
+        <v>1709</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>1699</v>
+        <v>1710</v>
       </c>
       <c r="E186" s="7" t="s">
         <v>206</v>
       </c>
       <c r="F186" s="8" t="s">
-        <v>1704</v>
+        <v>1715</v>
       </c>
       <c r="G186" s="8" t="s">
-        <v>1704</v>
+        <v>1715</v>
       </c>
       <c r="H186" s="8" t="s">
-        <v>1705</v>
+        <v>1716</v>
       </c>
       <c r="I186" s="8">
         <v>6</v>
@@ -35874,7 +35910,7 @@
       <c r="O186" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P186" s="5" t="s">
+      <c r="P186" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q186" s="38"/>
@@ -35892,22 +35928,22 @@
         <v>17</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>1706</v>
+        <v>1717</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>1707</v>
+        <v>1718</v>
       </c>
       <c r="E187" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F187" s="8" t="s">
-        <v>1708</v>
+        <v>1719</v>
       </c>
       <c r="G187" s="8" t="s">
-        <v>1708</v>
+        <v>1719</v>
       </c>
       <c r="H187" s="8" t="s">
-        <v>1709</v>
+        <v>1720</v>
       </c>
       <c r="I187" s="8">
         <v>5</v>
@@ -35930,7 +35966,7 @@
       <c r="O187" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P187" s="5" t="s">
+      <c r="P187" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q187" s="38"/>
@@ -35948,22 +35984,22 @@
         <v>17</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>1710</v>
+        <v>1721</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>1711</v>
+        <v>1722</v>
       </c>
       <c r="E188" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F188" s="8" t="s">
-        <v>1712</v>
+        <v>1723</v>
       </c>
       <c r="G188" s="8" t="s">
-        <v>1712</v>
+        <v>1723</v>
       </c>
       <c r="H188" s="8" t="s">
-        <v>1713</v>
+        <v>1724</v>
       </c>
       <c r="I188" s="8">
         <v>12</v>
@@ -35986,7 +36022,7 @@
       <c r="O188" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P188" s="5" t="s">
+      <c r="P188" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q188" s="38"/>
@@ -36007,19 +36043,19 @@
         <v>189</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>1714</v>
+        <v>1725</v>
       </c>
       <c r="E189" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F189" s="8" t="s">
-        <v>1715</v>
+        <v>1726</v>
       </c>
       <c r="G189" s="8" t="s">
-        <v>1715</v>
+        <v>1726</v>
       </c>
       <c r="H189" s="8" t="s">
-        <v>1716</v>
+        <v>1727</v>
       </c>
       <c r="I189" s="8">
         <v>5</v>
@@ -36042,7 +36078,7 @@
       <c r="O189" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P189" s="5" t="s">
+      <c r="P189" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q189" s="38"/>
@@ -36060,22 +36096,22 @@
         <v>17</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>1717</v>
+        <v>1728</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>1718</v>
+        <v>1729</v>
       </c>
       <c r="E190" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F190" s="8" t="s">
-        <v>1719</v>
+        <v>1730</v>
       </c>
       <c r="G190" s="8" t="s">
-        <v>1719</v>
+        <v>1730</v>
       </c>
       <c r="H190" s="8" t="s">
-        <v>1720</v>
+        <v>1731</v>
       </c>
       <c r="I190" s="8">
         <v>5</v>
@@ -36098,7 +36134,7 @@
       <c r="O190" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P190" s="5" t="s">
+      <c r="P190" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q190" s="38"/>
@@ -36116,25 +36152,25 @@
         <v>17</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>1721</v>
+        <v>1732</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>1722</v>
+        <v>1733</v>
       </c>
       <c r="E191" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F191" s="8" t="s">
-        <v>1723</v>
+        <v>1734</v>
       </c>
       <c r="G191" s="8" t="s">
-        <v>1724</v>
+        <v>1735</v>
       </c>
       <c r="H191" s="8" t="s">
-        <v>1725</v>
+        <v>1736</v>
       </c>
       <c r="I191" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J191" s="5" t="s">
         <v>24</v>
@@ -36154,7 +36190,7 @@
       <c r="O191" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P191" s="5" t="s">
+      <c r="P191" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q191" s="38"/>
@@ -36169,22 +36205,22 @@
         <v>17</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>1726</v>
+        <v>1737</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>1727</v>
+        <v>1738</v>
       </c>
       <c r="E192" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F192" s="8" t="s">
-        <v>1728</v>
+        <v>1739</v>
       </c>
       <c r="G192" s="8" t="s">
-        <v>1728</v>
+        <v>1739</v>
       </c>
       <c r="H192" s="8" t="s">
-        <v>1729</v>
+        <v>1740</v>
       </c>
       <c r="I192" s="8">
         <v>5</v>
@@ -36207,7 +36243,7 @@
       <c r="O192" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P192" s="5" t="s">
+      <c r="P192" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q192" s="38"/>
@@ -36222,22 +36258,22 @@
         <v>17</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>1726</v>
+        <v>1737</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>1727</v>
+        <v>1738</v>
       </c>
       <c r="E193" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F193" s="8" t="s">
-        <v>1730</v>
+        <v>1741</v>
       </c>
       <c r="G193" s="8" t="s">
-        <v>1730</v>
+        <v>1741</v>
       </c>
       <c r="H193" s="8" t="s">
-        <v>1731</v>
+        <v>1742</v>
       </c>
       <c r="I193" s="8">
         <v>4</v>
@@ -36260,7 +36296,7 @@
       <c r="O193" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P193" s="5" t="s">
+      <c r="P193" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q193" s="38"/>
@@ -36275,22 +36311,22 @@
         <v>17</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>1732</v>
+        <v>1743</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>1733</v>
+        <v>1744</v>
       </c>
       <c r="E194" s="7" t="s">
         <v>30</v>
       </c>
       <c r="F194" s="8" t="s">
-        <v>1734</v>
+        <v>1745</v>
       </c>
       <c r="G194" s="8" t="s">
-        <v>1734</v>
+        <v>1745</v>
       </c>
       <c r="H194" s="8" t="s">
-        <v>1735</v>
+        <v>1746</v>
       </c>
       <c r="I194" s="8">
         <v>3</v>
@@ -36313,7 +36349,7 @@
       <c r="O194" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P194" s="5" t="s">
+      <c r="P194" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q194" s="38"/>
@@ -36328,22 +36364,22 @@
         <v>17</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>1732</v>
+        <v>1743</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>1733</v>
+        <v>1744</v>
       </c>
       <c r="E195" s="7" t="s">
         <v>30</v>
       </c>
       <c r="F195" s="8" t="s">
-        <v>1736</v>
+        <v>1747</v>
       </c>
       <c r="G195" s="8" t="s">
-        <v>1736</v>
+        <v>1747</v>
       </c>
       <c r="H195" s="8" t="s">
-        <v>1737</v>
+        <v>1748</v>
       </c>
       <c r="I195" s="8">
         <v>3</v>
@@ -36366,7 +36402,7 @@
       <c r="O195" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P195" s="5" t="s">
+      <c r="P195" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q195" s="38"/>
@@ -36381,22 +36417,22 @@
         <v>17</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>1738</v>
+        <v>1749</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>1739</v>
+        <v>1750</v>
       </c>
       <c r="E196" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F196" s="8" t="s">
-        <v>1740</v>
+        <v>1751</v>
       </c>
       <c r="G196" s="8" t="s">
-        <v>1740</v>
+        <v>1751</v>
       </c>
       <c r="H196" s="8" t="s">
-        <v>1741</v>
+        <v>1752</v>
       </c>
       <c r="I196" s="8">
         <v>4</v>
@@ -36419,7 +36455,7 @@
       <c r="O196" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P196" s="5" t="s">
+      <c r="P196" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q196" s="38"/>
@@ -36434,25 +36470,25 @@
         <v>17</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>1742</v>
+        <v>1753</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>1743</v>
+        <v>1754</v>
       </c>
       <c r="E197" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F197" s="8" t="s">
-        <v>1744</v>
+        <v>1755</v>
       </c>
       <c r="G197" s="8" t="s">
-        <v>1744</v>
+        <v>1755</v>
       </c>
       <c r="H197" s="8" t="s">
-        <v>1745</v>
+        <v>1756</v>
       </c>
       <c r="I197" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J197" s="5" t="s">
         <v>24</v>
@@ -36472,7 +36508,7 @@
       <c r="O197" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P197" s="5" t="s">
+      <c r="P197" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q197" s="38"/>
@@ -36487,22 +36523,22 @@
         <v>17</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>1746</v>
+        <v>1757</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>1747</v>
+        <v>1758</v>
       </c>
       <c r="E198" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F198" s="8" t="s">
-        <v>1748</v>
+        <v>1759</v>
       </c>
       <c r="G198" s="8" t="s">
-        <v>1748</v>
+        <v>1759</v>
       </c>
       <c r="H198" s="8" t="s">
-        <v>1749</v>
+        <v>1760</v>
       </c>
       <c r="I198" s="8">
         <v>4</v>
@@ -36525,7 +36561,7 @@
       <c r="O198" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P198" s="5" t="s">
+      <c r="P198" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q198" s="38"/>
@@ -36540,22 +36576,22 @@
         <v>17</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>1750</v>
+        <v>1761</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>1751</v>
+        <v>1762</v>
       </c>
       <c r="E199" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F199" s="8" t="s">
-        <v>1752</v>
+        <v>1763</v>
       </c>
       <c r="G199" s="8" t="s">
-        <v>1752</v>
+        <v>1763</v>
       </c>
       <c r="H199" s="8" t="s">
-        <v>1753</v>
+        <v>1764</v>
       </c>
       <c r="I199" s="8">
         <v>4</v>
@@ -36578,7 +36614,7 @@
       <c r="O199" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P199" s="5" t="s">
+      <c r="P199" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q199" s="38"/>
@@ -36593,25 +36629,25 @@
         <v>17</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>1754</v>
+        <v>1765</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>1755</v>
+        <v>1766</v>
       </c>
       <c r="E200" s="7" t="s">
         <v>103</v>
       </c>
       <c r="F200" s="8" t="s">
-        <v>1756</v>
+        <v>1767</v>
       </c>
       <c r="G200" s="8" t="s">
-        <v>1756</v>
+        <v>1767</v>
       </c>
       <c r="H200" s="8" t="s">
-        <v>1757</v>
+        <v>1768</v>
       </c>
       <c r="I200" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J200" s="5" t="s">
         <v>24</v>
@@ -36631,7 +36667,7 @@
       <c r="O200" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P200" s="5" t="s">
+      <c r="P200" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q200" s="38"/>
@@ -36646,25 +36682,25 @@
         <v>17</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>1754</v>
+        <v>1765</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>1755</v>
+        <v>1766</v>
       </c>
       <c r="E201" s="7" t="s">
         <v>103</v>
       </c>
       <c r="F201" s="8" t="s">
-        <v>1758</v>
+        <v>1769</v>
       </c>
       <c r="G201" s="8" t="s">
-        <v>1758</v>
+        <v>1769</v>
       </c>
       <c r="H201" s="8" t="s">
-        <v>1759</v>
+        <v>1770</v>
       </c>
       <c r="I201" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J201" s="5" t="s">
         <v>24</v>
@@ -36684,7 +36720,7 @@
       <c r="O201" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P201" s="5" t="s">
+      <c r="P201" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q201" s="38"/>
@@ -36699,25 +36735,25 @@
         <v>17</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>1754</v>
+        <v>1765</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>1755</v>
+        <v>1766</v>
       </c>
       <c r="E202" s="7" t="s">
         <v>103</v>
       </c>
       <c r="F202" s="8" t="s">
-        <v>1760</v>
+        <v>1771</v>
       </c>
       <c r="G202" s="8" t="s">
-        <v>1760</v>
+        <v>1771</v>
       </c>
       <c r="H202" s="8" t="s">
-        <v>1761</v>
+        <v>1772</v>
       </c>
       <c r="I202" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J202" s="5" t="s">
         <v>24</v>
@@ -36737,7 +36773,7 @@
       <c r="O202" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P202" s="5" t="s">
+      <c r="P202" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q202" s="38"/>
@@ -36752,25 +36788,25 @@
         <v>17</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>1754</v>
+        <v>1765</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>1755</v>
+        <v>1766</v>
       </c>
       <c r="E203" s="7" t="s">
         <v>103</v>
       </c>
       <c r="F203" s="8" t="s">
-        <v>1762</v>
+        <v>1773</v>
       </c>
       <c r="G203" s="8" t="s">
-        <v>1762</v>
+        <v>1773</v>
       </c>
       <c r="H203" s="8" t="s">
-        <v>1763</v>
+        <v>1774</v>
       </c>
       <c r="I203" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J203" s="5" t="s">
         <v>24</v>
@@ -36790,7 +36826,7 @@
       <c r="O203" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P203" s="5" t="s">
+      <c r="P203" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q203" s="38"/>
@@ -36808,19 +36844,19 @@
         <v>383</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>1764</v>
+        <v>1775</v>
       </c>
       <c r="E204" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F204" s="8" t="s">
-        <v>1765</v>
+        <v>1776</v>
       </c>
       <c r="G204" s="8" t="s">
-        <v>1765</v>
+        <v>1776</v>
       </c>
       <c r="H204" s="8" t="s">
-        <v>1766</v>
+        <v>1777</v>
       </c>
       <c r="I204" s="8">
         <v>4</v>
@@ -36843,7 +36879,7 @@
       <c r="O204" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P204" s="5" t="s">
+      <c r="P204" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q204" s="38"/>
@@ -36858,22 +36894,22 @@
         <v>17</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>1767</v>
+        <v>1778</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>1768</v>
+        <v>1779</v>
       </c>
       <c r="E205" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F205" s="8" t="s">
-        <v>1769</v>
+        <v>1780</v>
       </c>
       <c r="G205" s="8" t="s">
-        <v>1769</v>
+        <v>1780</v>
       </c>
       <c r="H205" s="8" t="s">
-        <v>1770</v>
+        <v>1781</v>
       </c>
       <c r="I205" s="8">
         <v>4</v>
@@ -36896,7 +36932,7 @@
       <c r="O205" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P205" s="5" t="s">
+      <c r="P205" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q205" s="38"/>
@@ -36911,22 +36947,22 @@
         <v>17</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>1771</v>
+        <v>1782</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>1772</v>
+        <v>1783</v>
       </c>
       <c r="E206" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F206" s="8" t="s">
-        <v>1773</v>
+        <v>1784</v>
       </c>
       <c r="G206" s="8" t="s">
-        <v>1773</v>
+        <v>1784</v>
       </c>
       <c r="H206" s="8" t="s">
-        <v>1774</v>
+        <v>1785</v>
       </c>
       <c r="I206" s="8">
         <v>3</v>
@@ -36949,7 +36985,7 @@
       <c r="O206" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P206" s="5" t="s">
+      <c r="P206" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q206" s="38"/>
@@ -36964,25 +37000,25 @@
         <v>17</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>1771</v>
+        <v>1782</v>
       </c>
       <c r="D207" s="6" t="s">
-        <v>1772</v>
+        <v>1783</v>
       </c>
       <c r="E207" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F207" s="8" t="s">
-        <v>1775</v>
+        <v>1786</v>
       </c>
       <c r="G207" s="8" t="s">
-        <v>1775</v>
+        <v>1786</v>
       </c>
       <c r="H207" s="8" t="s">
-        <v>1776</v>
+        <v>1787</v>
       </c>
       <c r="I207" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J207" s="5" t="s">
         <v>24</v>
@@ -37002,7 +37038,7 @@
       <c r="O207" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P207" s="5" t="s">
+      <c r="P207" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q207" s="38"/>
@@ -37017,22 +37053,22 @@
         <v>17</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>1777</v>
+        <v>1788</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>1778</v>
+        <v>1789</v>
       </c>
       <c r="E208" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F208" s="8" t="s">
-        <v>1779</v>
+        <v>1790</v>
       </c>
       <c r="G208" s="8" t="s">
-        <v>1779</v>
+        <v>1790</v>
       </c>
       <c r="H208" s="8" t="s">
-        <v>1780</v>
+        <v>1791</v>
       </c>
       <c r="I208" s="8">
         <v>4</v>
@@ -37055,7 +37091,7 @@
       <c r="O208" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P208" s="5" t="s">
+      <c r="P208" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q208" s="38"/>
@@ -37070,22 +37106,22 @@
         <v>17</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>1781</v>
+        <v>1792</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>1782</v>
+        <v>1793</v>
       </c>
       <c r="E209" s="7" t="s">
         <v>103</v>
       </c>
       <c r="F209" s="8" t="s">
-        <v>1783</v>
+        <v>1794</v>
       </c>
       <c r="G209" s="8" t="s">
-        <v>1784</v>
+        <v>1795</v>
       </c>
       <c r="H209" s="8" t="s">
-        <v>1785</v>
+        <v>1796</v>
       </c>
       <c r="I209" s="8">
         <v>7</v>
@@ -37108,7 +37144,7 @@
       <c r="O209" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P209" s="5" t="s">
+      <c r="P209" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q209" s="38"/>
@@ -37123,22 +37159,22 @@
         <v>17</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>1781</v>
+        <v>1792</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>1782</v>
+        <v>1793</v>
       </c>
       <c r="E210" s="7" t="s">
         <v>103</v>
       </c>
       <c r="F210" s="8" t="s">
-        <v>1786</v>
+        <v>1797</v>
       </c>
       <c r="G210" s="8" t="s">
-        <v>1784</v>
+        <v>1795</v>
       </c>
       <c r="H210" s="8" t="s">
-        <v>1787</v>
+        <v>1798</v>
       </c>
       <c r="I210" s="8">
         <v>7</v>
@@ -37161,7 +37197,7 @@
       <c r="O210" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P210" s="5" t="s">
+      <c r="P210" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q210" s="38"/>
@@ -37176,22 +37212,22 @@
         <v>17</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>1781</v>
+        <v>1792</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>1782</v>
+        <v>1793</v>
       </c>
       <c r="E211" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F211" s="8" t="s">
-        <v>1788</v>
+        <v>1799</v>
       </c>
       <c r="G211" s="8" t="s">
-        <v>1788</v>
+        <v>1799</v>
       </c>
       <c r="H211" s="8" t="s">
-        <v>1789</v>
+        <v>1800</v>
       </c>
       <c r="I211" s="8">
         <v>7</v>
@@ -37214,7 +37250,7 @@
       <c r="O211" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P211" s="5" t="s">
+      <c r="P211" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q211" s="38"/>
@@ -37229,22 +37265,22 @@
         <v>17</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>1790</v>
+        <v>1801</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>1791</v>
+        <v>1802</v>
       </c>
       <c r="E212" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F212" s="8" t="s">
-        <v>1792</v>
+        <v>1803</v>
       </c>
       <c r="G212" s="8" t="s">
-        <v>1792</v>
+        <v>1803</v>
       </c>
       <c r="H212" s="8" t="s">
-        <v>1793</v>
+        <v>1804</v>
       </c>
       <c r="I212" s="8">
         <v>6</v>
@@ -37267,7 +37303,7 @@
       <c r="O212" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P212" s="5" t="s">
+      <c r="P212" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q212" s="38"/>
@@ -37282,22 +37318,22 @@
         <v>17</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>1794</v>
+        <v>1805</v>
       </c>
       <c r="D213" s="6" t="s">
-        <v>1795</v>
+        <v>1806</v>
       </c>
       <c r="E213" s="7" t="s">
         <v>103</v>
       </c>
       <c r="F213" s="8" t="s">
-        <v>1796</v>
+        <v>1807</v>
       </c>
       <c r="G213" s="8" t="s">
-        <v>1796</v>
+        <v>1807</v>
       </c>
       <c r="H213" s="8" t="s">
-        <v>1797</v>
+        <v>1808</v>
       </c>
       <c r="I213" s="8">
         <v>5</v>
@@ -37320,7 +37356,7 @@
       <c r="O213" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P213" s="5" t="s">
+      <c r="P213" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q213" s="38"/>
@@ -37335,22 +37371,22 @@
         <v>17</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>1794</v>
+        <v>1805</v>
       </c>
       <c r="D214" s="6" t="s">
-        <v>1795</v>
+        <v>1806</v>
       </c>
       <c r="E214" s="7" t="s">
         <v>103</v>
       </c>
       <c r="F214" s="8" t="s">
-        <v>1798</v>
+        <v>1809</v>
       </c>
       <c r="G214" s="8" t="s">
-        <v>1798</v>
+        <v>1809</v>
       </c>
       <c r="H214" s="8" t="s">
-        <v>1799</v>
+        <v>1810</v>
       </c>
       <c r="I214" s="8">
         <v>7</v>
@@ -37373,7 +37409,7 @@
       <c r="O214" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P214" s="5" t="s">
+      <c r="P214" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q214" s="38"/>
@@ -37388,22 +37424,22 @@
         <v>17</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>1794</v>
+        <v>1805</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>1795</v>
+        <v>1806</v>
       </c>
       <c r="E215" s="7" t="s">
         <v>103</v>
       </c>
       <c r="F215" s="8" t="s">
-        <v>1800</v>
+        <v>1811</v>
       </c>
       <c r="G215" s="8" t="s">
-        <v>1800</v>
+        <v>1811</v>
       </c>
       <c r="H215" s="8" t="s">
-        <v>1801</v>
+        <v>1812</v>
       </c>
       <c r="I215" s="8">
         <v>7</v>
@@ -37426,7 +37462,7 @@
       <c r="O215" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P215" s="5" t="s">
+      <c r="P215" s="22" t="s">
         <v>24</v>
       </c>
       <c r="Q215" s="38"/>
@@ -37434,8 +37470,8 @@
       <c r="S215" s="8"/>
     </row>
   </sheetData>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 K2 L2 P2 J3 K3 L3 P3 J4 K4 L4 P4 J5 K5 L5 P5 J6 K6 L6 P6 J7 K7 L7 P7 J8 K8 L8 P8 J9 K9 L9 P9 K10 L10 P10 L11 P11 J12 P12 J13 K13 P13 J14 K14 L14 P14 J15 K15 L15 P15 J16 K16 L16 J17 K17 L17 J18 K18 L18 P18 J19 K19 L19 P19 J20 K20 L20 P20 J21 K21 L21 P21 J22 K22 L22 P22 J23 K23 L23 P23 J24 K24 L24 P24 J25 K25 L25 P25 J26 K26 L26 P26 J27 K27 L27 P27 J28 K28 L28 P28 J29 K29 L29 P29 J30 K30 L30 P30 J31 K31 L31 P31 J32 K32 L32 P32 J33 K33 L33 P33 J34 K34 L34 P34 J35 K35 L35 P35 J36 K36 L36 P36 J37 K37 L37 P37 J38 K38 L38 P38 J39 K39 L39 P39 J40 K40 L40 P40 J41 K41 L41 P41 J42 K42 L42 P42 J43 K43 L43 P43 J44 K44 L44 P44 J45 K45 L45 P45 J46 K46 L46 P46 J47 K47 L47 P47 J48 K48 L48 P48 J49 K49 L49 P49 J50 K50 L50 P50 J51 K51 L51 P51 J52 K52 L52 P52 J53 K53 L53 P53 J54 K54 L54 P54 J55 K55 L55 P55 J56 K56 L56 P56 J57 K57 L57 P57 J58 K58 L58 P58 J59 K59 L59 P59 J60 K60 L60 P60 J61 K61 L61 P61 J62 K62 L62 P62 J63 K63 L63 P63 J64 K64 L64 P64 J65 K65 L65 P65 J66 K66 L66 P66 J67 K67 L67 P67 J68 K68 L68 P68 J69 K69 L69 P69 J70 K70 L70 P70 J71 K71 L71 P71 J72 K72 L72 P72 J73 K73 L73 P73 J74 K74 L74 P74 J75 K75 L75 P75 J76 K76 L76 P76 J77 K77 L77 P77 J78 K78 L78 P78 J79 K79 L79 P79 J80 K80 L80 P80 J81 K81 L81 P81 J82 K82 L82 P82 J83 K83 L83 P83 J84 K84 L84 P84 J85 K85 L85 P85 J86 K86 L86 P86 J87 K87 L87 P87 J88 K88 L88 P88 J89 K89 L89 P89 J90 K90 L90 P90 J91 K91 L91 P91 J92 K92 L92 P92 J93 K93 L93 P93 J94 K94 L94 P94 J95 K95 L95 P95 J96 K96 L96 P96 J97 K97 L97 P97 J98 K98 L98 P98 J99 K99 L99 P99 J100 K100 L100 P100 J101 K101 L101 P101 J102 K102 L102 P102 J103 K103 L103 P103 J104 K104 L104 P104 J105 K105 L105 P105 J106 K106 L106 P106 J107 K107 L107 P107 J108 K108 L108 P108 J109 K109 L109 P109 J110 K110 L110 P110 J111 K111 L111 P111 J112 K112 L112 P112 J113 K113 L113 P113 J114 K114 L114 P114 J115 K115 L115 P115 J116 K116 L116 P116 J117 K117 L117 P117 J118 K118 L118 P118 J119 K119 L119 P119 J120 K120 L120 P120 J121 K121 L121 P121 J122 K122 L122 P122 J123 K123 L123 P123 J124 K124 L124 P124 J125 K125 L125 P125 J126 K126 L126 P126 J127 K127 L127 P127 J128 K128 L128 P128 J129 K129 L129 P129 J130 K130 L130 P130 J131 K131 L131 P131 J132 K132 L132 P132 J133 K133 L133 P133 J134 K134 L134 P134 J135 K135 L135 P135 J136 K136 L136 P136 J137 K137 L137 P137 J138 K138 L138 P138 J139 K139 L139 P139 J140 K140 L140 P140 J141 K141 L141 P141 J142 K142 L142 P142 J143 K143 L143 P143 J144 K144 L144 P144 J145 K145 L145 P145 J146 K146 L146 P146 J147 K147 L147 P147 J148 K148 L148 P148 J149 K149 L149 P149 J150 K150 L150 P150 J151 K151 L151 P151 J152 K152 L152 P152 J153 K153 L153 P153 J154 K154 L154 P154 J155 K155 L155 P155 J156 K156 L156 P156 J157 K157 L157 P157 J158 K158 L158 P158 J159 K159 L159 P159 J160 K160 L160 P160 J161 K161 L161 P161 J162 K162 L162 P162 J163 K163 L163 P163 J164 K164 L164 P164 J165 K165 L165 P165 J166 K166 L166 P166 J167 K167 L167 P167 J168 K168 L168 P168 J169 K169 L169 P169 J170 K170 L170 P170 J171 K171 L171 P171 J172 K172 L172 P172 J173 K173 L173 P173 J174 K174 L174 P174 J175 K175 L175 P175 J176 K176 L176 P176 J177 K177 L177 P177 J178 K178 L178 P178 J179 K179 L179 P179 J180 K180 L180 P180 J181 K181 L181 P181 J182 K182 L182 P182 J183 K183 L183 P183 J184 K184 L184 P184 J185 K185 L185 P185 J186 K186 L186 P186 J187 K187 L187 P187 J188 K188 L188 P188 J189 K189 L189 P189 J190 K190 L190 P190 J191 K191 L191 P191 J192 K192 L192 P192 J193 K193 L193 P193 J194 K194 L194 P194 J195 K195 L195 P195 J196 K196 L196 P196 J197 K197 L197 P197 J198 K198 L198 P198 J199 K199 L199 P199 J200 K200 L200 P200 J201 K201 L201 P201 J202 K202 L202 P202 J203 K203 L203 P203 J204 K204 L204 P204 J205 K205 L205 P205 J206 K206 L206 P206 J207 K207 L207 P207 J208 K208 L208 P208 J209 K209 L209 P209 J210 K210 L210 P210 J211 K211 L211 P211 J212 K212 L212 P212 J213 K213 L213 P213 J214 K214 L214 P214 J215 K215 L215 P215 J10:J11 K11:K12 L12:L13 P16:P17">
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 K2 L2 J3 K3 L3 J4 K4 L4 J5 K5 L5 J6 K6 L6 J7 K7 L7 J8 K8 L8 J9 K9 L9 K10 L10 L11 J12 J13 K13 J14 K14 L14 J15 K15 L15 J16 K16 L16 J17 K17 L17 J18 K18 L18 J19 K19 L19 J20 K20 L20 J21 K21 L21 J22 K22 L22 J23 K23 L23 J24 K24 L24 J25 K25 L25 J26 K26 L26 J27 K27 L27 J28 K28 L28 J29 K29 L29 J30 K30 L30 J31 K31 L31 J32 K32 L32 J33 K33 L33 J34 K34 L34 J35 K35 L35 J36 K36 L36 J37 K37 L37 J38 K38 L38 J39 K39 L39 J40 K40 L40 J41 K41 L41 J42 K42 L42 J43 K43 L43 J44 K44 L44 J45 K45 L45 J46 K46 L46 J47 K47 L47 J48 K48 L48 J49 K49 L49 J50 K50 L50 J51 K51 L51 J52 K52 L52 J53 K53 L53 J54 K54 L54 J55 K55 L55 J56 K56 L56 J57 K57 L57 J58 K58 L58 J59 K59 L59 J60 K60 L60 J61 K61 L61 J62 K62 L62 J63 K63 L63 J64 K64 L64 J65 K65 L65 J66 K66 L66 J67 K67 L67 J68 K68 L68 J69 K69 L69 J70 K70 L70 J71 K71 L71 J72 K72 L72 J73 K73 L73 J74 K74 L74 J75 K75 L75 J76 K76 L76 J77 K77 L77 J78 K78 L78 J79 K79 L79 J80 K80 L80 J81 K81 L81 J82 K82 L82 J83 K83 L83 J84 K84 L84 J85 K85 L85 J86 K86 L86 J87 K87 L87 J88 K88 L88 J89 K89 L89 J90 K90 L90 J91 K91 L91 J92 K92 L92 J93 K93 L93 J94 K94 L94 J95 K95 L95 J96 K96 L96 J97 K97 L97 J98 K98 L98 J99 K99 L99 J100 K100 L100 J101 K101 L101 J102 K102 L102 J103 K103 L103 J104 K104 L104 J105 K105 L105 J106 K106 L106 J107 K107 L107 J108 K108 L108 J109 K109 L109 J110 K110 L110 J111 K111 L111 J112 K112 L112 J113 K113 L113 J114 K114 L114 J115 K115 L115 J116 K116 L116 J117 K117 L117 J118 K118 L118 J119 K119 L119 J120 K120 L120 J121 K121 L121 J122 K122 L122 J123 K123 L123 J124 K124 L124 J125 K125 L125 J126 K126 L126 J127 K127 L127 J128 K128 L128 J129 K129 L129 J130 K130 L130 J131 K131 L131 J132 K132 L132 J133 K133 L133 J134 K134 L134 J135 K135 L135 J136 K136 L136 J137 K137 L137 J138 K138 L138 J139 K139 L139 J140 K140 L140 J141 K141 L141 J142 K142 L142 J143 K143 L143 J144 K144 L144 J145 K145 L145 J146 K146 L146 J147 K147 L147 J148 K148 L148 J149 K149 L149 J150 K150 L150 J151 K151 L151 J152 K152 L152 J153 K153 L153 J154 K154 L154 J155 K155 L155 J156 K156 L156 J157 K157 L157 J158 K158 L158 J159 K159 L159 J160 K160 L160 J161 K161 L161 J162 K162 L162 J163 K163 L163 J164 K164 L164 J165 K165 L165 J166 K166 L166 J167 K167 L167 J168 K168 L168 J169 K169 L169 J170 K170 L170 J171 K171 L171 J172 K172 L172 J173 K173 L173 J174 K174 L174 J175 K175 L175 J176 K176 L176 J177 K177 L177 J178 K178 L178 J179 K179 L179 J180 K180 L180 J181 K181 L181 J182 K182 L182 J183 K183 L183 J184 K184 L184 J185 K185 L185 J186 K186 L186 J187 K187 L187 J188 K188 L188 J189 K189 L189 J190 K190 L190 J191 K191 L191 J192 K192 L192 J193 K193 L193 J194 K194 L194 J195 K195 L195 J196 K196 L196 J197 K197 L197 J198 K198 L198 J199 K199 L199 J200 K200 L200 J201 K201 L201 J202 K202 L202 J203 K203 L203 J204 K204 L204 J205 K205 L205 J206 K206 L206 J207 K207 L207 J208 K208 L208 J209 K209 L209 J210 K210 L210 J211 K211 L211 J212 K212 L212 J213 K213 L213 J214 K214 L214 J215 K215 L215 J10:J11 K11:K12 L12:L13">
       <formula1>"yes,no,"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2 N3 N4 N5 N6 N7 N8 N9 N10 N11 N12 N13 N16 N17 N18 N19 N20 N21 N22 N23 N24 N25 N26 N27 N28 N29 N30 N31 N32 N33 N34 N35 N36 N37 N38 N39 N40 N41 N42 N43 N44 N45 N46 N47 N48 N49 N50 N51 N52 N53 N54 N55 N56 N57 N58 N59 N60 N61 N62 N63 N64 N65 N66 N67 N68 N69 N70 N71 N72 N73 N74 N75 N76 N77 N78 N79 N80 N81 N82 N83 N84 N85 N86 N87 N88 N89 N90 N91 N92 N93 N94 N95 N96 N97 N98 N99 N100 N101 N102 N103 N104 N105 N106 N107 N108 N109 N110 N111 N112 N113 N114 N115 N116 N14:N15">
@@ -37443,6 +37479,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 S2 T2 U2 O3 S3 T3 U3 O4 S4 T4 U4 O5 S5 T5 U5 O6 S6 T6 U6 O7 S7 T7 U7 O8 S8 T8 U8 O9 S9 T9 U9 O10 S10 T10 U10 O11 S11 T11 U11 O12 S12 T12 U12 O13 S13 T13 U13 O14 S14 T14 U14 S15 T15 U15 S16 T16 U16 O17 S17 T17 U17 O18 S18 T18 U18 O19 T19 U19 O20 U20 O21 S21 O22 S22 T22 O23 S23 T23 U23 O24 S24 T24 U24 O25 S25 T25 U25 O26 S26 T26 U26 O27 S27 T27 U27 O28 S28 T28 U28 O29 S29 T29 U29 O30 S30 T30 U30 O31 S31 T31 U31 O32 S32 T32 U32 O33 S33 T33 U33 O34 S34 T34 U34 O35 S35 T35 U35 O36 S36 T36 U36 O37 S37 T37 U37 O38 S38 T38 U38 O39 S39 T39 U39 O40 S40 T40 U40 O41 S41 T41 U41 O42 S42 T42 U42 O43 S43 T43 U43 O44 S44 T44 U44 O45 S45 T45 U45 O46 S46 T46 U46 O47 S47 T47 U47 O48 S48 T48 U48 O49 S49 T49 U49 O50 S50 T50 U50 O51 S51 T51 U51 O52 S52 T52 U52 O53 S53 T53 U53 O54 S54 T54 U54 O55 S55 T55 U55 O56 S56 T56 U56 O57 S57 T57 U57 O58 S58 T58 U58 O59 S59 T59 U59 O60 S60 T60 U60 O61 S61 T61 U61 O62 S62 T62 U62 O63 S63 T63 U63 O64 S64 T64 U64 O65 S65 T65 U65 O66 S66 T66 U66 O67 S67 T67 U67 O68 S68 T68 U68 O69 S69 T69 U69 O70 S70 T70 U70 O71 S71 T71 U71 O72 S72 T72 U72 O73 S73 T73 U73 O74 S74 T74 U74 O75 S75 T75 U75 O76 S76 T76 U76 O77 S77 T77 U77 O78 S78 T78 U78 O79 S79 T79 U79 O80 S80 T80 U80 O81 S81 T81 U81 O82 S82 T82 U82 O83 S83 T83 U83 O84 S84 T84 U84 O85 S85 T85 U85 O86 S86 T86 U86 O87 S87 T87 U87 O88 S88 T88 U88 O89 S89 T89 U89 O90 S90 T90 U90 O91 S91 T91 U91 O92 S92 T92 U92 O93 S93 T93 U93 O94 S94 T94 U94 O95 S95 T95 U95 O96 S96 T96 U96 O97 S97 T97 U97 O98 S98 T98 U98 O99 S99 T99 U99 O100 S100 T100 U100 O101 S101 T101 U101 O102 S102 T102 U102 O103 S103 T103 U103 O104 S104 T104 U104 O105 S105 T105 U105 O106 S106 T106 U106 O107 S107 T107 U107 O108 S108 T108 U108 O109 S109 T109 U109 O110 S110 T110 U110 O111 O112 O113 O114 O115 O116 O15:O16 R$1:R$1048576 S19:S20 T20:T21 U21:U22">
       <formula1>"finish,pending,"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2 P3 P4 P5 P6 P7 P8 P9 P10 P11 P12 P13 P14 P15 P18 P19 P20 P21 P22 P23 P24 P25 P26 P27 P28 P29 P30 P31 P32 P33 P34 P35 P36 P37 P38 P39 P40 P41 P42 P43 P44 P45 P46 P47 P48 P49 P50 P51 P52 P53 P54 P55 P56 P57 P58 P59 P60 P61 P62 P63 P64 P65 P66 P67 P68 P69 P70 P71 P72 P73 P74 P75 P76 P77 P78 P79 P80 P81 P82 P83 P84 P85 P86 P87 P88 P89 P90 P91 P92 P93 P94 P95 P96 P97 P98 P99 P100 P101 P102 P103 P104 P105 P106 P107 P108 P109 P110 P111 P112 P113 P114 P115 P116 P117 P118 P119 P120 P121 P122 P123 P124 P125 P126 P127 P128 P129 P130 P131 P132 P133 P134 P135 P136 P137 P138 P139 P140 P141 P142 P143 P144 P145 P146 P147 P148 P149 P150 P151 P152 P153 P154 P155 P156 P157 P158 P159 P160 P161 P162 P163 P164 P165 P166 P167 P168 P169 P170 P171 P172 P173 P174 P175 P176 P177 P178 P179 P180 P181 P182 P183 P184 P185 P186 P187 P188 P189 P190 P191 P192 P193 P194 P195 P196 P197 P198 P199 P200 P201 P202 P203 P204 P205 P206 P207 P208 P209 P210 P211 P212 P213 P214 P215 P16:P17">
+      <formula1>"yes,no,double_check,"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 B5 B6 B7 B8 B9 B10 B11 B12 B13 B14 B15 B16 B17 B18 B19 B20 B21 B22 B23 B24 B25 B26 B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B49 B50 B51 B52 B53 B54 B55 B56 B57 B58 B59 B60 B61 B62 B63 B64 B65 B66 B67 B68 B69 B70 B71 B72 B73 B74 B75 B76 B77 B78 B79 B80 B81 B82 B83 B84 B85 B86 B87 B88 B89 B90 B91 B92 B93 B94 B95 B96 B97 B98 B99 B100 B101 B102 B103 B104 B105 B106 B107 B108 B109 B110 B111 B112 B113 B114 B115 B116 B117 B118 B119 B120 B121 B122 B123 B124 B125 B126 B127 B128 B129 B130 B131 B132 B133 B134 B135 B136 B137 B138 B139 B140 B141 B142 B143 B144 B145 B146 B147 B148 B149 B150 B151 B152 B153 B154 B155 B156 B157 B158 B159 B160 B161 B162 B163 B164 B165 B166 B167 B168 B169 B170 B171 B172 B173 B174 B175 B176 B177 B178 B179 B180 B181 B182 B183 B184 B185 B186 B187 B188 B189 B190 B191 B192 B193 B194 B195 B196 B197 B198 B199 B200 B201 B202 B203 B204 B205 B206 B207 B208 B209 B210 B211 B212 B213 B214 B215 B2:B3">
       <formula1>"python,javascript,typescript,java,c&amp;cpp,"</formula1>
@@ -41164,22 +41203,22 @@
         <v>398</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>1802</v>
+        <v>1813</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>1803</v>
+        <v>1814</v>
       </c>
       <c r="E68" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>1804</v>
+        <v>1815</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>1804</v>
+        <v>1815</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>1805</v>
+        <v>1816</v>
       </c>
       <c r="I68" s="8">
         <v>4</v>
@@ -41219,22 +41258,22 @@
         <v>398</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>1806</v>
+        <v>1817</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>1807</v>
+        <v>1818</v>
       </c>
       <c r="E69" s="19" t="s">
         <v>44</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>1808</v>
+        <v>1819</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>1808</v>
+        <v>1819</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>1809</v>
+        <v>1820</v>
       </c>
       <c r="I69" s="8">
         <v>6</v>
@@ -41274,22 +41313,22 @@
         <v>398</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>1810</v>
+        <v>1821</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>1811</v>
+        <v>1822</v>
       </c>
       <c r="E70" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>1812</v>
+        <v>1823</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>1812</v>
+        <v>1823</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>1813</v>
+        <v>1824</v>
       </c>
       <c r="I70" s="8">
         <v>6</v>
@@ -41329,22 +41368,22 @@
         <v>398</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>1814</v>
+        <v>1825</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>1815</v>
+        <v>1826</v>
       </c>
       <c r="E71" s="19" t="s">
         <v>30</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>1816</v>
+        <v>1827</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>1817</v>
+        <v>1828</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>1818</v>
+        <v>1829</v>
       </c>
       <c r="I71" s="8">
         <v>4</v>
@@ -41384,22 +41423,22 @@
         <v>398</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>1814</v>
+        <v>1825</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>1815</v>
+        <v>1826</v>
       </c>
       <c r="E72" s="19" t="s">
         <v>30</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>1819</v>
+        <v>1830</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>1820</v>
+        <v>1831</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>1821</v>
+        <v>1832</v>
       </c>
       <c r="I72" s="8">
         <v>6</v>
@@ -41439,22 +41478,22 @@
         <v>398</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>1822</v>
+        <v>1833</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>1823</v>
+        <v>1834</v>
       </c>
       <c r="E73" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>1824</v>
+        <v>1835</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>1824</v>
+        <v>1835</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>1825</v>
+        <v>1836</v>
       </c>
       <c r="I73" s="8">
         <v>6</v>
@@ -41494,22 +41533,22 @@
         <v>398</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>1826</v>
+        <v>1837</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>1827</v>
+        <v>1838</v>
       </c>
       <c r="E74" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>1828</v>
+        <v>1839</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>1828</v>
+        <v>1839</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>1829</v>
+        <v>1840</v>
       </c>
       <c r="I74" s="8">
         <v>6</v>
@@ -41549,22 +41588,22 @@
         <v>398</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>1826</v>
+        <v>1837</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>1827</v>
+        <v>1838</v>
       </c>
       <c r="E75" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>1830</v>
+        <v>1841</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>1830</v>
+        <v>1841</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>1831</v>
+        <v>1842</v>
       </c>
       <c r="I75" s="8">
         <v>8</v>
@@ -41604,22 +41643,22 @@
         <v>398</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>1832</v>
+        <v>1843</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>1833</v>
+        <v>1844</v>
       </c>
       <c r="E76" s="19" t="s">
         <v>44</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>1834</v>
+        <v>1845</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>1834</v>
+        <v>1845</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>1835</v>
+        <v>1846</v>
       </c>
       <c r="I76" s="8">
         <v>4</v>
@@ -41659,22 +41698,22 @@
         <v>398</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>1832</v>
+        <v>1843</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>1833</v>
+        <v>1844</v>
       </c>
       <c r="E77" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>1836</v>
+        <v>1847</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>1837</v>
+        <v>1848</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>1838</v>
+        <v>1849</v>
       </c>
       <c r="I77" s="8">
         <v>5</v>
@@ -41714,22 +41753,22 @@
         <v>398</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>1832</v>
+        <v>1843</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>1833</v>
+        <v>1844</v>
       </c>
       <c r="E78" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>1839</v>
+        <v>1850</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>1839</v>
+        <v>1850</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>1840</v>
+        <v>1851</v>
       </c>
       <c r="I78" s="8">
         <v>6</v>
@@ -41769,22 +41808,22 @@
         <v>398</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>1832</v>
+        <v>1843</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>1833</v>
+        <v>1844</v>
       </c>
       <c r="E79" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>1841</v>
+        <v>1852</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>1841</v>
+        <v>1852</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>1842</v>
+        <v>1853</v>
       </c>
       <c r="I79" s="8">
         <v>7</v>
@@ -41827,19 +41866,19 @@
         <v>505</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>1843</v>
+        <v>1854</v>
       </c>
       <c r="E80" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>1844</v>
+        <v>1855</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>1844</v>
+        <v>1855</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>1845</v>
+        <v>1856</v>
       </c>
       <c r="I80" s="8">
         <v>4</v>
@@ -41882,19 +41921,19 @@
         <v>505</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>1846</v>
+        <v>1857</v>
       </c>
       <c r="E81" s="19" t="s">
         <v>44</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>1847</v>
+        <v>1858</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>1847</v>
+        <v>1858</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>1848</v>
+        <v>1859</v>
       </c>
       <c r="I81" s="8">
         <v>8</v>
@@ -41934,22 +41973,22 @@
         <v>398</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>1849</v>
+        <v>1860</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>1850</v>
+        <v>1861</v>
       </c>
       <c r="E82" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>1851</v>
+        <v>1862</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>1851</v>
+        <v>1862</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>1852</v>
+        <v>1863</v>
       </c>
       <c r="I82" s="8">
         <v>8</v>
@@ -41989,22 +42028,22 @@
         <v>398</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>1849</v>
+        <v>1860</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>1853</v>
+        <v>1864</v>
       </c>
       <c r="E83" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>1854</v>
+        <v>1865</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>1855</v>
+        <v>1866</v>
       </c>
       <c r="H83" s="8" t="s">
-        <v>1856</v>
+        <v>1867</v>
       </c>
       <c r="I83" s="8">
         <v>4</v>
@@ -42044,22 +42083,22 @@
         <v>398</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>1849</v>
+        <v>1860</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>1857</v>
+        <v>1868</v>
       </c>
       <c r="E84" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>1858</v>
+        <v>1869</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>1858</v>
+        <v>1869</v>
       </c>
       <c r="H84" s="8" t="s">
-        <v>1859</v>
+        <v>1870</v>
       </c>
       <c r="I84" s="8">
         <v>6</v>
@@ -42099,22 +42138,22 @@
         <v>398</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>1849</v>
+        <v>1860</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>1860</v>
+        <v>1871</v>
       </c>
       <c r="E85" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>1861</v>
+        <v>1872</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>1861</v>
+        <v>1872</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>1862</v>
+        <v>1873</v>
       </c>
       <c r="I85" s="8">
         <v>6</v>
@@ -42154,22 +42193,22 @@
         <v>398</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>1849</v>
+        <v>1860</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>1863</v>
+        <v>1874</v>
       </c>
       <c r="E86" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>1864</v>
+        <v>1875</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>1864</v>
+        <v>1875</v>
       </c>
       <c r="H86" s="8" t="s">
-        <v>1865</v>
+        <v>1876</v>
       </c>
       <c r="I86" s="8">
         <v>6</v>
@@ -42209,22 +42248,22 @@
         <v>398</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>1866</v>
+        <v>1877</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>1867</v>
+        <v>1878</v>
       </c>
       <c r="E87" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>1868</v>
+        <v>1879</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>1868</v>
+        <v>1879</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>1869</v>
+        <v>1880</v>
       </c>
       <c r="I87" s="8">
         <v>8</v>
@@ -42264,22 +42303,22 @@
         <v>398</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>1866</v>
+        <v>1877</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>1867</v>
+        <v>1878</v>
       </c>
       <c r="E88" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>1870</v>
+        <v>1881</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>1870</v>
+        <v>1881</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>1871</v>
+        <v>1882</v>
       </c>
       <c r="I88" s="8">
         <v>5</v>
@@ -44311,10 +44350,10 @@
         <v>1287</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>1872</v>
+        <v>1883</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>1873</v>
+        <v>1884</v>
       </c>
       <c r="I35" s="8">
         <v>5</v>
@@ -44369,7 +44408,7 @@
         <v>1293</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>1874</v>
+        <v>1885</v>
       </c>
       <c r="I36" s="8">
         <v>6</v>
@@ -44409,22 +44448,22 @@
         <v>613</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>1875</v>
+        <v>1886</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>1876</v>
+        <v>1887</v>
       </c>
       <c r="E37" s="19" t="s">
         <v>44</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>1877</v>
+        <v>1888</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>1877</v>
+        <v>1888</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>1878</v>
+        <v>1889</v>
       </c>
       <c r="I37" s="8">
         <v>6</v>
@@ -44464,22 +44503,22 @@
         <v>613</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>1879</v>
+        <v>1890</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>1880</v>
+        <v>1891</v>
       </c>
       <c r="E38" s="19" t="s">
         <v>44</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>1881</v>
+        <v>1892</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>1881</v>
+        <v>1892</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>1882</v>
+        <v>1893</v>
       </c>
       <c r="I38" s="8">
         <v>6</v>
@@ -44519,22 +44558,22 @@
         <v>613</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>1879</v>
+        <v>1890</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>1880</v>
+        <v>1891</v>
       </c>
       <c r="E39" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>1883</v>
+        <v>1894</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>1884</v>
+        <v>1895</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>1885</v>
+        <v>1896</v>
       </c>
       <c r="I39" s="8">
         <v>4</v>
@@ -44574,22 +44613,22 @@
         <v>613</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>1886</v>
+        <v>1897</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>1887</v>
+        <v>1898</v>
       </c>
       <c r="E40" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>1888</v>
+        <v>1899</v>
       </c>
       <c r="G40" s="21" t="s">
-        <v>1889</v>
+        <v>1900</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>1890</v>
+        <v>1901</v>
       </c>
       <c r="I40" s="8">
         <v>6</v>
@@ -44629,22 +44668,22 @@
         <v>613</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>1891</v>
+        <v>1902</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>1892</v>
+        <v>1903</v>
       </c>
       <c r="E41" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>1893</v>
+        <v>1904</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>1893</v>
+        <v>1904</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>1894</v>
+        <v>1905</v>
       </c>
       <c r="I41" s="8">
         <v>5</v>
@@ -44684,22 +44723,22 @@
         <v>613</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>1895</v>
+        <v>1906</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>1896</v>
+        <v>1907</v>
       </c>
       <c r="E42" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>1897</v>
+        <v>1908</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>1897</v>
+        <v>1908</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>1898</v>
+        <v>1909</v>
       </c>
       <c r="I42" s="8">
         <v>5</v>
@@ -44739,22 +44778,22 @@
         <v>613</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>1899</v>
+        <v>1910</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>1900</v>
+        <v>1911</v>
       </c>
       <c r="E43" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>1901</v>
+        <v>1912</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>1901</v>
+        <v>1912</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>1902</v>
+        <v>1913</v>
       </c>
       <c r="I43" s="8">
         <v>8</v>
@@ -44794,22 +44833,22 @@
         <v>613</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>1903</v>
+        <v>1914</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>1904</v>
+        <v>1915</v>
       </c>
       <c r="E44" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>1905</v>
+        <v>1916</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>1905</v>
+        <v>1916</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>1906</v>
+        <v>1917</v>
       </c>
       <c r="I44" s="8">
         <v>5</v>
@@ -44849,22 +44888,22 @@
         <v>613</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>1907</v>
+        <v>1918</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>1908</v>
+        <v>1919</v>
       </c>
       <c r="E45" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>1909</v>
+        <v>1920</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>1909</v>
+        <v>1920</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>1910</v>
+        <v>1921</v>
       </c>
       <c r="I45" s="8">
         <v>6</v>
@@ -44904,22 +44943,22 @@
         <v>613</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>1911</v>
+        <v>1922</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>1912</v>
+        <v>1923</v>
       </c>
       <c r="E46" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>1913</v>
+        <v>1924</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>1913</v>
+        <v>1924</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>1914</v>
+        <v>1925</v>
       </c>
       <c r="I46" s="8">
         <v>5</v>
@@ -44959,22 +44998,22 @@
         <v>613</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>1915</v>
+        <v>1926</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>1916</v>
+        <v>1927</v>
       </c>
       <c r="E47" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>1917</v>
+        <v>1928</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>1917</v>
+        <v>1928</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>1918</v>
+        <v>1929</v>
       </c>
       <c r="I47" s="8">
         <v>5</v>
@@ -45014,22 +45053,22 @@
         <v>613</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>1919</v>
+        <v>1930</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>1920</v>
+        <v>1931</v>
       </c>
       <c r="E48" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>1921</v>
+        <v>1932</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>1921</v>
+        <v>1932</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>1922</v>
+        <v>1933</v>
       </c>
       <c r="I48" s="8">
         <v>7</v>
@@ -45069,22 +45108,22 @@
         <v>613</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>1923</v>
+        <v>1934</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>1924</v>
+        <v>1935</v>
       </c>
       <c r="E49" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>1925</v>
+        <v>1936</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>1925</v>
+        <v>1936</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>1926</v>
+        <v>1937</v>
       </c>
       <c r="I49" s="8">
         <v>6</v>
@@ -45124,22 +45163,22 @@
         <v>613</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>1923</v>
+        <v>1934</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>1924</v>
+        <v>1935</v>
       </c>
       <c r="E50" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>1927</v>
+        <v>1938</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>1927</v>
+        <v>1938</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>1928</v>
+        <v>1939</v>
       </c>
       <c r="I50" s="8">
         <v>6</v>
@@ -45179,22 +45218,22 @@
         <v>613</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>1915</v>
+        <v>1926</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>1916</v>
+        <v>1927</v>
       </c>
       <c r="E51" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F51" s="8" t="s">
+        <v>1940</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>1940</v>
+      </c>
+      <c r="H51" s="8" t="s">
         <v>1929</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>1929</v>
-      </c>
-      <c r="H51" s="8" t="s">
-        <v>1918</v>
       </c>
       <c r="I51" s="8">
         <v>5</v>
@@ -45234,22 +45273,22 @@
         <v>613</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>1915</v>
+        <v>1926</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>1916</v>
+        <v>1927</v>
       </c>
       <c r="E52" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>1930</v>
+        <v>1941</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>1930</v>
+        <v>1941</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>1931</v>
+        <v>1942</v>
       </c>
       <c r="I52" s="8">
         <v>5</v>
@@ -45289,22 +45328,22 @@
         <v>613</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>1915</v>
+        <v>1926</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>1916</v>
+        <v>1927</v>
       </c>
       <c r="E53" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>1932</v>
+        <v>1943</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>1932</v>
+        <v>1943</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>1933</v>
+        <v>1944</v>
       </c>
       <c r="I53" s="8">
         <v>6</v>
@@ -45453,13 +45492,13 @@
         <v>44</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>1934</v>
+        <v>1945</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>1934</v>
+        <v>1945</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>1935</v>
+        <v>1946</v>
       </c>
       <c r="I2" s="8">
         <v>6</v>
@@ -46832,7 +46871,7 @@
         <v>1331</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>1936</v>
+        <v>1947</v>
       </c>
       <c r="I27" s="8">
         <v>5</v>
@@ -46887,7 +46926,7 @@
         <v>1332</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>1937</v>
+        <v>1948</v>
       </c>
       <c r="I28" s="8">
         <v>7</v>
@@ -47217,7 +47256,7 @@
         <v>1359</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>1938</v>
+        <v>1949</v>
       </c>
       <c r="I34" s="8">
         <v>4</v>
@@ -47269,10 +47308,10 @@
         <v>1361</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>1939</v>
+        <v>1950</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>1940</v>
+        <v>1951</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="5"/>
@@ -47353,22 +47392,22 @@
         <v>794</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>1941</v>
+        <v>1952</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>1942</v>
+        <v>1953</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>401</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>1943</v>
+        <v>1954</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>1943</v>
+        <v>1954</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>1944</v>
+        <v>1955</v>
       </c>
       <c r="I37" s="8">
         <v>6</v>
@@ -47406,19 +47445,19 @@
         <v>818</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>1945</v>
+        <v>1956</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>1946</v>
+        <v>1957</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>1947</v>
+        <v>1958</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>1948</v>
+        <v>1959</v>
       </c>
       <c r="I38" s="8">
         <v>6</v>
@@ -47456,19 +47495,19 @@
         <v>818</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>1945</v>
+        <v>1956</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>1949</v>
+        <v>1960</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>1950</v>
+        <v>1961</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>1951</v>
+        <v>1962</v>
       </c>
       <c r="I39" s="8">
         <v>5</v>
@@ -47503,22 +47542,22 @@
         <v>794</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>1952</v>
+        <v>1963</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>1953</v>
+        <v>1964</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>206</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>1954</v>
+        <v>1965</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>1954</v>
+        <v>1965</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>1955</v>
+        <v>1966</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -47553,22 +47592,22 @@
         <v>794</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>1956</v>
+        <v>1967</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>1957</v>
+        <v>1968</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>1958</v>
+        <v>1969</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>1958</v>
+        <v>1969</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>1959</v>
+        <v>1970</v>
       </c>
       <c r="I41" s="8">
         <v>5</v>
@@ -47603,22 +47642,22 @@
         <v>794</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>1960</v>
+        <v>1971</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>1961</v>
+        <v>1972</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>1962</v>
+        <v>1973</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>1962</v>
+        <v>1973</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>1963</v>
+        <v>1974</v>
       </c>
       <c r="I42" s="8">
         <v>5</v>
@@ -47656,19 +47695,19 @@
         <v>874</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>1964</v>
+        <v>1975</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>1965</v>
+        <v>1976</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>1965</v>
+        <v>1976</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>1966</v>
+        <v>1977</v>
       </c>
       <c r="I43" s="8">
         <v>13</v>
@@ -47703,22 +47742,22 @@
         <v>794</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>1967</v>
+        <v>1978</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>1968</v>
+        <v>1979</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>1969</v>
+        <v>1980</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>1969</v>
+        <v>1980</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>1970</v>
+        <v>1981</v>
       </c>
       <c r="I44" s="8">
         <v>6</v>
@@ -47756,19 +47795,19 @@
         <v>906</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>1971</v>
+        <v>1982</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>1972</v>
+        <v>1983</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>1972</v>
+        <v>1983</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>1973</v>
+        <v>1984</v>
       </c>
       <c r="I45" s="8">
         <v>6</v>
@@ -47806,19 +47845,19 @@
         <v>906</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>1974</v>
+        <v>1985</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>1975</v>
+        <v>1986</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>1975</v>
+        <v>1986</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>1976</v>
+        <v>1987</v>
       </c>
       <c r="I46" s="8">
         <v>4</v>
@@ -47853,22 +47892,22 @@
         <v>794</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>1977</v>
+        <v>1988</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>1978</v>
+        <v>1989</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>1979</v>
+        <v>1990</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>1979</v>
+        <v>1990</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>1980</v>
+        <v>1991</v>
       </c>
       <c r="I47" s="8">
         <v>6</v>
@@ -47903,22 +47942,22 @@
         <v>794</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>1981</v>
+        <v>1992</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>1982</v>
+        <v>1993</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>103</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>1983</v>
+        <v>1994</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>1983</v>
+        <v>1994</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>1984</v>
+        <v>1995</v>
       </c>
       <c r="I48" s="8">
         <v>12</v>
@@ -47956,19 +47995,19 @@
         <v>892</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>1985</v>
+        <v>1996</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>103</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>1986</v>
+        <v>1997</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>1986</v>
+        <v>1997</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>1987</v>
+        <v>1998</v>
       </c>
       <c r="I49" s="8">
         <v>10</v>
@@ -48003,22 +48042,22 @@
         <v>794</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>1988</v>
+        <v>1999</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>1989</v>
+        <v>2000</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>103</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>1990</v>
+        <v>2001</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>1990</v>
+        <v>2001</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>1991</v>
+        <v>2002</v>
       </c>
       <c r="I50" s="8">
         <v>7</v>
@@ -48053,22 +48092,22 @@
         <v>794</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>1992</v>
+        <v>2003</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>1993</v>
+        <v>2004</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>103</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>1994</v>
+        <v>2005</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>1994</v>
+        <v>2005</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>1995</v>
+        <v>2006</v>
       </c>
       <c r="I51" s="8">
         <v>6</v>
@@ -48103,7 +48142,7 @@
         <v>794</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>1996</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="2:4">
@@ -49169,22 +49208,22 @@
         <v>736</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>1997</v>
+        <v>2008</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>1998</v>
+        <v>2009</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>1999</v>
+        <v>2010</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>1999</v>
+        <v>2010</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>2000</v>
+        <v>2011</v>
       </c>
       <c r="I19" s="8">
         <v>6</v>
@@ -49225,22 +49264,22 @@
         <v>736</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>2001</v>
+        <v>2012</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>2002</v>
+        <v>2013</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>2003</v>
+        <v>2014</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>2003</v>
+        <v>2014</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>2004</v>
+        <v>2015</v>
       </c>
       <c r="I20" s="8">
         <v>6</v>
@@ -49281,10 +49320,10 @@
         <v>736</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>2005</v>
+        <v>2016</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>2006</v>
+        <v>2017</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -49313,22 +49352,22 @@
         <v>736</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>2007</v>
+        <v>2018</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>2008</v>
+        <v>2019</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>2009</v>
+        <v>2020</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>2010</v>
+        <v>2021</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>2011</v>
+        <v>2022</v>
       </c>
       <c r="I22" s="8">
         <v>6</v>
@@ -49369,22 +49408,22 @@
         <v>736</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>2012</v>
+        <v>2023</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>2013</v>
+        <v>2024</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>30</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>2014</v>
+        <v>2025</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>2015</v>
+        <v>2026</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>2016</v>
+        <v>2027</v>
       </c>
       <c r="I23" s="8">
         <v>5</v>
@@ -49425,10 +49464,10 @@
         <v>736</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>2017</v>
+        <v>2028</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>2018</v>
+        <v>2029</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
@@ -49457,10 +49496,10 @@
         <v>736</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>2019</v>
+        <v>2030</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>2020</v>
+        <v>2031</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -49489,22 +49528,22 @@
         <v>736</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>2021</v>
+        <v>2032</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>2022</v>
+        <v>2033</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>2023</v>
+        <v>2034</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>2023</v>
+        <v>2034</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>2024</v>
+        <v>2035</v>
       </c>
       <c r="I26" s="8">
         <v>6</v>
@@ -49545,22 +49584,22 @@
         <v>736</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>2025</v>
+        <v>2036</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>2026</v>
+        <v>2037</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>2027</v>
+        <v>2038</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>2027</v>
+        <v>2038</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>2028</v>
+        <v>2039</v>
       </c>
       <c r="I27" s="8">
         <v>6</v>
@@ -49601,22 +49640,22 @@
         <v>736</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>2029</v>
+        <v>2040</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>2030</v>
+        <v>2041</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>2031</v>
+        <v>2042</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>2031</v>
+        <v>2042</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>2032</v>
+        <v>2043</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
@@ -49641,22 +49680,22 @@
         <v>736</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>2033</v>
+        <v>2044</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>2034</v>
+        <v>2045</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>2035</v>
+        <v>2046</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>2035</v>
+        <v>2046</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>2036</v>
+        <v>2047</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
@@ -49681,10 +49720,10 @@
         <v>736</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>2033</v>
+        <v>2044</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>2034</v>
+        <v>2045</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>103</v>
@@ -49696,7 +49735,7 @@
         <v>51</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>2037</v>
+        <v>2048</v>
       </c>
       <c r="I30" s="8">
         <v>5</v>
@@ -49737,22 +49776,22 @@
         <v>736</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>2038</v>
+        <v>2049</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>2039</v>
+        <v>2050</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>2040</v>
+        <v>2051</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>2040</v>
+        <v>2051</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>2041</v>
+        <v>2052</v>
       </c>
       <c r="I31" s="8">
         <v>6</v>
@@ -49793,19 +49832,19 @@
         <v>736</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>2042</v>
+        <v>2053</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>2043</v>
+        <v>2054</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>2044</v>
+        <v>2055</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>2044</v>
+        <v>2055</v>
       </c>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
@@ -49831,10 +49870,10 @@
         <v>736</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>2045</v>
+        <v>2056</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>2046</v>
+        <v>2057</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
@@ -49863,22 +49902,22 @@
         <v>736</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>2047</v>
+        <v>2058</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>2048</v>
+        <v>2059</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>2049</v>
+        <v>2060</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>2049</v>
+        <v>2060</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>2050</v>
+        <v>2061</v>
       </c>
       <c r="I34" s="8">
         <v>6</v>
@@ -49919,10 +49958,10 @@
         <v>736</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>2051</v>
+        <v>2062</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>2052</v>
+        <v>2063</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
@@ -49951,10 +49990,10 @@
         <v>736</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>2053</v>
+        <v>2064</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>2054</v>
+        <v>2065</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
@@ -49983,10 +50022,10 @@
         <v>736</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>2053</v>
+        <v>2064</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>2054</v>
+        <v>2065</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
@@ -50015,10 +50054,10 @@
         <v>736</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>2053</v>
+        <v>2064</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>2054</v>
+        <v>2065</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
@@ -50047,10 +50086,10 @@
         <v>736</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>2053</v>
+        <v>2064</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>2054</v>
+        <v>2065</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
@@ -50082,7 +50121,7 @@
         <v>1300</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>2055</v>
+        <v>2066</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
@@ -50111,10 +50150,10 @@
         <v>736</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>2056</v>
+        <v>2067</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>2057</v>
+        <v>2068</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
@@ -50143,10 +50182,10 @@
         <v>736</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>2058</v>
+        <v>2069</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>2059</v>
+        <v>2070</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
@@ -50175,10 +50214,10 @@
         <v>736</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>2060</v>
+        <v>2071</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>2061</v>
+        <v>2072</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
@@ -50203,10 +50242,10 @@
       <c r="A44" s="8"/>
       <c r="B44" s="5"/>
       <c r="C44" s="8" t="s">
-        <v>2047</v>
+        <v>2058</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>2048</v>
+        <v>2059</v>
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>

--- a/analysis/xlsx/RealisticEval-Data.xlsx
+++ b/analysis/xlsx/RealisticEval-Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13380"/>
+    <workbookView windowWidth="30720" windowHeight="13380" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10324" uniqueCount="2073">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10332" uniqueCount="2081">
   <si>
     <t>task_id</t>
   </si>
@@ -6076,6 +6076,32 @@
   </si>
   <si>
     <t>Convert an angle from degrees to radians</t>
+  </si>
+  <si>
+    <t>addition</t>
+  </si>
+  <si>
+    <t>将HTML中的h1-h6标签转换为对应的markdown中的段落1 到段落6，例如h1 xxx 转换为 # xxx</t>
+  </si>
+  <si>
+    <t>Convert H1-H6 tags in HTML to corresponding paragraphs 1 through 6 in markdown, for example h1 xxx to # xxx</t>
+  </si>
+  <si>
+    <t>/**
+ * @jest-environment jsdom
+ */</t>
+  </si>
+  <si>
+    <t>从摘要字符串这种提取出Categories，第一个完整的句子</t>
+  </si>
+  <si>
+    <t>Extract Categories from the summary string, the first complete sentence</t>
+  </si>
+  <si>
+    <t>计算给定日期与当前日期之间的时间差，返回两个时间之间相隔了多少天，多少小时，多少分钟</t>
+  </si>
+  <si>
+    <t>Calculates the time difference between a given date and the current date, returning how many days, hours, and minutes elapsed between the two times</t>
   </si>
   <si>
     <t xml:space="preserve">IUM-TWEB
@@ -7566,7 +7592,7 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8408,10 +8434,10 @@
   <sheetPr/>
   <dimension ref="A1:Q371"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F6" sqref="F6"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>
@@ -25459,14 +25485,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:B$1048576">
       <formula1>"python,javascript,typescript,java,c&amp;cpp,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K$1:K$1048576 L$1:L$1048576 M$1:M$1048576 Q$1:Q$1048576">
-      <formula1>"yes,no,"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O$1:O$1048576">
       <formula1>"method,class,"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P$1:P$1048576">
       <formula1>"finish,pending,"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q$1:Q$1048576 K$1:M$1048576">
+      <formula1>"yes,no,"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -37471,26 +37497,26 @@
     </row>
   </sheetData>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 K2 L2 J3 K3 L3 J4 K4 L4 J5 K5 L5 J6 K6 L6 J7 K7 L7 J8 K8 L8 J9 K9 L9 K10 L10 L11 J12 J13 K13 J14 K14 L14 J15 K15 L15 J16 K16 L16 J17 K17 L17 J18 K18 L18 J19 K19 L19 J20 K20 L20 J21 K21 L21 J22 K22 L22 J23 K23 L23 J24 K24 L24 J25 K25 L25 J26 K26 L26 J27 K27 L27 J28 K28 L28 J29 K29 L29 J30 K30 L30 J31 K31 L31 J32 K32 L32 J33 K33 L33 J34 K34 L34 J35 K35 L35 J36 K36 L36 J37 K37 L37 J38 K38 L38 J39 K39 L39 J40 K40 L40 J41 K41 L41 J42 K42 L42 J43 K43 L43 J44 K44 L44 J45 K45 L45 J46 K46 L46 J47 K47 L47 J48 K48 L48 J49 K49 L49 J50 K50 L50 J51 K51 L51 J52 K52 L52 J53 K53 L53 J54 K54 L54 J55 K55 L55 J56 K56 L56 J57 K57 L57 J58 K58 L58 J59 K59 L59 J60 K60 L60 J61 K61 L61 J62 K62 L62 J63 K63 L63 J64 K64 L64 J65 K65 L65 J66 K66 L66 J67 K67 L67 J68 K68 L68 J69 K69 L69 J70 K70 L70 J71 K71 L71 J72 K72 L72 J73 K73 L73 J74 K74 L74 J75 K75 L75 J76 K76 L76 J77 K77 L77 J78 K78 L78 J79 K79 L79 J80 K80 L80 J81 K81 L81 J82 K82 L82 J83 K83 L83 J84 K84 L84 J85 K85 L85 J86 K86 L86 J87 K87 L87 J88 K88 L88 J89 K89 L89 J90 K90 L90 J91 K91 L91 J92 K92 L92 J93 K93 L93 J94 K94 L94 J95 K95 L95 J96 K96 L96 J97 K97 L97 J98 K98 L98 J99 K99 L99 J100 K100 L100 J101 K101 L101 J102 K102 L102 J103 K103 L103 J104 K104 L104 J105 K105 L105 J106 K106 L106 J107 K107 L107 J108 K108 L108 J109 K109 L109 J110 K110 L110 J111 K111 L111 J112 K112 L112 J113 K113 L113 J114 K114 L114 J115 K115 L115 J116 K116 L116 J117 K117 L117 J118 K118 L118 J119 K119 L119 J120 K120 L120 J121 K121 L121 J122 K122 L122 J123 K123 L123 J124 K124 L124 J125 K125 L125 J126 K126 L126 J127 K127 L127 J128 K128 L128 J129 K129 L129 J130 K130 L130 J131 K131 L131 J132 K132 L132 J133 K133 L133 J134 K134 L134 J135 K135 L135 J136 K136 L136 J137 K137 L137 J138 K138 L138 J139 K139 L139 J140 K140 L140 J141 K141 L141 J142 K142 L142 J143 K143 L143 J144 K144 L144 J145 K145 L145 J146 K146 L146 J147 K147 L147 J148 K148 L148 J149 K149 L149 J150 K150 L150 J151 K151 L151 J152 K152 L152 J153 K153 L153 J154 K154 L154 J155 K155 L155 J156 K156 L156 J157 K157 L157 J158 K158 L158 J159 K159 L159 J160 K160 L160 J161 K161 L161 J162 K162 L162 J163 K163 L163 J164 K164 L164 J165 K165 L165 J166 K166 L166 J167 K167 L167 J168 K168 L168 J169 K169 L169 J170 K170 L170 J171 K171 L171 J172 K172 L172 J173 K173 L173 J174 K174 L174 J175 K175 L175 J176 K176 L176 J177 K177 L177 J178 K178 L178 J179 K179 L179 J180 K180 L180 J181 K181 L181 J182 K182 L182 J183 K183 L183 J184 K184 L184 J185 K185 L185 J186 K186 L186 J187 K187 L187 J188 K188 L188 J189 K189 L189 J190 K190 L190 J191 K191 L191 J192 K192 L192 J193 K193 L193 J194 K194 L194 J195 K195 L195 J196 K196 L196 J197 K197 L197 J198 K198 L198 J199 K199 L199 J200 K200 L200 J201 K201 L201 J202 K202 L202 J203 K203 L203 J204 K204 L204 J205 K205 L205 J206 K206 L206 J207 K207 L207 J208 K208 L208 J209 K209 L209 J210 K210 L210 J211 K211 L211 J212 K212 L212 J213 K213 L213 J214 K214 L214 J215 K215 L215 J10:J11 K11:K12 L12:L13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:L2 K3:L3 J3:J215 K4:L215">
       <formula1>"yes,no,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2 N3 N4 N5 N6 N7 N8 N9 N10 N11 N12 N13 N16 N17 N18 N19 N20 N21 N22 N23 N24 N25 N26 N27 N28 N29 N30 N31 N32 N33 N34 N35 N36 N37 N38 N39 N40 N41 N42 N43 N44 N45 N46 N47 N48 N49 N50 N51 N52 N53 N54 N55 N56 N57 N58 N59 N60 N61 N62 N63 N64 N65 N66 N67 N68 N69 N70 N71 N72 N73 N74 N75 N76 N77 N78 N79 N80 N81 N82 N83 N84 N85 N86 N87 N88 N89 N90 N91 N92 N93 N94 N95 N96 N97 N98 N99 N100 N101 N102 N103 N104 N105 N106 N107 N108 N109 N110 N111 N112 N113 N114 N115 N116 N14:N15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:U2 T3:U3 O2:O116 R$1:R$1048576 S3:S110 T4:U110">
+      <formula1>"finish,pending,"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B215">
+      <formula1>"python,javascript,typescript,java,c&amp;cpp,"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N116">
       <formula1>"method,class,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 S2 T2 U2 O3 S3 T3 U3 O4 S4 T4 U4 O5 S5 T5 U5 O6 S6 T6 U6 O7 S7 T7 U7 O8 S8 T8 U8 O9 S9 T9 U9 O10 S10 T10 U10 O11 S11 T11 U11 O12 S12 T12 U12 O13 S13 T13 U13 O14 S14 T14 U14 S15 T15 U15 S16 T16 U16 O17 S17 T17 U17 O18 S18 T18 U18 O19 T19 U19 O20 U20 O21 S21 O22 S22 T22 O23 S23 T23 U23 O24 S24 T24 U24 O25 S25 T25 U25 O26 S26 T26 U26 O27 S27 T27 U27 O28 S28 T28 U28 O29 S29 T29 U29 O30 S30 T30 U30 O31 S31 T31 U31 O32 S32 T32 U32 O33 S33 T33 U33 O34 S34 T34 U34 O35 S35 T35 U35 O36 S36 T36 U36 O37 S37 T37 U37 O38 S38 T38 U38 O39 S39 T39 U39 O40 S40 T40 U40 O41 S41 T41 U41 O42 S42 T42 U42 O43 S43 T43 U43 O44 S44 T44 U44 O45 S45 T45 U45 O46 S46 T46 U46 O47 S47 T47 U47 O48 S48 T48 U48 O49 S49 T49 U49 O50 S50 T50 U50 O51 S51 T51 U51 O52 S52 T52 U52 O53 S53 T53 U53 O54 S54 T54 U54 O55 S55 T55 U55 O56 S56 T56 U56 O57 S57 T57 U57 O58 S58 T58 U58 O59 S59 T59 U59 O60 S60 T60 U60 O61 S61 T61 U61 O62 S62 T62 U62 O63 S63 T63 U63 O64 S64 T64 U64 O65 S65 T65 U65 O66 S66 T66 U66 O67 S67 T67 U67 O68 S68 T68 U68 O69 S69 T69 U69 O70 S70 T70 U70 O71 S71 T71 U71 O72 S72 T72 U72 O73 S73 T73 U73 O74 S74 T74 U74 O75 S75 T75 U75 O76 S76 T76 U76 O77 S77 T77 U77 O78 S78 T78 U78 O79 S79 T79 U79 O80 S80 T80 U80 O81 S81 T81 U81 O82 S82 T82 U82 O83 S83 T83 U83 O84 S84 T84 U84 O85 S85 T85 U85 O86 S86 T86 U86 O87 S87 T87 U87 O88 S88 T88 U88 O89 S89 T89 U89 O90 S90 T90 U90 O91 S91 T91 U91 O92 S92 T92 U92 O93 S93 T93 U93 O94 S94 T94 U94 O95 S95 T95 U95 O96 S96 T96 U96 O97 S97 T97 U97 O98 S98 T98 U98 O99 S99 T99 U99 O100 S100 T100 U100 O101 S101 T101 U101 O102 S102 T102 U102 O103 S103 T103 U103 O104 S104 T104 U104 O105 S105 T105 U105 O106 S106 T106 U106 O107 S107 T107 U107 O108 S108 T108 U108 O109 S109 T109 U109 O110 S110 T110 U110 O111 O112 O113 O114 O115 O116 O15:O16 R$1:R$1048576 S19:S20 T20:T21 U21:U22">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="N117:N215">
+      <formula1>"method,class,"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="O117:O215">
       <formula1>"finish,pending,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2 P3 P4 P5 P6 P7 P8 P9 P10 P11 P12 P13 P14 P15 P18 P19 P20 P21 P22 P23 P24 P25 P26 P27 P28 P29 P30 P31 P32 P33 P34 P35 P36 P37 P38 P39 P40 P41 P42 P43 P44 P45 P46 P47 P48 P49 P50 P51 P52 P53 P54 P55 P56 P57 P58 P59 P60 P61 P62 P63 P64 P65 P66 P67 P68 P69 P70 P71 P72 P73 P74 P75 P76 P77 P78 P79 P80 P81 P82 P83 P84 P85 P86 P87 P88 P89 P90 P91 P92 P93 P94 P95 P96 P97 P98 P99 P100 P101 P102 P103 P104 P105 P106 P107 P108 P109 P110 P111 P112 P113 P114 P115 P116 P117 P118 P119 P120 P121 P122 P123 P124 P125 P126 P127 P128 P129 P130 P131 P132 P133 P134 P135 P136 P137 P138 P139 P140 P141 P142 P143 P144 P145 P146 P147 P148 P149 P150 P151 P152 P153 P154 P155 P156 P157 P158 P159 P160 P161 P162 P163 P164 P165 P166 P167 P168 P169 P170 P171 P172 P173 P174 P175 P176 P177 P178 P179 P180 P181 P182 P183 P184 P185 P186 P187 P188 P189 P190 P191 P192 P193 P194 P195 P196 P197 P198 P199 P200 P201 P202 P203 P204 P205 P206 P207 P208 P209 P210 P211 P212 P213 P214 P215 P16:P17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P215">
       <formula1>"yes,no,double_check,"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 B5 B6 B7 B8 B9 B10 B11 B12 B13 B14 B15 B16 B17 B18 B19 B20 B21 B22 B23 B24 B25 B26 B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B49 B50 B51 B52 B53 B54 B55 B56 B57 B58 B59 B60 B61 B62 B63 B64 B65 B66 B67 B68 B69 B70 B71 B72 B73 B74 B75 B76 B77 B78 B79 B80 B81 B82 B83 B84 B85 B86 B87 B88 B89 B90 B91 B92 B93 B94 B95 B96 B97 B98 B99 B100 B101 B102 B103 B104 B105 B106 B107 B108 B109 B110 B111 B112 B113 B114 B115 B116 B117 B118 B119 B120 B121 B122 B123 B124 B125 B126 B127 B128 B129 B130 B131 B132 B133 B134 B135 B136 B137 B138 B139 B140 B141 B142 B143 B144 B145 B146 B147 B148 B149 B150 B151 B152 B153 B154 B155 B156 B157 B158 B159 B160 B161 B162 B163 B164 B165 B166 B167 B168 B169 B170 B171 B172 B173 B174 B175 B176 B177 B178 B179 B180 B181 B182 B183 B184 B185 B186 B187 B188 B189 B190 B191 B192 B193 B194 B195 B196 B197 B198 B199 B200 B201 B202 B203 B204 B205 B206 B207 B208 B209 B210 B211 B212 B213 B214 B215 B2:B3">
-      <formula1>"python,javascript,typescript,java,c&amp;cpp,"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="N117 N118 N119 N120 N121 N122 N123 N124 N125 N126 N127 N128 N129 N130 N131 N132 N133 N134 N135 N136 N137 N138 N139 N140 N141 N142 N143 N144 N145 N146 N147 N148 N149 N150 N151 N152 N153 N154 N155 N156 N157 N158 N159 N160 N161 N162 N163 N164 N165 N166 N167 N168 N169 N170 N171 N172 N173 N174 N175 N176 N177 N178 N179 N180 N181 N182 N183 N184 N185 N186 N187 N188 N189 N190 N191 N192 N193 N194 N195 N196 N197 N198 N199 N200 N201 N202 N203 N204 N205 N206 N207 N208 N209 N210 N211 N212 N213 N214 N215">
-      <formula1>"method,class,"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="O117 O118 O119 O120 O121 O122 O123 O124 O125 O126 O127 O128 O129 O130 O131 O132 O133 O134 O135 O136 O137 O138 O139 O140 O141 O142 O143 O144 O145 O146 O147 O148 O149 O150 O151 O152 O153 O154 O155 O156 O157 O158 O159 O160 O161 O162 O163 O164 O165 O166 O167 O168 O169 O170 O171 O172 O173 O174 O175 O176 O177 O178 O179 O180 O181 O182 O183 O184 O185 O186 O187 O188 O189 O190 O191 O192 O193 O194 O195 O196 O197 O198 O199 O200 O201 O202 O203 O204 O205 O206 O207 O208 O209 O210 O211 O212 O213 O214 O215">
-      <formula1>"finish,pending,"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -37506,17 +37532,17 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="javascript"/>
-  <dimension ref="A1:U92"/>
+  <dimension ref="A1:V92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:21">
+    <row r="1" customHeight="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -37565,23 +37591,26 @@
       <c r="P1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>1813</v>
+      </c>
+      <c r="R1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="26" t="s">
+      <c r="S1" s="26" t="s">
         <v>398</v>
       </c>
-      <c r="S1" s="24" t="s">
+      <c r="T1" s="24" t="s">
         <v>613</v>
       </c>
-      <c r="T1" s="24" t="s">
+      <c r="U1" s="24" t="s">
         <v>794</v>
       </c>
-      <c r="U1" s="24" t="s">
+      <c r="V1" s="24" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:21">
+    <row r="2" customHeight="1" spans="1:22">
       <c r="A2" s="4">
         <v>87</v>
       </c>
@@ -37630,13 +37659,13 @@
       <c r="P2" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="23"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="27"/>
       <c r="T2" s="23"/>
       <c r="U2" s="23"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:21">
+      <c r="V2" s="23"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:22">
       <c r="A3" s="4">
         <v>88</v>
       </c>
@@ -37685,13 +37714,13 @@
       <c r="P3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="23"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="27"/>
       <c r="T3" s="23"/>
       <c r="U3" s="23"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:21">
+      <c r="V3" s="23"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:22">
       <c r="A4" s="4">
         <v>89</v>
       </c>
@@ -37740,13 +37769,13 @@
       <c r="P4" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="23"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="27"/>
       <c r="T4" s="23"/>
       <c r="U4" s="23"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:21">
+      <c r="V4" s="23"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:22">
       <c r="A5" s="4">
         <v>92</v>
       </c>
@@ -37795,13 +37824,13 @@
       <c r="P5" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="23"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="27"/>
       <c r="T5" s="23"/>
       <c r="U5" s="23"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:21">
+      <c r="V5" s="23"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:22">
       <c r="A6" s="4">
         <v>93</v>
       </c>
@@ -37850,13 +37879,13 @@
       <c r="P6" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="23"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="27"/>
       <c r="T6" s="23"/>
       <c r="U6" s="23"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:21">
+      <c r="V6" s="23"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:22">
       <c r="A7" s="4">
         <v>94</v>
       </c>
@@ -37905,13 +37934,13 @@
       <c r="P7" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="23"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="27"/>
       <c r="T7" s="23"/>
       <c r="U7" s="23"/>
-    </row>
-    <row r="8" customHeight="1" spans="1:21">
+      <c r="V7" s="23"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:22">
       <c r="A8" s="4">
         <v>95</v>
       </c>
@@ -37960,13 +37989,13 @@
       <c r="P8" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="23"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="27"/>
       <c r="T8" s="23"/>
       <c r="U8" s="23"/>
-    </row>
-    <row r="9" customHeight="1" spans="1:21">
+      <c r="V8" s="23"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:22">
       <c r="A9" s="4">
         <v>96</v>
       </c>
@@ -38015,13 +38044,13 @@
       <c r="P9" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="23"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="27"/>
       <c r="T9" s="23"/>
       <c r="U9" s="23"/>
-    </row>
-    <row r="10" customHeight="1" spans="1:21">
+      <c r="V9" s="23"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:22">
       <c r="A10" s="4">
         <v>97</v>
       </c>
@@ -38070,13 +38099,13 @@
       <c r="P10" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="23"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="27"/>
       <c r="T10" s="23"/>
       <c r="U10" s="23"/>
-    </row>
-    <row r="11" customHeight="1" spans="1:21">
+      <c r="V10" s="23"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:22">
       <c r="A11" s="4">
         <v>99</v>
       </c>
@@ -38125,13 +38154,13 @@
       <c r="P11" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="23"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="27"/>
       <c r="T11" s="23"/>
       <c r="U11" s="23"/>
-    </row>
-    <row r="12" customHeight="1" spans="1:21">
+      <c r="V11" s="23"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:22">
       <c r="A12" s="4">
         <v>100</v>
       </c>
@@ -38180,13 +38209,13 @@
       <c r="P12" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="23"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="27"/>
       <c r="T12" s="23"/>
       <c r="U12" s="23"/>
-    </row>
-    <row r="13" customHeight="1" spans="1:21">
+      <c r="V12" s="23"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:22">
       <c r="A13" s="4">
         <v>101</v>
       </c>
@@ -38235,13 +38264,13 @@
       <c r="P13" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="23"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="27"/>
       <c r="T13" s="23"/>
       <c r="U13" s="23"/>
-    </row>
-    <row r="14" customHeight="1" spans="1:21">
+      <c r="V13" s="23"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:22">
       <c r="A14" s="4">
         <v>103</v>
       </c>
@@ -38290,13 +38319,13 @@
       <c r="P14" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="23"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="27"/>
       <c r="T14" s="23"/>
       <c r="U14" s="23"/>
-    </row>
-    <row r="15" customHeight="1" spans="1:21">
+      <c r="V14" s="23"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:22">
       <c r="A15" s="4">
         <v>104</v>
       </c>
@@ -38345,13 +38374,13 @@
       <c r="P15" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="23"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="27"/>
       <c r="T15" s="23"/>
       <c r="U15" s="23"/>
-    </row>
-    <row r="16" customHeight="1" spans="1:21">
+      <c r="V15" s="23"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:22">
       <c r="A16" s="4">
         <v>105</v>
       </c>
@@ -38398,13 +38427,13 @@
         <v>27</v>
       </c>
       <c r="P16" s="23"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="23"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="27"/>
       <c r="T16" s="23"/>
       <c r="U16" s="23"/>
-    </row>
-    <row r="17" customHeight="1" spans="1:21">
+      <c r="V16" s="23"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:22">
       <c r="A17" s="4">
         <v>106</v>
       </c>
@@ -38453,13 +38482,13 @@
       <c r="P17" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="23"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="27"/>
       <c r="T17" s="23"/>
       <c r="U17" s="23"/>
-    </row>
-    <row r="18" customHeight="1" spans="1:21">
+      <c r="V17" s="23"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:22">
       <c r="A18" s="4">
         <v>107</v>
       </c>
@@ -38508,13 +38537,13 @@
       <c r="P18" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="23"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="27"/>
       <c r="T18" s="23"/>
       <c r="U18" s="23"/>
-    </row>
-    <row r="19" customHeight="1" spans="1:21">
+      <c r="V18" s="23"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:22">
       <c r="A19" s="4">
         <v>108</v>
       </c>
@@ -38563,13 +38592,13 @@
       <c r="P19" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="23"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="27"/>
       <c r="T19" s="23"/>
       <c r="U19" s="23"/>
-    </row>
-    <row r="20" customHeight="1" spans="1:21">
+      <c r="V19" s="23"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:22">
       <c r="A20" s="4">
         <v>109</v>
       </c>
@@ -38618,13 +38647,13 @@
       <c r="P20" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="23"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="27"/>
       <c r="T20" s="23"/>
       <c r="U20" s="23"/>
-    </row>
-    <row r="21" customHeight="1" spans="1:21">
+      <c r="V20" s="23"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:22">
       <c r="A21" s="4">
         <v>110</v>
       </c>
@@ -38673,13 +38702,13 @@
       <c r="P21" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="23"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="27"/>
       <c r="T21" s="23"/>
       <c r="U21" s="23"/>
-    </row>
-    <row r="22" customHeight="1" spans="1:21">
+      <c r="V21" s="23"/>
+    </row>
+    <row r="22" customHeight="1" spans="1:22">
       <c r="A22" s="4">
         <v>111</v>
       </c>
@@ -38728,13 +38757,13 @@
       <c r="P22" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="23"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="27"/>
       <c r="T22" s="23"/>
       <c r="U22" s="23"/>
-    </row>
-    <row r="23" customHeight="1" spans="1:21">
+      <c r="V22" s="23"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:22">
       <c r="A23" s="4">
         <v>112</v>
       </c>
@@ -38754,10 +38783,10 @@
         <v>499</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>500</v>
+        <v>1814</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>501</v>
+        <v>1815</v>
       </c>
       <c r="I23" s="8">
         <v>5</v>
@@ -38783,13 +38812,13 @@
       <c r="P23" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="23"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="27"/>
       <c r="T23" s="23"/>
       <c r="U23" s="23"/>
-    </row>
-    <row r="24" customHeight="1" spans="1:21">
+      <c r="V23" s="23"/>
+    </row>
+    <row r="24" customHeight="1" spans="1:22">
       <c r="A24" s="4">
         <v>113</v>
       </c>
@@ -38815,7 +38844,7 @@
         <v>504</v>
       </c>
       <c r="I24" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J24" s="22" t="s">
         <v>24</v>
@@ -38838,13 +38867,16 @@
       <c r="P24" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="23"/>
+      <c r="Q24" s="8" t="s">
+        <v>1816</v>
+      </c>
+      <c r="R24" s="28"/>
+      <c r="S24" s="27"/>
       <c r="T24" s="23"/>
       <c r="U24" s="23"/>
-    </row>
-    <row r="25" customHeight="1" spans="1:21">
+      <c r="V24" s="23"/>
+    </row>
+    <row r="25" customHeight="1" spans="1:22">
       <c r="A25" s="4">
         <v>114</v>
       </c>
@@ -38893,13 +38925,13 @@
       <c r="P25" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="23"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="27"/>
       <c r="T25" s="23"/>
       <c r="U25" s="23"/>
-    </row>
-    <row r="26" customHeight="1" spans="1:21">
+      <c r="V25" s="23"/>
+    </row>
+    <row r="26" customHeight="1" spans="1:22">
       <c r="A26" s="4">
         <v>115</v>
       </c>
@@ -38948,13 +38980,13 @@
       <c r="P26" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="27"/>
-      <c r="S26" s="23"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="27"/>
       <c r="T26" s="23"/>
       <c r="U26" s="23"/>
-    </row>
-    <row r="27" customHeight="1" spans="1:21">
+      <c r="V26" s="23"/>
+    </row>
+    <row r="27" customHeight="1" spans="1:22">
       <c r="A27" s="4">
         <v>116</v>
       </c>
@@ -39003,13 +39035,13 @@
       <c r="P27" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q27" s="28"/>
-      <c r="R27" s="27"/>
-      <c r="S27" s="23"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="27"/>
       <c r="T27" s="23"/>
       <c r="U27" s="23"/>
-    </row>
-    <row r="28" customHeight="1" spans="1:21">
+      <c r="V27" s="23"/>
+    </row>
+    <row r="28" customHeight="1" spans="1:22">
       <c r="A28" s="4">
         <v>117</v>
       </c>
@@ -39058,13 +39090,13 @@
       <c r="P28" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q28" s="28"/>
-      <c r="R28" s="27"/>
-      <c r="S28" s="23"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="27"/>
       <c r="T28" s="23"/>
       <c r="U28" s="23"/>
-    </row>
-    <row r="29" customHeight="1" spans="1:21">
+      <c r="V28" s="23"/>
+    </row>
+    <row r="29" customHeight="1" spans="1:22">
       <c r="A29" s="4">
         <v>118</v>
       </c>
@@ -39113,13 +39145,13 @@
       <c r="P29" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q29" s="28"/>
-      <c r="R29" s="27"/>
-      <c r="S29" s="23"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="27"/>
       <c r="T29" s="23"/>
       <c r="U29" s="23"/>
-    </row>
-    <row r="30" customHeight="1" spans="1:21">
+      <c r="V29" s="23"/>
+    </row>
+    <row r="30" customHeight="1" spans="1:22">
       <c r="A30" s="4">
         <v>119</v>
       </c>
@@ -39168,13 +39200,13 @@
       <c r="P30" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q30" s="28"/>
-      <c r="R30" s="27"/>
-      <c r="S30" s="23"/>
+      <c r="R30" s="28"/>
+      <c r="S30" s="27"/>
       <c r="T30" s="23"/>
       <c r="U30" s="23"/>
-    </row>
-    <row r="31" customHeight="1" spans="1:21">
+      <c r="V30" s="23"/>
+    </row>
+    <row r="31" customHeight="1" spans="1:22">
       <c r="A31" s="4">
         <v>120</v>
       </c>
@@ -39223,13 +39255,13 @@
       <c r="P31" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q31" s="28"/>
-      <c r="R31" s="27"/>
-      <c r="S31" s="23"/>
+      <c r="R31" s="28"/>
+      <c r="S31" s="27"/>
       <c r="T31" s="23"/>
       <c r="U31" s="23"/>
-    </row>
-    <row r="32" customHeight="1" spans="1:21">
+      <c r="V31" s="23"/>
+    </row>
+    <row r="32" customHeight="1" spans="1:22">
       <c r="A32" s="4">
         <v>121</v>
       </c>
@@ -39278,13 +39310,13 @@
       <c r="P32" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q32" s="28"/>
-      <c r="R32" s="27"/>
-      <c r="S32" s="23"/>
+      <c r="R32" s="28"/>
+      <c r="S32" s="27"/>
       <c r="T32" s="23"/>
       <c r="U32" s="23"/>
-    </row>
-    <row r="33" customHeight="1" spans="1:21">
+      <c r="V32" s="23"/>
+    </row>
+    <row r="33" customHeight="1" spans="1:22">
       <c r="A33" s="4">
         <v>122</v>
       </c>
@@ -39333,13 +39365,13 @@
       <c r="P33" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q33" s="28"/>
-      <c r="R33" s="27"/>
-      <c r="S33" s="23"/>
+      <c r="R33" s="28"/>
+      <c r="S33" s="27"/>
       <c r="T33" s="23"/>
       <c r="U33" s="23"/>
-    </row>
-    <row r="34" customHeight="1" spans="1:21">
+      <c r="V33" s="23"/>
+    </row>
+    <row r="34" customHeight="1" spans="1:22">
       <c r="A34" s="4">
         <v>123</v>
       </c>
@@ -39388,13 +39420,13 @@
       <c r="P34" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q34" s="28"/>
-      <c r="R34" s="27"/>
-      <c r="S34" s="23"/>
+      <c r="R34" s="28"/>
+      <c r="S34" s="27"/>
       <c r="T34" s="23"/>
       <c r="U34" s="23"/>
-    </row>
-    <row r="35" customHeight="1" spans="1:21">
+      <c r="V34" s="23"/>
+    </row>
+    <row r="35" customHeight="1" spans="1:22">
       <c r="A35" s="4">
         <v>124</v>
       </c>
@@ -39443,13 +39475,13 @@
       <c r="P35" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q35" s="28"/>
-      <c r="R35" s="27"/>
-      <c r="S35" s="23"/>
+      <c r="R35" s="28"/>
+      <c r="S35" s="27"/>
       <c r="T35" s="23"/>
       <c r="U35" s="23"/>
-    </row>
-    <row r="36" customHeight="1" spans="1:21">
+      <c r="V35" s="23"/>
+    </row>
+    <row r="36" customHeight="1" spans="1:22">
       <c r="A36" s="4">
         <v>125</v>
       </c>
@@ -39498,13 +39530,13 @@
       <c r="P36" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q36" s="28"/>
-      <c r="R36" s="27"/>
-      <c r="S36" s="23"/>
+      <c r="R36" s="28"/>
+      <c r="S36" s="27"/>
       <c r="T36" s="23"/>
       <c r="U36" s="23"/>
-    </row>
-    <row r="37" customHeight="1" spans="1:21">
+      <c r="V36" s="23"/>
+    </row>
+    <row r="37" customHeight="1" spans="1:22">
       <c r="A37" s="4">
         <v>126</v>
       </c>
@@ -39553,13 +39585,13 @@
       <c r="P37" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q37" s="28"/>
-      <c r="R37" s="27"/>
-      <c r="S37" s="23"/>
+      <c r="R37" s="28"/>
+      <c r="S37" s="27"/>
       <c r="T37" s="23"/>
       <c r="U37" s="23"/>
-    </row>
-    <row r="38" customHeight="1" spans="1:21">
+      <c r="V37" s="23"/>
+    </row>
+    <row r="38" customHeight="1" spans="1:22">
       <c r="A38" s="4">
         <v>127</v>
       </c>
@@ -39608,13 +39640,13 @@
       <c r="P38" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q38" s="28"/>
-      <c r="R38" s="27"/>
-      <c r="S38" s="23"/>
+      <c r="R38" s="28"/>
+      <c r="S38" s="27"/>
       <c r="T38" s="23"/>
       <c r="U38" s="23"/>
-    </row>
-    <row r="39" customHeight="1" spans="1:21">
+      <c r="V38" s="23"/>
+    </row>
+    <row r="39" customHeight="1" spans="1:22">
       <c r="A39" s="4">
         <v>129</v>
       </c>
@@ -39663,13 +39695,13 @@
       <c r="P39" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q39" s="28"/>
-      <c r="R39" s="27"/>
-      <c r="S39" s="23"/>
+      <c r="R39" s="28"/>
+      <c r="S39" s="27"/>
       <c r="T39" s="23"/>
       <c r="U39" s="23"/>
-    </row>
-    <row r="40" customHeight="1" spans="1:21">
+      <c r="V39" s="23"/>
+    </row>
+    <row r="40" customHeight="1" spans="1:22">
       <c r="A40" s="4">
         <v>130</v>
       </c>
@@ -39718,13 +39750,13 @@
       <c r="P40" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q40" s="28"/>
-      <c r="R40" s="27"/>
-      <c r="S40" s="23"/>
+      <c r="R40" s="28"/>
+      <c r="S40" s="27"/>
       <c r="T40" s="23"/>
       <c r="U40" s="23"/>
-    </row>
-    <row r="41" customHeight="1" spans="1:21">
+      <c r="V40" s="23"/>
+    </row>
+    <row r="41" customHeight="1" spans="1:22">
       <c r="A41" s="4">
         <v>131</v>
       </c>
@@ -39773,13 +39805,13 @@
       <c r="P41" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q41" s="28"/>
-      <c r="R41" s="27"/>
-      <c r="S41" s="23"/>
+      <c r="R41" s="28"/>
+      <c r="S41" s="27"/>
       <c r="T41" s="23"/>
       <c r="U41" s="23"/>
-    </row>
-    <row r="42" customHeight="1" spans="1:21">
+      <c r="V41" s="23"/>
+    </row>
+    <row r="42" customHeight="1" spans="1:22">
       <c r="A42" s="4">
         <v>132</v>
       </c>
@@ -39828,13 +39860,13 @@
       <c r="P42" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q42" s="28"/>
-      <c r="R42" s="27"/>
-      <c r="S42" s="23"/>
+      <c r="R42" s="28"/>
+      <c r="S42" s="27"/>
       <c r="T42" s="23"/>
       <c r="U42" s="23"/>
-    </row>
-    <row r="43" customHeight="1" spans="1:21">
+      <c r="V42" s="23"/>
+    </row>
+    <row r="43" customHeight="1" spans="1:22">
       <c r="A43" s="4">
         <v>133</v>
       </c>
@@ -39883,13 +39915,13 @@
       <c r="P43" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q43" s="28"/>
-      <c r="R43" s="27"/>
-      <c r="S43" s="23"/>
+      <c r="R43" s="28"/>
+      <c r="S43" s="27"/>
       <c r="T43" s="23"/>
       <c r="U43" s="23"/>
-    </row>
-    <row r="44" customHeight="1" spans="1:21">
+      <c r="V43" s="23"/>
+    </row>
+    <row r="44" customHeight="1" spans="1:22">
       <c r="A44" s="4">
         <v>134</v>
       </c>
@@ -39938,13 +39970,13 @@
       <c r="P44" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q44" s="28"/>
-      <c r="R44" s="27"/>
-      <c r="S44" s="23"/>
+      <c r="R44" s="28"/>
+      <c r="S44" s="27"/>
       <c r="T44" s="23"/>
       <c r="U44" s="23"/>
-    </row>
-    <row r="45" customHeight="1" spans="1:21">
+      <c r="V44" s="23"/>
+    </row>
+    <row r="45" customHeight="1" spans="1:22">
       <c r="A45" s="4">
         <v>135</v>
       </c>
@@ -39993,13 +40025,13 @@
       <c r="P45" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q45" s="28"/>
-      <c r="R45" s="27"/>
-      <c r="S45" s="23"/>
+      <c r="R45" s="28"/>
+      <c r="S45" s="27"/>
       <c r="T45" s="23"/>
       <c r="U45" s="23"/>
-    </row>
-    <row r="46" customHeight="1" spans="1:21">
+      <c r="V45" s="23"/>
+    </row>
+    <row r="46" customHeight="1" spans="1:22">
       <c r="A46" s="4">
         <v>136</v>
       </c>
@@ -40038,13 +40070,13 @@
       <c r="N46" s="23"/>
       <c r="O46" s="23"/>
       <c r="P46" s="23"/>
-      <c r="Q46" s="28"/>
-      <c r="R46" s="27"/>
-      <c r="S46" s="23"/>
+      <c r="R46" s="28"/>
+      <c r="S46" s="27"/>
       <c r="T46" s="23"/>
       <c r="U46" s="23"/>
-    </row>
-    <row r="47" customHeight="1" spans="1:21">
+      <c r="V46" s="23"/>
+    </row>
+    <row r="47" customHeight="1" spans="1:22">
       <c r="A47" s="4">
         <v>137</v>
       </c>
@@ -40093,13 +40125,13 @@
       <c r="P47" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q47" s="28"/>
-      <c r="R47" s="27"/>
-      <c r="S47" s="23"/>
+      <c r="R47" s="28"/>
+      <c r="S47" s="27"/>
       <c r="T47" s="23"/>
       <c r="U47" s="23"/>
-    </row>
-    <row r="48" customHeight="1" spans="1:21">
+      <c r="V47" s="23"/>
+    </row>
+    <row r="48" customHeight="1" spans="1:22">
       <c r="A48" s="4">
         <v>138</v>
       </c>
@@ -40148,13 +40180,13 @@
       <c r="P48" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q48" s="28"/>
-      <c r="R48" s="27"/>
-      <c r="S48" s="23"/>
+      <c r="R48" s="28"/>
+      <c r="S48" s="27"/>
       <c r="T48" s="23"/>
       <c r="U48" s="23"/>
-    </row>
-    <row r="49" customHeight="1" spans="1:21">
+      <c r="V48" s="23"/>
+    </row>
+    <row r="49" customHeight="1" spans="1:22">
       <c r="A49" s="4">
         <v>139</v>
       </c>
@@ -40174,10 +40206,10 @@
         <v>610</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>611</v>
+        <v>1817</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>612</v>
+        <v>1818</v>
       </c>
       <c r="I49" s="8">
         <v>5</v>
@@ -40203,13 +40235,13 @@
       <c r="P49" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q49" s="28"/>
-      <c r="R49" s="27"/>
-      <c r="S49" s="23"/>
+      <c r="R49" s="28"/>
+      <c r="S49" s="27"/>
       <c r="T49" s="23"/>
       <c r="U49" s="23"/>
-    </row>
-    <row r="50" customHeight="1" spans="1:21">
+      <c r="V49" s="23"/>
+    </row>
+    <row r="50" customHeight="1" spans="1:22">
       <c r="A50" s="4">
         <v>292</v>
       </c>
@@ -40258,13 +40290,14 @@
       <c r="P50" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q50" s="28"/>
-      <c r="R50" s="27"/>
-      <c r="S50" s="23"/>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="28"/>
+      <c r="S50" s="27"/>
       <c r="T50" s="23"/>
       <c r="U50" s="23"/>
-    </row>
-    <row r="51" customHeight="1" spans="1:21">
+      <c r="V50" s="23"/>
+    </row>
+    <row r="51" customHeight="1" spans="1:22">
       <c r="A51" s="30">
         <v>293</v>
       </c>
@@ -40313,13 +40346,13 @@
       <c r="P51" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="Q51" s="28"/>
-      <c r="R51" s="27"/>
-      <c r="S51" s="23"/>
+      <c r="R51" s="28"/>
+      <c r="S51" s="27"/>
       <c r="T51" s="23"/>
       <c r="U51" s="23"/>
-    </row>
-    <row r="52" customHeight="1" spans="1:21">
+      <c r="V51" s="23"/>
+    </row>
+    <row r="52" customHeight="1" spans="1:22">
       <c r="A52" s="4">
         <v>297</v>
       </c>
@@ -40366,13 +40399,13 @@
         <v>27</v>
       </c>
       <c r="P52" s="23"/>
-      <c r="Q52" s="28"/>
-      <c r="R52" s="27"/>
-      <c r="S52" s="23"/>
+      <c r="R52" s="28"/>
+      <c r="S52" s="27"/>
       <c r="T52" s="23"/>
       <c r="U52" s="23"/>
-    </row>
-    <row r="53" customHeight="1" spans="1:21">
+      <c r="V52" s="23"/>
+    </row>
+    <row r="53" customHeight="1" spans="1:22">
       <c r="A53" s="4">
         <v>298</v>
       </c>
@@ -40421,13 +40454,13 @@
       <c r="P53" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q53" s="28"/>
-      <c r="R53" s="27"/>
-      <c r="S53" s="23"/>
+      <c r="R53" s="28"/>
+      <c r="S53" s="27"/>
       <c r="T53" s="23"/>
       <c r="U53" s="23"/>
-    </row>
-    <row r="54" customHeight="1" spans="1:21">
+      <c r="V53" s="23"/>
+    </row>
+    <row r="54" customHeight="1" spans="1:22">
       <c r="A54" s="4">
         <v>299</v>
       </c>
@@ -40476,13 +40509,13 @@
       <c r="P54" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q54" s="28"/>
-      <c r="R54" s="27"/>
-      <c r="S54" s="23"/>
+      <c r="R54" s="28"/>
+      <c r="S54" s="27"/>
       <c r="T54" s="23"/>
       <c r="U54" s="23"/>
-    </row>
-    <row r="55" customHeight="1" spans="1:21">
+      <c r="V54" s="23"/>
+    </row>
+    <row r="55" customHeight="1" spans="1:22">
       <c r="A55" s="4">
         <v>300</v>
       </c>
@@ -40531,13 +40564,16 @@
       <c r="P55" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q55" s="28"/>
-      <c r="R55" s="27"/>
-      <c r="S55" s="23"/>
+      <c r="Q55" s="8" t="s">
+        <v>1816</v>
+      </c>
+      <c r="R55" s="28"/>
+      <c r="S55" s="27"/>
       <c r="T55" s="23"/>
       <c r="U55" s="23"/>
-    </row>
-    <row r="56" customHeight="1" spans="1:21">
+      <c r="V55" s="23"/>
+    </row>
+    <row r="56" customHeight="1" spans="1:22">
       <c r="A56" s="4">
         <v>305</v>
       </c>
@@ -40586,13 +40622,13 @@
       <c r="P56" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q56" s="28"/>
-      <c r="R56" s="27"/>
-      <c r="S56" s="23"/>
+      <c r="R56" s="28"/>
+      <c r="S56" s="27"/>
       <c r="T56" s="23"/>
       <c r="U56" s="23"/>
-    </row>
-    <row r="57" customHeight="1" spans="1:21">
+      <c r="V56" s="23"/>
+    </row>
+    <row r="57" customHeight="1" spans="1:22">
       <c r="A57" s="4">
         <v>306</v>
       </c>
@@ -40641,13 +40677,13 @@
       <c r="P57" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q57" s="28"/>
-      <c r="R57" s="27"/>
-      <c r="S57" s="23"/>
+      <c r="R57" s="28"/>
+      <c r="S57" s="27"/>
       <c r="T57" s="23"/>
       <c r="U57" s="23"/>
-    </row>
-    <row r="58" customHeight="1" spans="1:21">
+      <c r="V57" s="23"/>
+    </row>
+    <row r="58" customHeight="1" spans="1:22">
       <c r="A58" s="4">
         <v>308</v>
       </c>
@@ -40696,13 +40732,13 @@
       <c r="P58" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q58" s="28"/>
-      <c r="R58" s="27"/>
-      <c r="S58" s="23"/>
+      <c r="R58" s="28"/>
+      <c r="S58" s="27"/>
       <c r="T58" s="23"/>
       <c r="U58" s="23"/>
-    </row>
-    <row r="59" customHeight="1" spans="1:21">
+      <c r="V58" s="23"/>
+    </row>
+    <row r="59" customHeight="1" spans="1:22">
       <c r="A59" s="30">
         <v>313</v>
       </c>
@@ -40749,13 +40785,16 @@
       <c r="P59" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="Q59" s="28"/>
-      <c r="R59" s="27"/>
-      <c r="S59" s="23"/>
+      <c r="Q59" s="8" t="s">
+        <v>1816</v>
+      </c>
+      <c r="R59" s="28"/>
+      <c r="S59" s="27"/>
       <c r="T59" s="23"/>
       <c r="U59" s="23"/>
-    </row>
-    <row r="60" customHeight="1" spans="1:21">
+      <c r="V59" s="23"/>
+    </row>
+    <row r="60" customHeight="1" spans="1:22">
       <c r="A60" s="4">
         <v>315</v>
       </c>
@@ -40804,13 +40843,13 @@
       <c r="P60" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q60" s="28"/>
-      <c r="R60" s="27"/>
-      <c r="S60" s="23"/>
+      <c r="R60" s="28"/>
+      <c r="S60" s="27"/>
       <c r="T60" s="23"/>
       <c r="U60" s="23"/>
-    </row>
-    <row r="61" customHeight="1" spans="1:21">
+      <c r="V60" s="23"/>
+    </row>
+    <row r="61" customHeight="1" spans="1:22">
       <c r="A61" s="4">
         <v>317</v>
       </c>
@@ -40836,7 +40875,7 @@
         <v>1239</v>
       </c>
       <c r="I61" s="8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J61" s="22" t="s">
         <v>24</v>
@@ -40859,13 +40898,13 @@
       <c r="P61" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q61" s="28"/>
-      <c r="R61" s="27"/>
-      <c r="S61" s="23"/>
+      <c r="R61" s="28"/>
+      <c r="S61" s="27"/>
       <c r="T61" s="23"/>
       <c r="U61" s="23"/>
-    </row>
-    <row r="62" customHeight="1" spans="1:21">
+      <c r="V61" s="23"/>
+    </row>
+    <row r="62" customHeight="1" spans="1:22">
       <c r="A62" s="4">
         <v>318</v>
       </c>
@@ -40914,13 +40953,13 @@
       <c r="P62" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q62" s="28"/>
-      <c r="R62" s="27"/>
-      <c r="S62" s="23"/>
+      <c r="R62" s="28"/>
+      <c r="S62" s="27"/>
       <c r="T62" s="23"/>
       <c r="U62" s="23"/>
-    </row>
-    <row r="63" customHeight="1" spans="1:21">
+      <c r="V62" s="23"/>
+    </row>
+    <row r="63" customHeight="1" spans="1:22">
       <c r="A63" s="4">
         <v>319</v>
       </c>
@@ -40969,13 +41008,13 @@
       <c r="P63" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q63" s="28"/>
-      <c r="R63" s="27"/>
-      <c r="S63" s="23"/>
+      <c r="R63" s="28"/>
+      <c r="S63" s="27"/>
       <c r="T63" s="23"/>
       <c r="U63" s="23"/>
-    </row>
-    <row r="64" customHeight="1" spans="1:21">
+      <c r="V63" s="23"/>
+    </row>
+    <row r="64" customHeight="1" spans="1:22">
       <c r="A64" s="4">
         <v>320</v>
       </c>
@@ -41024,13 +41063,13 @@
       <c r="P64" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q64" s="28"/>
-      <c r="R64" s="27"/>
-      <c r="S64" s="23"/>
+      <c r="R64" s="28"/>
+      <c r="S64" s="27"/>
       <c r="T64" s="23"/>
       <c r="U64" s="23"/>
-    </row>
-    <row r="65" customHeight="1" spans="1:21">
+      <c r="V64" s="23"/>
+    </row>
+    <row r="65" customHeight="1" spans="1:22">
       <c r="A65" s="4">
         <v>322</v>
       </c>
@@ -41079,13 +41118,13 @@
       <c r="P65" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q65" s="28"/>
-      <c r="R65" s="27"/>
-      <c r="S65" s="23"/>
+      <c r="R65" s="28"/>
+      <c r="S65" s="27"/>
       <c r="T65" s="23"/>
       <c r="U65" s="23"/>
-    </row>
-    <row r="66" customHeight="1" spans="1:21">
+      <c r="V65" s="23"/>
+    </row>
+    <row r="66" customHeight="1" spans="1:22">
       <c r="A66" s="4">
         <v>323</v>
       </c>
@@ -41134,13 +41173,13 @@
       <c r="P66" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q66" s="28"/>
-      <c r="R66" s="27"/>
-      <c r="S66" s="23"/>
+      <c r="R66" s="28"/>
+      <c r="S66" s="27"/>
       <c r="T66" s="23"/>
       <c r="U66" s="23"/>
-    </row>
-    <row r="67" customHeight="1" spans="1:21">
+      <c r="V66" s="23"/>
+    </row>
+    <row r="67" customHeight="1" spans="1:22">
       <c r="A67" s="4">
         <v>326</v>
       </c>
@@ -41160,10 +41199,10 @@
         <v>1261</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>1262</v>
+        <v>1819</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>1263</v>
+        <v>1820</v>
       </c>
       <c r="I67" s="8">
         <v>5</v>
@@ -41189,13 +41228,13 @@
       <c r="P67" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q67" s="28"/>
-      <c r="R67" s="27"/>
-      <c r="S67" s="23"/>
+      <c r="R67" s="28"/>
+      <c r="S67" s="27"/>
       <c r="T67" s="23"/>
       <c r="U67" s="23"/>
-    </row>
-    <row r="68" customHeight="1" spans="1:21">
+      <c r="V67" s="23"/>
+    </row>
+    <row r="68" customHeight="1" spans="1:22">
       <c r="A68" s="4">
         <v>447</v>
       </c>
@@ -41203,22 +41242,22 @@
         <v>398</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>1813</v>
+        <v>1821</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>1814</v>
+        <v>1822</v>
       </c>
       <c r="E68" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>1815</v>
+        <v>1823</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>1815</v>
+        <v>1823</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>1816</v>
+        <v>1824</v>
       </c>
       <c r="I68" s="8">
         <v>4</v>
@@ -41244,13 +41283,13 @@
       <c r="P68" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q68" s="28"/>
-      <c r="R68" s="27"/>
-      <c r="S68" s="23"/>
+      <c r="R68" s="28"/>
+      <c r="S68" s="27"/>
       <c r="T68" s="23"/>
       <c r="U68" s="23"/>
-    </row>
-    <row r="69" customHeight="1" spans="1:21">
+      <c r="V68" s="23"/>
+    </row>
+    <row r="69" customHeight="1" spans="1:22">
       <c r="A69" s="4">
         <v>449</v>
       </c>
@@ -41258,22 +41297,22 @@
         <v>398</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>1817</v>
+        <v>1825</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>1818</v>
+        <v>1826</v>
       </c>
       <c r="E69" s="19" t="s">
         <v>44</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>1819</v>
+        <v>1827</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>1819</v>
+        <v>1827</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>1820</v>
+        <v>1828</v>
       </c>
       <c r="I69" s="8">
         <v>6</v>
@@ -41299,13 +41338,13 @@
       <c r="P69" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q69" s="28"/>
-      <c r="R69" s="27"/>
-      <c r="S69" s="23"/>
+      <c r="R69" s="28"/>
+      <c r="S69" s="27"/>
       <c r="T69" s="23"/>
       <c r="U69" s="23"/>
-    </row>
-    <row r="70" customHeight="1" spans="1:21">
+      <c r="V69" s="23"/>
+    </row>
+    <row r="70" customHeight="1" spans="1:22">
       <c r="A70" s="4">
         <v>450</v>
       </c>
@@ -41313,22 +41352,22 @@
         <v>398</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>1821</v>
+        <v>1829</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="E70" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>1823</v>
+        <v>1831</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>1823</v>
+        <v>1831</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>1824</v>
+        <v>1832</v>
       </c>
       <c r="I70" s="8">
         <v>6</v>
@@ -41354,13 +41393,13 @@
       <c r="P70" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q70" s="28"/>
-      <c r="R70" s="27"/>
-      <c r="S70" s="23"/>
+      <c r="R70" s="28"/>
+      <c r="S70" s="27"/>
       <c r="T70" s="23"/>
       <c r="U70" s="23"/>
-    </row>
-    <row r="71" customHeight="1" spans="1:21">
+      <c r="V70" s="23"/>
+    </row>
+    <row r="71" customHeight="1" spans="1:22">
       <c r="A71" s="4">
         <v>528</v>
       </c>
@@ -41368,22 +41407,22 @@
         <v>398</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>1825</v>
+        <v>1833</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>1826</v>
+        <v>1834</v>
       </c>
       <c r="E71" s="19" t="s">
         <v>30</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>1827</v>
+        <v>1835</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>1828</v>
+        <v>1836</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>1829</v>
+        <v>1837</v>
       </c>
       <c r="I71" s="8">
         <v>4</v>
@@ -41409,13 +41448,13 @@
       <c r="P71" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q71" s="28"/>
-      <c r="R71" s="27"/>
-      <c r="S71" s="23"/>
+      <c r="R71" s="28"/>
+      <c r="S71" s="27"/>
       <c r="T71" s="23"/>
       <c r="U71" s="23"/>
-    </row>
-    <row r="72" customHeight="1" spans="1:21">
+      <c r="V71" s="23"/>
+    </row>
+    <row r="72" customHeight="1" spans="1:22">
       <c r="A72" s="4">
         <v>529</v>
       </c>
@@ -41423,22 +41462,22 @@
         <v>398</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>1825</v>
+        <v>1833</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>1826</v>
+        <v>1834</v>
       </c>
       <c r="E72" s="19" t="s">
         <v>30</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>1830</v>
+        <v>1838</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>1831</v>
+        <v>1839</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>1832</v>
+        <v>1840</v>
       </c>
       <c r="I72" s="8">
         <v>6</v>
@@ -41464,13 +41503,13 @@
       <c r="P72" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q72" s="28"/>
-      <c r="R72" s="27"/>
-      <c r="S72" s="23"/>
+      <c r="R72" s="28"/>
+      <c r="S72" s="27"/>
       <c r="T72" s="23"/>
       <c r="U72" s="23"/>
-    </row>
-    <row r="73" customHeight="1" spans="1:21">
+      <c r="V72" s="23"/>
+    </row>
+    <row r="73" customHeight="1" spans="1:22">
       <c r="A73" s="4">
         <v>530</v>
       </c>
@@ -41478,22 +41517,22 @@
         <v>398</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>1833</v>
+        <v>1841</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>1834</v>
+        <v>1842</v>
       </c>
       <c r="E73" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>1835</v>
+        <v>1843</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>1835</v>
+        <v>1843</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>1836</v>
+        <v>1844</v>
       </c>
       <c r="I73" s="8">
         <v>6</v>
@@ -41519,13 +41558,13 @@
       <c r="P73" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q73" s="28"/>
-      <c r="R73" s="27"/>
-      <c r="S73" s="23"/>
+      <c r="R73" s="28"/>
+      <c r="S73" s="27"/>
       <c r="T73" s="23"/>
       <c r="U73" s="23"/>
-    </row>
-    <row r="74" customHeight="1" spans="1:21">
+      <c r="V73" s="23"/>
+    </row>
+    <row r="74" customHeight="1" spans="1:22">
       <c r="A74" s="4">
         <v>532</v>
       </c>
@@ -41533,22 +41572,22 @@
         <v>398</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>1837</v>
+        <v>1845</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>1838</v>
+        <v>1846</v>
       </c>
       <c r="E74" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>1839</v>
+        <v>1847</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>1839</v>
+        <v>1847</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>1840</v>
+        <v>1848</v>
       </c>
       <c r="I74" s="8">
         <v>6</v>
@@ -41574,13 +41613,13 @@
       <c r="P74" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q74" s="28"/>
-      <c r="R74" s="27"/>
-      <c r="S74" s="23"/>
+      <c r="R74" s="28"/>
+      <c r="S74" s="27"/>
       <c r="T74" s="23"/>
       <c r="U74" s="23"/>
-    </row>
-    <row r="75" customHeight="1" spans="1:21">
+      <c r="V74" s="23"/>
+    </row>
+    <row r="75" customHeight="1" spans="1:22">
       <c r="A75" s="4">
         <v>533</v>
       </c>
@@ -41588,22 +41627,22 @@
         <v>398</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>1837</v>
+        <v>1845</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>1838</v>
+        <v>1846</v>
       </c>
       <c r="E75" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>1841</v>
+        <v>1849</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>1841</v>
+        <v>1849</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>1842</v>
+        <v>1850</v>
       </c>
       <c r="I75" s="8">
         <v>8</v>
@@ -41629,13 +41668,13 @@
       <c r="P75" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q75" s="28"/>
-      <c r="R75" s="27"/>
-      <c r="S75" s="23"/>
+      <c r="R75" s="28"/>
+      <c r="S75" s="27"/>
       <c r="T75" s="23"/>
       <c r="U75" s="23"/>
-    </row>
-    <row r="76" customHeight="1" spans="1:21">
+      <c r="V75" s="23"/>
+    </row>
+    <row r="76" customHeight="1" spans="1:22">
       <c r="A76" s="4">
         <v>534</v>
       </c>
@@ -41643,22 +41682,22 @@
         <v>398</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>1843</v>
+        <v>1851</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>1844</v>
+        <v>1852</v>
       </c>
       <c r="E76" s="19" t="s">
         <v>44</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>1845</v>
+        <v>1853</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>1845</v>
+        <v>1853</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>1846</v>
+        <v>1854</v>
       </c>
       <c r="I76" s="8">
         <v>4</v>
@@ -41684,13 +41723,13 @@
       <c r="P76" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q76" s="28"/>
-      <c r="R76" s="27"/>
-      <c r="S76" s="23"/>
+      <c r="R76" s="28"/>
+      <c r="S76" s="27"/>
       <c r="T76" s="23"/>
       <c r="U76" s="23"/>
-    </row>
-    <row r="77" customHeight="1" spans="1:21">
+      <c r="V76" s="23"/>
+    </row>
+    <row r="77" customHeight="1" spans="1:22">
       <c r="A77" s="4">
         <v>535</v>
       </c>
@@ -41698,22 +41737,22 @@
         <v>398</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>1843</v>
+        <v>1851</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>1844</v>
+        <v>1852</v>
       </c>
       <c r="E77" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>1847</v>
+        <v>1855</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>1848</v>
+        <v>1856</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>1849</v>
+        <v>1857</v>
       </c>
       <c r="I77" s="8">
         <v>5</v>
@@ -41739,13 +41778,13 @@
       <c r="P77" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q77" s="28"/>
-      <c r="R77" s="27"/>
-      <c r="S77" s="23"/>
+      <c r="R77" s="28"/>
+      <c r="S77" s="27"/>
       <c r="T77" s="23"/>
       <c r="U77" s="23"/>
-    </row>
-    <row r="78" customHeight="1" spans="1:21">
+      <c r="V77" s="23"/>
+    </row>
+    <row r="78" customHeight="1" spans="1:22">
       <c r="A78" s="4">
         <v>536</v>
       </c>
@@ -41753,22 +41792,22 @@
         <v>398</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>1843</v>
+        <v>1851</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>1844</v>
+        <v>1852</v>
       </c>
       <c r="E78" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>1850</v>
+        <v>1858</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>1850</v>
+        <v>1858</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>1851</v>
+        <v>1859</v>
       </c>
       <c r="I78" s="8">
         <v>6</v>
@@ -41794,13 +41833,13 @@
       <c r="P78" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q78" s="28"/>
-      <c r="R78" s="27"/>
-      <c r="S78" s="23"/>
+      <c r="R78" s="28"/>
+      <c r="S78" s="27"/>
       <c r="T78" s="23"/>
       <c r="U78" s="23"/>
-    </row>
-    <row r="79" customHeight="1" spans="1:21">
+      <c r="V78" s="23"/>
+    </row>
+    <row r="79" customHeight="1" spans="1:22">
       <c r="A79" s="4">
         <v>537</v>
       </c>
@@ -41808,22 +41847,22 @@
         <v>398</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>1843</v>
+        <v>1851</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>1844</v>
+        <v>1852</v>
       </c>
       <c r="E79" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>1852</v>
+        <v>1860</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>1852</v>
+        <v>1860</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>1853</v>
+        <v>1861</v>
       </c>
       <c r="I79" s="8">
         <v>7</v>
@@ -41849,13 +41888,13 @@
       <c r="P79" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q79" s="28"/>
-      <c r="R79" s="27"/>
-      <c r="S79" s="23"/>
+      <c r="R79" s="28"/>
+      <c r="S79" s="27"/>
       <c r="T79" s="23"/>
       <c r="U79" s="23"/>
-    </row>
-    <row r="80" customHeight="1" spans="1:21">
+      <c r="V79" s="23"/>
+    </row>
+    <row r="80" customHeight="1" spans="1:22">
       <c r="A80" s="8">
         <v>538</v>
       </c>
@@ -41866,19 +41905,19 @@
         <v>505</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>1854</v>
+        <v>1862</v>
       </c>
       <c r="E80" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>1855</v>
+        <v>1863</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>1855</v>
+        <v>1863</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>1856</v>
+        <v>1864</v>
       </c>
       <c r="I80" s="8">
         <v>4</v>
@@ -41904,13 +41943,13 @@
       <c r="P80" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q80" s="28"/>
-      <c r="R80" s="27"/>
-      <c r="S80" s="23"/>
+      <c r="R80" s="28"/>
+      <c r="S80" s="27"/>
       <c r="T80" s="23"/>
       <c r="U80" s="23"/>
-    </row>
-    <row r="81" customHeight="1" spans="1:21">
+      <c r="V80" s="23"/>
+    </row>
+    <row r="81" customHeight="1" spans="1:22">
       <c r="A81" s="8">
         <v>540</v>
       </c>
@@ -41921,19 +41960,19 @@
         <v>505</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>1857</v>
+        <v>1865</v>
       </c>
       <c r="E81" s="19" t="s">
         <v>44</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>1858</v>
+        <v>1866</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>1858</v>
+        <v>1866</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>1859</v>
+        <v>1867</v>
       </c>
       <c r="I81" s="8">
         <v>8</v>
@@ -41959,13 +41998,13 @@
       <c r="P81" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q81" s="28"/>
-      <c r="R81" s="27"/>
-      <c r="S81" s="23"/>
+      <c r="R81" s="28"/>
+      <c r="S81" s="27"/>
       <c r="T81" s="23"/>
       <c r="U81" s="23"/>
-    </row>
-    <row r="82" customHeight="1" spans="1:21">
+      <c r="V81" s="23"/>
+    </row>
+    <row r="82" customHeight="1" spans="1:22">
       <c r="A82" s="8">
         <v>541</v>
       </c>
@@ -41973,22 +42012,22 @@
         <v>398</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>1860</v>
+        <v>1868</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>1861</v>
+        <v>1869</v>
       </c>
       <c r="E82" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>1862</v>
+        <v>1870</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>1862</v>
+        <v>1870</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>1863</v>
+        <v>1871</v>
       </c>
       <c r="I82" s="8">
         <v>8</v>
@@ -42014,13 +42053,13 @@
       <c r="P82" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q82" s="28"/>
-      <c r="R82" s="27"/>
-      <c r="S82" s="23"/>
+      <c r="R82" s="28"/>
+      <c r="S82" s="27"/>
       <c r="T82" s="23"/>
       <c r="U82" s="23"/>
-    </row>
-    <row r="83" customHeight="1" spans="1:21">
+      <c r="V82" s="23"/>
+    </row>
+    <row r="83" customHeight="1" spans="1:22">
       <c r="A83" s="8">
         <v>542</v>
       </c>
@@ -42028,22 +42067,22 @@
         <v>398</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>1860</v>
+        <v>1868</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>1864</v>
+        <v>1872</v>
       </c>
       <c r="E83" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>1865</v>
+        <v>1873</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>1866</v>
+        <v>1874</v>
       </c>
       <c r="H83" s="8" t="s">
-        <v>1867</v>
+        <v>1875</v>
       </c>
       <c r="I83" s="8">
         <v>4</v>
@@ -42069,13 +42108,13 @@
       <c r="P83" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q83" s="28"/>
-      <c r="R83" s="27"/>
-      <c r="S83" s="23"/>
+      <c r="R83" s="28"/>
+      <c r="S83" s="27"/>
       <c r="T83" s="23"/>
       <c r="U83" s="23"/>
-    </row>
-    <row r="84" customHeight="1" spans="1:21">
+      <c r="V83" s="23"/>
+    </row>
+    <row r="84" customHeight="1" spans="1:22">
       <c r="A84" s="8">
         <v>543</v>
       </c>
@@ -42083,22 +42122,22 @@
         <v>398</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>1860</v>
+        <v>1868</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>1868</v>
+        <v>1876</v>
       </c>
       <c r="E84" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>1869</v>
+        <v>1877</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>1869</v>
+        <v>1877</v>
       </c>
       <c r="H84" s="8" t="s">
-        <v>1870</v>
+        <v>1878</v>
       </c>
       <c r="I84" s="8">
         <v>6</v>
@@ -42124,13 +42163,13 @@
       <c r="P84" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q84" s="28"/>
-      <c r="R84" s="27"/>
-      <c r="S84" s="23"/>
+      <c r="R84" s="28"/>
+      <c r="S84" s="27"/>
       <c r="T84" s="23"/>
       <c r="U84" s="23"/>
-    </row>
-    <row r="85" customHeight="1" spans="1:21">
+      <c r="V84" s="23"/>
+    </row>
+    <row r="85" customHeight="1" spans="1:22">
       <c r="A85" s="8">
         <v>544</v>
       </c>
@@ -42138,22 +42177,22 @@
         <v>398</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>1860</v>
+        <v>1868</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>1871</v>
+        <v>1879</v>
       </c>
       <c r="E85" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>1872</v>
+        <v>1880</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>1872</v>
+        <v>1880</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>1873</v>
+        <v>1881</v>
       </c>
       <c r="I85" s="8">
         <v>6</v>
@@ -42179,13 +42218,13 @@
       <c r="P85" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q85" s="28"/>
-      <c r="R85" s="27"/>
-      <c r="S85" s="23"/>
+      <c r="R85" s="28"/>
+      <c r="S85" s="27"/>
       <c r="T85" s="23"/>
       <c r="U85" s="23"/>
-    </row>
-    <row r="86" customHeight="1" spans="1:21">
+      <c r="V85" s="23"/>
+    </row>
+    <row r="86" customHeight="1" spans="1:22">
       <c r="A86" s="8">
         <v>545</v>
       </c>
@@ -42193,22 +42232,22 @@
         <v>398</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>1860</v>
+        <v>1868</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>1874</v>
+        <v>1882</v>
       </c>
       <c r="E86" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>1875</v>
+        <v>1883</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>1875</v>
+        <v>1883</v>
       </c>
       <c r="H86" s="8" t="s">
-        <v>1876</v>
+        <v>1884</v>
       </c>
       <c r="I86" s="8">
         <v>6</v>
@@ -42234,13 +42273,13 @@
       <c r="P86" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q86" s="28"/>
-      <c r="R86" s="27"/>
-      <c r="S86" s="23"/>
+      <c r="R86" s="28"/>
+      <c r="S86" s="27"/>
       <c r="T86" s="23"/>
       <c r="U86" s="23"/>
-    </row>
-    <row r="87" customHeight="1" spans="1:21">
+      <c r="V86" s="23"/>
+    </row>
+    <row r="87" customHeight="1" spans="1:22">
       <c r="A87" s="8">
         <v>559</v>
       </c>
@@ -42248,22 +42287,22 @@
         <v>398</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>1877</v>
+        <v>1885</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>1878</v>
+        <v>1886</v>
       </c>
       <c r="E87" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>1879</v>
+        <v>1887</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>1879</v>
+        <v>1887</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>1880</v>
+        <v>1888</v>
       </c>
       <c r="I87" s="8">
         <v>8</v>
@@ -42289,13 +42328,13 @@
       <c r="P87" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q87" s="28"/>
-      <c r="R87" s="27"/>
-      <c r="S87" s="23"/>
+      <c r="R87" s="28"/>
+      <c r="S87" s="27"/>
       <c r="T87" s="23"/>
       <c r="U87" s="23"/>
-    </row>
-    <row r="88" customHeight="1" spans="1:21">
+      <c r="V87" s="23"/>
+    </row>
+    <row r="88" customHeight="1" spans="1:22">
       <c r="A88" s="8">
         <v>560</v>
       </c>
@@ -42303,22 +42342,22 @@
         <v>398</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>1877</v>
+        <v>1885</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>1878</v>
+        <v>1886</v>
       </c>
       <c r="E88" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>1881</v>
+        <v>1889</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>1881</v>
+        <v>1889</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>1882</v>
+        <v>1890</v>
       </c>
       <c r="I88" s="8">
         <v>5</v>
@@ -42344,13 +42383,13 @@
       <c r="P88" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q88" s="28"/>
-      <c r="R88" s="27"/>
-      <c r="S88" s="23"/>
+      <c r="R88" s="28"/>
+      <c r="S88" s="27"/>
       <c r="T88" s="23"/>
       <c r="U88" s="23"/>
-    </row>
-    <row r="90" customHeight="1" spans="1:21">
+      <c r="V88" s="23"/>
+    </row>
+    <row r="90" customHeight="1" spans="1:22">
       <c r="A90" s="8"/>
       <c r="B90" s="5"/>
       <c r="C90" s="6"/>
@@ -42367,13 +42406,13 @@
       <c r="N90" s="23"/>
       <c r="O90" s="23"/>
       <c r="P90" s="23"/>
-      <c r="Q90" s="28"/>
-      <c r="R90" s="27"/>
-      <c r="S90" s="23"/>
+      <c r="R90" s="28"/>
+      <c r="S90" s="27"/>
       <c r="T90" s="23"/>
       <c r="U90" s="23"/>
-    </row>
-    <row r="91" customHeight="1" spans="1:21">
+      <c r="V90" s="23"/>
+    </row>
+    <row r="91" customHeight="1" spans="1:22">
       <c r="A91" s="8"/>
       <c r="B91" s="5"/>
       <c r="C91" s="6"/>
@@ -42390,13 +42429,13 @@
       <c r="N91" s="23"/>
       <c r="O91" s="23"/>
       <c r="P91" s="23"/>
-      <c r="Q91" s="28"/>
-      <c r="R91" s="27"/>
-      <c r="S91" s="23"/>
+      <c r="R91" s="28"/>
+      <c r="S91" s="27"/>
       <c r="T91" s="23"/>
       <c r="U91" s="23"/>
-    </row>
-    <row r="92" customHeight="1" spans="1:21">
+      <c r="V91" s="23"/>
+    </row>
+    <row r="92" customHeight="1" spans="1:22">
       <c r="A92" s="8"/>
       <c r="B92" s="5"/>
       <c r="C92" s="6"/>
@@ -42413,25 +42452,25 @@
       <c r="N92" s="23"/>
       <c r="O92" s="23"/>
       <c r="P92" s="23"/>
-      <c r="Q92" s="28"/>
-      <c r="R92" s="27"/>
-      <c r="S92" s="23"/>
+      <c r="R92" s="28"/>
+      <c r="S92" s="27"/>
       <c r="T92" s="23"/>
       <c r="U92" s="23"/>
+      <c r="V92" s="23"/>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 K2 L2 P2 J3 K3 L3 P3 J4 K4 L4 P4 J5 K5 L5 P5 J6 K6 L6 P6 J7 K7 L7 P7 J8 K8 L8 P8 J9 K9 L9 P9 K10 L10 P10 L11 P11 J12 P12 J13 K13 P13 J14 K14 L14 P14 J15 K15 L15 P15 J16 K16 L16 J17 K17 L17 J18 K18 L18 P18 J19 K19 L19 P19 J20 K20 L20 P20 J21 K21 L21 P21 J22 K22 L22 P22 J23 K23 L23 P23 J24 K24 L24 P24 J25 K25 L25 P25 J26 K26 L26 P26 J27 K27 L27 P27 J28 K28 L28 P28 J29 K29 L29 P29 J30 K30 L30 P30 J31 K31 L31 P31 J32 K32 L32 P32 J33 K33 L33 P33 J34 K34 L34 P34 J35 K35 L35 P35 J36 K36 L36 P36 J37 K37 L37 P37 J38 K38 L38 P38 J39 K39 L39 P39 J40 K40 L40 P40 J41 K41 L41 P41 J42 K42 L42 P42 J43 K43 L43 P43 J44 K44 L44 P44 J45 K45 L45 P45 J46 K46 L46 P46 J47 K47 L47 P47 J48 K48 L48 P48 J49 K49 L49 P49 J50 K50 L50 P50 J51 K51 L51 P51 J52 K52 L52 P52 J53 K53 L53 P53 J54 K54 L54 P54 J55 K55 L55 P55 J56 K56 L56 P56 J57 K57 L57 P57 J58 K58 L58 P58 J59 K59 L59 P59 J60 K60 L60 P60 J61 K61 L61 P61 J62 K62 L62 P62 J63 K63 L63 P63 J64 K64 L64 P64 J65 K65 L65 P65 J66 K66 L66 P66 J67 K67 L67 P67 J68 K68 L68 P68 J69 K69 L69 P69 J70 K70 L70 P70 J71 K71 L71 P71 J72 K72 L72 P72 J73 K73 L73 P73 J74 K74 L74 P74 J75 K75 L75 P75 J76 K76 L76 P76 J77 K77 L77 P77 J78 K78 L78 P78 J79 K79 L79 P79 J80 K80 L80 P80 J81 K81 L81 P81 J82 K82 L82 P82 J83 K83 L83 P83 J84 K84 L84 P84 J85 K85 L85 P85 J86 K86 L86 P86 J87 K87 L87 P87 J88 K88 L88 P88 J90 K90 L90 P90 J91 K91 L91 P91 J92 K92 L92 P92 J10:J11 K11:K12 L12:L13 P16:P17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:L2 P2:P88 P90:P92 J3:L88 J90:L92">
       <formula1>"yes,no,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2 N3 N4 N5 N6 N7 N8 N9 N10 N11 N12 N13 N16 N17 N18 N19 N20 N21 N22 N23 N24 N25 N26 N27 N28 N29 N30 N31 N32 N33 N34 N35 N36 N37 N38 N39 N40 N41 N42 N43 N44 N45 N46 N47 N48 N49 N50 N51 N52 N53 N54 N55 N56 N57 N58 N59 N60 N61 N62 N63 N64 N65 N66 N67 N68 N69 N70 N71 N72 N73 N74 N75 N76 N77 N78 N79 N80 N81 N82 N83 N84 N85 N86 N87 N88 N90 N91 N92 N14:N15">
-      <formula1>"method,class,"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 Q2 R2 S2 T2 U2 O3 Q3 R3 S3 T3 U3 O4 Q4 R4 S4 T4 U4 O5 Q5 R5 S5 T5 U5 O6 Q6 R6 S6 T6 U6 O7 Q7 R7 S7 T7 U7 O8 Q8 R8 S8 T8 U8 O9 Q9 R9 S9 T9 U9 O10 Q10 R10 S10 T10 U10 O11 Q11 R11 S11 T11 U11 O12 Q12 R12 S12 T12 U12 O13 Q13 R13 S13 T13 U13 O14 Q14 R14 S14 T14 U14 Q15 R15 S15 T15 U15 Q16 R16 S16 T16 U16 O17 R17 S17 T17 U17 O18 S18 T18 U18 O19 Q19 T19 U19 O20 Q20 R20 U20 O21 Q21 R21 S21 O22 Q22 R22 S22 T22 O23 Q23 R23 S23 T23 U23 O24 Q24 R24 S24 T24 U24 O25 Q25 R25 S25 T25 U25 O26 Q26 R26 S26 T26 U26 O27 Q27 R27 S27 T27 U27 O28 Q28 R28 S28 T28 U28 O29 Q29 R29 S29 T29 U29 O30 Q30 R30 S30 T30 U30 O31 Q31 R31 S31 T31 U31 O32 Q32 R32 S32 T32 U32 O33 Q33 R33 S33 T33 U33 O34 Q34 R34 S34 T34 U34 O35 Q35 R35 S35 T35 U35 O36 Q36 R36 S36 T36 U36 O37 Q37 R37 S37 T37 U37 O38 Q38 R38 S38 T38 U38 O39 Q39 R39 S39 T39 U39 O40 Q40 R40 S40 T40 U40 O41 Q41 R41 S41 T41 U41 O42 Q42 R42 S42 T42 U42 O43 Q43 R43 S43 T43 U43 O44 Q44 R44 S44 T44 U44 O45 Q45 R45 S45 T45 U45 O46 Q46 R46 S46 T46 U46 O47 Q47 R47 S47 T47 U47 O48 Q48 R48 S48 T48 U48 O49 Q49 R49 S49 T49 U49 O50 Q50 R50 S50 T50 U50 O51 Q51 R51 S51 T51 U51 O52 Q52 R52 S52 T52 U52 O53 Q53 R53 S53 T53 U53 O54 Q54 R54 S54 T54 U54 O55 Q55 R55 S55 T55 U55 O56 Q56 R56 S56 T56 U56 O57 Q57 R57 S57 T57 U57 O58 Q58 R58 S58 T58 U58 O59 Q59 R59 S59 T59 U59 O60 Q60 R60 S60 T60 U60 O61 Q61 R61 S61 T61 U61 O62 Q62 R62 S62 T62 U62 O63 Q63 R63 S63 T63 U63 O64 Q64 R64 S64 T64 U64 O65 Q65 R65 S65 T65 U65 O66 Q66 R66 S66 T66 U66 O67 Q67 R67 S67 T67 U67 O68 Q68 R68 S68 T68 U68 O69 Q69 R69 S69 T69 U69 O70 Q70 R70 S70 T70 U70 O71 Q71 R71 S71 T71 U71 O72 Q72 R72 S72 T72 U72 O73 Q73 R73 S73 T73 U73 O74 Q74 R74 S74 T74 U74 O75 Q75 R75 S75 T75 U75 O76 Q76 R76 S76 T76 U76 O77 Q77 R77 S77 T77 U77 O78 Q78 R78 S78 T78 U78 O79 Q79 R79 S79 T79 U79 O80 Q80 R80 S80 T80 U80 O81 Q81 R81 S81 T81 U81 O82 Q82 R82 S82 T82 U82 O83 Q83 R83 S83 T83 U83 O84 Q84 R84 S84 T84 U84 O85 Q85 R85 S85 T85 U85 O86 Q86 R86 S86 T86 U86 O87 Q87 R87 S87 T87 U87 O88 Q88 R88 S88 T88 U88 O90 Q90 R90 S90 T90 U90 O91 Q91 R91 S91 T91 U91 O92 Q92 R92 S92 T92 U92 O15:O16 Q17:Q18 R18:R19 S19:S20 T20:T21 U21:U22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:V2 S3:V3 T4:V4 U5:V5 O2:O88 O90:O92 R3:R88 S4:S88 T5:T88 R90:V92 U6:V88">
       <formula1>"finish,pending,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 B5 B6 B7 B8 B9 B10 B11 B12 B13 B14 B15 B16 B17 B18 B19 B20 B21 B22 B23 B24 B25 B26 B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B49 B50 B51 B52 B53 B54 B55 B56 B57 B58 B59 B60 B61 B62 B63 B64 B65 B66 B67 B68 B69 B70 B71 B72 B73 B74 B75 B76 B77 B78 B79 B80 B81 B82 B83 B84 B85 B86 B87 B88 B90 B91 B92 B2:B3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B88 B90:B92">
       <formula1>"python,javascript,typescript,java,c&amp;cpp,"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N88 N90:N92">
+      <formula1>"method,class,"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -42442,15 +42481,15 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="typescript"/>
-  <dimension ref="A1:U53"/>
+  <dimension ref="A1:V59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:21">
+    <row r="1" customHeight="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -42499,23 +42538,26 @@
       <c r="P1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>1813</v>
+      </c>
+      <c r="R1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="25" t="s">
+      <c r="S1" s="25" t="s">
         <v>398</v>
       </c>
-      <c r="S1" s="26" t="s">
+      <c r="T1" s="26" t="s">
         <v>613</v>
       </c>
-      <c r="T1" s="24" t="s">
+      <c r="U1" s="24" t="s">
         <v>794</v>
       </c>
-      <c r="U1" s="24" t="s">
+      <c r="V1" s="24" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:21">
+    <row r="2" customHeight="1" spans="1:22">
       <c r="A2" s="4">
         <v>140</v>
       </c>
@@ -42564,13 +42606,14 @@
       <c r="P2" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="23"/>
+      <c r="Q2"/>
       <c r="R2" s="23"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="27"/>
       <c r="U2" s="23"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:21">
+      <c r="V2" s="23"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:22">
       <c r="A3" s="4">
         <v>141</v>
       </c>
@@ -42619,13 +42662,14 @@
       <c r="P3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="23"/>
+      <c r="Q3"/>
       <c r="R3" s="23"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="27"/>
       <c r="U3" s="23"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:21">
+      <c r="V3" s="23"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:22">
       <c r="A4" s="4">
         <v>142</v>
       </c>
@@ -42674,13 +42718,14 @@
       <c r="P4" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="23"/>
+      <c r="Q4"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="27"/>
       <c r="U4" s="23"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:21">
+      <c r="V4" s="23"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:22">
       <c r="A5" s="4">
         <v>143</v>
       </c>
@@ -42729,13 +42774,14 @@
       <c r="P5" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q5" s="23"/>
+      <c r="Q5"/>
       <c r="R5" s="23"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="27"/>
       <c r="U5" s="23"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:21">
+      <c r="V5" s="23"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:22">
       <c r="A6" s="4">
         <v>144</v>
       </c>
@@ -42784,13 +42830,14 @@
       <c r="P6" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q6" s="23"/>
+      <c r="Q6"/>
       <c r="R6" s="23"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="27"/>
       <c r="U6" s="23"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:21">
+      <c r="V6" s="23"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:22">
       <c r="A7" s="4">
         <v>145</v>
       </c>
@@ -42839,13 +42886,14 @@
       <c r="P7" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q7" s="23"/>
+      <c r="Q7"/>
       <c r="R7" s="23"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="27"/>
       <c r="U7" s="23"/>
-    </row>
-    <row r="8" customHeight="1" spans="1:21">
+      <c r="V7" s="23"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:22">
       <c r="A8" s="4">
         <v>146</v>
       </c>
@@ -42894,13 +42942,14 @@
       <c r="P8" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q8" s="23"/>
+      <c r="Q8"/>
       <c r="R8" s="23"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="27"/>
       <c r="U8" s="23"/>
-    </row>
-    <row r="9" customHeight="1" spans="1:21">
+      <c r="V8" s="23"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:22">
       <c r="A9" s="4">
         <v>147</v>
       </c>
@@ -42949,13 +42998,14 @@
       <c r="P9" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q9" s="23"/>
+      <c r="Q9"/>
       <c r="R9" s="23"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="27"/>
       <c r="U9" s="23"/>
-    </row>
-    <row r="10" customHeight="1" spans="1:21">
+      <c r="V9" s="23"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:22">
       <c r="A10" s="4">
         <v>148</v>
       </c>
@@ -43004,13 +43054,14 @@
       <c r="P10" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q10" s="23"/>
+      <c r="Q10"/>
       <c r="R10" s="23"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="27"/>
       <c r="U10" s="23"/>
-    </row>
-    <row r="11" customHeight="1" spans="1:21">
+      <c r="V10" s="23"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:22">
       <c r="A11" s="4">
         <v>149</v>
       </c>
@@ -43059,13 +43110,14 @@
       <c r="P11" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="23"/>
+      <c r="Q11"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="27"/>
       <c r="U11" s="23"/>
-    </row>
-    <row r="12" customHeight="1" spans="1:21">
+      <c r="V11" s="23"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:22">
       <c r="A12" s="4">
         <v>150</v>
       </c>
@@ -43114,13 +43166,14 @@
       <c r="P12" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q12" s="23"/>
+      <c r="Q12"/>
       <c r="R12" s="23"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="27"/>
       <c r="U12" s="23"/>
-    </row>
-    <row r="13" customHeight="1" spans="1:21">
+      <c r="V12" s="23"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:22">
       <c r="A13" s="4">
         <v>151</v>
       </c>
@@ -43169,13 +43222,14 @@
       <c r="P13" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q13" s="23"/>
+      <c r="Q13"/>
       <c r="R13" s="23"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="27"/>
       <c r="U13" s="23"/>
-    </row>
-    <row r="14" customHeight="1" spans="1:21">
+      <c r="V13" s="23"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:22">
       <c r="A14" s="4">
         <v>152</v>
       </c>
@@ -43224,13 +43278,14 @@
       <c r="P14" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q14" s="23"/>
+      <c r="Q14"/>
       <c r="R14" s="23"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="27"/>
       <c r="U14" s="23"/>
-    </row>
-    <row r="15" customHeight="1" spans="1:21">
+      <c r="V14" s="23"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:22">
       <c r="A15" s="4">
         <v>153</v>
       </c>
@@ -43279,13 +43334,14 @@
       <c r="P15" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q15" s="23"/>
+      <c r="Q15"/>
       <c r="R15" s="23"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="27"/>
       <c r="U15" s="23"/>
-    </row>
-    <row r="16" customHeight="1" spans="1:21">
+      <c r="V15" s="23"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:22">
       <c r="A16" s="4">
         <v>154</v>
       </c>
@@ -43334,13 +43390,14 @@
       <c r="P16" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="23"/>
+      <c r="Q16"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="27"/>
       <c r="U16" s="23"/>
-    </row>
-    <row r="17" customHeight="1" spans="1:21">
+      <c r="V16" s="23"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:22">
       <c r="A17" s="4">
         <v>155</v>
       </c>
@@ -43389,13 +43446,14 @@
       <c r="P17" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q17" s="23"/>
+      <c r="Q17"/>
       <c r="R17" s="23"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="27"/>
       <c r="U17" s="23"/>
-    </row>
-    <row r="18" customHeight="1" spans="1:21">
+      <c r="V17" s="23"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:22">
       <c r="A18" s="4">
         <v>156</v>
       </c>
@@ -43444,13 +43502,14 @@
       <c r="P18" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q18" s="23"/>
+      <c r="Q18"/>
       <c r="R18" s="23"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="27"/>
       <c r="U18" s="23"/>
-    </row>
-    <row r="19" customHeight="1" spans="1:21">
+      <c r="V18" s="23"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:22">
       <c r="A19" s="4">
         <v>157</v>
       </c>
@@ -43499,13 +43558,14 @@
       <c r="P19" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q19" s="23"/>
+      <c r="Q19"/>
       <c r="R19" s="23"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="27"/>
       <c r="U19" s="23"/>
-    </row>
-    <row r="20" customHeight="1" spans="1:21">
+      <c r="V19" s="23"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:22">
       <c r="A20" s="4">
         <v>158</v>
       </c>
@@ -43554,13 +43614,14 @@
       <c r="P20" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q20" s="23"/>
+      <c r="Q20"/>
       <c r="R20" s="23"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="27"/>
       <c r="U20" s="23"/>
-    </row>
-    <row r="21" customHeight="1" spans="1:21">
+      <c r="V20" s="23"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:22">
       <c r="A21" s="4">
         <v>159</v>
       </c>
@@ -43609,13 +43670,14 @@
       <c r="P21" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q21" s="23"/>
+      <c r="Q21"/>
       <c r="R21" s="23"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="27"/>
       <c r="U21" s="23"/>
-    </row>
-    <row r="22" customHeight="1" spans="1:21">
+      <c r="V21" s="23"/>
+    </row>
+    <row r="22" customHeight="1" spans="1:22">
       <c r="A22" s="4">
         <v>160</v>
       </c>
@@ -43664,13 +43726,14 @@
       <c r="P22" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q22" s="23"/>
+      <c r="Q22"/>
       <c r="R22" s="23"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="27"/>
       <c r="U22" s="23"/>
-    </row>
-    <row r="23" customHeight="1" spans="1:21">
+      <c r="V22" s="23"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:22">
       <c r="A23" s="4">
         <v>161</v>
       </c>
@@ -43719,13 +43782,14 @@
       <c r="P23" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q23" s="23"/>
+      <c r="Q23"/>
       <c r="R23" s="23"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="23"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="27"/>
       <c r="U23" s="23"/>
-    </row>
-    <row r="24" customHeight="1" spans="1:21">
+      <c r="V23" s="23"/>
+    </row>
+    <row r="24" customHeight="1" spans="1:22">
       <c r="A24" s="4">
         <v>162</v>
       </c>
@@ -43774,13 +43838,16 @@
       <c r="P24" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q24" s="23"/>
+      <c r="Q24" s="8" t="s">
+        <v>1816</v>
+      </c>
       <c r="R24" s="23"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="23"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="27"/>
       <c r="U24" s="23"/>
-    </row>
-    <row r="25" customHeight="1" spans="1:21">
+      <c r="V24" s="23"/>
+    </row>
+    <row r="25" customHeight="1" spans="1:22">
       <c r="A25" s="4">
         <v>163</v>
       </c>
@@ -43829,13 +43896,14 @@
       <c r="P25" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q25" s="23"/>
+      <c r="Q25"/>
       <c r="R25" s="23"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="23"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="27"/>
       <c r="U25" s="23"/>
-    </row>
-    <row r="26" customHeight="1" spans="1:21">
+      <c r="V25" s="23"/>
+    </row>
+    <row r="26" customHeight="1" spans="1:22">
       <c r="A26" s="4">
         <v>164</v>
       </c>
@@ -43884,13 +43952,14 @@
       <c r="P26" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q26" s="23"/>
+      <c r="Q26"/>
       <c r="R26" s="23"/>
-      <c r="S26" s="27"/>
-      <c r="T26" s="23"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="27"/>
       <c r="U26" s="23"/>
-    </row>
-    <row r="27" customHeight="1" spans="1:21">
+      <c r="V26" s="23"/>
+    </row>
+    <row r="27" customHeight="1" spans="1:22">
       <c r="A27" s="4">
         <v>165</v>
       </c>
@@ -43939,13 +44008,14 @@
       <c r="P27" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q27" s="23"/>
+      <c r="Q27"/>
       <c r="R27" s="23"/>
-      <c r="S27" s="27"/>
-      <c r="T27" s="23"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="27"/>
       <c r="U27" s="23"/>
-    </row>
-    <row r="28" customHeight="1" spans="1:21">
+      <c r="V27" s="23"/>
+    </row>
+    <row r="28" customHeight="1" spans="1:22">
       <c r="A28" s="4">
         <v>166</v>
       </c>
@@ -43994,13 +44064,14 @@
       <c r="P28" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q28" s="23"/>
+      <c r="Q28"/>
       <c r="R28" s="23"/>
-      <c r="S28" s="27"/>
-      <c r="T28" s="23"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="27"/>
       <c r="U28" s="23"/>
-    </row>
-    <row r="29" customHeight="1" spans="1:21">
+      <c r="V28" s="23"/>
+    </row>
+    <row r="29" customHeight="1" spans="1:22">
       <c r="A29" s="4">
         <v>167</v>
       </c>
@@ -44049,13 +44120,14 @@
       <c r="P29" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q29" s="23"/>
+      <c r="Q29"/>
       <c r="R29" s="23"/>
-      <c r="S29" s="27"/>
-      <c r="T29" s="23"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="27"/>
       <c r="U29" s="23"/>
-    </row>
-    <row r="30" customHeight="1" spans="1:21">
+      <c r="V29" s="23"/>
+    </row>
+    <row r="30" customHeight="1" spans="1:22">
       <c r="A30" s="4">
         <v>168</v>
       </c>
@@ -44104,13 +44176,14 @@
       <c r="P30" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q30" s="23"/>
+      <c r="Q30"/>
       <c r="R30" s="23"/>
-      <c r="S30" s="27"/>
-      <c r="T30" s="23"/>
+      <c r="S30" s="23"/>
+      <c r="T30" s="27"/>
       <c r="U30" s="23"/>
-    </row>
-    <row r="31" customHeight="1" spans="1:21">
+      <c r="V30" s="23"/>
+    </row>
+    <row r="31" customHeight="1" spans="1:22">
       <c r="A31" s="4">
         <v>169</v>
       </c>
@@ -44159,13 +44232,14 @@
       <c r="P31" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q31" s="23"/>
+      <c r="Q31"/>
       <c r="R31" s="23"/>
-      <c r="S31" s="27"/>
-      <c r="T31" s="23"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="27"/>
       <c r="U31" s="23"/>
-    </row>
-    <row r="32" customHeight="1" spans="1:21">
+      <c r="V31" s="23"/>
+    </row>
+    <row r="32" customHeight="1" spans="1:22">
       <c r="A32" s="4">
         <v>331</v>
       </c>
@@ -44214,13 +44288,14 @@
       <c r="P32" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q32" s="23"/>
+      <c r="Q32"/>
       <c r="R32" s="23"/>
-      <c r="S32" s="27"/>
-      <c r="T32" s="23"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="27"/>
       <c r="U32" s="23"/>
-    </row>
-    <row r="33" customHeight="1" spans="1:21">
+      <c r="V32" s="23"/>
+    </row>
+    <row r="33" customHeight="1" spans="1:22">
       <c r="A33" s="4">
         <v>334</v>
       </c>
@@ -44269,13 +44344,14 @@
       <c r="P33" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q33" s="23"/>
+      <c r="Q33"/>
       <c r="R33" s="23"/>
-      <c r="S33" s="27"/>
-      <c r="T33" s="23"/>
+      <c r="S33" s="23"/>
+      <c r="T33" s="27"/>
       <c r="U33" s="23"/>
-    </row>
-    <row r="34" customHeight="1" spans="1:21">
+      <c r="V33" s="23"/>
+    </row>
+    <row r="34" customHeight="1" spans="1:22">
       <c r="A34" s="4">
         <v>341</v>
       </c>
@@ -44324,13 +44400,14 @@
       <c r="P34" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q34" s="23"/>
+      <c r="Q34"/>
       <c r="R34" s="23"/>
-      <c r="S34" s="27"/>
-      <c r="T34" s="23"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="27"/>
       <c r="U34" s="23"/>
-    </row>
-    <row r="35" customHeight="1" spans="1:21">
+      <c r="V34" s="23"/>
+    </row>
+    <row r="35" customHeight="1" spans="1:22">
       <c r="A35" s="4">
         <v>342</v>
       </c>
@@ -44350,10 +44427,10 @@
         <v>1287</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>1883</v>
+        <v>1891</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>1884</v>
+        <v>1892</v>
       </c>
       <c r="I35" s="8">
         <v>5</v>
@@ -44379,13 +44456,14 @@
       <c r="P35" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q35" s="23"/>
+      <c r="Q35"/>
       <c r="R35" s="23"/>
-      <c r="S35" s="27"/>
-      <c r="T35" s="23"/>
+      <c r="S35" s="23"/>
+      <c r="T35" s="27"/>
       <c r="U35" s="23"/>
-    </row>
-    <row r="36" customHeight="1" spans="1:21">
+      <c r="V35" s="23"/>
+    </row>
+    <row r="36" customHeight="1" spans="1:22">
       <c r="A36" s="4">
         <v>343</v>
       </c>
@@ -44408,7 +44486,7 @@
         <v>1293</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>1885</v>
+        <v>1893</v>
       </c>
       <c r="I36" s="8">
         <v>6</v>
@@ -44434,13 +44512,14 @@
       <c r="P36" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q36" s="23"/>
+      <c r="Q36"/>
       <c r="R36" s="23"/>
-      <c r="S36" s="27"/>
-      <c r="T36" s="23"/>
+      <c r="S36" s="23"/>
+      <c r="T36" s="27"/>
       <c r="U36" s="23"/>
-    </row>
-    <row r="37" customHeight="1" spans="1:21">
+      <c r="V36" s="23"/>
+    </row>
+    <row r="37" customHeight="1" spans="1:22">
       <c r="A37" s="4">
         <v>565</v>
       </c>
@@ -44448,22 +44527,22 @@
         <v>613</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>1886</v>
+        <v>1894</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>1887</v>
+        <v>1895</v>
       </c>
       <c r="E37" s="19" t="s">
         <v>44</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>1888</v>
+        <v>1896</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>1888</v>
+        <v>1896</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>1889</v>
+        <v>1897</v>
       </c>
       <c r="I37" s="8">
         <v>6</v>
@@ -44489,13 +44568,14 @@
       <c r="P37" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q37" s="23"/>
+      <c r="Q37"/>
       <c r="R37" s="23"/>
-      <c r="S37" s="27"/>
-      <c r="T37" s="23"/>
+      <c r="S37" s="23"/>
+      <c r="T37" s="27"/>
       <c r="U37" s="23"/>
-    </row>
-    <row r="38" customHeight="1" spans="1:21">
+      <c r="V37" s="23"/>
+    </row>
+    <row r="38" customHeight="1" spans="1:22">
       <c r="A38" s="4">
         <v>566</v>
       </c>
@@ -44503,22 +44583,22 @@
         <v>613</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>1890</v>
+        <v>1898</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>1891</v>
+        <v>1899</v>
       </c>
       <c r="E38" s="19" t="s">
         <v>44</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>1892</v>
+        <v>1900</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>1892</v>
+        <v>1900</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>1893</v>
+        <v>1901</v>
       </c>
       <c r="I38" s="8">
         <v>6</v>
@@ -44544,13 +44624,14 @@
       <c r="P38" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q38" s="23"/>
+      <c r="Q38"/>
       <c r="R38" s="23"/>
-      <c r="S38" s="27"/>
-      <c r="T38" s="23"/>
+      <c r="S38" s="23"/>
+      <c r="T38" s="27"/>
       <c r="U38" s="23"/>
-    </row>
-    <row r="39" customHeight="1" spans="1:21">
+      <c r="V38" s="23"/>
+    </row>
+    <row r="39" customHeight="1" spans="1:22">
       <c r="A39" s="4">
         <v>567</v>
       </c>
@@ -44558,22 +44639,22 @@
         <v>613</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>1890</v>
+        <v>1898</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>1891</v>
+        <v>1899</v>
       </c>
       <c r="E39" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>1894</v>
+        <v>1902</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>1895</v>
+        <v>1903</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>1896</v>
+        <v>1904</v>
       </c>
       <c r="I39" s="8">
         <v>4</v>
@@ -44599,13 +44680,14 @@
       <c r="P39" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q39" s="23"/>
+      <c r="Q39"/>
       <c r="R39" s="23"/>
-      <c r="S39" s="27"/>
-      <c r="T39" s="23"/>
+      <c r="S39" s="23"/>
+      <c r="T39" s="27"/>
       <c r="U39" s="23"/>
-    </row>
-    <row r="40" customHeight="1" spans="1:21">
+      <c r="V39" s="23"/>
+    </row>
+    <row r="40" customHeight="1" spans="1:22">
       <c r="A40" s="4">
         <v>569</v>
       </c>
@@ -44613,22 +44695,22 @@
         <v>613</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>1897</v>
+        <v>1905</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>1898</v>
+        <v>1906</v>
       </c>
       <c r="E40" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>1899</v>
+        <v>1907</v>
       </c>
       <c r="G40" s="21" t="s">
-        <v>1900</v>
+        <v>1908</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>1901</v>
+        <v>1909</v>
       </c>
       <c r="I40" s="8">
         <v>6</v>
@@ -44654,13 +44736,14 @@
       <c r="P40" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q40" s="23"/>
+      <c r="Q40"/>
       <c r="R40" s="23"/>
-      <c r="S40" s="27"/>
-      <c r="T40" s="23"/>
+      <c r="S40" s="23"/>
+      <c r="T40" s="27"/>
       <c r="U40" s="23"/>
-    </row>
-    <row r="41" customHeight="1" spans="1:21">
+      <c r="V40" s="23"/>
+    </row>
+    <row r="41" customHeight="1" spans="1:22">
       <c r="A41" s="4">
         <v>570</v>
       </c>
@@ -44668,22 +44751,22 @@
         <v>613</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>1902</v>
+        <v>1910</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>1903</v>
+        <v>1911</v>
       </c>
       <c r="E41" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>1904</v>
+        <v>1912</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>1904</v>
+        <v>1912</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>1905</v>
+        <v>1913</v>
       </c>
       <c r="I41" s="8">
         <v>5</v>
@@ -44709,13 +44792,14 @@
       <c r="P41" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q41" s="23"/>
+      <c r="Q41"/>
       <c r="R41" s="23"/>
-      <c r="S41" s="27"/>
-      <c r="T41" s="23"/>
+      <c r="S41" s="23"/>
+      <c r="T41" s="27"/>
       <c r="U41" s="23"/>
-    </row>
-    <row r="42" customHeight="1" spans="1:21">
+      <c r="V41" s="23"/>
+    </row>
+    <row r="42" customHeight="1" spans="1:22">
       <c r="A42" s="4">
         <v>571</v>
       </c>
@@ -44723,22 +44807,22 @@
         <v>613</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>1906</v>
+        <v>1914</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>1907</v>
+        <v>1915</v>
       </c>
       <c r="E42" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>1908</v>
+        <v>1916</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>1908</v>
+        <v>1916</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>1909</v>
+        <v>1917</v>
       </c>
       <c r="I42" s="8">
         <v>5</v>
@@ -44764,13 +44848,14 @@
       <c r="P42" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q42" s="23"/>
+      <c r="Q42"/>
       <c r="R42" s="23"/>
-      <c r="S42" s="27"/>
-      <c r="T42" s="23"/>
+      <c r="S42" s="23"/>
+      <c r="T42" s="27"/>
       <c r="U42" s="23"/>
-    </row>
-    <row r="43" customHeight="1" spans="1:21">
+      <c r="V42" s="23"/>
+    </row>
+    <row r="43" customHeight="1" spans="1:22">
       <c r="A43" s="4">
         <v>572</v>
       </c>
@@ -44778,22 +44863,22 @@
         <v>613</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>1910</v>
+        <v>1918</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>1911</v>
+        <v>1919</v>
       </c>
       <c r="E43" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>1912</v>
+        <v>1920</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>1912</v>
+        <v>1920</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>1913</v>
+        <v>1921</v>
       </c>
       <c r="I43" s="8">
         <v>8</v>
@@ -44819,13 +44904,14 @@
       <c r="P43" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q43" s="23"/>
+      <c r="Q43"/>
       <c r="R43" s="23"/>
-      <c r="S43" s="27"/>
-      <c r="T43" s="23"/>
+      <c r="S43" s="23"/>
+      <c r="T43" s="27"/>
       <c r="U43" s="23"/>
-    </row>
-    <row r="44" customHeight="1" spans="1:21">
+      <c r="V43" s="23"/>
+    </row>
+    <row r="44" customHeight="1" spans="1:22">
       <c r="A44" s="8">
         <v>575</v>
       </c>
@@ -44833,22 +44919,22 @@
         <v>613</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>1914</v>
+        <v>1922</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>1915</v>
+        <v>1923</v>
       </c>
       <c r="E44" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>1916</v>
+        <v>1924</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>1916</v>
+        <v>1924</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>1917</v>
+        <v>1925</v>
       </c>
       <c r="I44" s="8">
         <v>5</v>
@@ -44874,13 +44960,14 @@
       <c r="P44" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q44" s="23"/>
+      <c r="Q44"/>
       <c r="R44" s="23"/>
-      <c r="S44" s="27"/>
-      <c r="T44" s="23"/>
+      <c r="S44" s="23"/>
+      <c r="T44" s="27"/>
       <c r="U44" s="23"/>
-    </row>
-    <row r="45" customHeight="1" spans="1:21">
+      <c r="V44" s="23"/>
+    </row>
+    <row r="45" customHeight="1" spans="1:22">
       <c r="A45" s="8">
         <v>576</v>
       </c>
@@ -44888,22 +44975,22 @@
         <v>613</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>1918</v>
+        <v>1926</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>1919</v>
+        <v>1927</v>
       </c>
       <c r="E45" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>1920</v>
+        <v>1928</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>1920</v>
+        <v>1928</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>1921</v>
+        <v>1929</v>
       </c>
       <c r="I45" s="8">
         <v>6</v>
@@ -44929,13 +45016,14 @@
       <c r="P45" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q45" s="23"/>
+      <c r="Q45"/>
       <c r="R45" s="23"/>
-      <c r="S45" s="27"/>
-      <c r="T45" s="23"/>
+      <c r="S45" s="23"/>
+      <c r="T45" s="27"/>
       <c r="U45" s="23"/>
-    </row>
-    <row r="46" customHeight="1" spans="1:21">
+      <c r="V45" s="23"/>
+    </row>
+    <row r="46" customHeight="1" spans="1:22">
       <c r="A46" s="8">
         <v>577</v>
       </c>
@@ -44943,22 +45031,22 @@
         <v>613</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>1922</v>
+        <v>1930</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>1923</v>
+        <v>1931</v>
       </c>
       <c r="E46" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>1924</v>
+        <v>1932</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>1924</v>
+        <v>1932</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>1925</v>
+        <v>1933</v>
       </c>
       <c r="I46" s="8">
         <v>5</v>
@@ -44984,13 +45072,14 @@
       <c r="P46" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q46" s="23"/>
+      <c r="Q46"/>
       <c r="R46" s="23"/>
-      <c r="S46" s="27"/>
-      <c r="T46" s="23"/>
+      <c r="S46" s="23"/>
+      <c r="T46" s="27"/>
       <c r="U46" s="23"/>
-    </row>
-    <row r="47" customHeight="1" spans="1:21">
+      <c r="V46" s="23"/>
+    </row>
+    <row r="47" customHeight="1" spans="1:22">
       <c r="A47" s="8">
         <v>578</v>
       </c>
@@ -44998,22 +45087,22 @@
         <v>613</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>1926</v>
+        <v>1934</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>1927</v>
+        <v>1935</v>
       </c>
       <c r="E47" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>1928</v>
+        <v>1936</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>1928</v>
+        <v>1936</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>1929</v>
+        <v>1937</v>
       </c>
       <c r="I47" s="8">
         <v>5</v>
@@ -45039,13 +45128,14 @@
       <c r="P47" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q47" s="23"/>
+      <c r="Q47"/>
       <c r="R47" s="23"/>
-      <c r="S47" s="27"/>
-      <c r="T47" s="23"/>
+      <c r="S47" s="23"/>
+      <c r="T47" s="27"/>
       <c r="U47" s="23"/>
-    </row>
-    <row r="48" customHeight="1" spans="1:21">
+      <c r="V47" s="23"/>
+    </row>
+    <row r="48" customHeight="1" spans="1:22">
       <c r="A48" s="8">
         <v>581</v>
       </c>
@@ -45053,22 +45143,22 @@
         <v>613</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>1930</v>
+        <v>1938</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>1931</v>
+        <v>1939</v>
       </c>
       <c r="E48" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>1932</v>
+        <v>1940</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>1932</v>
+        <v>1940</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>1933</v>
+        <v>1941</v>
       </c>
       <c r="I48" s="8">
         <v>7</v>
@@ -45094,13 +45184,14 @@
       <c r="P48" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q48" s="23"/>
+      <c r="Q48"/>
       <c r="R48" s="23"/>
-      <c r="S48" s="27"/>
-      <c r="T48" s="23"/>
+      <c r="S48" s="23"/>
+      <c r="T48" s="27"/>
       <c r="U48" s="23"/>
-    </row>
-    <row r="49" customHeight="1" spans="1:21">
+      <c r="V48" s="23"/>
+    </row>
+    <row r="49" customHeight="1" spans="1:22">
       <c r="A49" s="8">
         <v>582</v>
       </c>
@@ -45108,22 +45199,22 @@
         <v>613</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>1934</v>
+        <v>1942</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>1935</v>
+        <v>1943</v>
       </c>
       <c r="E49" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>1936</v>
+        <v>1944</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>1936</v>
+        <v>1944</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>1937</v>
+        <v>1945</v>
       </c>
       <c r="I49" s="8">
         <v>6</v>
@@ -45149,13 +45240,14 @@
       <c r="P49" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q49" s="23"/>
+      <c r="Q49"/>
       <c r="R49" s="23"/>
-      <c r="S49" s="27"/>
-      <c r="T49" s="23"/>
+      <c r="S49" s="23"/>
+      <c r="T49" s="27"/>
       <c r="U49" s="23"/>
-    </row>
-    <row r="50" customHeight="1" spans="1:21">
+      <c r="V49" s="23"/>
+    </row>
+    <row r="50" customHeight="1" spans="1:22">
       <c r="A50" s="8">
         <v>583</v>
       </c>
@@ -45163,22 +45255,22 @@
         <v>613</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>1934</v>
+        <v>1942</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>1935</v>
+        <v>1943</v>
       </c>
       <c r="E50" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>1938</v>
+        <v>1946</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>1938</v>
+        <v>1946</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>1939</v>
+        <v>1947</v>
       </c>
       <c r="I50" s="8">
         <v>6</v>
@@ -45204,13 +45296,14 @@
       <c r="P50" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q50" s="23"/>
+      <c r="Q50" s="8"/>
       <c r="R50" s="23"/>
-      <c r="S50" s="27"/>
-      <c r="T50" s="23"/>
+      <c r="S50" s="23"/>
+      <c r="T50" s="27"/>
       <c r="U50" s="23"/>
-    </row>
-    <row r="51" customHeight="1" spans="1:21">
+      <c r="V50" s="23"/>
+    </row>
+    <row r="51" customHeight="1" spans="1:22">
       <c r="A51" s="8">
         <v>584</v>
       </c>
@@ -45218,22 +45311,22 @@
         <v>613</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>1926</v>
+        <v>1934</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>1927</v>
+        <v>1935</v>
       </c>
       <c r="E51" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>1940</v>
+        <v>1948</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>1940</v>
+        <v>1948</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>1929</v>
+        <v>1937</v>
       </c>
       <c r="I51" s="8">
         <v>5</v>
@@ -45259,13 +45352,14 @@
       <c r="P51" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q51" s="23"/>
+      <c r="Q51"/>
       <c r="R51" s="23"/>
-      <c r="S51" s="27"/>
-      <c r="T51" s="23"/>
+      <c r="S51" s="23"/>
+      <c r="T51" s="27"/>
       <c r="U51" s="23"/>
-    </row>
-    <row r="52" customHeight="1" spans="1:21">
+      <c r="V51" s="23"/>
+    </row>
+    <row r="52" customHeight="1" spans="1:22">
       <c r="A52" s="8">
         <v>585</v>
       </c>
@@ -45273,22 +45367,22 @@
         <v>613</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>1926</v>
+        <v>1934</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>1927</v>
+        <v>1935</v>
       </c>
       <c r="E52" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>1941</v>
+        <v>1949</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>1941</v>
+        <v>1949</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>1942</v>
+        <v>1950</v>
       </c>
       <c r="I52" s="8">
         <v>5</v>
@@ -45314,13 +45408,14 @@
       <c r="P52" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q52" s="23"/>
+      <c r="Q52"/>
       <c r="R52" s="23"/>
-      <c r="S52" s="27"/>
-      <c r="T52" s="23"/>
+      <c r="S52" s="23"/>
+      <c r="T52" s="27"/>
       <c r="U52" s="23"/>
-    </row>
-    <row r="53" customHeight="1" spans="1:21">
+      <c r="V52" s="23"/>
+    </row>
+    <row r="53" customHeight="1" spans="1:22">
       <c r="A53" s="8">
         <v>586</v>
       </c>
@@ -45328,22 +45423,22 @@
         <v>613</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>1926</v>
+        <v>1934</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>1927</v>
+        <v>1935</v>
       </c>
       <c r="E53" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>1943</v>
+        <v>1951</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>1943</v>
+        <v>1951</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>1944</v>
+        <v>1952</v>
       </c>
       <c r="I53" s="8">
         <v>6</v>
@@ -45369,25 +45464,36 @@
       <c r="P53" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Q53" s="23"/>
+      <c r="Q53"/>
       <c r="R53" s="23"/>
-      <c r="S53" s="27"/>
-      <c r="T53" s="23"/>
+      <c r="S53" s="23"/>
+      <c r="T53" s="27"/>
       <c r="U53" s="23"/>
+      <c r="V53" s="23"/>
+    </row>
+    <row r="55" customHeight="1" spans="17:17">
+      <c r="Q55" s="8" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="17:17">
+      <c r="Q59" s="8" t="s">
+        <v>1816</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 K2 L2 P2 J3 K3 L3 P3 J4 K4 L4 P4 J5 K5 L5 P5 J6 K6 L6 P6 J7 K7 L7 P7 J8 K8 L8 P8 J9 K9 L9 P9 K10 L10 P10 L11 P11 J12 P12 J13 K13 P13 J14 K14 L14 P14 J15 K15 L15 P15 J16 K16 L16 J17 K17 L17 J18 K18 L18 P18 J19 K19 L19 P19 J20 K20 L20 P20 J21 K21 L21 P21 J22 K22 L22 P22 J23 K23 L23 P23 J24 K24 L24 P24 J25 K25 L25 P25 J26 K26 L26 P26 J27 K27 L27 P27 J28 K28 L28 P28 J29 K29 L29 P29 J30 K30 L30 P30 J31 K31 L31 P31 J32 K32 L32 P32 J33 K33 L33 P33 J34 K34 L34 P34 J35 K35 L35 P35 J36 K36 L36 P36 J37 K37 L37 P37 J38 K38 L38 P38 J39 K39 L39 P39 J40 K40 L40 P40 J41 K41 L41 P41 J42 K42 L42 P42 J43 K43 L43 P43 J44 K44 L44 P44 J45 K45 L45 P45 J46 K46 L46 P46 J47 K47 L47 P47 J48 K48 L48 P48 J49 K49 L49 P49 J50 K50 L50 P50 J51 K51 L51 P51 J52 K52 L52 P52 J53 K53 L53 P53 J10:J11 K11:K12 L12:L13 P16:P17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:L2 P2:P53 J3:L53">
       <formula1>"yes,no,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2 N3 N4 N5 N6 N7 N8 N9 N10 N11 N12 N13 N16 N17 N18 N19 N20 N21 N22 N23 N24 N25 N26 N27 N28 N29 N30 N31 N32 N33 N34 N35 N36 N37 N38 N39 N40 N41 N42 N43 N44 N45 N46 N47 N48 N49 N50 N51 N52 N53 N14:N15">
-      <formula1>"method,class,"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 Q2 S2 T2 U2 O3 Q3 S3 T3 U3 O4 Q4 S4 T4 U4 O5 Q5 S5 T5 U5 O6 Q6 S6 T6 U6 O7 Q7 S7 T7 U7 O8 Q8 S8 T8 U8 O9 Q9 S9 T9 U9 O10 Q10 S10 T10 U10 O11 Q11 S11 T11 U11 O12 Q12 S12 T12 U12 O13 Q13 S13 T13 U13 O14 Q14 S14 T14 U14 Q15 S15 T15 U15 Q16 S16 T16 U16 O17 S17 T17 U17 O18 S18 T18 U18 O19 Q19 T19 U19 O20 Q20 U20 O21 Q21 S21 O22 Q22 S22 T22 O23 Q23 S23 T23 U23 O24 Q24 S24 T24 U24 O25 Q25 S25 T25 U25 O26 Q26 S26 T26 U26 O27 Q27 S27 T27 U27 O28 Q28 S28 T28 U28 O29 Q29 S29 T29 U29 O30 Q30 S30 T30 U30 O31 Q31 S31 T31 U31 O32 Q32 S32 T32 U32 O33 Q33 S33 T33 U33 O34 Q34 S34 T34 U34 O35 Q35 S35 T35 U35 O36 Q36 S36 T36 U36 O37 Q37 S37 T37 U37 O38 Q38 S38 T38 U38 O39 Q39 S39 T39 U39 O40 Q40 S40 T40 U40 O41 Q41 S41 T41 U41 O42 Q42 S42 T42 U42 O43 Q43 S43 T43 U43 O44 Q44 S44 T44 U44 O45 Q45 S45 T45 U45 O46 Q46 S46 T46 U46 O47 Q47 S47 T47 U47 O48 Q48 S48 T48 U48 O49 Q49 S49 T49 U49 O50 Q50 S50 T50 U50 O51 Q51 S51 T51 U51 O52 Q52 S52 T52 U52 O53 Q53 S53 T53 U53 O15:O16 Q17:Q18 R$1:R$1048576 S19:S20 T20:T21 U21:U22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:V2 U3:V3 O2:O53 R2:R53 S$1:S$1048576 T3:T53 U4:V53">
       <formula1>"finish,pending,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 B5 B6 B7 B8 B9 B10 B11 B12 B13 B14 B15 B16 B17 B18 B19 B20 B21 B22 B23 B24 B25 B26 B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B49 B50 B51 B52 B53 B2:B3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B53">
       <formula1>"python,javascript,typescript,java,c&amp;cpp,"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N53">
+      <formula1>"method,class,"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -45492,13 +45598,13 @@
         <v>44</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>1945</v>
+        <v>1953</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>1945</v>
+        <v>1953</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>1946</v>
+        <v>1954</v>
       </c>
       <c r="I2" s="8">
         <v>6</v>
@@ -46871,7 +46977,7 @@
         <v>1331</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>1947</v>
+        <v>1955</v>
       </c>
       <c r="I27" s="8">
         <v>5</v>
@@ -46926,7 +47032,7 @@
         <v>1332</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>1948</v>
+        <v>1956</v>
       </c>
       <c r="I28" s="8">
         <v>7</v>
@@ -47256,7 +47362,7 @@
         <v>1359</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>1949</v>
+        <v>1957</v>
       </c>
       <c r="I34" s="8">
         <v>4</v>
@@ -47308,10 +47414,10 @@
         <v>1361</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>1950</v>
+        <v>1958</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>1951</v>
+        <v>1959</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="5"/>
@@ -47392,22 +47498,22 @@
         <v>794</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>1952</v>
+        <v>1960</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>1953</v>
+        <v>1961</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>401</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>1954</v>
+        <v>1962</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>1954</v>
+        <v>1962</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>1955</v>
+        <v>1963</v>
       </c>
       <c r="I37" s="8">
         <v>6</v>
@@ -47445,19 +47551,19 @@
         <v>818</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>1956</v>
+        <v>1964</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>1957</v>
+        <v>1965</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>1958</v>
+        <v>1966</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>1959</v>
+        <v>1967</v>
       </c>
       <c r="I38" s="8">
         <v>6</v>
@@ -47495,19 +47601,19 @@
         <v>818</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>1956</v>
+        <v>1964</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>1960</v>
+        <v>1968</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>1961</v>
+        <v>1969</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>1962</v>
+        <v>1970</v>
       </c>
       <c r="I39" s="8">
         <v>5</v>
@@ -47542,22 +47648,22 @@
         <v>794</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>1963</v>
+        <v>1971</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>1964</v>
+        <v>1972</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>206</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>1965</v>
+        <v>1973</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>1965</v>
+        <v>1973</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>1966</v>
+        <v>1974</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -47592,22 +47698,22 @@
         <v>794</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>1967</v>
+        <v>1975</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>1968</v>
+        <v>1976</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>1969</v>
+        <v>1977</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>1969</v>
+        <v>1977</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>1970</v>
+        <v>1978</v>
       </c>
       <c r="I41" s="8">
         <v>5</v>
@@ -47642,22 +47748,22 @@
         <v>794</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>1971</v>
+        <v>1979</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>1972</v>
+        <v>1980</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>1973</v>
+        <v>1981</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>1973</v>
+        <v>1981</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>1974</v>
+        <v>1982</v>
       </c>
       <c r="I42" s="8">
         <v>5</v>
@@ -47695,19 +47801,19 @@
         <v>874</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>1975</v>
+        <v>1983</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>1976</v>
+        <v>1984</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>1976</v>
+        <v>1984</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>1977</v>
+        <v>1985</v>
       </c>
       <c r="I43" s="8">
         <v>13</v>
@@ -47742,22 +47848,22 @@
         <v>794</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>1978</v>
+        <v>1986</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>1979</v>
+        <v>1987</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>1980</v>
+        <v>1988</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>1980</v>
+        <v>1988</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>1981</v>
+        <v>1989</v>
       </c>
       <c r="I44" s="8">
         <v>6</v>
@@ -47795,19 +47901,19 @@
         <v>906</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>1982</v>
+        <v>1990</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>1983</v>
+        <v>1991</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>1983</v>
+        <v>1991</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>1984</v>
+        <v>1992</v>
       </c>
       <c r="I45" s="8">
         <v>6</v>
@@ -47845,19 +47951,19 @@
         <v>906</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>1985</v>
+        <v>1993</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>1986</v>
+        <v>1994</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>1986</v>
+        <v>1994</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>1987</v>
+        <v>1995</v>
       </c>
       <c r="I46" s="8">
         <v>4</v>
@@ -47892,22 +47998,22 @@
         <v>794</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>1988</v>
+        <v>1996</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>1989</v>
+        <v>1997</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>1990</v>
+        <v>1998</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>1990</v>
+        <v>1998</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>1991</v>
+        <v>1999</v>
       </c>
       <c r="I47" s="8">
         <v>6</v>
@@ -47942,22 +48048,22 @@
         <v>794</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>1992</v>
+        <v>2000</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>1993</v>
+        <v>2001</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>103</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>1994</v>
+        <v>2002</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>1994</v>
+        <v>2002</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>1995</v>
+        <v>2003</v>
       </c>
       <c r="I48" s="8">
         <v>12</v>
@@ -47995,19 +48101,19 @@
         <v>892</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>1996</v>
+        <v>2004</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>103</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>1997</v>
+        <v>2005</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>1997</v>
+        <v>2005</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>1998</v>
+        <v>2006</v>
       </c>
       <c r="I49" s="8">
         <v>10</v>
@@ -48042,22 +48148,22 @@
         <v>794</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>1999</v>
+        <v>2007</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>103</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>2001</v>
+        <v>2009</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>2001</v>
+        <v>2009</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>2002</v>
+        <v>2010</v>
       </c>
       <c r="I50" s="8">
         <v>7</v>
@@ -48092,22 +48198,22 @@
         <v>794</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>2003</v>
+        <v>2011</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>2004</v>
+        <v>2012</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>103</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>2005</v>
+        <v>2013</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>2005</v>
+        <v>2013</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>2006</v>
+        <v>2014</v>
       </c>
       <c r="I51" s="8">
         <v>6</v>
@@ -48142,7 +48248,7 @@
         <v>794</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>2007</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="2:4">
@@ -48171,17 +48277,17 @@
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 K2 L2 P2 J3 K3 L3 P3 J4 K4 L4 P4 J5 K5 L5 P5 J6 K6 L6 P6 J7 K7 L7 P7 J8 K8 L8 P8 J9 K9 L9 P9 K10 L10 P10 L11 P11 J12 P12 J13 K13 P13 J14 K14 L14 P14 J15 K15 L15 P15 J16 K16 L16 J17 K17 L17 J18 K18 L18 P18 J19 K19 L19 P19 J20 K20 L20 P20 J21 K21 L21 P21 J22 K22 L22 P22 J23 K23 L23 P23 J24 K24 L24 P24 J25 K25 L25 P25 J26 K26 L26 P26 J27 K27 L27 P27 J28 K28 L28 P28 J29 K29 L29 P29 J30 K30 L30 P30 J31 K31 L31 P31 J32 K32 L32 P32 J33 K33 L33 P33 J34 K34 L34 P34 J35 K35 L35 P35 J36 K36 L36 P36 J37 K37 L37 P37 J38 K38 L38 P38 J39 K39 L39 P39 J40 K40 L40 P40 J41 K41 L41 P41 J42 K42 L42 P42 J43 K43 L43 P43 J44 K44 L44 P44 J45 K45 L45 P45 J46 K46 L46 P46 J47 K47 L47 P47 J48 K48 L48 P48 J49 K49 L49 P49 J50 K50 L50 P50 J51 K51 L51 P51 J10:J11 K11:K12 L12:L13 P16:P17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:L2 P2:P51 J3:L51">
       <formula1>"yes,no,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2 N3 N4 N5 N6 N7 N8 N9 N10 N11 N12 N13 N16 N17 N18 N19 N20 N21 N22 N23 N24 N25 N26 N27 N28 N29 N30 N31 N32 N33 N34 N35 N36 N37 N38 N39 N40 N41 N42 N43 N44 N45 N46 N47 N48 N49 N50 N51 N14:N15">
-      <formula1>"method,class,"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 Q2 S2 T2 U2 O3 Q3 S3 T3 U3 O4 Q4 S4 T4 U4 O5 Q5 S5 T5 U5 O6 Q6 S6 T6 U6 O7 Q7 S7 T7 U7 O8 Q8 S8 T8 U8 O9 Q9 S9 T9 U9 O10 Q10 S10 T10 U10 O11 Q11 S11 T11 U11 O12 Q12 S12 T12 U12 O13 Q13 S13 T13 U13 O14 Q14 S14 T14 U14 Q15 S15 T15 U15 Q16 S16 T16 U16 O17 S17 T17 U17 O18 S18 T18 U18 O19 Q19 T19 U19 O20 Q20 U20 O21 Q21 S21 O22 Q22 S22 T22 O23 Q23 S23 T23 U23 O24 Q24 S24 T24 U24 O25 Q25 S25 T25 U25 O26 Q26 S26 T26 U26 O27 Q27 S27 T27 U27 O28 Q28 S28 T28 U28 O29 Q29 S29 T29 U29 O30 Q30 S30 T30 U30 O31 Q31 S31 T31 U31 O32 Q32 S32 T32 U32 O33 Q33 S33 T33 U33 O34 Q34 S34 T34 U34 O35 Q35 S35 T35 U35 O36 Q36 S36 T36 U36 O37 O38 O39 O40 O41 O42 O43 O44 O45 O46 O47 O48 O49 O50 O51 O15:O16 Q17:Q18 R$1:R$1048576 S19:S20 T20:T21 U21:U22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:U2 T3:U3 O2:O51 Q2:Q36 R$1:R$1048576 S3:S36 T4:U36">
       <formula1>"finish,pending,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 B5 B6 B7 B8 B9 B10 B11 B12 B13 B14 B15 B16 B17 B18 B19 B20 B21 B22 B23 B24 B25 B26 B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B49 B50 B51 B52 B53 B54 B55 B56 B57 B58 B2:B3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B58">
       <formula1>"python,javascript,typescript,java,c&amp;cpp,"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N51">
+      <formula1>"method,class,"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -49208,22 +49314,22 @@
         <v>736</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>2008</v>
+        <v>2016</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>2009</v>
+        <v>2017</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="I19" s="8">
         <v>6</v>
@@ -49264,22 +49370,22 @@
         <v>736</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>2012</v>
+        <v>2020</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>2013</v>
+        <v>2021</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>2014</v>
+        <v>2022</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>2014</v>
+        <v>2022</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>2015</v>
+        <v>2023</v>
       </c>
       <c r="I20" s="8">
         <v>6</v>
@@ -49320,10 +49426,10 @@
         <v>736</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>2016</v>
+        <v>2024</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>2017</v>
+        <v>2025</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -49352,22 +49458,22 @@
         <v>736</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>2018</v>
+        <v>2026</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>2019</v>
+        <v>2027</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>2020</v>
+        <v>2028</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>2021</v>
+        <v>2029</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>2022</v>
+        <v>2030</v>
       </c>
       <c r="I22" s="8">
         <v>6</v>
@@ -49408,22 +49514,22 @@
         <v>736</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>2023</v>
+        <v>2031</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>2024</v>
+        <v>2032</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>30</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>2025</v>
+        <v>2033</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>2026</v>
+        <v>2034</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>2027</v>
+        <v>2035</v>
       </c>
       <c r="I23" s="8">
         <v>5</v>
@@ -49464,10 +49570,10 @@
         <v>736</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>2028</v>
+        <v>2036</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>2029</v>
+        <v>2037</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
@@ -49496,10 +49602,10 @@
         <v>736</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>2030</v>
+        <v>2038</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>2031</v>
+        <v>2039</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -49528,22 +49634,22 @@
         <v>736</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>2032</v>
+        <v>2040</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>2033</v>
+        <v>2041</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>2034</v>
+        <v>2042</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>2034</v>
+        <v>2042</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>2035</v>
+        <v>2043</v>
       </c>
       <c r="I26" s="8">
         <v>6</v>
@@ -49584,22 +49690,22 @@
         <v>736</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>2036</v>
+        <v>2044</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>2037</v>
+        <v>2045</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>2038</v>
+        <v>2046</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>2038</v>
+        <v>2046</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>2039</v>
+        <v>2047</v>
       </c>
       <c r="I27" s="8">
         <v>6</v>
@@ -49640,22 +49746,22 @@
         <v>736</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>2040</v>
+        <v>2048</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>2041</v>
+        <v>2049</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>2042</v>
+        <v>2050</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>2042</v>
+        <v>2050</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>2043</v>
+        <v>2051</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
@@ -49680,22 +49786,22 @@
         <v>736</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>2044</v>
+        <v>2052</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>2045</v>
+        <v>2053</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>2046</v>
+        <v>2054</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>2046</v>
+        <v>2054</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>2047</v>
+        <v>2055</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
@@ -49720,10 +49826,10 @@
         <v>736</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>2044</v>
+        <v>2052</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>2045</v>
+        <v>2053</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>103</v>
@@ -49735,7 +49841,7 @@
         <v>51</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>2048</v>
+        <v>2056</v>
       </c>
       <c r="I30" s="8">
         <v>5</v>
@@ -49776,22 +49882,22 @@
         <v>736</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>2049</v>
+        <v>2057</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>2050</v>
+        <v>2058</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>2051</v>
+        <v>2059</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>2051</v>
+        <v>2059</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>2052</v>
+        <v>2060</v>
       </c>
       <c r="I31" s="8">
         <v>6</v>
@@ -49832,19 +49938,19 @@
         <v>736</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>2053</v>
+        <v>2061</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>2054</v>
+        <v>2062</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>2055</v>
+        <v>2063</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>2055</v>
+        <v>2063</v>
       </c>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
@@ -49870,10 +49976,10 @@
         <v>736</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>2056</v>
+        <v>2064</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>2057</v>
+        <v>2065</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
@@ -49902,22 +50008,22 @@
         <v>736</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>2058</v>
+        <v>2066</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>2059</v>
+        <v>2067</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>2060</v>
+        <v>2068</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>2060</v>
+        <v>2068</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>2061</v>
+        <v>2069</v>
       </c>
       <c r="I34" s="8">
         <v>6</v>
@@ -49958,10 +50064,10 @@
         <v>736</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>2062</v>
+        <v>2070</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>2063</v>
+        <v>2071</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
@@ -49990,10 +50096,10 @@
         <v>736</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>2064</v>
+        <v>2072</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>2065</v>
+        <v>2073</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
@@ -50022,10 +50128,10 @@
         <v>736</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>2064</v>
+        <v>2072</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>2065</v>
+        <v>2073</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
@@ -50054,10 +50160,10 @@
         <v>736</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>2064</v>
+        <v>2072</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>2065</v>
+        <v>2073</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
@@ -50086,10 +50192,10 @@
         <v>736</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>2064</v>
+        <v>2072</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>2065</v>
+        <v>2073</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
@@ -50121,7 +50227,7 @@
         <v>1300</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>2066</v>
+        <v>2074</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
@@ -50150,10 +50256,10 @@
         <v>736</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>2067</v>
+        <v>2075</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>2068</v>
+        <v>2076</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
@@ -50182,10 +50288,10 @@
         <v>736</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>2069</v>
+        <v>2077</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>2070</v>
+        <v>2078</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
@@ -50214,10 +50320,10 @@
         <v>736</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>2071</v>
+        <v>2079</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>2072</v>
+        <v>2080</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
@@ -50242,10 +50348,10 @@
       <c r="A44" s="8"/>
       <c r="B44" s="5"/>
       <c r="C44" s="8" t="s">
-        <v>2058</v>
+        <v>2066</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>2059</v>
+        <v>2067</v>
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
@@ -50268,16 +50374,16 @@
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 K2 L2 P2 J3 K3 L3 P3 J4 K4 L4 P4 J5 K5 L5 P5 J6 K6 L6 P6 J7 K7 L7 P7 J8 K8 L8 P8 J9 K9 L9 P9 K10 L10 P10 L11 P11 J12 P12 J13 K13 P13 J14 K14 L14 P14 J15 K15 L15 P15 J16 K16 L16 J17 K17 L17 J18 K18 L18 P18 J19 K19 L19 P19 J20 K20 L20 P20 J22 K22 L22 P22 J23 K23 L23 P23 J26 K26 L26 P26 J27 K27 L27 P27 J30 K30 L30 P30 J31 K31 L31 P31 J34 K34 L34 P34 J10:J11 K11:K12 L12:L13 P16:P17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:L2 J34:L34 P34 P2:P20 P22:P23 P26:P27 P30:P31 J3:L20 J22:L23 J26:L27 J30:L31">
       <formula1>"yes,no,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2 N3 N4 N5 N6 N7 N8 N9 N10 N11 N12 N13 N16 N17 N18 N19 N20 N22 N23 N26 N27 N30 N31 N34 N14:N15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N34 N2:N20 N22:N23 N26:N27 N30:N31">
       <formula1>"method,class,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 O3 O4 O5 O6 O7 O8 O9 O10 O11 O12 O13 O14 O17 O18 O19 O20 O22 O23 O26 O27 O30 O31 O34 O15:O16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O34 O2:O20 O22:O23 O26:O27 O30:O31">
       <formula1>"finish,pending,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 B5 B6 B7 B8 B9 B10 B11 B12 B13 B14 B15 B16 B17 B18 B19 B20 B21 B22 B23 B24 B25 B26 B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B2:B3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B44">
       <formula1>"python,javascript,typescript,java,c&amp;cpp,"</formula1>
     </dataValidation>
   </dataValidations>

--- a/analysis/xlsx/RealisticEval-Data.xlsx
+++ b/analysis/xlsx/RealisticEval-Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="10480"/>
+    <workbookView windowWidth="30720" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -8607,25 +8607,25 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E3" sqref="E3"/>
+      <selection pane="topRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="9.57272727272727" style="39" customWidth="1"/>
-    <col min="4" max="4" width="9.57272727272727" style="4" customWidth="1"/>
-    <col min="5" max="5" width="79.8545454545455" style="4" customWidth="1"/>
-    <col min="6" max="6" width="17.8" style="40" customWidth="1"/>
-    <col min="7" max="8" width="31.4181818181818" style="4" customWidth="1"/>
-    <col min="9" max="9" width="39.1090909090909" style="4" customWidth="1"/>
-    <col min="10" max="10" width="21.8545454545455" style="4" customWidth="1"/>
-    <col min="11" max="11" width="12.5454545454545" style="39" customWidth="1"/>
-    <col min="14" max="14" width="11.1909090909091" style="4" customWidth="1"/>
-    <col min="15" max="15" width="13.7545454545455" style="4" customWidth="1"/>
-    <col min="16" max="17" width="20.0909090909091" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.57407407407407" style="39" customWidth="1"/>
+    <col min="4" max="4" width="9.57407407407407" style="4" customWidth="1"/>
+    <col min="5" max="5" width="79.8518518518518" style="4" customWidth="1"/>
+    <col min="6" max="6" width="17.7962962962963" style="40" customWidth="1"/>
+    <col min="7" max="8" width="31.4259259259259" style="4" customWidth="1"/>
+    <col min="9" max="9" width="39.1111111111111" style="4" customWidth="1"/>
+    <col min="10" max="10" width="21.8518518518519" style="4" customWidth="1"/>
+    <col min="11" max="11" width="12.5462962962963" style="39" customWidth="1"/>
+    <col min="14" max="14" width="11.1944444444444" style="4" customWidth="1"/>
+    <col min="15" max="15" width="13.75" style="4" customWidth="1"/>
+    <col min="16" max="17" width="20.0925925925926" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26" spans="1:17">
+    <row r="1" ht="26.4" spans="1:17">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -8678,7 +8678,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" ht="65" spans="1:17">
+    <row r="2" ht="66" spans="1:17">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -8731,7 +8731,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" ht="52" spans="1:17">
+    <row r="3" ht="52.8" spans="1:17">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -8784,7 +8784,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" ht="42" spans="1:17">
+    <row r="4" ht="39.6" spans="1:17">
       <c r="A4" s="41">
         <v>3</v>
       </c>
@@ -8829,7 +8829,7 @@
       </c>
       <c r="Q4" s="48"/>
     </row>
-    <row r="5" ht="42" spans="1:17">
+    <row r="5" ht="41.4" spans="1:17">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -8882,7 +8882,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" ht="28" spans="1:17">
+    <row r="6" ht="26.4" spans="1:17">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -8935,7 +8935,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" ht="52" spans="1:17">
+    <row r="7" ht="66" spans="1:17">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -8988,7 +8988,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" ht="52" spans="1:17">
+    <row r="8" ht="52.8" spans="1:17">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -9041,7 +9041,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" ht="39" spans="1:17">
+    <row r="9" ht="39.6" spans="1:17">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -9094,7 +9094,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" ht="39" spans="1:17">
+    <row r="10" ht="39.6" spans="1:17">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -9147,7 +9147,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" ht="28" spans="1:17">
+    <row r="11" ht="27.6" spans="1:17">
       <c r="A11" s="41">
         <v>10</v>
       </c>
@@ -9188,7 +9188,7 @@
       </c>
       <c r="Q11" s="48"/>
     </row>
-    <row r="12" ht="42" spans="1:17">
+    <row r="12" ht="41.4" spans="1:17">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -9241,7 +9241,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" ht="65" spans="1:17">
+    <row r="13" ht="66" spans="1:17">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -9294,7 +9294,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" ht="52" spans="1:17">
+    <row r="14" ht="52.8" spans="1:17">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -9347,7 +9347,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" ht="56" spans="1:17">
+    <row r="15" ht="55.2" spans="1:17">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -9400,7 +9400,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" ht="78" spans="1:17">
+    <row r="16" ht="79.2" spans="1:17">
       <c r="A16" s="41">
         <v>15</v>
       </c>
@@ -9441,7 +9441,7 @@
       </c>
       <c r="Q16" s="48"/>
     </row>
-    <row r="17" ht="84" spans="1:17">
+    <row r="17" ht="82.8" spans="1:17">
       <c r="A17" s="4">
         <v>17</v>
       </c>
@@ -9494,7 +9494,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" ht="39" spans="1:17">
+    <row r="18" ht="39.6" spans="1:17">
       <c r="A18" s="4">
         <v>18</v>
       </c>
@@ -9547,7 +9547,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" ht="52" spans="1:17">
+    <row r="19" ht="52.8" spans="1:17">
       <c r="A19" s="4">
         <v>19</v>
       </c>
@@ -9600,7 +9600,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" ht="65" spans="1:17">
+    <row r="20" ht="79.2" spans="1:17">
       <c r="A20" s="4">
         <v>20</v>
       </c>
@@ -9653,7 +9653,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" ht="28" spans="1:17">
+    <row r="21" ht="27.6" spans="1:17">
       <c r="A21" s="4">
         <v>21</v>
       </c>
@@ -9706,7 +9706,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" ht="42" spans="1:17">
+    <row r="22" ht="41.4" spans="1:17">
       <c r="A22" s="4">
         <v>22</v>
       </c>
@@ -9759,7 +9759,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" ht="42" spans="1:17">
+    <row r="23" ht="41.4" spans="1:17">
       <c r="A23" s="4">
         <v>23</v>
       </c>
@@ -9812,7 +9812,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" ht="28" spans="1:17">
+    <row r="24" ht="27.6" spans="1:17">
       <c r="A24" s="4">
         <v>24</v>
       </c>
@@ -9865,7 +9865,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" ht="91" spans="1:17">
+    <row r="25" ht="92.4" spans="1:17">
       <c r="A25" s="4">
         <v>25</v>
       </c>
@@ -9918,7 +9918,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" ht="52" spans="1:17">
+    <row r="26" ht="52.8" spans="1:17">
       <c r="A26" s="4">
         <v>26</v>
       </c>
@@ -9971,7 +9971,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" ht="52" spans="1:17">
+    <row r="27" ht="52.8" spans="1:17">
       <c r="A27" s="4">
         <v>27</v>
       </c>
@@ -10024,7 +10024,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" ht="65" spans="1:17">
+    <row r="28" ht="79.2" spans="1:17">
       <c r="A28" s="4">
         <v>28</v>
       </c>
@@ -10077,7 +10077,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" ht="91" spans="1:17">
+    <row r="29" ht="105.6" spans="1:17">
       <c r="A29" s="4">
         <v>31</v>
       </c>
@@ -10130,7 +10130,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" ht="42" spans="1:17">
+    <row r="30" ht="41.4" spans="1:17">
       <c r="A30" s="4">
         <v>32</v>
       </c>
@@ -10183,7 +10183,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" ht="78" spans="1:17">
+    <row r="31" ht="79.2" spans="1:17">
       <c r="A31" s="4">
         <v>33</v>
       </c>
@@ -10236,7 +10236,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" ht="39" spans="1:17">
+    <row r="32" ht="39.6" spans="1:17">
       <c r="A32" s="4">
         <v>35</v>
       </c>
@@ -10289,7 +10289,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" ht="56" spans="1:17">
+    <row r="33" ht="55.2" spans="1:17">
       <c r="A33" s="4">
         <v>36</v>
       </c>
@@ -10340,7 +10340,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" ht="39" spans="1:17">
+    <row r="34" ht="39.6" spans="1:17">
       <c r="A34" s="4">
         <v>37</v>
       </c>
@@ -10393,7 +10393,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" ht="130" spans="1:17">
+    <row r="35" ht="132" spans="1:17">
       <c r="A35" s="4">
         <v>38</v>
       </c>
@@ -10446,7 +10446,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" ht="52" spans="1:17">
+    <row r="36" ht="52.8" spans="1:17">
       <c r="A36" s="4">
         <v>40</v>
       </c>
@@ -10499,7 +10499,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" ht="52" spans="1:17">
+    <row r="37" ht="52.8" spans="1:17">
       <c r="A37" s="4">
         <v>41</v>
       </c>
@@ -10552,7 +10552,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" ht="39" spans="1:17">
+    <row r="38" ht="39.6" spans="1:17">
       <c r="A38" s="4">
         <v>42</v>
       </c>
@@ -10605,7 +10605,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" ht="26" spans="1:17">
+    <row r="39" ht="26.4" spans="1:17">
       <c r="A39" s="4">
         <v>43</v>
       </c>
@@ -10658,7 +10658,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" ht="42" spans="1:17">
+    <row r="40" ht="41.4" spans="1:17">
       <c r="A40" s="4">
         <v>44</v>
       </c>
@@ -10711,7 +10711,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" ht="91" spans="1:17">
+    <row r="41" ht="105.6" spans="1:17">
       <c r="A41" s="4">
         <v>45</v>
       </c>
@@ -10764,7 +10764,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" ht="39" spans="1:17">
+    <row r="42" ht="39.6" spans="1:17">
       <c r="A42" s="4">
         <v>46</v>
       </c>
@@ -10817,7 +10817,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" ht="91" spans="1:17">
+    <row r="43" ht="92.4" spans="1:17">
       <c r="A43" s="4">
         <v>47</v>
       </c>
@@ -10870,7 +10870,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" ht="52" spans="1:17">
+    <row r="44" ht="66" spans="1:17">
       <c r="A44" s="4">
         <v>51</v>
       </c>
@@ -10923,7 +10923,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" ht="28" spans="1:17">
+    <row r="45" ht="27.6" spans="1:17">
       <c r="A45" s="4">
         <v>52</v>
       </c>
@@ -10976,7 +10976,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" ht="70" spans="1:17">
+    <row r="46" ht="69" spans="1:17">
       <c r="A46" s="4">
         <v>53</v>
       </c>
@@ -11029,7 +11029,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" ht="52" spans="1:17">
+    <row r="47" ht="52.8" spans="1:17">
       <c r="A47" s="4">
         <v>54</v>
       </c>
@@ -11082,7 +11082,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" ht="65" spans="1:17">
+    <row r="48" ht="66" spans="1:17">
       <c r="A48" s="4">
         <v>55</v>
       </c>
@@ -11135,7 +11135,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" ht="39" spans="1:17">
+    <row r="49" ht="52.8" spans="1:17">
       <c r="A49" s="4">
         <v>56</v>
       </c>
@@ -11188,7 +11188,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" ht="26" spans="1:17">
+    <row r="50" ht="26.4" spans="1:17">
       <c r="A50" s="4">
         <v>57</v>
       </c>
@@ -11241,7 +11241,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" ht="65" spans="1:17">
+    <row r="51" ht="66" spans="1:17">
       <c r="A51" s="4">
         <v>58</v>
       </c>
@@ -11294,7 +11294,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" ht="52" spans="1:17">
+    <row r="52" ht="66" spans="1:17">
       <c r="A52" s="4">
         <v>59</v>
       </c>
@@ -11347,7 +11347,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" ht="42" spans="1:17">
+    <row r="53" ht="52.8" spans="1:17">
       <c r="A53" s="4">
         <v>60</v>
       </c>
@@ -11400,7 +11400,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" ht="56" spans="1:17">
+    <row r="54" ht="55.2" spans="1:17">
       <c r="A54" s="29">
         <v>62</v>
       </c>
@@ -11453,7 +11453,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" ht="28" spans="1:17">
+    <row r="55" ht="27.6" spans="1:17">
       <c r="A55" s="4">
         <v>63</v>
       </c>
@@ -11506,7 +11506,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" ht="42" spans="1:17">
+    <row r="56" ht="41.4" spans="1:17">
       <c r="A56" s="4">
         <v>64</v>
       </c>
@@ -11559,7 +11559,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" ht="52" spans="1:17">
+    <row r="57" ht="52.8" spans="1:17">
       <c r="A57" s="4">
         <v>65</v>
       </c>
@@ -11612,7 +11612,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" ht="65" spans="1:17">
+    <row r="58" ht="66" spans="1:17">
       <c r="A58" s="4">
         <v>66</v>
       </c>
@@ -11665,7 +11665,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" ht="52" spans="1:17">
+    <row r="59" ht="52.8" spans="1:17">
       <c r="A59" s="4">
         <v>67</v>
       </c>
@@ -11718,7 +11718,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" ht="65" spans="1:17">
+    <row r="60" ht="66" spans="1:17">
       <c r="A60" s="4">
         <v>68</v>
       </c>
@@ -11771,7 +11771,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" ht="52" spans="1:17">
+    <row r="61" ht="52.8" spans="1:17">
       <c r="A61" s="4">
         <v>70</v>
       </c>
@@ -11824,7 +11824,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" ht="52" spans="1:17">
+    <row r="62" ht="66" spans="1:17">
       <c r="A62" s="4">
         <v>71</v>
       </c>
@@ -11877,7 +11877,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" ht="52" spans="1:17">
+    <row r="63" ht="52.8" spans="1:17">
       <c r="A63" s="4">
         <v>72</v>
       </c>
@@ -11930,7 +11930,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" ht="56" spans="1:17">
+    <row r="64" ht="55.2" spans="1:17">
       <c r="A64" s="4">
         <v>73</v>
       </c>
@@ -11983,7 +11983,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" ht="28" spans="1:17">
+    <row r="65" ht="27.6" spans="1:17">
       <c r="A65" s="4">
         <v>74</v>
       </c>
@@ -12036,7 +12036,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" ht="65" spans="1:17">
+    <row r="66" ht="79.2" spans="1:17">
       <c r="A66" s="4">
         <v>75</v>
       </c>
@@ -12089,7 +12089,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" ht="78" spans="1:17">
+    <row r="67" ht="92.4" spans="1:17">
       <c r="A67" s="4">
         <v>76</v>
       </c>
@@ -12142,7 +12142,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" ht="52" spans="1:17">
+    <row r="68" ht="52.8" spans="1:17">
       <c r="A68" s="4">
         <v>77</v>
       </c>
@@ -12195,7 +12195,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" ht="65" spans="1:17">
+    <row r="69" ht="66" spans="1:17">
       <c r="A69" s="4">
         <v>78</v>
       </c>
@@ -12248,7 +12248,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" ht="117" spans="1:17">
+    <row r="70" ht="118.8" spans="1:17">
       <c r="A70" s="4">
         <v>79</v>
       </c>
@@ -12301,7 +12301,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" ht="65" spans="1:17">
+    <row r="71" ht="66" spans="1:17">
       <c r="A71" s="4">
         <v>80</v>
       </c>
@@ -12354,7 +12354,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" ht="39" spans="1:17">
+    <row r="72" ht="39.6" spans="1:17">
       <c r="A72" s="4">
         <v>81</v>
       </c>
@@ -12407,7 +12407,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" ht="117" spans="1:17">
+    <row r="73" ht="118.8" spans="1:17">
       <c r="A73" s="4">
         <v>82</v>
       </c>
@@ -12460,7 +12460,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" ht="52" spans="1:17">
+    <row r="74" ht="52.8" spans="1:17">
       <c r="A74" s="4">
         <v>83</v>
       </c>
@@ -12513,7 +12513,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" ht="78" spans="1:17">
+    <row r="75" ht="79.2" spans="1:17">
       <c r="A75" s="4">
         <v>84</v>
       </c>
@@ -12566,7 +12566,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" ht="52" spans="1:17">
+    <row r="76" ht="52.8" spans="1:17">
       <c r="A76" s="4">
         <v>85</v>
       </c>
@@ -12619,7 +12619,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" ht="56" spans="1:17">
+    <row r="77" ht="55.2" spans="1:17">
       <c r="A77" s="4">
         <v>86</v>
       </c>
@@ -12672,7 +12672,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" ht="52" spans="1:17">
+    <row r="78" ht="52.8" spans="1:17">
       <c r="A78" s="4">
         <v>87</v>
       </c>
@@ -12725,7 +12725,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" ht="39" spans="1:17">
+    <row r="79" ht="39.6" spans="1:17">
       <c r="A79" s="4">
         <v>88</v>
       </c>
@@ -12778,7 +12778,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" ht="52" spans="1:17">
+    <row r="80" ht="52.8" spans="1:17">
       <c r="A80" s="4">
         <v>89</v>
       </c>
@@ -12831,7 +12831,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" ht="28" spans="1:17">
+    <row r="81" ht="27.6" spans="1:17">
       <c r="A81" s="4">
         <v>92</v>
       </c>
@@ -12884,7 +12884,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" ht="56" spans="1:17">
+    <row r="82" ht="55.2" spans="1:17">
       <c r="A82" s="4">
         <v>93</v>
       </c>
@@ -12937,7 +12937,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" ht="56" spans="1:17">
+    <row r="83" ht="55.2" spans="1:17">
       <c r="A83" s="4">
         <v>94</v>
       </c>
@@ -12990,7 +12990,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="84" ht="56" spans="1:17">
+    <row r="84" ht="55.2" spans="1:17">
       <c r="A84" s="4">
         <v>95</v>
       </c>
@@ -13043,7 +13043,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" ht="39" spans="1:17">
+    <row r="85" ht="52.8" spans="1:17">
       <c r="A85" s="4">
         <v>96</v>
       </c>
@@ -13096,7 +13096,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="86" ht="52" spans="1:17">
+    <row r="86" ht="52.8" spans="1:17">
       <c r="A86" s="4">
         <v>97</v>
       </c>
@@ -13149,7 +13149,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="87" ht="39" spans="1:17">
+    <row r="87" ht="52.8" spans="1:17">
       <c r="A87" s="4">
         <v>99</v>
       </c>
@@ -13202,7 +13202,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" ht="42" spans="1:17">
+    <row r="88" ht="41.4" spans="1:17">
       <c r="A88" s="4">
         <v>100</v>
       </c>
@@ -13255,7 +13255,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" ht="42" spans="1:17">
+    <row r="89" ht="52.8" spans="1:17">
       <c r="A89" s="4">
         <v>101</v>
       </c>
@@ -13308,7 +13308,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="90" ht="52" spans="1:17">
+    <row r="90" ht="52.8" spans="1:17">
       <c r="A90" s="4">
         <v>103</v>
       </c>
@@ -13361,7 +13361,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="91" ht="42" spans="1:17">
+    <row r="91" ht="41.4" spans="1:17">
       <c r="A91" s="4">
         <v>104</v>
       </c>
@@ -13414,7 +13414,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="92" ht="39" spans="1:17">
+    <row r="92" ht="39.6" spans="1:17">
       <c r="A92" s="4">
         <v>105</v>
       </c>
@@ -13465,7 +13465,7 @@
       </c>
       <c r="Q92" s="22"/>
     </row>
-    <row r="93" ht="28" spans="1:17">
+    <row r="93" ht="27.6" spans="1:17">
       <c r="A93" s="4">
         <v>106</v>
       </c>
@@ -13518,7 +13518,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="94" ht="42" spans="1:17">
+    <row r="94" ht="41.4" spans="1:17">
       <c r="A94" s="4">
         <v>107</v>
       </c>
@@ -13571,7 +13571,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" ht="39" spans="1:17">
+    <row r="95" ht="39.6" spans="1:17">
       <c r="A95" s="4">
         <v>108</v>
       </c>
@@ -13624,7 +13624,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="96" ht="42" spans="1:17">
+    <row r="96" ht="41.4" spans="1:17">
       <c r="A96" s="4">
         <v>109</v>
       </c>
@@ -13730,7 +13730,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="98" ht="42" spans="1:17">
+    <row r="98" ht="41.4" spans="1:17">
       <c r="A98" s="4">
         <v>111</v>
       </c>
@@ -13783,7 +13783,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="99" ht="42" spans="1:17">
+    <row r="99" ht="41.4" spans="1:17">
       <c r="A99" s="4">
         <v>112</v>
       </c>
@@ -13836,7 +13836,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="100" ht="42" spans="1:17">
+    <row r="100" ht="52.8" spans="1:17">
       <c r="A100" s="4">
         <v>113</v>
       </c>
@@ -13889,7 +13889,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="101" ht="39" spans="1:17">
+    <row r="101" ht="39.6" spans="1:17">
       <c r="A101" s="4">
         <v>114</v>
       </c>
@@ -13942,7 +13942,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="102" ht="39" spans="1:17">
+    <row r="102" ht="39.6" spans="1:17">
       <c r="A102" s="4">
         <v>115</v>
       </c>
@@ -13995,7 +13995,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="103" ht="26" spans="1:17">
+    <row r="103" ht="26.4" spans="1:17">
       <c r="A103" s="4">
         <v>116</v>
       </c>
@@ -14048,7 +14048,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="104" ht="56" spans="1:17">
+    <row r="104" ht="55.2" spans="1:17">
       <c r="A104" s="4">
         <v>117</v>
       </c>
@@ -14101,7 +14101,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="105" ht="56" spans="1:17">
+    <row r="105" ht="55.2" spans="1:17">
       <c r="A105" s="4">
         <v>118</v>
       </c>
@@ -14154,7 +14154,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="106" ht="52" spans="1:17">
+    <row r="106" ht="52.8" spans="1:17">
       <c r="A106" s="4">
         <v>119</v>
       </c>
@@ -14207,7 +14207,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="107" ht="39" spans="1:17">
+    <row r="107" ht="39.6" spans="1:17">
       <c r="A107" s="4">
         <v>120</v>
       </c>
@@ -14260,7 +14260,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="108" ht="104" spans="1:17">
+    <row r="108" ht="105.6" spans="1:17">
       <c r="A108" s="4">
         <v>121</v>
       </c>
@@ -14313,7 +14313,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="109" ht="56" spans="1:17">
+    <row r="109" ht="66" spans="1:17">
       <c r="A109" s="4">
         <v>122</v>
       </c>
@@ -14366,7 +14366,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="110" ht="65" spans="1:17">
+    <row r="110" ht="66" spans="1:17">
       <c r="A110" s="4">
         <v>123</v>
       </c>
@@ -14419,7 +14419,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="111" ht="56" spans="1:17">
+    <row r="111" ht="55.2" spans="1:17">
       <c r="A111" s="4">
         <v>124</v>
       </c>
@@ -14472,7 +14472,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="112" ht="52" spans="1:17">
+    <row r="112" ht="52.8" spans="1:17">
       <c r="A112" s="4">
         <v>125</v>
       </c>
@@ -14525,7 +14525,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="113" ht="52" spans="1:17">
+    <row r="113" ht="52.8" spans="1:17">
       <c r="A113" s="4">
         <v>126</v>
       </c>
@@ -14578,7 +14578,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="114" ht="56" spans="1:17">
+    <row r="114" ht="55.2" spans="1:17">
       <c r="A114" s="4">
         <v>127</v>
       </c>
@@ -14631,7 +14631,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="115" ht="26" spans="1:17">
+    <row r="115" ht="26.4" spans="1:17">
       <c r="A115" s="4">
         <v>129</v>
       </c>
@@ -14684,7 +14684,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="116" ht="56" spans="1:17">
+    <row r="116" ht="55.2" spans="1:17">
       <c r="A116" s="4">
         <v>130</v>
       </c>
@@ -14737,7 +14737,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="117" ht="56" spans="1:17">
+    <row r="117" ht="55.2" spans="1:17">
       <c r="A117" s="4">
         <v>131</v>
       </c>
@@ -14790,7 +14790,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="118" ht="56" spans="1:17">
+    <row r="118" ht="55.2" spans="1:17">
       <c r="A118" s="4">
         <v>132</v>
       </c>
@@ -14843,7 +14843,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="119" ht="42" spans="1:17">
+    <row r="119" ht="41.4" spans="1:17">
       <c r="A119" s="4">
         <v>133</v>
       </c>
@@ -14896,7 +14896,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="120" ht="42" spans="1:17">
+    <row r="120" ht="41.4" spans="1:17">
       <c r="A120" s="4">
         <v>134</v>
       </c>
@@ -14949,7 +14949,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="121" ht="42" spans="1:17">
+    <row r="121" ht="41.4" spans="1:17">
       <c r="A121" s="4">
         <v>135</v>
       </c>
@@ -15002,7 +15002,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="122" ht="65" spans="1:17">
+    <row r="122" ht="66" spans="1:17">
       <c r="A122" s="4">
         <v>136</v>
       </c>
@@ -15045,7 +15045,7 @@
       <c r="P122" s="22"/>
       <c r="Q122" s="22"/>
     </row>
-    <row r="123" ht="26" spans="1:17">
+    <row r="123" ht="26.4" spans="1:17">
       <c r="A123" s="4">
         <v>137</v>
       </c>
@@ -15098,7 +15098,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="124" ht="39" spans="1:17">
+    <row r="124" ht="39.6" spans="1:17">
       <c r="A124" s="4">
         <v>138</v>
       </c>
@@ -15151,7 +15151,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="125" ht="65" spans="1:17">
+    <row r="125" ht="79.2" spans="1:17">
       <c r="A125" s="4">
         <v>139</v>
       </c>
@@ -15204,7 +15204,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="126" ht="65" spans="1:17">
+    <row r="126" ht="79.2" spans="1:17">
       <c r="A126" s="4">
         <v>140</v>
       </c>
@@ -15257,7 +15257,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="127" ht="39" spans="1:17">
+    <row r="127" ht="39.6" spans="1:17">
       <c r="A127" s="4">
         <v>141</v>
       </c>
@@ -15310,7 +15310,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="128" ht="39" spans="1:17">
+    <row r="128" ht="52.8" spans="1:17">
       <c r="A128" s="4">
         <v>142</v>
       </c>
@@ -15363,7 +15363,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="129" ht="39" spans="1:17">
+    <row r="129" ht="39.6" spans="1:17">
       <c r="A129" s="4">
         <v>143</v>
       </c>
@@ -15416,7 +15416,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="130" ht="26" spans="1:17">
+    <row r="130" ht="26.4" spans="1:17">
       <c r="A130" s="4">
         <v>144</v>
       </c>
@@ -15469,7 +15469,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="131" ht="65" spans="1:17">
+    <row r="131" ht="66" spans="1:17">
       <c r="A131" s="4">
         <v>145</v>
       </c>
@@ -15520,7 +15520,7 @@
       </c>
       <c r="Q131" s="22"/>
     </row>
-    <row r="132" ht="52" spans="1:17">
+    <row r="132" ht="52.8" spans="1:17">
       <c r="A132" s="4">
         <v>146</v>
       </c>
@@ -15573,7 +15573,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="133" ht="14" spans="1:17">
+    <row r="133" ht="13.8" spans="1:17">
       <c r="A133" s="4">
         <v>147</v>
       </c>
@@ -15626,7 +15626,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="134" ht="52" spans="1:17">
+    <row r="134" ht="66" spans="1:17">
       <c r="A134" s="4">
         <v>148</v>
       </c>
@@ -15679,7 +15679,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="135" ht="28" spans="1:17">
+    <row r="135" ht="27.6" spans="1:17">
       <c r="A135" s="4">
         <v>149</v>
       </c>
@@ -15732,7 +15732,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="136" ht="28" spans="1:17">
+    <row r="136" ht="27.6" spans="1:17">
       <c r="A136" s="4">
         <v>150</v>
       </c>
@@ -15785,7 +15785,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="137" ht="28" spans="1:17">
+    <row r="137" ht="27.6" spans="1:17">
       <c r="A137" s="4">
         <v>151</v>
       </c>
@@ -15838,7 +15838,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="138" ht="39" spans="1:17">
+    <row r="138" ht="39.6" spans="1:17">
       <c r="A138" s="4">
         <v>152</v>
       </c>
@@ -15891,7 +15891,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="139" ht="26" spans="1:17">
+    <row r="139" ht="26.4" spans="1:17">
       <c r="A139" s="4">
         <v>153</v>
       </c>
@@ -15944,7 +15944,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="140" ht="39" spans="1:17">
+    <row r="140" ht="39.6" spans="1:17">
       <c r="A140" s="4">
         <v>154</v>
       </c>
@@ -15997,7 +15997,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="141" ht="39" spans="1:17">
+    <row r="141" ht="39.6" spans="1:17">
       <c r="A141" s="4">
         <v>155</v>
       </c>
@@ -16050,7 +16050,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="142" ht="78" spans="1:17">
+    <row r="142" ht="79.2" spans="1:17">
       <c r="A142" s="4">
         <v>156</v>
       </c>
@@ -16103,7 +16103,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="143" ht="65" spans="1:17">
+    <row r="143" ht="66" spans="1:17">
       <c r="A143" s="4">
         <v>157</v>
       </c>
@@ -16156,7 +16156,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="144" ht="39" spans="1:17">
+    <row r="144" ht="39.6" spans="1:17">
       <c r="A144" s="4">
         <v>158</v>
       </c>
@@ -16209,7 +16209,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="145" ht="52" spans="1:17">
+    <row r="145" ht="52.8" spans="1:17">
       <c r="A145" s="4">
         <v>159</v>
       </c>
@@ -16262,7 +16262,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="146" ht="78" spans="1:17">
+    <row r="146" ht="79.2" spans="1:17">
       <c r="A146" s="4">
         <v>160</v>
       </c>
@@ -16315,7 +16315,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="147" ht="65" spans="1:17">
+    <row r="147" ht="66" spans="1:17">
       <c r="A147" s="4">
         <v>161</v>
       </c>
@@ -16368,7 +16368,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="148" ht="65" spans="1:17">
+    <row r="148" ht="79.2" spans="1:17">
       <c r="A148" s="4">
         <v>162</v>
       </c>
@@ -16421,7 +16421,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="149" ht="78" spans="1:17">
+    <row r="149" ht="79.2" spans="1:17">
       <c r="A149" s="4">
         <v>163</v>
       </c>
@@ -16474,7 +16474,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="150" ht="104" spans="1:17">
+    <row r="150" ht="105.6" spans="1:17">
       <c r="A150" s="4">
         <v>164</v>
       </c>
@@ -16527,7 +16527,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="151" ht="156" spans="1:17">
+    <row r="151" ht="171.6" spans="1:17">
       <c r="A151" s="4">
         <v>165</v>
       </c>
@@ -16580,7 +16580,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="152" ht="78" spans="1:17">
+    <row r="152" ht="79.2" spans="1:17">
       <c r="A152" s="4">
         <v>166</v>
       </c>
@@ -16633,7 +16633,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="153" ht="104" spans="1:17">
+    <row r="153" ht="105.6" spans="1:17">
       <c r="A153" s="4">
         <v>167</v>
       </c>
@@ -16686,7 +16686,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="154" ht="65" spans="1:17">
+    <row r="154" ht="66" spans="1:17">
       <c r="A154" s="4">
         <v>168</v>
       </c>
@@ -16739,7 +16739,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="155" ht="28" spans="1:17">
+    <row r="155" ht="27.6" spans="1:17">
       <c r="A155" s="4">
         <v>169</v>
       </c>
@@ -16792,7 +16792,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="156" ht="65" spans="1:17">
+    <row r="156" ht="66" spans="1:17">
       <c r="A156" s="4">
         <v>170</v>
       </c>
@@ -16843,7 +16843,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="157" ht="28" spans="1:17">
+    <row r="157" ht="27.6" spans="1:17">
       <c r="A157" s="4">
         <v>172</v>
       </c>
@@ -16882,7 +16882,7 @@
       <c r="P157" s="22"/>
       <c r="Q157" s="22"/>
     </row>
-    <row r="158" ht="28" spans="1:17">
+    <row r="158" ht="39.6" spans="1:17">
       <c r="A158" s="4">
         <v>173</v>
       </c>
@@ -16933,7 +16933,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="159" ht="39" spans="1:17">
+    <row r="159" ht="39.6" spans="1:17">
       <c r="A159" s="4">
         <v>174</v>
       </c>
@@ -16982,7 +16982,7 @@
       </c>
       <c r="Q159" s="22"/>
     </row>
-    <row r="160" ht="117" spans="1:17">
+    <row r="160" ht="118.8" spans="1:17">
       <c r="A160" s="4">
         <v>175</v>
       </c>
@@ -17031,7 +17031,7 @@
       </c>
       <c r="Q160" s="22"/>
     </row>
-    <row r="161" ht="78" spans="1:17">
+    <row r="161" ht="79.2" spans="1:17">
       <c r="A161" s="4">
         <v>176</v>
       </c>
@@ -17082,7 +17082,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="162" ht="39" spans="1:17">
+    <row r="162" ht="39.6" spans="1:17">
       <c r="A162" s="4">
         <v>177</v>
       </c>
@@ -17133,7 +17133,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="163" ht="28" spans="1:17">
+    <row r="163" ht="27.6" spans="1:17">
       <c r="A163" s="4">
         <v>178</v>
       </c>
@@ -17184,7 +17184,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="164" ht="42" spans="1:17">
+    <row r="164" ht="41.4" spans="1:17">
       <c r="A164" s="4">
         <v>179</v>
       </c>
@@ -17235,7 +17235,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="165" ht="42" spans="1:17">
+    <row r="165" ht="41.4" spans="1:17">
       <c r="A165" s="4">
         <v>180</v>
       </c>
@@ -17286,7 +17286,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="166" ht="28" spans="1:17">
+    <row r="166" ht="27.6" spans="1:17">
       <c r="A166" s="4">
         <v>181</v>
       </c>
@@ -17337,7 +17337,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="167" ht="39" spans="1:17">
+    <row r="167" ht="39.6" spans="1:17">
       <c r="A167" s="4">
         <v>182</v>
       </c>
@@ -17388,7 +17388,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="168" ht="28" spans="1:17">
+    <row r="168" ht="27.6" spans="1:17">
       <c r="A168" s="4">
         <v>183</v>
       </c>
@@ -17427,7 +17427,7 @@
       <c r="P168" s="22"/>
       <c r="Q168" s="22"/>
     </row>
-    <row r="169" ht="52" spans="1:17">
+    <row r="169" ht="52.8" spans="1:17">
       <c r="A169" s="4">
         <v>184</v>
       </c>
@@ -17470,7 +17470,7 @@
       <c r="P169" s="22"/>
       <c r="Q169" s="22"/>
     </row>
-    <row r="170" ht="28" spans="1:17">
+    <row r="170" ht="27.6" spans="1:17">
       <c r="A170" s="4">
         <v>185</v>
       </c>
@@ -17509,7 +17509,7 @@
       <c r="P170" s="22"/>
       <c r="Q170" s="22"/>
     </row>
-    <row r="171" ht="42" spans="1:17">
+    <row r="171" ht="41.4" spans="1:17">
       <c r="A171" s="4">
         <v>186</v>
       </c>
@@ -17548,7 +17548,7 @@
       <c r="P171" s="22"/>
       <c r="Q171" s="22"/>
     </row>
-    <row r="172" ht="28" spans="1:17">
+    <row r="172" ht="27.6" spans="1:17">
       <c r="A172" s="4">
         <v>187</v>
       </c>
@@ -17601,7 +17601,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="173" ht="28" spans="1:17">
+    <row r="173" ht="39.6" spans="1:17">
       <c r="A173" s="4">
         <v>188</v>
       </c>
@@ -17654,7 +17654,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="174" ht="28" spans="1:17">
+    <row r="174" ht="27.6" spans="1:17">
       <c r="A174" s="4">
         <v>189</v>
       </c>
@@ -17707,7 +17707,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="175" ht="39" spans="1:17">
+    <row r="175" ht="39.6" spans="1:17">
       <c r="A175" s="4">
         <v>190</v>
       </c>
@@ -17760,7 +17760,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="176" ht="104" spans="1:17">
+    <row r="176" ht="118.8" spans="1:17">
       <c r="A176" s="4">
         <v>191</v>
       </c>
@@ -17813,7 +17813,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="177" ht="39" spans="1:17">
+    <row r="177" ht="39.6" spans="1:17">
       <c r="A177" s="4">
         <v>192</v>
       </c>
@@ -17866,7 +17866,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="178" ht="117" spans="1:17">
+    <row r="178" ht="118.8" spans="1:17">
       <c r="A178" s="4">
         <v>193</v>
       </c>
@@ -17919,7 +17919,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="179" ht="28" spans="1:17">
+    <row r="179" ht="27.6" spans="1:17">
       <c r="A179" s="4">
         <v>194</v>
       </c>
@@ -17972,7 +17972,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="180" ht="84" spans="1:17">
+    <row r="180" ht="82.8" spans="1:17">
       <c r="A180" s="4">
         <v>195</v>
       </c>
@@ -18025,7 +18025,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="181" ht="28" spans="1:17">
+    <row r="181" ht="27.6" spans="1:17">
       <c r="A181" s="4">
         <v>196</v>
       </c>
@@ -18078,7 +18078,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="182" ht="52" spans="1:17">
+    <row r="182" ht="52.8" spans="1:17">
       <c r="A182" s="4">
         <v>197</v>
       </c>
@@ -18131,7 +18131,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="183" ht="65" spans="1:17">
+    <row r="183" ht="66" spans="1:17">
       <c r="A183" s="4">
         <v>198</v>
       </c>
@@ -18184,7 +18184,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="184" ht="42" spans="1:17">
+    <row r="184" ht="41.4" spans="1:17">
       <c r="A184" s="4">
         <v>199</v>
       </c>
@@ -18235,7 +18235,7 @@
       </c>
       <c r="Q184" s="22"/>
     </row>
-    <row r="185" ht="28" spans="1:17">
+    <row r="185" ht="27.6" spans="1:17">
       <c r="A185" s="4">
         <v>200</v>
       </c>
@@ -18288,7 +18288,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="186" ht="39" spans="1:17">
+    <row r="186" ht="39.6" spans="1:17">
       <c r="A186" s="4">
         <v>201</v>
       </c>
@@ -18337,7 +18337,7 @@
       </c>
       <c r="Q186" s="22"/>
     </row>
-    <row r="187" ht="28" spans="1:17">
+    <row r="187" ht="27.6" spans="1:17">
       <c r="A187" s="4">
         <v>202</v>
       </c>
@@ -18388,7 +18388,7 @@
       </c>
       <c r="Q187" s="22"/>
     </row>
-    <row r="188" ht="28" spans="1:17">
+    <row r="188" ht="27.6" spans="1:17">
       <c r="A188" s="4">
         <v>203</v>
       </c>
@@ -18441,7 +18441,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="189" ht="39" spans="1:17">
+    <row r="189" ht="39.6" spans="1:17">
       <c r="A189" s="4">
         <v>204</v>
       </c>
@@ -18494,7 +18494,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="190" ht="26" spans="1:17">
+    <row r="190" ht="26.4" spans="1:17">
       <c r="A190" s="4">
         <v>205</v>
       </c>
@@ -18547,7 +18547,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="191" ht="39" spans="1:17">
+    <row r="191" ht="39.6" spans="1:17">
       <c r="A191" s="4">
         <v>206</v>
       </c>
@@ -18600,7 +18600,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="192" ht="52" spans="1:17">
+    <row r="192" ht="52.8" spans="1:17">
       <c r="A192" s="4">
         <v>207</v>
       </c>
@@ -18653,7 +18653,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="193" ht="28" spans="1:17">
+    <row r="193" ht="27.6" spans="1:17">
       <c r="A193" s="4">
         <v>208</v>
       </c>
@@ -18706,7 +18706,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="194" ht="14" spans="1:17">
+    <row r="194" ht="13.8" spans="1:17">
       <c r="A194" s="4">
         <v>209</v>
       </c>
@@ -18759,7 +18759,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="195" ht="14" spans="1:17">
+    <row r="195" ht="13.8" spans="1:17">
       <c r="A195" s="4">
         <v>210</v>
       </c>
@@ -18812,7 +18812,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="196" ht="117" spans="1:17">
+    <row r="196" ht="118.8" spans="1:17">
       <c r="A196" s="4">
         <v>211</v>
       </c>
@@ -18865,7 +18865,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="197" ht="52" spans="1:17">
+    <row r="197" ht="52.8" spans="1:17">
       <c r="A197" s="4">
         <v>213</v>
       </c>
@@ -18918,7 +18918,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="198" ht="65" spans="1:17">
+    <row r="198" ht="66" spans="1:17">
       <c r="A198" s="4">
         <v>214</v>
       </c>
@@ -18971,7 +18971,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="199" ht="42" spans="1:17">
+    <row r="199" ht="41.4" spans="1:17">
       <c r="A199" s="4">
         <v>215</v>
       </c>
@@ -19024,7 +19024,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="200" ht="52" spans="1:17">
+    <row r="200" ht="52.8" spans="1:17">
       <c r="A200" s="4">
         <v>216</v>
       </c>
@@ -19077,7 +19077,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="201" ht="52" spans="1:17">
+    <row r="201" ht="52.8" spans="1:17">
       <c r="A201" s="4">
         <v>217</v>
       </c>
@@ -19130,7 +19130,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="202" ht="84" spans="1:17">
+    <row r="202" ht="82.8" spans="1:17">
       <c r="A202" s="4">
         <v>219</v>
       </c>
@@ -19183,7 +19183,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="203" ht="52" spans="1:17">
+    <row r="203" ht="52.8" spans="1:17">
       <c r="A203" s="4">
         <v>220</v>
       </c>
@@ -19236,7 +19236,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="204" ht="98" spans="1:17">
+    <row r="204" ht="96.6" spans="1:17">
       <c r="A204" s="4">
         <v>221</v>
       </c>
@@ -19289,7 +19289,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="205" ht="39" spans="1:17">
+    <row r="205" ht="39.6" spans="1:17">
       <c r="A205" s="4">
         <v>224</v>
       </c>
@@ -19342,7 +19342,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="206" ht="39" spans="1:17">
+    <row r="206" ht="52.8" spans="1:17">
       <c r="A206" s="4">
         <v>225</v>
       </c>
@@ -19377,7 +19377,7 @@
       </c>
       <c r="Q206" s="22"/>
     </row>
-    <row r="207" ht="52" spans="1:17">
+    <row r="207" ht="52.8" spans="1:17">
       <c r="A207" s="4">
         <v>226</v>
       </c>
@@ -19418,7 +19418,7 @@
       </c>
       <c r="Q207" s="22"/>
     </row>
-    <row r="208" ht="42" spans="1:17">
+    <row r="208" ht="41.4" spans="1:17">
       <c r="A208" s="4">
         <v>227</v>
       </c>
@@ -19471,7 +19471,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="209" ht="70" spans="1:17">
+    <row r="209" ht="69" spans="1:17">
       <c r="A209" s="4">
         <v>229</v>
       </c>
@@ -19524,7 +19524,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="210" ht="39" spans="1:17">
+    <row r="210" ht="39.6" spans="1:17">
       <c r="A210" s="4">
         <v>230</v>
       </c>
@@ -19577,7 +19577,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="211" ht="52" spans="1:17">
+    <row r="211" ht="52.8" spans="1:17">
       <c r="A211" s="4">
         <v>231</v>
       </c>
@@ -19630,7 +19630,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="212" ht="52" spans="1:17">
+    <row r="212" ht="66" spans="1:17">
       <c r="A212" s="29">
         <v>232</v>
       </c>
@@ -19683,7 +19683,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="213" ht="52" spans="1:17">
+    <row r="213" ht="52.8" spans="1:17">
       <c r="A213" s="29">
         <v>233</v>
       </c>
@@ -19736,7 +19736,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="214" ht="42" spans="1:17">
+    <row r="214" ht="41.4" spans="1:17">
       <c r="A214" s="4">
         <v>234</v>
       </c>
@@ -19769,7 +19769,7 @@
       <c r="P214" s="22"/>
       <c r="Q214" s="22"/>
     </row>
-    <row r="215" ht="78" spans="1:17">
+    <row r="215" ht="79.2" spans="1:17">
       <c r="A215" s="4">
         <v>235</v>
       </c>
@@ -19822,7 +19822,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="216" ht="78" spans="1:17">
+    <row r="216" ht="92.4" spans="1:17">
       <c r="A216" s="4">
         <v>240</v>
       </c>
@@ -19875,7 +19875,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="217" ht="65" spans="1:17">
+    <row r="217" ht="79.2" spans="1:17">
       <c r="A217" s="4">
         <v>241</v>
       </c>
@@ -19928,7 +19928,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="218" ht="56" spans="1:17">
+    <row r="218" ht="55.2" spans="1:17">
       <c r="A218" s="4">
         <v>242</v>
       </c>
@@ -19961,7 +19961,7 @@
       <c r="P218" s="22"/>
       <c r="Q218" s="22"/>
     </row>
-    <row r="219" ht="52" spans="1:17">
+    <row r="219" ht="52.8" spans="1:17">
       <c r="A219" s="4">
         <v>243</v>
       </c>
@@ -19994,7 +19994,7 @@
       <c r="P219" s="22"/>
       <c r="Q219" s="22"/>
     </row>
-    <row r="220" ht="65" spans="1:17">
+    <row r="220" ht="92.4" spans="1:17">
       <c r="A220" s="4">
         <v>244</v>
       </c>
@@ -20047,7 +20047,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="221" ht="52" spans="1:17">
+    <row r="221" ht="52.8" spans="1:17">
       <c r="A221" s="4">
         <v>248</v>
       </c>
@@ -20100,7 +20100,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="222" ht="14" spans="1:17">
+    <row r="222" ht="13.8" spans="1:17">
       <c r="A222" s="4">
         <v>249</v>
       </c>
@@ -20153,7 +20153,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="223" ht="130" spans="1:17">
+    <row r="223" ht="132" spans="1:17">
       <c r="A223" s="4">
         <v>250</v>
       </c>
@@ -20206,7 +20206,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="224" ht="91" spans="1:17">
+    <row r="224" ht="92.4" spans="1:17">
       <c r="A224" s="4">
         <v>252</v>
       </c>
@@ -20259,7 +20259,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="225" ht="91" spans="1:17">
+    <row r="225" ht="92.4" spans="1:17">
       <c r="A225" s="4">
         <v>253</v>
       </c>
@@ -20312,7 +20312,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="226" ht="91" spans="1:17">
+    <row r="226" ht="92.4" spans="1:17">
       <c r="A226" s="29">
         <v>255</v>
       </c>
@@ -20365,7 +20365,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="227" ht="91" spans="1:17">
+    <row r="227" ht="105.6" spans="1:17">
       <c r="A227" s="4">
         <v>256</v>
       </c>
@@ -20418,7 +20418,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="228" ht="117" spans="1:17">
+    <row r="228" ht="118.8" spans="1:17">
       <c r="A228" s="4">
         <v>257</v>
       </c>
@@ -20451,7 +20451,7 @@
       <c r="P228" s="22"/>
       <c r="Q228" s="22"/>
     </row>
-    <row r="229" ht="91" spans="1:17">
+    <row r="229" ht="92.4" spans="1:17">
       <c r="A229" s="4">
         <v>258</v>
       </c>
@@ -20504,7 +20504,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="230" ht="39" spans="1:17">
+    <row r="230" ht="39.6" spans="1:17">
       <c r="A230" s="4">
         <v>259</v>
       </c>
@@ -20557,7 +20557,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="231" ht="56" spans="1:17">
+    <row r="231" ht="55.2" spans="1:17">
       <c r="A231" s="4">
         <v>260</v>
       </c>
@@ -20610,7 +20610,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="232" ht="39" spans="1:17">
+    <row r="232" ht="39.6" spans="1:17">
       <c r="A232" s="4">
         <v>262</v>
       </c>
@@ -20663,7 +20663,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="233" ht="39" spans="1:17">
+    <row r="233" ht="39.6" spans="1:17">
       <c r="A233" s="4">
         <v>263</v>
       </c>
@@ -20716,7 +20716,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="234" ht="78" spans="1:17">
+    <row r="234" ht="79.2" spans="1:17">
       <c r="A234" s="4">
         <v>264</v>
       </c>
@@ -20765,7 +20765,7 @@
       <c r="P234" s="22"/>
       <c r="Q234" s="22"/>
     </row>
-    <row r="235" ht="52" spans="1:17">
+    <row r="235" ht="52.8" spans="1:17">
       <c r="A235" s="4">
         <v>266</v>
       </c>
@@ -20818,7 +20818,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="236" ht="65" spans="1:17">
+    <row r="236" ht="66" spans="1:17">
       <c r="A236" s="4">
         <v>267</v>
       </c>
@@ -20871,7 +20871,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="237" ht="195" spans="1:17">
+    <row r="237" ht="211.2" spans="1:17">
       <c r="A237" s="29">
         <v>268</v>
       </c>
@@ -20924,7 +20924,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="238" ht="28" spans="1:17">
+    <row r="238" ht="27.6" spans="1:17">
       <c r="A238" s="29">
         <v>269</v>
       </c>
@@ -20977,7 +20977,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="239" ht="39" spans="1:17">
+    <row r="239" ht="39.6" spans="1:17">
       <c r="A239" s="4">
         <v>278</v>
       </c>
@@ -21010,7 +21010,7 @@
       <c r="P239" s="22"/>
       <c r="Q239" s="22"/>
     </row>
-    <row r="240" ht="26" spans="1:17">
+    <row r="240" ht="26.4" spans="1:17">
       <c r="A240" s="4">
         <v>279</v>
       </c>
@@ -21043,7 +21043,7 @@
       <c r="P240" s="22"/>
       <c r="Q240" s="22"/>
     </row>
-    <row r="241" ht="39" spans="1:17">
+    <row r="241" ht="39.6" spans="1:17">
       <c r="A241" s="4">
         <v>281</v>
       </c>
@@ -21096,7 +21096,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="242" ht="39" spans="1:17">
+    <row r="242" ht="39.6" spans="1:17">
       <c r="A242" s="4">
         <v>282</v>
       </c>
@@ -21149,7 +21149,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="243" ht="42" spans="1:17">
+    <row r="243" ht="41.4" spans="1:17">
       <c r="A243" s="4">
         <v>286</v>
       </c>
@@ -21202,7 +21202,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="244" ht="39" spans="1:17">
+    <row r="244" ht="39.6" spans="1:17">
       <c r="A244" s="29">
         <v>288</v>
       </c>
@@ -21255,7 +21255,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="245" ht="39" spans="1:17">
+    <row r="245" ht="39.6" spans="1:17">
       <c r="A245" s="4">
         <v>289</v>
       </c>
@@ -21288,7 +21288,7 @@
       <c r="P245" s="22"/>
       <c r="Q245" s="22"/>
     </row>
-    <row r="246" ht="42" spans="1:17">
+    <row r="246" ht="41.4" spans="1:17">
       <c r="A246" s="4">
         <v>290</v>
       </c>
@@ -21341,7 +21341,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="247" ht="39" spans="1:17">
+    <row r="247" ht="39.6" spans="1:17">
       <c r="A247" s="4">
         <v>291</v>
       </c>
@@ -21394,7 +21394,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="248" ht="42" spans="1:17">
+    <row r="248" ht="41.4" spans="1:17">
       <c r="A248" s="4">
         <v>292</v>
       </c>
@@ -21447,7 +21447,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="249" ht="117" spans="1:17">
+    <row r="249" ht="132" spans="1:17">
       <c r="A249" s="29">
         <v>293</v>
       </c>
@@ -21500,7 +21500,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="250" ht="78" spans="1:17">
+    <row r="250" ht="79.2" spans="1:17">
       <c r="A250" s="4">
         <v>297</v>
       </c>
@@ -21551,7 +21551,7 @@
       </c>
       <c r="Q250" s="22"/>
     </row>
-    <row r="251" ht="42" spans="1:17">
+    <row r="251" ht="41.4" spans="1:17">
       <c r="A251" s="4">
         <v>298</v>
       </c>
@@ -21604,7 +21604,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="252" ht="65" spans="1:17">
+    <row r="252" ht="66" spans="1:17">
       <c r="A252" s="4">
         <v>299</v>
       </c>
@@ -21657,7 +21657,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="253" ht="39" spans="1:17">
+    <row r="253" ht="39.6" spans="1:17">
       <c r="A253" s="4">
         <v>300</v>
       </c>
@@ -21710,7 +21710,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="254" ht="39" spans="1:17">
+    <row r="254" ht="39.6" spans="1:17">
       <c r="A254" s="4">
         <v>305</v>
       </c>
@@ -21763,7 +21763,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="255" ht="91" spans="1:17">
+    <row r="255" ht="92.4" spans="1:17">
       <c r="A255" s="4">
         <v>306</v>
       </c>
@@ -21816,7 +21816,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="256" ht="42" spans="1:17">
+    <row r="256" ht="41.4" spans="1:17">
       <c r="A256" s="4">
         <v>308</v>
       </c>
@@ -21869,7 +21869,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="257" ht="56" spans="1:17">
+    <row r="257" ht="55.2" spans="1:17">
       <c r="A257" s="29">
         <v>313</v>
       </c>
@@ -21920,7 +21920,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="258" ht="39" spans="1:17">
+    <row r="258" ht="39.6" spans="1:17">
       <c r="A258" s="4">
         <v>315</v>
       </c>
@@ -21973,7 +21973,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="259" ht="52" spans="1:17">
+    <row r="259" ht="52.8" spans="1:17">
       <c r="A259" s="4">
         <v>317</v>
       </c>
@@ -22026,7 +22026,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="260" ht="52" spans="1:17">
+    <row r="260" ht="52.8" spans="1:17">
       <c r="A260" s="4">
         <v>318</v>
       </c>
@@ -22079,7 +22079,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="261" ht="52" spans="1:17">
+    <row r="261" ht="52.8" spans="1:17">
       <c r="A261" s="4">
         <v>319</v>
       </c>
@@ -22132,7 +22132,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="262" ht="26" spans="1:17">
+    <row r="262" ht="26.4" spans="1:17">
       <c r="A262" s="4">
         <v>320</v>
       </c>
@@ -22185,7 +22185,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="263" ht="26" spans="1:17">
+    <row r="263" ht="26.4" spans="1:17">
       <c r="A263" s="4">
         <v>322</v>
       </c>
@@ -22238,7 +22238,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="264" ht="52" spans="1:17">
+    <row r="264" ht="52.8" spans="1:17">
       <c r="A264" s="4">
         <v>323</v>
       </c>
@@ -22291,7 +22291,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="265" ht="104" spans="1:17">
+    <row r="265" ht="118.8" spans="1:17">
       <c r="A265" s="4">
         <v>326</v>
       </c>
@@ -22344,7 +22344,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="266" ht="78" spans="1:17">
+    <row r="266" ht="79.2" spans="1:17">
       <c r="A266" s="4">
         <v>331</v>
       </c>
@@ -22397,7 +22397,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="267" ht="78" spans="1:17">
+    <row r="267" ht="79.2" spans="1:17">
       <c r="A267" s="4">
         <v>332</v>
       </c>
@@ -22432,7 +22432,7 @@
       <c r="P267" s="22"/>
       <c r="Q267" s="22"/>
     </row>
-    <row r="268" ht="91" spans="1:17">
+    <row r="268" ht="105.6" spans="1:17">
       <c r="A268" s="4">
         <v>333</v>
       </c>
@@ -22467,7 +22467,7 @@
       <c r="P268" s="22"/>
       <c r="Q268" s="22"/>
     </row>
-    <row r="269" ht="28" spans="1:17">
+    <row r="269" ht="27.6" spans="1:17">
       <c r="A269" s="4">
         <v>334</v>
       </c>
@@ -22520,7 +22520,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="270" ht="78" spans="1:17">
+    <row r="270" ht="79.2" spans="1:17">
       <c r="A270" s="4">
         <v>341</v>
       </c>
@@ -22573,7 +22573,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="271" ht="117" spans="1:17">
+    <row r="271" ht="132" spans="1:17">
       <c r="A271" s="4">
         <v>342</v>
       </c>
@@ -22626,7 +22626,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="272" ht="117" spans="1:17">
+    <row r="272" ht="132" spans="1:17">
       <c r="A272" s="4">
         <v>343</v>
       </c>
@@ -22679,7 +22679,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="273" ht="104" spans="1:17">
+    <row r="273" ht="105.6" spans="1:17">
       <c r="A273" s="4">
         <v>345</v>
       </c>
@@ -22732,7 +22732,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="274" ht="28" spans="1:17">
+    <row r="274" ht="27.6" spans="1:17">
       <c r="A274" s="4">
         <v>348</v>
       </c>
@@ -22785,7 +22785,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="275" ht="130" spans="1:17">
+    <row r="275" ht="132" spans="1:17">
       <c r="A275" s="4">
         <v>349</v>
       </c>
@@ -22838,7 +22838,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="276" ht="42" spans="1:17">
+    <row r="276" ht="41.4" spans="1:17">
       <c r="A276" s="4">
         <v>350</v>
       </c>
@@ -22891,7 +22891,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="277" ht="28" spans="1:17">
+    <row r="277" ht="27.6" spans="1:17">
       <c r="A277" s="4">
         <v>351</v>
       </c>
@@ -22944,7 +22944,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="278" ht="65" spans="1:17">
+    <row r="278" ht="79.2" spans="1:17">
       <c r="A278" s="4">
         <v>352</v>
       </c>
@@ -22997,7 +22997,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="279" ht="42" spans="1:17">
+    <row r="279" ht="41.4" spans="1:17">
       <c r="A279" s="4">
         <v>353</v>
       </c>
@@ -23050,7 +23050,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="280" ht="104" spans="1:17">
+    <row r="280" ht="132" spans="1:17">
       <c r="A280" s="4">
         <v>354</v>
       </c>
@@ -23083,7 +23083,7 @@
       <c r="P280" s="22"/>
       <c r="Q280" s="22"/>
     </row>
-    <row r="281" ht="104" spans="1:17">
+    <row r="281" ht="118.8" spans="1:17">
       <c r="A281" s="4">
         <v>355</v>
       </c>
@@ -23116,7 +23116,7 @@
       <c r="P281" s="22"/>
       <c r="Q281" s="22"/>
     </row>
-    <row r="282" ht="28" spans="1:17">
+    <row r="282" ht="27.6" spans="1:17">
       <c r="A282" s="4">
         <v>356</v>
       </c>
@@ -23169,7 +23169,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="283" ht="56" spans="1:17">
+    <row r="283" ht="55.2" spans="1:17">
       <c r="A283" s="4">
         <v>357</v>
       </c>
@@ -23222,7 +23222,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="284" ht="52" spans="1:17">
+    <row r="284" ht="52.8" spans="1:17">
       <c r="A284" s="4">
         <v>358</v>
       </c>
@@ -23275,7 +23275,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="285" ht="39" spans="1:17">
+    <row r="285" ht="39.6" spans="1:17">
       <c r="A285" s="4">
         <v>359</v>
       </c>
@@ -23328,7 +23328,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="286" ht="78" spans="1:17">
+    <row r="286" ht="79.2" spans="1:17">
       <c r="A286" s="4">
         <v>360</v>
       </c>
@@ -23381,7 +23381,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="287" ht="39" spans="1:17">
+    <row r="287" ht="39.6" spans="1:17">
       <c r="A287" s="4">
         <v>361</v>
       </c>
@@ -23416,7 +23416,7 @@
       <c r="P287" s="22"/>
       <c r="Q287" s="22"/>
     </row>
-    <row r="288" ht="26" spans="1:17">
+    <row r="288" ht="26.4" spans="1:17">
       <c r="A288" s="4">
         <v>362</v>
       </c>
@@ -23451,7 +23451,7 @@
       <c r="P288" s="22"/>
       <c r="Q288" s="22"/>
     </row>
-    <row r="289" ht="39" spans="1:17">
+    <row r="289" ht="39.6" spans="1:17">
       <c r="A289" s="4">
         <v>363</v>
       </c>
@@ -23486,7 +23486,7 @@
       <c r="P289" s="22"/>
       <c r="Q289" s="22"/>
     </row>
-    <row r="290" ht="56" spans="1:17">
+    <row r="290" ht="55.2" spans="1:17">
       <c r="A290" s="4">
         <v>364</v>
       </c>
@@ -23537,7 +23537,7 @@
       </c>
       <c r="Q290" s="22"/>
     </row>
-    <row r="291" ht="56" spans="1:17">
+    <row r="291" ht="55.2" spans="1:17">
       <c r="A291" s="4">
         <v>365</v>
       </c>
@@ -23588,7 +23588,7 @@
       </c>
       <c r="Q291" s="22"/>
     </row>
-    <row r="292" ht="14" spans="1:17">
+    <row r="292" ht="13.8" spans="1:17">
       <c r="A292" s="4">
         <v>366</v>
       </c>
@@ -23625,7 +23625,7 @@
       <c r="P292" s="22"/>
       <c r="Q292" s="22"/>
     </row>
-    <row r="293" ht="26" spans="1:17">
+    <row r="293" ht="26.4" spans="1:17">
       <c r="A293" s="4">
         <v>367</v>
       </c>
@@ -23660,7 +23660,7 @@
       <c r="P293" s="22"/>
       <c r="Q293" s="22"/>
     </row>
-    <row r="294" ht="14" spans="1:17">
+    <row r="294" ht="13.8" spans="1:17">
       <c r="A294" s="4">
         <v>368</v>
       </c>
@@ -23683,7 +23683,7 @@
       <c r="P294" s="22"/>
       <c r="Q294" s="22"/>
     </row>
-    <row r="295" ht="14" spans="1:17">
+    <row r="295" ht="13.8" spans="1:17">
       <c r="A295" s="4">
         <v>369</v>
       </c>
@@ -23714,7 +23714,7 @@
       <c r="P295" s="22"/>
       <c r="Q295" s="22"/>
     </row>
-    <row r="296" ht="14" spans="1:17">
+    <row r="296" ht="13.8" spans="1:17">
       <c r="A296" s="4">
         <v>379</v>
       </c>
@@ -23743,7 +23743,7 @@
       <c r="P296" s="22"/>
       <c r="Q296" s="22"/>
     </row>
-    <row r="297" ht="39" spans="1:17">
+    <row r="297" ht="39.6" spans="1:17">
       <c r="A297" s="4">
         <v>380</v>
       </c>
@@ -23774,7 +23774,7 @@
       <c r="P297" s="22"/>
       <c r="Q297" s="22"/>
     </row>
-    <row r="298" ht="42" spans="1:17">
+    <row r="298" ht="41.4" spans="1:17">
       <c r="A298" s="4">
         <v>381</v>
       </c>
@@ -23803,7 +23803,7 @@
       <c r="P298" s="22"/>
       <c r="Q298" s="22"/>
     </row>
-    <row r="299" ht="28" spans="1:17">
+    <row r="299" ht="27.6" spans="1:17">
       <c r="A299" s="4">
         <v>382</v>
       </c>
@@ -23832,7 +23832,7 @@
       <c r="P299" s="22"/>
       <c r="Q299" s="22"/>
     </row>
-    <row r="300" ht="70" spans="1:17">
+    <row r="300" ht="69" spans="1:17">
       <c r="A300" s="4">
         <v>383</v>
       </c>
@@ -23861,7 +23861,7 @@
       <c r="P300" s="22"/>
       <c r="Q300" s="22"/>
     </row>
-    <row r="301" ht="42" spans="1:17">
+    <row r="301" ht="41.4" spans="1:17">
       <c r="A301" s="4">
         <v>384</v>
       </c>
@@ -23890,7 +23890,7 @@
       <c r="P301" s="22"/>
       <c r="Q301" s="22"/>
     </row>
-    <row r="302" ht="56" spans="1:17">
+    <row r="302" ht="55.2" spans="1:17">
       <c r="A302" s="4">
         <v>385</v>
       </c>
@@ -23917,7 +23917,7 @@
       <c r="P302" s="22"/>
       <c r="Q302" s="22"/>
     </row>
-    <row r="303" ht="42" spans="1:17">
+    <row r="303" ht="41.4" spans="1:17">
       <c r="A303" s="4">
         <v>386</v>
       </c>
@@ -23944,7 +23944,7 @@
       <c r="P303" s="22"/>
       <c r="Q303" s="22"/>
     </row>
-    <row r="304" ht="56" spans="1:17">
+    <row r="304" ht="55.2" spans="1:17">
       <c r="A304" s="4">
         <v>387</v>
       </c>
@@ -23973,7 +23973,7 @@
       <c r="P304" s="22"/>
       <c r="Q304" s="22"/>
     </row>
-    <row r="305" ht="42" spans="1:17">
+    <row r="305" ht="41.4" spans="1:17">
       <c r="A305" s="4">
         <v>388</v>
       </c>
@@ -24000,7 +24000,7 @@
       <c r="P305" s="22"/>
       <c r="Q305" s="22"/>
     </row>
-    <row r="306" ht="42" spans="1:17">
+    <row r="306" ht="41.4" spans="1:17">
       <c r="A306" s="4">
         <v>389</v>
       </c>
@@ -24027,7 +24027,7 @@
       <c r="P306" s="22"/>
       <c r="Q306" s="22"/>
     </row>
-    <row r="307" ht="56" spans="1:17">
+    <row r="307" ht="55.2" spans="1:17">
       <c r="A307" s="4">
         <v>390</v>
       </c>
@@ -24054,7 +24054,7 @@
       <c r="P307" s="22"/>
       <c r="Q307" s="22"/>
     </row>
-    <row r="308" ht="28" spans="1:17">
+    <row r="308" ht="27.6" spans="1:17">
       <c r="A308" s="4">
         <v>391</v>
       </c>
@@ -24081,7 +24081,7 @@
       <c r="P308" s="22"/>
       <c r="Q308" s="22"/>
     </row>
-    <row r="309" ht="28" spans="1:17">
+    <row r="309" ht="27.6" spans="1:17">
       <c r="A309" s="4">
         <v>392</v>
       </c>
@@ -24108,7 +24108,7 @@
       <c r="P309" s="22"/>
       <c r="Q309" s="22"/>
     </row>
-    <row r="310" ht="42" spans="1:17">
+    <row r="310" ht="41.4" spans="1:17">
       <c r="A310" s="4">
         <v>393</v>
       </c>
@@ -24135,7 +24135,7 @@
       <c r="P310" s="22"/>
       <c r="Q310" s="22"/>
     </row>
-    <row r="311" ht="28" spans="1:17">
+    <row r="311" ht="27.6" spans="1:17">
       <c r="A311" s="4">
         <v>394</v>
       </c>
@@ -24162,7 +24162,7 @@
       <c r="P311" s="22"/>
       <c r="Q311" s="22"/>
     </row>
-    <row r="312" ht="56" spans="1:17">
+    <row r="312" ht="55.2" spans="1:17">
       <c r="A312" s="8">
         <v>395</v>
       </c>
@@ -24189,7 +24189,7 @@
       <c r="P312" s="22"/>
       <c r="Q312" s="22"/>
     </row>
-    <row r="313" ht="28" spans="1:17">
+    <row r="313" ht="27.6" spans="1:17">
       <c r="A313" s="8">
         <v>396</v>
       </c>
@@ -24216,7 +24216,7 @@
       <c r="P313" s="22"/>
       <c r="Q313" s="22"/>
     </row>
-    <row r="314" ht="112" spans="1:17">
+    <row r="314" ht="96.6" spans="1:17">
       <c r="A314" s="8">
         <v>397</v>
       </c>
@@ -24243,7 +24243,7 @@
       <c r="P314" s="22"/>
       <c r="Q314" s="22"/>
     </row>
-    <row r="315" ht="42" spans="1:17">
+    <row r="315" ht="41.4" spans="1:17">
       <c r="A315" s="8">
         <v>398</v>
       </c>
@@ -24270,7 +24270,7 @@
       <c r="P315" s="22"/>
       <c r="Q315" s="22"/>
     </row>
-    <row r="316" ht="28" spans="1:17">
+    <row r="316" ht="27.6" spans="1:17">
       <c r="A316" s="8">
         <v>399</v>
       </c>
@@ -24297,7 +24297,7 @@
       <c r="P316" s="22"/>
       <c r="Q316" s="22"/>
     </row>
-    <row r="317" ht="28" spans="1:17">
+    <row r="317" ht="27.6" spans="1:17">
       <c r="A317" s="8">
         <v>400</v>
       </c>
@@ -24324,7 +24324,7 @@
       <c r="P317" s="22"/>
       <c r="Q317" s="22"/>
     </row>
-    <row r="318" ht="56" spans="1:17">
+    <row r="318" ht="55.2" spans="1:17">
       <c r="A318" s="8">
         <v>401</v>
       </c>
@@ -24351,7 +24351,7 @@
       <c r="P318" s="22"/>
       <c r="Q318" s="22"/>
     </row>
-    <row r="319" ht="42" spans="1:17">
+    <row r="319" ht="41.4" spans="1:17">
       <c r="A319" s="8">
         <v>402</v>
       </c>
@@ -24378,7 +24378,7 @@
       <c r="P319" s="22"/>
       <c r="Q319" s="22"/>
     </row>
-    <row r="320" ht="28" spans="1:17">
+    <row r="320" ht="27.6" spans="1:17">
       <c r="A320" s="8">
         <v>403</v>
       </c>
@@ -24405,7 +24405,7 @@
       <c r="P320" s="22"/>
       <c r="Q320" s="22"/>
     </row>
-    <row r="321" ht="56" spans="1:17">
+    <row r="321" ht="55.2" spans="1:17">
       <c r="A321" s="8">
         <v>404</v>
       </c>
@@ -24432,7 +24432,7 @@
       <c r="P321" s="22"/>
       <c r="Q321" s="22"/>
     </row>
-    <row r="322" ht="42" spans="1:17">
+    <row r="322" ht="41.4" spans="1:17">
       <c r="A322" s="8">
         <v>405</v>
       </c>
@@ -24459,7 +24459,7 @@
       <c r="P322" s="22"/>
       <c r="Q322" s="22"/>
     </row>
-    <row r="323" ht="28" spans="1:17">
+    <row r="323" ht="27.6" spans="1:17">
       <c r="A323" s="8">
         <v>406</v>
       </c>
@@ -24486,7 +24486,7 @@
       <c r="P323" s="22"/>
       <c r="Q323" s="22"/>
     </row>
-    <row r="324" ht="42" spans="1:17">
+    <row r="324" ht="41.4" spans="1:17">
       <c r="A324" s="8">
         <v>407</v>
       </c>
@@ -24513,7 +24513,7 @@
       <c r="P324" s="22"/>
       <c r="Q324" s="22"/>
     </row>
-    <row r="325" ht="42" spans="1:17">
+    <row r="325" ht="41.4" spans="1:17">
       <c r="A325" s="8">
         <v>408</v>
       </c>
@@ -24540,7 +24540,7 @@
       <c r="P325" s="22"/>
       <c r="Q325" s="22"/>
     </row>
-    <row r="326" ht="56" spans="1:17">
+    <row r="326" ht="55.2" spans="1:17">
       <c r="A326" s="8">
         <v>409</v>
       </c>
@@ -24567,7 +24567,7 @@
       <c r="P326" s="22"/>
       <c r="Q326" s="22"/>
     </row>
-    <row r="327" ht="56" spans="1:17">
+    <row r="327" ht="55.2" spans="1:17">
       <c r="A327" s="8">
         <v>410</v>
       </c>
@@ -24594,7 +24594,7 @@
       <c r="P327" s="22"/>
       <c r="Q327" s="22"/>
     </row>
-    <row r="328" ht="28" spans="1:17">
+    <row r="328" ht="27.6" spans="1:17">
       <c r="A328" s="8">
         <v>411</v>
       </c>
@@ -24621,7 +24621,7 @@
       <c r="P328" s="22"/>
       <c r="Q328" s="22"/>
     </row>
-    <row r="329" ht="42" spans="1:17">
+    <row r="329" ht="41.4" spans="1:17">
       <c r="A329" s="8">
         <v>412</v>
       </c>
@@ -24648,7 +24648,7 @@
       <c r="P329" s="22"/>
       <c r="Q329" s="22"/>
     </row>
-    <row r="330" ht="28" spans="1:17">
+    <row r="330" ht="27.6" spans="1:17">
       <c r="A330" s="8">
         <v>413</v>
       </c>
@@ -24675,7 +24675,7 @@
       <c r="P330" s="22"/>
       <c r="Q330" s="22"/>
     </row>
-    <row r="331" ht="42" spans="1:17">
+    <row r="331" ht="41.4" spans="1:17">
       <c r="A331" s="8">
         <v>414</v>
       </c>
@@ -24702,7 +24702,7 @@
       <c r="P331" s="22"/>
       <c r="Q331" s="22"/>
     </row>
-    <row r="332" ht="56" spans="1:17">
+    <row r="332" ht="55.2" spans="1:17">
       <c r="A332" s="8">
         <v>415</v>
       </c>
@@ -24729,7 +24729,7 @@
       <c r="P332" s="22"/>
       <c r="Q332" s="22"/>
     </row>
-    <row r="333" ht="42" spans="1:17">
+    <row r="333" ht="41.4" spans="1:17">
       <c r="A333" s="8">
         <v>416</v>
       </c>
@@ -24756,7 +24756,7 @@
       <c r="P333" s="22"/>
       <c r="Q333" s="22"/>
     </row>
-    <row r="334" ht="28" spans="1:17">
+    <row r="334" ht="27.6" spans="1:17">
       <c r="A334" s="8">
         <v>417</v>
       </c>
@@ -24781,7 +24781,7 @@
       <c r="P334" s="22"/>
       <c r="Q334" s="22"/>
     </row>
-    <row r="335" ht="42" spans="1:17">
+    <row r="335" ht="41.4" spans="1:17">
       <c r="A335" s="8">
         <v>418</v>
       </c>
@@ -24806,7 +24806,7 @@
       <c r="P335" s="22"/>
       <c r="Q335" s="22"/>
     </row>
-    <row r="336" ht="39" spans="1:17">
+    <row r="336" ht="39.6" spans="1:17">
       <c r="A336" s="8">
         <v>419</v>
       </c>
@@ -24831,7 +24831,7 @@
       <c r="P336" s="22"/>
       <c r="Q336" s="22"/>
     </row>
-    <row r="337" ht="56" spans="1:17">
+    <row r="337" ht="55.2" spans="1:17">
       <c r="A337" s="8">
         <v>420</v>
       </c>
@@ -24856,7 +24856,7 @@
       <c r="P337" s="22"/>
       <c r="Q337" s="22"/>
     </row>
-    <row r="338" ht="42" spans="1:17">
+    <row r="338" ht="41.4" spans="1:17">
       <c r="A338" s="8">
         <v>421</v>
       </c>
@@ -24881,7 +24881,7 @@
       <c r="P338" s="22"/>
       <c r="Q338" s="22"/>
     </row>
-    <row r="339" ht="42" spans="1:17">
+    <row r="339" ht="41.4" spans="1:17">
       <c r="A339" s="8">
         <v>422</v>
       </c>
@@ -24906,7 +24906,7 @@
       <c r="P339" s="22"/>
       <c r="Q339" s="22"/>
     </row>
-    <row r="340" ht="42" spans="1:17">
+    <row r="340" ht="41.4" spans="1:17">
       <c r="A340" s="8">
         <v>423</v>
       </c>
@@ -24931,7 +24931,7 @@
       <c r="P340" s="22"/>
       <c r="Q340" s="22"/>
     </row>
-    <row r="341" ht="42" spans="1:17">
+    <row r="341" ht="27.6" spans="1:17">
       <c r="A341" s="8">
         <v>424</v>
       </c>
@@ -24956,7 +24956,7 @@
       <c r="P341" s="22"/>
       <c r="Q341" s="22"/>
     </row>
-    <row r="342" ht="56" spans="1:17">
+    <row r="342" ht="55.2" spans="1:17">
       <c r="A342" s="8">
         <v>425</v>
       </c>
@@ -24981,7 +24981,7 @@
       <c r="P342" s="22"/>
       <c r="Q342" s="22"/>
     </row>
-    <row r="343" ht="28" spans="1:17">
+    <row r="343" ht="27.6" spans="1:17">
       <c r="A343" s="8">
         <v>426</v>
       </c>
@@ -25006,7 +25006,7 @@
       <c r="P343" s="22"/>
       <c r="Q343" s="22"/>
     </row>
-    <row r="344" ht="56" spans="1:17">
+    <row r="344" ht="55.2" spans="1:17">
       <c r="A344" s="8">
         <v>427</v>
       </c>
@@ -25031,7 +25031,7 @@
       <c r="P344" s="22"/>
       <c r="Q344" s="22"/>
     </row>
-    <row r="345" ht="28" spans="1:17">
+    <row r="345" ht="27.6" spans="1:17">
       <c r="A345" s="8">
         <v>428</v>
       </c>
@@ -25056,7 +25056,7 @@
       <c r="P345" s="22"/>
       <c r="Q345" s="22"/>
     </row>
-    <row r="346" ht="42" spans="1:17">
+    <row r="346" ht="41.4" spans="1:17">
       <c r="A346" s="8">
         <v>429</v>
       </c>
@@ -25081,7 +25081,7 @@
       <c r="P346" s="22"/>
       <c r="Q346" s="22"/>
     </row>
-    <row r="347" ht="42" spans="1:17">
+    <row r="347" ht="41.4" spans="1:17">
       <c r="A347" s="8">
         <v>430</v>
       </c>
@@ -25106,7 +25106,7 @@
       <c r="P347" s="22"/>
       <c r="Q347" s="22"/>
     </row>
-    <row r="348" ht="28" spans="1:17">
+    <row r="348" ht="27.6" spans="1:17">
       <c r="A348" s="8">
         <v>431</v>
       </c>
@@ -25131,7 +25131,7 @@
       <c r="P348" s="22"/>
       <c r="Q348" s="22"/>
     </row>
-    <row r="349" ht="42" spans="1:17">
+    <row r="349" ht="41.4" spans="1:17">
       <c r="A349" s="8">
         <v>432</v>
       </c>
@@ -25156,7 +25156,7 @@
       <c r="P349" s="22"/>
       <c r="Q349" s="22"/>
     </row>
-    <row r="350" ht="28" spans="1:17">
+    <row r="350" ht="27.6" spans="1:17">
       <c r="A350" s="8">
         <v>433</v>
       </c>
@@ -25181,7 +25181,7 @@
       <c r="P350" s="22"/>
       <c r="Q350" s="22"/>
     </row>
-    <row r="351" ht="42" spans="1:17">
+    <row r="351" ht="41.4" spans="1:17">
       <c r="A351" s="8">
         <v>434</v>
       </c>
@@ -25206,7 +25206,7 @@
       <c r="P351" s="22"/>
       <c r="Q351" s="22"/>
     </row>
-    <row r="352" ht="28" spans="1:17">
+    <row r="352" ht="27.6" spans="1:17">
       <c r="A352" s="8">
         <v>435</v>
       </c>
@@ -25231,7 +25231,7 @@
       <c r="P352" s="22"/>
       <c r="Q352" s="22"/>
     </row>
-    <row r="353" ht="56" spans="1:17">
+    <row r="353" ht="55.2" spans="1:17">
       <c r="A353" s="8">
         <v>436</v>
       </c>
@@ -25256,7 +25256,7 @@
       <c r="P353" s="22"/>
       <c r="Q353" s="22"/>
     </row>
-    <row r="354" ht="42" spans="1:17">
+    <row r="354" ht="41.4" spans="1:17">
       <c r="A354" s="8">
         <v>437</v>
       </c>
@@ -25281,7 +25281,7 @@
       <c r="P354" s="22"/>
       <c r="Q354" s="22"/>
     </row>
-    <row r="355" ht="42" spans="1:17">
+    <row r="355" ht="41.4" spans="1:17">
       <c r="A355" s="8">
         <v>438</v>
       </c>
@@ -25306,7 +25306,7 @@
       <c r="P355" s="22"/>
       <c r="Q355" s="22"/>
     </row>
-    <row r="356" ht="42" spans="1:17">
+    <row r="356" ht="41.4" spans="1:17">
       <c r="A356" s="8">
         <v>439</v>
       </c>
@@ -25331,7 +25331,7 @@
       <c r="P356" s="22"/>
       <c r="Q356" s="22"/>
     </row>
-    <row r="357" ht="42" spans="1:17">
+    <row r="357" ht="41.4" spans="1:17">
       <c r="A357" s="8">
         <v>440</v>
       </c>
@@ -25356,7 +25356,7 @@
       <c r="P357" s="22"/>
       <c r="Q357" s="22"/>
     </row>
-    <row r="358" ht="28" spans="1:17">
+    <row r="358" ht="27.6" spans="1:17">
       <c r="A358" s="8">
         <v>441</v>
       </c>
@@ -25381,7 +25381,7 @@
       <c r="P358" s="22"/>
       <c r="Q358" s="22"/>
     </row>
-    <row r="359" ht="42" spans="1:17">
+    <row r="359" ht="41.4" spans="1:17">
       <c r="A359" s="8">
         <v>442</v>
       </c>
@@ -25406,7 +25406,7 @@
       <c r="P359" s="22"/>
       <c r="Q359" s="22"/>
     </row>
-    <row r="360" ht="28" spans="1:17">
+    <row r="360" ht="27.6" spans="1:17">
       <c r="A360" s="8">
         <v>443</v>
       </c>
@@ -25431,7 +25431,7 @@
       <c r="P360" s="22"/>
       <c r="Q360" s="22"/>
     </row>
-    <row r="361" ht="28" spans="1:17">
+    <row r="361" ht="27.6" spans="1:17">
       <c r="A361" s="8"/>
       <c r="B361" s="5"/>
       <c r="C361" s="53"/>
@@ -25454,7 +25454,7 @@
       <c r="P361" s="22"/>
       <c r="Q361" s="22"/>
     </row>
-    <row r="362" ht="28" spans="1:17">
+    <row r="362" ht="27.6" spans="1:17">
       <c r="A362" s="8">
         <v>445</v>
       </c>
@@ -25479,7 +25479,7 @@
       <c r="P362" s="22"/>
       <c r="Q362" s="22"/>
     </row>
-    <row r="363" ht="14" spans="1:17">
+    <row r="363" ht="13.8" spans="1:17">
       <c r="A363" s="8"/>
       <c r="B363" s="5"/>
       <c r="C363" s="53"/>
@@ -25498,7 +25498,7 @@
       <c r="P363" s="22"/>
       <c r="Q363" s="22"/>
     </row>
-    <row r="364" ht="14" spans="1:17">
+    <row r="364" ht="13.8" spans="1:17">
       <c r="A364" s="8"/>
       <c r="B364" s="5"/>
       <c r="C364" s="53"/>
@@ -25517,7 +25517,7 @@
       <c r="P364" s="22"/>
       <c r="Q364" s="22"/>
     </row>
-    <row r="365" ht="14" spans="1:17">
+    <row r="365" ht="13.8" spans="1:17">
       <c r="A365" s="8"/>
       <c r="B365" s="5"/>
       <c r="C365" s="53"/>
@@ -25536,7 +25536,7 @@
       <c r="P365" s="22"/>
       <c r="Q365" s="22"/>
     </row>
-    <row r="366" ht="14" spans="1:17">
+    <row r="366" ht="13.8" spans="1:17">
       <c r="A366" s="8"/>
       <c r="B366" s="5"/>
       <c r="C366" s="53"/>
@@ -25555,7 +25555,7 @@
       <c r="P366" s="22"/>
       <c r="Q366" s="22"/>
     </row>
-    <row r="367" ht="14" spans="1:17">
+    <row r="367" ht="13.8" spans="1:17">
       <c r="A367" s="8"/>
       <c r="B367" s="5"/>
       <c r="C367" s="53"/>
@@ -25574,7 +25574,7 @@
       <c r="P367" s="22"/>
       <c r="Q367" s="22"/>
     </row>
-    <row r="368" ht="14" spans="1:17">
+    <row r="368" ht="13.8" spans="1:17">
       <c r="A368" s="8"/>
       <c r="B368" s="5"/>
       <c r="C368" s="53"/>
@@ -25593,7 +25593,7 @@
       <c r="P368" s="22"/>
       <c r="Q368" s="22"/>
     </row>
-    <row r="369" ht="14" spans="1:17">
+    <row r="369" ht="13.8" spans="1:17">
       <c r="A369" s="8"/>
       <c r="B369" s="5"/>
       <c r="C369" s="53"/>
@@ -25612,7 +25612,7 @@
       <c r="P369" s="22"/>
       <c r="Q369" s="22"/>
     </row>
-    <row r="370" ht="14" spans="1:17">
+    <row r="370" ht="13.8" spans="1:17">
       <c r="A370" s="8"/>
       <c r="B370" s="5"/>
       <c r="C370" s="53"/>
@@ -25631,7 +25631,7 @@
       <c r="P370" s="22"/>
       <c r="Q370" s="22"/>
     </row>
-    <row r="371" ht="14" spans="1:17">
+    <row r="371" ht="13.8" spans="1:17">
       <c r="A371" s="8"/>
       <c r="B371" s="5"/>
       <c r="C371" s="53"/>
@@ -25683,7 +25683,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="19.1545454545455" customWidth="1"/>
+    <col min="2" max="2" width="19.1481481481481" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:23">
@@ -48753,7 +48753,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>
   <sheetData>
-    <row r="1" ht="26" spans="1:23">
+    <row r="1" ht="26.4" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -48824,7 +48824,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" ht="169" spans="1:23">
+    <row r="2" ht="184.8" spans="1:23">
       <c r="A2" s="4">
         <v>170</v>
       </c>
@@ -48879,7 +48879,7 @@
       <c r="V2" s="14"/>
       <c r="W2" s="8"/>
     </row>
-    <row r="3" ht="112" spans="1:23">
+    <row r="3" ht="110.4" spans="1:23">
       <c r="A3" s="4">
         <v>173</v>
       </c>
@@ -48936,7 +48936,7 @@
       <c r="V3" s="14"/>
       <c r="W3" s="8"/>
     </row>
-    <row r="4" ht="182" spans="1:23">
+    <row r="4" ht="198" spans="1:23">
       <c r="A4" s="4">
         <v>174</v>
       </c>
@@ -49046,7 +49046,7 @@
       <c r="V5" s="14"/>
       <c r="W5" s="8"/>
     </row>
-    <row r="6" ht="195" spans="1:23">
+    <row r="6" ht="264" spans="1:23">
       <c r="A6" s="4">
         <v>176</v>
       </c>
@@ -49101,7 +49101,7 @@
       <c r="V6" s="14"/>
       <c r="W6" s="8"/>
     </row>
-    <row r="7" ht="112" spans="1:23">
+    <row r="7" ht="132" spans="1:23">
       <c r="A7" s="4">
         <v>177</v>
       </c>
@@ -49156,7 +49156,7 @@
       <c r="V7" s="14"/>
       <c r="W7" s="8"/>
     </row>
-    <row r="8" ht="98" spans="1:23">
+    <row r="8" ht="96.6" spans="1:23">
       <c r="A8" s="4">
         <v>178</v>
       </c>
@@ -49211,7 +49211,7 @@
       <c r="V8" s="14"/>
       <c r="W8" s="8"/>
     </row>
-    <row r="9" ht="126" spans="1:23">
+    <row r="9" ht="124.2" spans="1:23">
       <c r="A9" s="4">
         <v>179</v>
       </c>
@@ -49266,7 +49266,7 @@
       <c r="V9" s="14"/>
       <c r="W9" s="8"/>
     </row>
-    <row r="10" ht="112" spans="1:23">
+    <row r="10" ht="110.4" spans="1:23">
       <c r="A10" s="4">
         <v>180</v>
       </c>
@@ -49321,7 +49321,7 @@
       <c r="V10" s="14"/>
       <c r="W10" s="8"/>
     </row>
-    <row r="11" ht="126" spans="1:23">
+    <row r="11" ht="110.4" spans="1:23">
       <c r="A11" s="4">
         <v>181</v>
       </c>
@@ -49376,7 +49376,7 @@
       <c r="V11" s="14"/>
       <c r="W11" s="8"/>
     </row>
-    <row r="12" ht="117" spans="1:23">
+    <row r="12" ht="118.8" spans="1:23">
       <c r="A12" s="4">
         <v>182</v>
       </c>
@@ -49431,7 +49431,7 @@
       <c r="V12" s="14"/>
       <c r="W12" s="8"/>
     </row>
-    <row r="13" ht="98" spans="1:23">
+    <row r="13" ht="96.6" spans="1:23">
       <c r="A13" s="4">
         <v>348</v>
       </c>
@@ -49488,7 +49488,7 @@
       <c r="V13" s="14"/>
       <c r="W13" s="8"/>
     </row>
-    <row r="14" ht="338" spans="1:23">
+    <row r="14" ht="369.6" spans="1:23">
       <c r="A14" s="4">
         <v>349</v>
       </c>
@@ -49545,7 +49545,7 @@
       <c r="V14" s="14"/>
       <c r="W14" s="8"/>
     </row>
-    <row r="15" ht="126" spans="1:23">
+    <row r="15" ht="124.2" spans="1:23">
       <c r="A15" s="4">
         <v>350</v>
       </c>
@@ -49602,7 +49602,7 @@
       <c r="V15" s="14"/>
       <c r="W15" s="8"/>
     </row>
-    <row r="16" ht="156" spans="1:23">
+    <row r="16" ht="158.4" spans="1:23">
       <c r="A16" s="4">
         <v>351</v>
       </c>
@@ -49659,7 +49659,7 @@
       <c r="V16" s="14"/>
       <c r="W16" s="8"/>
     </row>
-    <row r="17" ht="182" spans="1:23">
+    <row r="17" ht="211.2" spans="1:23">
       <c r="A17" s="4">
         <v>352</v>
       </c>
@@ -49716,7 +49716,7 @@
       <c r="V17" s="14"/>
       <c r="W17" s="8"/>
     </row>
-    <row r="18" ht="126" spans="1:23">
+    <row r="18" ht="124.2" spans="1:23">
       <c r="A18" s="4">
         <v>353</v>
       </c>
@@ -49763,7 +49763,7 @@
         <v>27</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="Q18" s="12"/>
       <c r="R18" s="8"/>
@@ -49773,7 +49773,7 @@
       <c r="V18" s="14"/>
       <c r="W18" s="8"/>
     </row>
-    <row r="19" ht="130" spans="1:23">
+    <row r="19" ht="145.2" spans="1:23">
       <c r="A19" s="8">
         <v>608</v>
       </c>
@@ -49830,7 +49830,7 @@
       <c r="V19" s="14"/>
       <c r="W19" s="8"/>
     </row>
-    <row r="20" ht="156" spans="1:23">
+    <row r="20" ht="184.8" spans="1:23">
       <c r="A20" s="8">
         <v>609</v>
       </c>
@@ -49856,7 +49856,7 @@
         <v>2043</v>
       </c>
       <c r="I20" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J20" s="5" t="s">
         <v>24</v>
@@ -49887,7 +49887,7 @@
       <c r="V20" s="14"/>
       <c r="W20" s="8"/>
     </row>
-    <row r="21" ht="130" spans="1:23">
+    <row r="21" ht="145.2" spans="1:23">
       <c r="A21" s="8">
         <v>610</v>
       </c>
@@ -49944,7 +49944,7 @@
       <c r="V21" s="14"/>
       <c r="W21" s="8"/>
     </row>
-    <row r="22" ht="117" spans="1:23">
+    <row r="22" ht="132" spans="1:23">
       <c r="A22" s="8">
         <v>611</v>
       </c>
@@ -49970,7 +49970,7 @@
         <v>2052</v>
       </c>
       <c r="I22" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J22" s="5" t="s">
         <v>24</v>
@@ -50058,7 +50058,7 @@
       <c r="V23" s="14"/>
       <c r="W23" s="8"/>
     </row>
-    <row r="24" ht="221" spans="1:23">
+    <row r="24" ht="277.2" spans="1:23">
       <c r="A24" s="8">
         <v>613</v>
       </c>
@@ -50101,7 +50101,7 @@
       <c r="V24" s="14"/>
       <c r="W24" s="8"/>
     </row>
-    <row r="25" ht="182" spans="1:23">
+    <row r="25" ht="198" spans="1:23">
       <c r="A25" s="8">
         <v>614</v>
       </c>
@@ -50158,7 +50158,7 @@
       <c r="V25" s="14"/>
       <c r="W25" s="8"/>
     </row>
-    <row r="26" ht="130" spans="1:23">
+    <row r="26" ht="145.2" spans="1:23">
       <c r="A26" s="8">
         <v>615</v>
       </c>
@@ -50215,7 +50215,7 @@
       <c r="V26" s="14"/>
       <c r="W26" s="8"/>
     </row>
-    <row r="27" ht="169" spans="1:23">
+    <row r="27" ht="184.8" spans="1:23">
       <c r="A27" s="8">
         <v>616</v>
       </c>
@@ -50272,7 +50272,7 @@
       <c r="V27" s="14"/>
       <c r="W27" s="8"/>
     </row>
-    <row r="28" ht="117" spans="1:23">
+    <row r="28" ht="118.8" spans="1:23">
       <c r="A28" s="8">
         <v>617</v>
       </c>
@@ -50329,7 +50329,7 @@
       <c r="V28" s="14"/>
       <c r="W28" s="8"/>
     </row>
-    <row r="29" ht="156" spans="1:23">
+    <row r="29" ht="158.4" spans="1:23">
       <c r="A29" s="8">
         <v>618</v>
       </c>
@@ -50372,7 +50372,7 @@
       <c r="V29" s="14"/>
       <c r="W29" s="8"/>
     </row>
-    <row r="30" ht="117" spans="1:23">
+    <row r="30" ht="118.8" spans="1:23">
       <c r="A30" s="8">
         <v>619</v>
       </c>
@@ -50429,7 +50429,7 @@
       <c r="V30" s="14"/>
       <c r="W30" s="8"/>
     </row>
-    <row r="31" ht="104" spans="1:23">
+    <row r="31" ht="118.8" spans="1:23">
       <c r="A31" s="8">
         <v>620</v>
       </c>
@@ -50486,7 +50486,7 @@
       <c r="V31" s="14"/>
       <c r="W31" s="8"/>
     </row>
-    <row r="32" ht="91" spans="1:23">
+    <row r="32" ht="92.4" spans="1:23">
       <c r="A32" s="8">
         <v>621</v>
       </c>
@@ -50527,7 +50527,7 @@
       <c r="V32" s="14"/>
       <c r="W32" s="8"/>
     </row>
-    <row r="33" ht="117" spans="1:23">
+    <row r="33" ht="132" spans="1:23">
       <c r="A33" s="8">
         <v>622</v>
       </c>
@@ -50584,7 +50584,7 @@
       <c r="V33" s="14"/>
       <c r="W33" s="8"/>
     </row>
-    <row r="34" ht="117" spans="1:23">
+    <row r="34" ht="132" spans="1:23">
       <c r="A34" s="8">
         <v>623</v>
       </c>
@@ -50641,7 +50641,7 @@
       <c r="V34" s="14"/>
       <c r="W34" s="8"/>
     </row>
-    <row r="35" ht="156" spans="1:23">
+    <row r="35" ht="171.6" spans="1:23">
       <c r="A35" s="8">
         <v>625</v>
       </c>
@@ -50698,7 +50698,7 @@
       <c r="V35" s="14"/>
       <c r="W35" s="8"/>
     </row>
-    <row r="36" ht="182" spans="1:23">
+    <row r="36" ht="184.8" spans="1:23">
       <c r="A36" s="8">
         <v>626</v>
       </c>
@@ -50755,7 +50755,7 @@
       <c r="V36" s="14"/>
       <c r="W36" s="8"/>
     </row>
-    <row r="37" ht="130" spans="1:23">
+    <row r="37" ht="145.2" spans="1:23">
       <c r="A37" s="8">
         <v>628</v>
       </c>
@@ -50812,7 +50812,7 @@
       <c r="V37" s="14"/>
       <c r="W37" s="8"/>
     </row>
-    <row r="38" ht="104" spans="1:23">
+    <row r="38" ht="105.6" spans="1:23">
       <c r="A38" s="8">
         <v>629</v>
       </c>
@@ -50869,7 +50869,7 @@
       <c r="V38" s="14"/>
       <c r="W38" s="8"/>
     </row>
-    <row r="39" ht="156" spans="1:23">
+    <row r="39" ht="158.4" spans="1:23">
       <c r="A39" s="8">
         <v>630</v>
       </c>
@@ -50926,7 +50926,7 @@
       <c r="V39" s="14"/>
       <c r="W39" s="8"/>
     </row>
-    <row r="40" ht="104" spans="1:23">
+    <row r="40" ht="132" spans="1:23">
       <c r="A40" s="8">
         <v>631</v>
       </c>
@@ -50983,7 +50983,7 @@
       <c r="V40" s="14"/>
       <c r="W40" s="8"/>
     </row>
-    <row r="41" ht="117" spans="1:23">
+    <row r="41" ht="118.8" spans="1:23">
       <c r="A41" s="8">
         <v>632</v>
       </c>
@@ -51040,7 +51040,7 @@
       <c r="V41" s="14"/>
       <c r="W41" s="8"/>
     </row>
-    <row r="42" ht="91" spans="1:23">
+    <row r="42" ht="92.4" spans="1:23">
       <c r="A42" s="8">
         <v>633</v>
       </c>

--- a/analysis/xlsx/RealisticEval-Data.xlsx
+++ b/analysis/xlsx/RealisticEval-Data.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10470" uniqueCount="2125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10485" uniqueCount="2125">
   <si>
     <t>task_id</t>
   </si>
@@ -8607,7 +8607,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F2" sqref="F2"/>
+      <selection pane="topRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>
@@ -26612,11 +26612,21 @@
       </c>
       <c r="Q16" s="22"/>
       <c r="R16" s="37"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="8"/>
+      <c r="S16" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="T16" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="U16" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="V16" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="W16" s="8" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="17" customHeight="1" spans="1:23">
       <c r="A17" s="4">
@@ -26669,11 +26679,21 @@
       </c>
       <c r="Q17" s="22"/>
       <c r="R17" s="37"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="8"/>
+      <c r="S17" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="T17" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="U17" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="V17" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="W17" s="8" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="18" customHeight="1" spans="1:23">
       <c r="A18" s="4">
@@ -26726,11 +26746,21 @@
       </c>
       <c r="Q18" s="22"/>
       <c r="R18" s="37"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="8"/>
+      <c r="S18" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="T18" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="U18" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="V18" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="W18" s="8" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="19" customHeight="1" spans="1:23">
       <c r="A19" s="4">

--- a/analysis/xlsx/RealisticEval-Data.xlsx
+++ b/analysis/xlsx/RealisticEval-Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29868" windowHeight="13380"/>
+    <workbookView windowWidth="14508" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="python" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9362" uniqueCount="1859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9362" uniqueCount="1857">
   <si>
     <t>task_id</t>
   </si>
@@ -141,7 +141,7 @@
     <t>T17-business code</t>
   </si>
   <si>
-    <t>文本处理</t>
+    <t>Text Processing</t>
   </si>
   <si>
     <t>string</t>
@@ -216,7 +216,7 @@
     <t>T3-Mathematical Operations/Algorithm</t>
   </si>
   <si>
-    <t>数学问题和科学计算</t>
+    <t>Mathematical Problems and Scientific Computing</t>
   </si>
   <si>
     <t>martix</t>
@@ -241,7 +241,7 @@
     <t>T15-text Process</t>
   </si>
   <si>
-    <t>文件处理</t>
+    <t>File Handling</t>
   </si>
   <si>
     <t xml:space="preserve">将文件系统路径格式化为简化的名称字符串
@@ -264,7 +264,7 @@
     <t>PQC_Seminar_S2024\d29c067dec5571a529bc2d95e1d62f1a6b75b32c\Kyber_Decrypt.py</t>
   </si>
   <si>
-    <t>安全</t>
+    <t>Security</t>
   </si>
   <si>
     <t>list,num</t>
@@ -307,7 +307,7 @@
     <t>T16-DataStruct and Algorithm</t>
   </si>
   <si>
-    <t>数据结构和算法</t>
+    <t>Data Structures and Algorithms</t>
   </si>
   <si>
     <t>定义了一个字典树（Trie）结构，用于快速检索和存储字符串</t>
@@ -392,7 +392,7 @@
     <t>boba-walks\8449cb77916b4fb07e2d393370699fea7193a0df\utils.py</t>
   </si>
   <si>
-    <t>数据可视化图形应用</t>
+    <t>Data Visualization and Graphic Applications</t>
   </si>
   <si>
     <t>将一个介于0和1之间的浮点数转换为一个对应的RGB颜色值，其中颜色从红色渐变到绿色</t>
@@ -743,7 +743,7 @@
     <t>libcolab\aa179d3014b5e00b3a6d9eff415241c698d812f1\review_calendar\today.py</t>
   </si>
   <si>
-    <t>日期和时间处理</t>
+    <t>Date and Time Processing</t>
   </si>
   <si>
     <t>none</t>
@@ -1012,7 +1012,7 @@
     <t>infra-config\6353168dc698d8726ea75570000de7fe1f56674c\ci\ip_address_duplicates.py</t>
   </si>
   <si>
-    <t>网络编程</t>
+    <t>Network Programming</t>
   </si>
   <si>
     <t>从多个文件中查找重复的 IP 地址，并返回一个字典，字典的键是发现的重复 IP 地址，值是包含该 IP 地址的文件列表</t>
@@ -3009,9 +3009,6 @@
 </t>
   </si>
   <si>
-    <t>数据库</t>
-  </si>
-  <si>
     <t>将包含命名参数的 SQL 查询字符串转换为适用于步 PostgreSQL数据库库的格式，同时返回排序后的参数列表</t>
   </si>
   <si>
@@ -3609,7 +3606,7 @@
     <t>HackDaildemo\b2cd54e9c43bc7f8aaa89682f30db1af5d2abf6c\src\content-script\site-adapters\youtube\index.mjs</t>
   </si>
   <si>
-    <t>前端</t>
+    <t>Frontend</t>
   </si>
   <si>
     <t>将 HTML 字符串中的 HTML 实体替换为它们对应的字符</t>
@@ -6180,9 +6177,6 @@
   </si>
   <si>
     <t>HBV501G\821afc5fc1b0082388f558deb2cbfcaf4af6a000\Backend\src\main\java\hbv501g\Utils\PasswordUtils.java</t>
-  </si>
-  <si>
-    <t>Security</t>
   </si>
   <si>
     <t>生成随机盐值和使用盐值哈希密码</t>
@@ -6786,6 +6780,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF175CEB"/>
@@ -6794,12 +6794,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -7914,9 +7908,9 @@
   <dimension ref="A1:AF206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>
@@ -21048,19 +21042,19 @@
         <v>35</v>
       </c>
       <c r="G160" s="6" t="s">
-        <v>800</v>
+        <v>36</v>
       </c>
       <c r="H160" s="6" t="s">
         <v>87</v>
       </c>
       <c r="I160" s="34" t="s">
+        <v>800</v>
+      </c>
+      <c r="J160" s="34" t="s">
+        <v>800</v>
+      </c>
+      <c r="K160" s="34" t="s">
         <v>801</v>
-      </c>
-      <c r="J160" s="34" t="s">
-        <v>801</v>
-      </c>
-      <c r="K160" s="34" t="s">
-        <v>802</v>
       </c>
       <c r="L160" s="34">
         <v>5</v>
@@ -21109,7 +21103,7 @@
       <c r="AD160" s="6"/>
       <c r="AE160" s="36"/>
       <c r="AF160" s="36" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="161" ht="96.6" spans="1:32">
@@ -21123,7 +21117,7 @@
         <v>110</v>
       </c>
       <c r="D161" s="30" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E161" s="10" t="s">
         <v>34</v>
@@ -21138,13 +21132,13 @@
         <v>37</v>
       </c>
       <c r="I161" s="34" t="s">
+        <v>804</v>
+      </c>
+      <c r="J161" s="34" t="s">
+        <v>804</v>
+      </c>
+      <c r="K161" s="34" t="s">
         <v>805</v>
-      </c>
-      <c r="J161" s="34" t="s">
-        <v>805</v>
-      </c>
-      <c r="K161" s="34" t="s">
-        <v>806</v>
       </c>
       <c r="L161" s="34">
         <v>5</v>
@@ -21202,10 +21196,10 @@
         <v>31</v>
       </c>
       <c r="C162" s="30" t="s">
+        <v>806</v>
+      </c>
+      <c r="D162" s="30" t="s">
         <v>807</v>
-      </c>
-      <c r="D162" s="30" t="s">
-        <v>808</v>
       </c>
       <c r="E162" s="10" t="s">
         <v>418</v>
@@ -21220,13 +21214,13 @@
         <v>214</v>
       </c>
       <c r="I162" s="34" t="s">
+        <v>808</v>
+      </c>
+      <c r="J162" s="34" t="s">
+        <v>808</v>
+      </c>
+      <c r="K162" s="34" t="s">
         <v>809</v>
-      </c>
-      <c r="J162" s="34" t="s">
-        <v>809</v>
-      </c>
-      <c r="K162" s="34" t="s">
-        <v>810</v>
       </c>
       <c r="L162" s="34">
         <v>5</v>
@@ -21284,10 +21278,10 @@
         <v>31</v>
       </c>
       <c r="C163" s="30" t="s">
+        <v>810</v>
+      </c>
+      <c r="D163" s="30" t="s">
         <v>811</v>
-      </c>
-      <c r="D163" s="30" t="s">
-        <v>812</v>
       </c>
       <c r="E163" s="10" t="s">
         <v>34</v>
@@ -21302,13 +21296,13 @@
         <v>37</v>
       </c>
       <c r="I163" s="34" t="s">
+        <v>812</v>
+      </c>
+      <c r="J163" s="34" t="s">
+        <v>812</v>
+      </c>
+      <c r="K163" s="34" t="s">
         <v>813</v>
-      </c>
-      <c r="J163" s="34" t="s">
-        <v>813</v>
-      </c>
-      <c r="K163" s="34" t="s">
-        <v>814</v>
       </c>
       <c r="L163" s="34">
         <v>5</v>
@@ -21366,10 +21360,10 @@
         <v>31</v>
       </c>
       <c r="C164" s="30" t="s">
+        <v>810</v>
+      </c>
+      <c r="D164" s="30" t="s">
         <v>811</v>
-      </c>
-      <c r="D164" s="30" t="s">
-        <v>812</v>
       </c>
       <c r="E164" s="10" t="s">
         <v>34</v>
@@ -21381,16 +21375,16 @@
         <v>106</v>
       </c>
       <c r="H164" s="6" t="s">
+        <v>814</v>
+      </c>
+      <c r="I164" s="34" t="s">
         <v>815</v>
       </c>
-      <c r="I164" s="34" t="s">
+      <c r="J164" s="34" t="s">
+        <v>815</v>
+      </c>
+      <c r="K164" s="34" t="s">
         <v>816</v>
-      </c>
-      <c r="J164" s="34" t="s">
-        <v>816</v>
-      </c>
-      <c r="K164" s="34" t="s">
-        <v>817</v>
       </c>
       <c r="L164" s="34">
         <v>5</v>
@@ -21438,7 +21432,7 @@
       </c>
       <c r="AD164" s="6"/>
       <c r="AE164" s="36" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="AF164" s="36"/>
     </row>
@@ -21453,7 +21447,7 @@
         <v>167</v>
       </c>
       <c r="D165" s="30" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E165" s="10" t="s">
         <v>34</v>
@@ -21468,13 +21462,13 @@
         <v>37</v>
       </c>
       <c r="I165" s="34" t="s">
+        <v>819</v>
+      </c>
+      <c r="J165" s="34" t="s">
+        <v>819</v>
+      </c>
+      <c r="K165" s="34" t="s">
         <v>820</v>
-      </c>
-      <c r="J165" s="34" t="s">
-        <v>820</v>
-      </c>
-      <c r="K165" s="34" t="s">
-        <v>821</v>
       </c>
       <c r="L165" s="34">
         <v>4</v>
@@ -21535,7 +21529,7 @@
         <v>167</v>
       </c>
       <c r="D166" s="30" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E166" s="10" t="s">
         <v>34</v>
@@ -21550,13 +21544,13 @@
         <v>37</v>
       </c>
       <c r="I166" s="34" t="s">
+        <v>821</v>
+      </c>
+      <c r="J166" s="34" t="s">
+        <v>821</v>
+      </c>
+      <c r="K166" s="34" t="s">
         <v>822</v>
-      </c>
-      <c r="J166" s="34" t="s">
-        <v>822</v>
-      </c>
-      <c r="K166" s="34" t="s">
-        <v>823</v>
       </c>
       <c r="L166" s="34">
         <v>6</v>
@@ -21617,7 +21611,7 @@
         <v>167</v>
       </c>
       <c r="D167" s="30" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E167" s="10" t="s">
         <v>34</v>
@@ -21632,13 +21626,13 @@
         <v>331</v>
       </c>
       <c r="I167" s="34" t="s">
+        <v>823</v>
+      </c>
+      <c r="J167" s="34" t="s">
+        <v>823</v>
+      </c>
+      <c r="K167" s="34" t="s">
         <v>824</v>
-      </c>
-      <c r="J167" s="34" t="s">
-        <v>824</v>
-      </c>
-      <c r="K167" s="34" t="s">
-        <v>825</v>
       </c>
       <c r="L167" s="34">
         <v>4</v>
@@ -21699,7 +21693,7 @@
         <v>167</v>
       </c>
       <c r="D168" s="30" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E168" s="10" t="s">
         <v>34</v>
@@ -21714,13 +21708,13 @@
         <v>87</v>
       </c>
       <c r="I168" s="34" t="s">
+        <v>825</v>
+      </c>
+      <c r="J168" s="34" t="s">
+        <v>825</v>
+      </c>
+      <c r="K168" s="34" t="s">
         <v>826</v>
-      </c>
-      <c r="J168" s="34" t="s">
-        <v>826</v>
-      </c>
-      <c r="K168" s="34" t="s">
-        <v>827</v>
       </c>
       <c r="L168" s="34">
         <v>3</v>
@@ -21778,10 +21772,10 @@
         <v>31</v>
       </c>
       <c r="C169" s="30" t="s">
+        <v>827</v>
+      </c>
+      <c r="D169" s="30" t="s">
         <v>828</v>
-      </c>
-      <c r="D169" s="30" t="s">
-        <v>829</v>
       </c>
       <c r="E169" s="10" t="s">
         <v>49</v>
@@ -21796,13 +21790,13 @@
         <v>100</v>
       </c>
       <c r="I169" s="34" t="s">
+        <v>829</v>
+      </c>
+      <c r="J169" s="34" t="s">
+        <v>829</v>
+      </c>
+      <c r="K169" s="34" t="s">
         <v>830</v>
-      </c>
-      <c r="J169" s="34" t="s">
-        <v>830</v>
-      </c>
-      <c r="K169" s="34" t="s">
-        <v>831</v>
       </c>
       <c r="L169" s="34">
         <v>6</v>
@@ -21860,10 +21854,10 @@
         <v>31</v>
       </c>
       <c r="C170" s="30" t="s">
+        <v>831</v>
+      </c>
+      <c r="D170" s="30" t="s">
         <v>832</v>
-      </c>
-      <c r="D170" s="30" t="s">
-        <v>833</v>
       </c>
       <c r="E170" s="10" t="s">
         <v>49</v>
@@ -21878,13 +21872,13 @@
         <v>73</v>
       </c>
       <c r="I170" s="34" t="s">
+        <v>833</v>
+      </c>
+      <c r="J170" s="34" t="s">
+        <v>833</v>
+      </c>
+      <c r="K170" s="34" t="s">
         <v>834</v>
-      </c>
-      <c r="J170" s="34" t="s">
-        <v>834</v>
-      </c>
-      <c r="K170" s="34" t="s">
-        <v>835</v>
       </c>
       <c r="L170" s="34">
         <v>5</v>
@@ -21942,10 +21936,10 @@
         <v>31</v>
       </c>
       <c r="C171" s="32" t="s">
+        <v>835</v>
+      </c>
+      <c r="D171" s="32" t="s">
         <v>836</v>
-      </c>
-      <c r="D171" s="32" t="s">
-        <v>837</v>
       </c>
       <c r="E171" s="33" t="s">
         <v>49</v>
@@ -21960,13 +21954,13 @@
         <v>37</v>
       </c>
       <c r="I171" s="35" t="s">
+        <v>837</v>
+      </c>
+      <c r="J171" s="35" t="s">
+        <v>837</v>
+      </c>
+      <c r="K171" s="35" t="s">
         <v>838</v>
-      </c>
-      <c r="J171" s="35" t="s">
-        <v>838</v>
-      </c>
-      <c r="K171" s="35" t="s">
-        <v>839</v>
       </c>
       <c r="L171" s="35">
         <v>5</v>
@@ -22024,10 +22018,10 @@
         <v>31</v>
       </c>
       <c r="C172" s="30" t="s">
+        <v>839</v>
+      </c>
+      <c r="D172" s="30" t="s">
         <v>840</v>
-      </c>
-      <c r="D172" s="30" t="s">
-        <v>841</v>
       </c>
       <c r="E172" s="10" t="s">
         <v>34</v>
@@ -22042,13 +22036,13 @@
         <v>37</v>
       </c>
       <c r="I172" s="34" t="s">
+        <v>841</v>
+      </c>
+      <c r="J172" s="34" t="s">
+        <v>841</v>
+      </c>
+      <c r="K172" s="34" t="s">
         <v>842</v>
-      </c>
-      <c r="J172" s="34" t="s">
-        <v>842</v>
-      </c>
-      <c r="K172" s="34" t="s">
-        <v>843</v>
       </c>
       <c r="L172" s="34">
         <v>5</v>
@@ -22106,10 +22100,10 @@
         <v>31</v>
       </c>
       <c r="C173" s="30" t="s">
+        <v>839</v>
+      </c>
+      <c r="D173" s="30" t="s">
         <v>840</v>
-      </c>
-      <c r="D173" s="30" t="s">
-        <v>841</v>
       </c>
       <c r="E173" s="10" t="s">
         <v>34</v>
@@ -22124,13 +22118,13 @@
         <v>37</v>
       </c>
       <c r="I173" s="34" t="s">
+        <v>843</v>
+      </c>
+      <c r="J173" s="34" t="s">
+        <v>843</v>
+      </c>
+      <c r="K173" s="34" t="s">
         <v>844</v>
-      </c>
-      <c r="J173" s="34" t="s">
-        <v>844</v>
-      </c>
-      <c r="K173" s="34" t="s">
-        <v>845</v>
       </c>
       <c r="L173" s="34">
         <v>4</v>
@@ -22188,10 +22182,10 @@
         <v>31</v>
       </c>
       <c r="C174" s="30" t="s">
+        <v>845</v>
+      </c>
+      <c r="D174" s="30" t="s">
         <v>846</v>
-      </c>
-      <c r="D174" s="30" t="s">
-        <v>847</v>
       </c>
       <c r="E174" s="10" t="s">
         <v>34</v>
@@ -22206,13 +22200,13 @@
         <v>37</v>
       </c>
       <c r="I174" s="34" t="s">
+        <v>847</v>
+      </c>
+      <c r="J174" s="34" t="s">
         <v>848</v>
       </c>
-      <c r="J174" s="34" t="s">
+      <c r="K174" s="34" t="s">
         <v>849</v>
-      </c>
-      <c r="K174" s="34" t="s">
-        <v>850</v>
       </c>
       <c r="L174" s="34">
         <v>4</v>
@@ -22270,10 +22264,10 @@
         <v>31</v>
       </c>
       <c r="C175" s="30" t="s">
+        <v>850</v>
+      </c>
+      <c r="D175" s="30" t="s">
         <v>851</v>
-      </c>
-      <c r="D175" s="30" t="s">
-        <v>852</v>
       </c>
       <c r="E175" s="10" t="s">
         <v>34</v>
@@ -22288,13 +22282,13 @@
         <v>37</v>
       </c>
       <c r="I175" s="34" t="s">
+        <v>852</v>
+      </c>
+      <c r="J175" s="34" t="s">
+        <v>852</v>
+      </c>
+      <c r="K175" s="34" t="s">
         <v>853</v>
-      </c>
-      <c r="J175" s="34" t="s">
-        <v>853</v>
-      </c>
-      <c r="K175" s="34" t="s">
-        <v>854</v>
       </c>
       <c r="L175" s="34">
         <v>5</v>
@@ -22352,10 +22346,10 @@
         <v>31</v>
       </c>
       <c r="C176" s="30" t="s">
+        <v>850</v>
+      </c>
+      <c r="D176" s="30" t="s">
         <v>851</v>
-      </c>
-      <c r="D176" s="30" t="s">
-        <v>852</v>
       </c>
       <c r="E176" s="10" t="s">
         <v>34</v>
@@ -22370,13 +22364,13 @@
         <v>37</v>
       </c>
       <c r="I176" s="34" t="s">
+        <v>854</v>
+      </c>
+      <c r="J176" s="34" t="s">
+        <v>854</v>
+      </c>
+      <c r="K176" s="34" t="s">
         <v>855</v>
-      </c>
-      <c r="J176" s="34" t="s">
-        <v>855</v>
-      </c>
-      <c r="K176" s="34" t="s">
-        <v>856</v>
       </c>
       <c r="L176" s="34">
         <v>5</v>
@@ -22434,10 +22428,10 @@
         <v>31</v>
       </c>
       <c r="C177" s="30" t="s">
+        <v>850</v>
+      </c>
+      <c r="D177" s="30" t="s">
         <v>851</v>
-      </c>
-      <c r="D177" s="30" t="s">
-        <v>852</v>
       </c>
       <c r="E177" s="10" t="s">
         <v>196</v>
@@ -22452,13 +22446,13 @@
         <v>37</v>
       </c>
       <c r="I177" s="34" t="s">
+        <v>856</v>
+      </c>
+      <c r="J177" s="34" t="s">
+        <v>856</v>
+      </c>
+      <c r="K177" s="34" t="s">
         <v>857</v>
-      </c>
-      <c r="J177" s="34" t="s">
-        <v>857</v>
-      </c>
-      <c r="K177" s="34" t="s">
-        <v>858</v>
       </c>
       <c r="L177" s="34">
         <v>6</v>
@@ -22516,10 +22510,10 @@
         <v>31</v>
       </c>
       <c r="C178" s="30" t="s">
+        <v>858</v>
+      </c>
+      <c r="D178" s="30" t="s">
         <v>859</v>
-      </c>
-      <c r="D178" s="30" t="s">
-        <v>860</v>
       </c>
       <c r="E178" s="10" t="s">
         <v>49</v>
@@ -22531,16 +22525,16 @@
         <v>51</v>
       </c>
       <c r="H178" s="6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I178" s="34" t="s">
+        <v>860</v>
+      </c>
+      <c r="J178" s="34" t="s">
+        <v>860</v>
+      </c>
+      <c r="K178" s="34" t="s">
         <v>861</v>
-      </c>
-      <c r="J178" s="34" t="s">
-        <v>861</v>
-      </c>
-      <c r="K178" s="34" t="s">
-        <v>862</v>
       </c>
       <c r="L178" s="34">
         <v>5</v>
@@ -22598,10 +22592,10 @@
         <v>31</v>
       </c>
       <c r="C179" s="30" t="s">
+        <v>862</v>
+      </c>
+      <c r="D179" s="30" t="s">
         <v>863</v>
-      </c>
-      <c r="D179" s="30" t="s">
-        <v>864</v>
       </c>
       <c r="E179" s="10" t="s">
         <v>49</v>
@@ -22616,13 +22610,13 @@
         <v>100</v>
       </c>
       <c r="I179" s="34" t="s">
+        <v>864</v>
+      </c>
+      <c r="J179" s="34" t="s">
+        <v>864</v>
+      </c>
+      <c r="K179" s="34" t="s">
         <v>865</v>
-      </c>
-      <c r="J179" s="34" t="s">
-        <v>865</v>
-      </c>
-      <c r="K179" s="34" t="s">
-        <v>866</v>
       </c>
       <c r="L179" s="34">
         <v>12</v>
@@ -22680,10 +22674,10 @@
         <v>31</v>
       </c>
       <c r="C180" s="30" t="s">
+        <v>866</v>
+      </c>
+      <c r="D180" s="30" t="s">
         <v>867</v>
-      </c>
-      <c r="D180" s="30" t="s">
-        <v>868</v>
       </c>
       <c r="E180" s="10" t="s">
         <v>34</v>
@@ -22698,13 +22692,13 @@
         <v>37</v>
       </c>
       <c r="I180" s="34" t="s">
+        <v>868</v>
+      </c>
+      <c r="J180" s="34" t="s">
+        <v>868</v>
+      </c>
+      <c r="K180" s="34" t="s">
         <v>869</v>
-      </c>
-      <c r="J180" s="34" t="s">
-        <v>869</v>
-      </c>
-      <c r="K180" s="34" t="s">
-        <v>870</v>
       </c>
       <c r="L180" s="34">
         <v>5</v>
@@ -22762,10 +22756,10 @@
         <v>31</v>
       </c>
       <c r="C181" s="30" t="s">
+        <v>870</v>
+      </c>
+      <c r="D181" s="30" t="s">
         <v>871</v>
-      </c>
-      <c r="D181" s="30" t="s">
-        <v>872</v>
       </c>
       <c r="E181" s="10" t="s">
         <v>34</v>
@@ -22780,13 +22774,13 @@
         <v>100</v>
       </c>
       <c r="I181" s="34" t="s">
+        <v>872</v>
+      </c>
+      <c r="J181" s="34" t="s">
+        <v>872</v>
+      </c>
+      <c r="K181" s="34" t="s">
         <v>873</v>
-      </c>
-      <c r="J181" s="34" t="s">
-        <v>873</v>
-      </c>
-      <c r="K181" s="34" t="s">
-        <v>874</v>
       </c>
       <c r="L181" s="34">
         <v>5</v>
@@ -22844,10 +22838,10 @@
         <v>31</v>
       </c>
       <c r="C182" s="30" t="s">
+        <v>874</v>
+      </c>
+      <c r="D182" s="30" t="s">
         <v>875</v>
-      </c>
-      <c r="D182" s="30" t="s">
-        <v>876</v>
       </c>
       <c r="E182" s="10" t="s">
         <v>34</v>
@@ -22862,13 +22856,13 @@
         <v>37</v>
       </c>
       <c r="I182" s="34" t="s">
+        <v>876</v>
+      </c>
+      <c r="J182" s="34" t="s">
         <v>877</v>
       </c>
-      <c r="J182" s="34" t="s">
+      <c r="K182" s="34" t="s">
         <v>878</v>
-      </c>
-      <c r="K182" s="34" t="s">
-        <v>879</v>
       </c>
       <c r="L182" s="34">
         <v>4</v>
@@ -22926,10 +22920,10 @@
         <v>31</v>
       </c>
       <c r="C183" s="30" t="s">
+        <v>879</v>
+      </c>
+      <c r="D183" s="30" t="s">
         <v>880</v>
-      </c>
-      <c r="D183" s="30" t="s">
-        <v>881</v>
       </c>
       <c r="E183" s="10" t="s">
         <v>34</v>
@@ -22944,13 +22938,13 @@
         <v>124</v>
       </c>
       <c r="I183" s="34" t="s">
+        <v>881</v>
+      </c>
+      <c r="J183" s="34" t="s">
+        <v>881</v>
+      </c>
+      <c r="K183" s="34" t="s">
         <v>882</v>
-      </c>
-      <c r="J183" s="34" t="s">
-        <v>882</v>
-      </c>
-      <c r="K183" s="34" t="s">
-        <v>883</v>
       </c>
       <c r="L183" s="34">
         <v>5</v>
@@ -23008,10 +23002,10 @@
         <v>31</v>
       </c>
       <c r="C184" s="30" t="s">
+        <v>879</v>
+      </c>
+      <c r="D184" s="30" t="s">
         <v>880</v>
-      </c>
-      <c r="D184" s="30" t="s">
-        <v>881</v>
       </c>
       <c r="E184" s="10" t="s">
         <v>34</v>
@@ -23026,13 +23020,13 @@
         <v>351</v>
       </c>
       <c r="I184" s="34" t="s">
+        <v>883</v>
+      </c>
+      <c r="J184" s="34" t="s">
+        <v>883</v>
+      </c>
+      <c r="K184" s="34" t="s">
         <v>884</v>
-      </c>
-      <c r="J184" s="34" t="s">
-        <v>884</v>
-      </c>
-      <c r="K184" s="34" t="s">
-        <v>885</v>
       </c>
       <c r="L184" s="34">
         <v>4</v>
@@ -23090,7 +23084,7 @@
         <v>31</v>
       </c>
       <c r="C185" s="30" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D185" s="30" t="s">
         <v>284</v>
@@ -23108,13 +23102,13 @@
         <v>124</v>
       </c>
       <c r="I185" s="34" t="s">
+        <v>886</v>
+      </c>
+      <c r="J185" s="34" t="s">
+        <v>886</v>
+      </c>
+      <c r="K185" s="34" t="s">
         <v>887</v>
-      </c>
-      <c r="J185" s="34" t="s">
-        <v>887</v>
-      </c>
-      <c r="K185" s="34" t="s">
-        <v>888</v>
       </c>
       <c r="L185" s="34">
         <v>3</v>
@@ -23172,7 +23166,7 @@
         <v>31</v>
       </c>
       <c r="C186" s="30" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D186" s="30" t="s">
         <v>284</v>
@@ -23190,13 +23184,13 @@
         <v>124</v>
       </c>
       <c r="I186" s="34" t="s">
+        <v>888</v>
+      </c>
+      <c r="J186" s="34" t="s">
+        <v>888</v>
+      </c>
+      <c r="K186" s="34" t="s">
         <v>889</v>
-      </c>
-      <c r="J186" s="34" t="s">
-        <v>889</v>
-      </c>
-      <c r="K186" s="34" t="s">
-        <v>890</v>
       </c>
       <c r="L186" s="34">
         <v>3</v>
@@ -23254,10 +23248,10 @@
         <v>31</v>
       </c>
       <c r="C187" s="30" t="s">
+        <v>890</v>
+      </c>
+      <c r="D187" s="30" t="s">
         <v>891</v>
-      </c>
-      <c r="D187" s="30" t="s">
-        <v>892</v>
       </c>
       <c r="E187" s="10" t="s">
         <v>34</v>
@@ -23272,13 +23266,13 @@
         <v>124</v>
       </c>
       <c r="I187" s="34" t="s">
+        <v>892</v>
+      </c>
+      <c r="J187" s="34" t="s">
+        <v>892</v>
+      </c>
+      <c r="K187" s="34" t="s">
         <v>893</v>
-      </c>
-      <c r="J187" s="34" t="s">
-        <v>893</v>
-      </c>
-      <c r="K187" s="34" t="s">
-        <v>894</v>
       </c>
       <c r="L187" s="34">
         <v>4</v>
@@ -23336,10 +23330,10 @@
         <v>31</v>
       </c>
       <c r="C188" s="30" t="s">
+        <v>894</v>
+      </c>
+      <c r="D188" s="30" t="s">
         <v>895</v>
-      </c>
-      <c r="D188" s="30" t="s">
-        <v>896</v>
       </c>
       <c r="E188" s="10" t="s">
         <v>34</v>
@@ -23354,13 +23348,13 @@
         <v>73</v>
       </c>
       <c r="I188" s="34" t="s">
+        <v>896</v>
+      </c>
+      <c r="J188" s="34" t="s">
+        <v>896</v>
+      </c>
+      <c r="K188" s="34" t="s">
         <v>897</v>
-      </c>
-      <c r="J188" s="34" t="s">
-        <v>897</v>
-      </c>
-      <c r="K188" s="34" t="s">
-        <v>898</v>
       </c>
       <c r="L188" s="34">
         <v>4</v>
@@ -23418,10 +23412,10 @@
         <v>31</v>
       </c>
       <c r="C189" s="30" t="s">
+        <v>898</v>
+      </c>
+      <c r="D189" s="30" t="s">
         <v>899</v>
-      </c>
-      <c r="D189" s="30" t="s">
-        <v>900</v>
       </c>
       <c r="E189" s="10" t="s">
         <v>49</v>
@@ -23436,13 +23430,13 @@
         <v>73</v>
       </c>
       <c r="I189" s="34" t="s">
+        <v>900</v>
+      </c>
+      <c r="J189" s="34" t="s">
+        <v>900</v>
+      </c>
+      <c r="K189" s="34" t="s">
         <v>901</v>
-      </c>
-      <c r="J189" s="34" t="s">
-        <v>901</v>
-      </c>
-      <c r="K189" s="34" t="s">
-        <v>902</v>
       </c>
       <c r="L189" s="34">
         <v>4</v>
@@ -23500,10 +23494,10 @@
         <v>31</v>
       </c>
       <c r="C190" s="30" t="s">
+        <v>902</v>
+      </c>
+      <c r="D190" s="30" t="s">
         <v>903</v>
-      </c>
-      <c r="D190" s="30" t="s">
-        <v>904</v>
       </c>
       <c r="E190" s="10" t="s">
         <v>34</v>
@@ -23518,13 +23512,13 @@
         <v>124</v>
       </c>
       <c r="I190" s="34" t="s">
+        <v>904</v>
+      </c>
+      <c r="J190" s="34" t="s">
+        <v>904</v>
+      </c>
+      <c r="K190" s="34" t="s">
         <v>905</v>
-      </c>
-      <c r="J190" s="34" t="s">
-        <v>905</v>
-      </c>
-      <c r="K190" s="34" t="s">
-        <v>906</v>
       </c>
       <c r="L190" s="34">
         <v>4</v>
@@ -23582,10 +23576,10 @@
         <v>31</v>
       </c>
       <c r="C191" s="30" t="s">
+        <v>906</v>
+      </c>
+      <c r="D191" s="30" t="s">
         <v>907</v>
-      </c>
-      <c r="D191" s="30" t="s">
-        <v>908</v>
       </c>
       <c r="E191" s="10" t="s">
         <v>99</v>
@@ -23597,16 +23591,16 @@
         <v>51</v>
       </c>
       <c r="H191" s="6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I191" s="34" t="s">
+        <v>908</v>
+      </c>
+      <c r="J191" s="34" t="s">
+        <v>908</v>
+      </c>
+      <c r="K191" s="34" t="s">
         <v>909</v>
-      </c>
-      <c r="J191" s="34" t="s">
-        <v>909</v>
-      </c>
-      <c r="K191" s="34" t="s">
-        <v>910</v>
       </c>
       <c r="L191" s="34">
         <v>3</v>
@@ -23664,10 +23658,10 @@
         <v>31</v>
       </c>
       <c r="C192" s="30" t="s">
+        <v>906</v>
+      </c>
+      <c r="D192" s="30" t="s">
         <v>907</v>
-      </c>
-      <c r="D192" s="30" t="s">
-        <v>908</v>
       </c>
       <c r="E192" s="10" t="s">
         <v>99</v>
@@ -23679,16 +23673,16 @@
         <v>51</v>
       </c>
       <c r="H192" s="6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I192" s="34" t="s">
+        <v>910</v>
+      </c>
+      <c r="J192" s="34" t="s">
+        <v>910</v>
+      </c>
+      <c r="K192" s="34" t="s">
         <v>911</v>
-      </c>
-      <c r="J192" s="34" t="s">
-        <v>911</v>
-      </c>
-      <c r="K192" s="34" t="s">
-        <v>912</v>
       </c>
       <c r="L192" s="34">
         <v>4</v>
@@ -23746,10 +23740,10 @@
         <v>31</v>
       </c>
       <c r="C193" s="30" t="s">
+        <v>906</v>
+      </c>
+      <c r="D193" s="30" t="s">
         <v>907</v>
-      </c>
-      <c r="D193" s="30" t="s">
-        <v>908</v>
       </c>
       <c r="E193" s="10" t="s">
         <v>99</v>
@@ -23761,16 +23755,16 @@
         <v>51</v>
       </c>
       <c r="H193" s="6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I193" s="34" t="s">
+        <v>912</v>
+      </c>
+      <c r="J193" s="34" t="s">
+        <v>912</v>
+      </c>
+      <c r="K193" s="34" t="s">
         <v>913</v>
-      </c>
-      <c r="J193" s="34" t="s">
-        <v>913</v>
-      </c>
-      <c r="K193" s="34" t="s">
-        <v>914</v>
       </c>
       <c r="L193" s="34">
         <v>4</v>
@@ -23828,10 +23822,10 @@
         <v>31</v>
       </c>
       <c r="C194" s="30" t="s">
+        <v>906</v>
+      </c>
+      <c r="D194" s="30" t="s">
         <v>907</v>
-      </c>
-      <c r="D194" s="30" t="s">
-        <v>908</v>
       </c>
       <c r="E194" s="10" t="s">
         <v>99</v>
@@ -23843,16 +23837,16 @@
         <v>51</v>
       </c>
       <c r="H194" s="6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I194" s="34" t="s">
+        <v>914</v>
+      </c>
+      <c r="J194" s="34" t="s">
+        <v>914</v>
+      </c>
+      <c r="K194" s="34" t="s">
         <v>915</v>
-      </c>
-      <c r="J194" s="34" t="s">
-        <v>915</v>
-      </c>
-      <c r="K194" s="34" t="s">
-        <v>916</v>
       </c>
       <c r="L194" s="34">
         <v>4</v>
@@ -23913,7 +23907,7 @@
         <v>383</v>
       </c>
       <c r="D195" s="30" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E195" s="10" t="s">
         <v>49</v>
@@ -23928,13 +23922,13 @@
         <v>37</v>
       </c>
       <c r="I195" s="34" t="s">
+        <v>917</v>
+      </c>
+      <c r="J195" s="34" t="s">
+        <v>917</v>
+      </c>
+      <c r="K195" s="34" t="s">
         <v>918</v>
-      </c>
-      <c r="J195" s="34" t="s">
-        <v>918</v>
-      </c>
-      <c r="K195" s="34" t="s">
-        <v>919</v>
       </c>
       <c r="L195" s="34">
         <v>4</v>
@@ -23992,10 +23986,10 @@
         <v>31</v>
       </c>
       <c r="C196" s="30" t="s">
+        <v>919</v>
+      </c>
+      <c r="D196" s="30" t="s">
         <v>920</v>
-      </c>
-      <c r="D196" s="30" t="s">
-        <v>921</v>
       </c>
       <c r="E196" s="10" t="s">
         <v>49</v>
@@ -24010,13 +24004,13 @@
         <v>73</v>
       </c>
       <c r="I196" s="34" t="s">
+        <v>921</v>
+      </c>
+      <c r="J196" s="34" t="s">
+        <v>921</v>
+      </c>
+      <c r="K196" s="34" t="s">
         <v>922</v>
-      </c>
-      <c r="J196" s="34" t="s">
-        <v>922</v>
-      </c>
-      <c r="K196" s="34" t="s">
-        <v>923</v>
       </c>
       <c r="L196" s="34">
         <v>4</v>
@@ -24074,10 +24068,10 @@
         <v>31</v>
       </c>
       <c r="C197" s="30" t="s">
+        <v>923</v>
+      </c>
+      <c r="D197" s="30" t="s">
         <v>924</v>
-      </c>
-      <c r="D197" s="30" t="s">
-        <v>925</v>
       </c>
       <c r="E197" s="10" t="s">
         <v>34</v>
@@ -24092,13 +24086,13 @@
         <v>124</v>
       </c>
       <c r="I197" s="34" t="s">
+        <v>925</v>
+      </c>
+      <c r="J197" s="34" t="s">
+        <v>925</v>
+      </c>
+      <c r="K197" s="34" t="s">
         <v>926</v>
-      </c>
-      <c r="J197" s="34" t="s">
-        <v>926</v>
-      </c>
-      <c r="K197" s="34" t="s">
-        <v>927</v>
       </c>
       <c r="L197" s="34">
         <v>3</v>
@@ -24156,10 +24150,10 @@
         <v>31</v>
       </c>
       <c r="C198" s="30" t="s">
+        <v>923</v>
+      </c>
+      <c r="D198" s="30" t="s">
         <v>924</v>
-      </c>
-      <c r="D198" s="30" t="s">
-        <v>925</v>
       </c>
       <c r="E198" s="10" t="s">
         <v>34</v>
@@ -24174,13 +24168,13 @@
         <v>73</v>
       </c>
       <c r="I198" s="34" t="s">
+        <v>927</v>
+      </c>
+      <c r="J198" s="34" t="s">
+        <v>927</v>
+      </c>
+      <c r="K198" s="34" t="s">
         <v>928</v>
-      </c>
-      <c r="J198" s="34" t="s">
-        <v>928</v>
-      </c>
-      <c r="K198" s="34" t="s">
-        <v>929</v>
       </c>
       <c r="L198" s="34">
         <v>6</v>
@@ -24238,10 +24232,10 @@
         <v>31</v>
       </c>
       <c r="C199" s="30" t="s">
+        <v>929</v>
+      </c>
+      <c r="D199" s="30" t="s">
         <v>930</v>
-      </c>
-      <c r="D199" s="30" t="s">
-        <v>931</v>
       </c>
       <c r="E199" s="10" t="s">
         <v>34</v>
@@ -24256,13 +24250,13 @@
         <v>124</v>
       </c>
       <c r="I199" s="34" t="s">
+        <v>931</v>
+      </c>
+      <c r="J199" s="34" t="s">
+        <v>931</v>
+      </c>
+      <c r="K199" s="34" t="s">
         <v>932</v>
-      </c>
-      <c r="J199" s="34" t="s">
-        <v>932</v>
-      </c>
-      <c r="K199" s="34" t="s">
-        <v>933</v>
       </c>
       <c r="L199" s="34">
         <v>4</v>
@@ -24320,10 +24314,10 @@
         <v>31</v>
       </c>
       <c r="C200" s="30" t="s">
+        <v>933</v>
+      </c>
+      <c r="D200" s="30" t="s">
         <v>934</v>
-      </c>
-      <c r="D200" s="30" t="s">
-        <v>935</v>
       </c>
       <c r="E200" s="10" t="s">
         <v>99</v>
@@ -24338,13 +24332,13 @@
         <v>100</v>
       </c>
       <c r="I200" s="34" t="s">
+        <v>935</v>
+      </c>
+      <c r="J200" s="34" t="s">
+        <v>935</v>
+      </c>
+      <c r="K200" s="34" t="s">
         <v>936</v>
-      </c>
-      <c r="J200" s="34" t="s">
-        <v>936</v>
-      </c>
-      <c r="K200" s="34" t="s">
-        <v>937</v>
       </c>
       <c r="L200" s="34">
         <v>7</v>
@@ -24402,10 +24396,10 @@
         <v>31</v>
       </c>
       <c r="C201" s="30" t="s">
+        <v>933</v>
+      </c>
+      <c r="D201" s="30" t="s">
         <v>934</v>
-      </c>
-      <c r="D201" s="30" t="s">
-        <v>935</v>
       </c>
       <c r="E201" s="10" t="s">
         <v>99</v>
@@ -24420,13 +24414,13 @@
         <v>100</v>
       </c>
       <c r="I201" s="34" t="s">
+        <v>937</v>
+      </c>
+      <c r="J201" s="34" t="s">
         <v>938</v>
       </c>
-      <c r="J201" s="34" t="s">
+      <c r="K201" s="34" t="s">
         <v>939</v>
-      </c>
-      <c r="K201" s="34" t="s">
-        <v>940</v>
       </c>
       <c r="L201" s="34">
         <v>7</v>
@@ -24484,10 +24478,10 @@
         <v>31</v>
       </c>
       <c r="C202" s="30" t="s">
+        <v>933</v>
+      </c>
+      <c r="D202" s="30" t="s">
         <v>934</v>
-      </c>
-      <c r="D202" s="30" t="s">
-        <v>935</v>
       </c>
       <c r="E202" s="10" t="s">
         <v>49</v>
@@ -24502,13 +24496,13 @@
         <v>67</v>
       </c>
       <c r="I202" s="34" t="s">
+        <v>940</v>
+      </c>
+      <c r="J202" s="34" t="s">
+        <v>940</v>
+      </c>
+      <c r="K202" s="34" t="s">
         <v>941</v>
-      </c>
-      <c r="J202" s="34" t="s">
-        <v>941</v>
-      </c>
-      <c r="K202" s="34" t="s">
-        <v>942</v>
       </c>
       <c r="L202" s="34">
         <v>7</v>
@@ -24566,10 +24560,10 @@
         <v>31</v>
       </c>
       <c r="C203" s="30" t="s">
+        <v>942</v>
+      </c>
+      <c r="D203" s="30" t="s">
         <v>943</v>
-      </c>
-      <c r="D203" s="30" t="s">
-        <v>944</v>
       </c>
       <c r="E203" s="10" t="s">
         <v>49</v>
@@ -24584,13 +24578,13 @@
         <v>67</v>
       </c>
       <c r="I203" s="34" t="s">
+        <v>944</v>
+      </c>
+      <c r="J203" s="34" t="s">
+        <v>944</v>
+      </c>
+      <c r="K203" s="34" t="s">
         <v>945</v>
-      </c>
-      <c r="J203" s="34" t="s">
-        <v>945</v>
-      </c>
-      <c r="K203" s="34" t="s">
-        <v>946</v>
       </c>
       <c r="L203" s="34">
         <v>6</v>
@@ -24648,10 +24642,10 @@
         <v>31</v>
       </c>
       <c r="C204" s="30" t="s">
+        <v>946</v>
+      </c>
+      <c r="D204" s="30" t="s">
         <v>947</v>
-      </c>
-      <c r="D204" s="30" t="s">
-        <v>948</v>
       </c>
       <c r="E204" s="10" t="s">
         <v>99</v>
@@ -24663,16 +24657,16 @@
         <v>51</v>
       </c>
       <c r="H204" s="6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I204" s="34" t="s">
+        <v>948</v>
+      </c>
+      <c r="J204" s="34" t="s">
+        <v>948</v>
+      </c>
+      <c r="K204" s="34" t="s">
         <v>949</v>
-      </c>
-      <c r="J204" s="34" t="s">
-        <v>949</v>
-      </c>
-      <c r="K204" s="34" t="s">
-        <v>950</v>
       </c>
       <c r="L204" s="34">
         <v>5</v>
@@ -24730,10 +24724,10 @@
         <v>31</v>
       </c>
       <c r="C205" s="30" t="s">
+        <v>946</v>
+      </c>
+      <c r="D205" s="30" t="s">
         <v>947</v>
-      </c>
-      <c r="D205" s="30" t="s">
-        <v>948</v>
       </c>
       <c r="E205" s="10" t="s">
         <v>99</v>
@@ -24748,13 +24742,13 @@
         <v>100</v>
       </c>
       <c r="I205" s="34" t="s">
+        <v>950</v>
+      </c>
+      <c r="J205" s="34" t="s">
+        <v>950</v>
+      </c>
+      <c r="K205" s="34" t="s">
         <v>951</v>
-      </c>
-      <c r="J205" s="34" t="s">
-        <v>951</v>
-      </c>
-      <c r="K205" s="34" t="s">
-        <v>952</v>
       </c>
       <c r="L205" s="34">
         <v>7</v>
@@ -24812,10 +24806,10 @@
         <v>31</v>
       </c>
       <c r="C206" s="30" t="s">
+        <v>946</v>
+      </c>
+      <c r="D206" s="30" t="s">
         <v>947</v>
-      </c>
-      <c r="D206" s="30" t="s">
-        <v>948</v>
       </c>
       <c r="E206" s="10" t="s">
         <v>99</v>
@@ -24830,13 +24824,13 @@
         <v>100</v>
       </c>
       <c r="I206" s="34" t="s">
+        <v>952</v>
+      </c>
+      <c r="J206" s="34" t="s">
+        <v>952</v>
+      </c>
+      <c r="K206" s="34" t="s">
         <v>953</v>
-      </c>
-      <c r="J206" s="34" t="s">
-        <v>953</v>
-      </c>
-      <c r="K206" s="34" t="s">
-        <v>954</v>
       </c>
       <c r="L206" s="34">
         <v>7</v>
@@ -24892,7 +24886,7 @@
       <formula1>"python,javascript,typescript,java,c&amp;cpp,"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G$1:G$1048576">
-      <formula1>"数据结构和算法,文件处理,数学问题和科学计算,文本处理,网络编程,前端,人工智能算法,安全,数据可视化图形应用,日期和时间处理,数据库,"</formula1>
+      <formula1>"Data Structures and Algorithms,File Handling,Mathematical Problems and Scientific Computing,Text Processing,Network Programming,Frontend,人工智能算法,Security,Data Visualization and Graphic Applications,Date and Time Processing,数据库,"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H$1:H$1048576">
       <formula1>"num,string,list,dict,martix,dataType,text_file,special_file,none,directory,time,picture_file,"</formula1>
@@ -25058,13 +25052,13 @@
         <v>20</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>954</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>955</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="22" t="s">
         <v>956</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>957</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>35</v>
@@ -25076,13 +25070,13 @@
         <v>351</v>
       </c>
       <c r="I2" s="7" t="s">
+        <v>957</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>959</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>960</v>
       </c>
       <c r="L2" s="1">
         <v>5</v>
@@ -25128,7 +25122,7 @@
         <v>128</v>
       </c>
       <c r="AD2" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:29">
@@ -25139,13 +25133,13 @@
         <v>20</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>961</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>962</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="22" t="s">
         <v>963</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>964</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>202</v>
@@ -25157,13 +25151,13 @@
         <v>37</v>
       </c>
       <c r="I3" s="7" t="s">
+        <v>964</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>965</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>966</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>967</v>
       </c>
       <c r="L3" s="1">
         <v>5</v>
@@ -25217,13 +25211,13 @@
         <v>20</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>967</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>968</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>969</v>
-      </c>
       <c r="E4" s="22" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>202</v>
@@ -25235,13 +25229,13 @@
         <v>351</v>
       </c>
       <c r="I4" s="7" t="s">
+        <v>969</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>970</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>971</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>972</v>
       </c>
       <c r="L4" s="1">
         <v>5</v>
@@ -25295,10 +25289,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>972</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>973</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>974</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>34</v>
@@ -25307,19 +25301,19 @@
         <v>58</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>37</v>
       </c>
       <c r="I5" s="7" t="s">
+        <v>975</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="27" t="s">
         <v>977</v>
-      </c>
-      <c r="K5" s="27" t="s">
-        <v>978</v>
       </c>
       <c r="L5" s="1">
         <v>5</v>
@@ -25346,7 +25340,7 @@
         <v>41</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="U5" s="16" t="s">
         <v>44</v>
@@ -25376,10 +25370,10 @@
         <v>20</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>979</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>980</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>981</v>
       </c>
       <c r="E6" s="22" t="s">
         <v>49</v>
@@ -25394,13 +25388,13 @@
         <v>214</v>
       </c>
       <c r="I6" s="7" t="s">
+        <v>981</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>982</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>983</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>984</v>
       </c>
       <c r="L6" s="1">
         <v>5</v>
@@ -25451,10 +25445,10 @@
         <v>20</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E7" s="22" t="s">
         <v>49</v>
@@ -25469,13 +25463,13 @@
         <v>214</v>
       </c>
       <c r="I7" s="7" t="s">
+        <v>985</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>986</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>987</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>988</v>
       </c>
       <c r="L7" s="1">
         <v>5</v>
@@ -25529,10 +25523,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E8" s="22" t="s">
         <v>49</v>
@@ -25544,16 +25538,16 @@
         <v>80</v>
       </c>
       <c r="H8" s="6" t="s">
+        <v>989</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>990</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="J8" s="1" t="s">
         <v>991</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>992</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>993</v>
       </c>
       <c r="L8" s="1">
         <v>5</v>
@@ -25607,10 +25601,10 @@
         <v>20</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>993</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>994</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>995</v>
       </c>
       <c r="E9" s="22" t="s">
         <v>34</v>
@@ -25625,13 +25619,13 @@
         <v>37</v>
       </c>
       <c r="I9" s="7" t="s">
+        <v>995</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>996</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="1" t="s">
         <v>997</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>998</v>
       </c>
       <c r="L9" s="1">
         <v>5</v>
@@ -25685,10 +25679,10 @@
         <v>20</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>998</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>999</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>1000</v>
       </c>
       <c r="E10" s="22" t="s">
         <v>34</v>
@@ -25703,13 +25697,13 @@
         <v>37</v>
       </c>
       <c r="I10" s="7" t="s">
+        <v>1000</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>1001</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>1002</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>1003</v>
       </c>
       <c r="L10" s="1">
         <v>5</v>
@@ -25763,10 +25757,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="9" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>1004</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>1005</v>
       </c>
       <c r="E11" s="22" t="s">
         <v>49</v>
@@ -25781,13 +25775,13 @@
         <v>73</v>
       </c>
       <c r="I11" s="7" t="s">
+        <v>1005</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>1006</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>1007</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>1008</v>
       </c>
       <c r="L11" s="1">
         <v>5</v>
@@ -25841,10 +25835,10 @@
         <v>20</v>
       </c>
       <c r="C12" s="9" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>1009</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>1010</v>
       </c>
       <c r="E12" s="22" t="s">
         <v>34</v>
@@ -25859,13 +25853,13 @@
         <v>351</v>
       </c>
       <c r="I12" s="7" t="s">
+        <v>1010</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>1011</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>1012</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>1013</v>
       </c>
       <c r="L12" s="1">
         <v>5</v>
@@ -25919,10 +25913,10 @@
         <v>20</v>
       </c>
       <c r="C13" s="9" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>1014</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>1015</v>
       </c>
       <c r="E13" s="22" t="s">
         <v>34</v>
@@ -25937,13 +25931,13 @@
         <v>351</v>
       </c>
       <c r="I13" s="7" t="s">
+        <v>1015</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>1016</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>1017</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>1018</v>
       </c>
       <c r="L13" s="1">
         <v>5</v>
@@ -25997,10 +25991,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="9" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>1019</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>1020</v>
       </c>
       <c r="E14" s="22" t="s">
         <v>34</v>
@@ -26015,13 +26009,13 @@
         <v>37</v>
       </c>
       <c r="I14" s="7" t="s">
+        <v>1020</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>1022</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>1023</v>
       </c>
       <c r="L14" s="1">
         <v>5</v>
@@ -26075,10 +26069,10 @@
         <v>20</v>
       </c>
       <c r="C15" s="9" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>1019</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>1020</v>
       </c>
       <c r="E15" s="22" t="s">
         <v>34</v>
@@ -26093,13 +26087,13 @@
         <v>37</v>
       </c>
       <c r="I15" s="7" t="s">
+        <v>1023</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>1024</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>1025</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>1026</v>
       </c>
       <c r="L15" s="1">
         <v>5</v>
@@ -26138,7 +26132,7 @@
       </c>
       <c r="Z15" s="16"/>
       <c r="AA15" s="15" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AB15" s="15"/>
       <c r="AC15" t="s">
@@ -26153,10 +26147,10 @@
         <v>20</v>
       </c>
       <c r="C16" s="9" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>1028</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>1029</v>
       </c>
       <c r="E16" s="22" t="s">
         <v>157</v>
@@ -26171,13 +26165,13 @@
         <v>37</v>
       </c>
       <c r="I16" s="7" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>1030</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>1031</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>1032</v>
       </c>
       <c r="L16" s="1">
         <v>5</v>
@@ -26231,10 +26225,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="9" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>1033</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>1034</v>
       </c>
       <c r="E17" s="22" t="s">
         <v>34</v>
@@ -26249,13 +26243,13 @@
         <v>73</v>
       </c>
       <c r="I17" s="7" t="s">
+        <v>1034</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>1035</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>1036</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>1037</v>
       </c>
       <c r="L17" s="1">
         <v>5</v>
@@ -26309,10 +26303,10 @@
         <v>20</v>
       </c>
       <c r="C18" s="9" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>1038</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>1039</v>
       </c>
       <c r="E18" s="22" t="s">
         <v>34</v>
@@ -26327,13 +26321,13 @@
         <v>449</v>
       </c>
       <c r="I18" s="7" t="s">
+        <v>1039</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>1040</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>1041</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>1042</v>
       </c>
       <c r="L18" s="1">
         <v>5</v>
@@ -26387,10 +26381,10 @@
         <v>20</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="E19" s="22" t="s">
         <v>49</v>
@@ -26405,13 +26399,13 @@
         <v>239</v>
       </c>
       <c r="I19" s="7" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="K19" s="1" t="s">
         <v>1045</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>1046</v>
       </c>
       <c r="L19" s="1">
         <v>5</v>
@@ -26450,7 +26444,7 @@
       </c>
       <c r="Z19" s="16"/>
       <c r="AA19" s="15" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AB19" s="15"/>
       <c r="AC19" t="s">
@@ -26465,10 +26459,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="E20" s="22" t="s">
         <v>49</v>
@@ -26483,13 +26477,13 @@
         <v>214</v>
       </c>
       <c r="I20" s="7" t="s">
+        <v>1046</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>1048</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>1049</v>
       </c>
       <c r="L20" s="1">
         <v>5</v>
@@ -26543,10 +26537,10 @@
         <v>20</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="E21" s="22" t="s">
         <v>34</v>
@@ -26561,13 +26555,13 @@
         <v>37</v>
       </c>
       <c r="I21" s="7" t="s">
+        <v>1050</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>1051</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="K21" s="1" t="s">
         <v>1052</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>1053</v>
       </c>
       <c r="L21" s="1">
         <v>5</v>
@@ -26606,7 +26600,7 @@
       </c>
       <c r="Z21" s="16"/>
       <c r="AA21" s="16" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AB21" s="16"/>
       <c r="AC21" t="s">
@@ -26621,10 +26615,10 @@
         <v>20</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="E22" s="22" t="s">
         <v>34</v>
@@ -26633,19 +26627,19 @@
         <v>58</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>37</v>
       </c>
       <c r="I22" s="7" t="s">
+        <v>1053</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>1054</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="K22" s="1" t="s">
         <v>1055</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>1056</v>
       </c>
       <c r="L22" s="1">
         <v>5</v>
@@ -26699,10 +26693,10 @@
         <v>20</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="E23" s="22" t="s">
         <v>34</v>
@@ -26711,19 +26705,19 @@
         <v>35</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>37</v>
       </c>
       <c r="I23" s="7" t="s">
+        <v>1056</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="K23" s="1" t="s">
         <v>1058</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>1059</v>
       </c>
       <c r="L23" s="1">
         <v>4</v>
@@ -26750,7 +26744,7 @@
         <v>41</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="U23" s="16" t="s">
         <v>161</v>
@@ -26765,7 +26759,7 @@
       </c>
       <c r="Z23" s="16"/>
       <c r="AA23" s="16" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AB23" s="16"/>
       <c r="AC23" t="s">
@@ -26780,10 +26774,10 @@
         <v>20</v>
       </c>
       <c r="C24" s="9" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>1060</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>1061</v>
       </c>
       <c r="E24" s="22" t="s">
         <v>34</v>
@@ -26795,16 +26789,16 @@
         <v>213</v>
       </c>
       <c r="H24" s="6" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I24" s="7" t="s">
         <v>1062</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="J24" s="1" t="s">
         <v>1063</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="K24" s="12" t="s">
         <v>1064</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>1065</v>
       </c>
       <c r="L24" s="1">
         <v>5</v>
@@ -26843,7 +26837,7 @@
       </c>
       <c r="Z24" s="16"/>
       <c r="AA24" s="16" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AB24" s="16"/>
       <c r="AC24" t="s">
@@ -26858,10 +26852,10 @@
         <v>20</v>
       </c>
       <c r="C25" s="9" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>1066</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>1067</v>
       </c>
       <c r="E25" s="22" t="s">
         <v>34</v>
@@ -26873,16 +26867,16 @@
         <v>80</v>
       </c>
       <c r="H25" s="6" t="s">
+        <v>1067</v>
+      </c>
+      <c r="I25" s="7" t="s">
         <v>1068</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="J25" s="1" t="s">
         <v>1069</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="K25" s="1" t="s">
         <v>1070</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>1071</v>
       </c>
       <c r="L25" s="1">
         <v>5</v>
@@ -26921,7 +26915,7 @@
       </c>
       <c r="Z25" s="16"/>
       <c r="AA25" s="15" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AB25" s="15"/>
       <c r="AC25" t="s">
@@ -26936,10 +26930,10 @@
         <v>20</v>
       </c>
       <c r="C26" s="9" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>1072</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>1073</v>
       </c>
       <c r="E26" s="22" t="s">
         <v>34</v>
@@ -26954,13 +26948,13 @@
         <v>73</v>
       </c>
       <c r="I26" s="7" t="s">
+        <v>1073</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>1074</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="K26" s="1" t="s">
         <v>1075</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>1076</v>
       </c>
       <c r="L26" s="1">
         <v>5</v>
@@ -27014,10 +27008,10 @@
         <v>20</v>
       </c>
       <c r="C27" s="9" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>1077</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>1078</v>
       </c>
       <c r="E27" s="22" t="s">
         <v>34</v>
@@ -27029,16 +27023,16 @@
         <v>106</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I27" s="7" t="s">
+        <v>1078</v>
+      </c>
+      <c r="J27" s="1" t="s">
         <v>1079</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="K27" s="1" t="s">
         <v>1080</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>1081</v>
       </c>
       <c r="L27" s="1">
         <v>5</v>
@@ -27092,10 +27086,10 @@
         <v>20</v>
       </c>
       <c r="C28" s="9" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>1077</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>1078</v>
       </c>
       <c r="E28" s="22" t="s">
         <v>34</v>
@@ -27110,13 +27104,13 @@
         <v>100</v>
       </c>
       <c r="I28" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="K28" s="1" t="s">
         <v>1082</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>1082</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>1083</v>
       </c>
       <c r="L28" s="1">
         <v>5</v>
@@ -27170,10 +27164,10 @@
         <v>20</v>
       </c>
       <c r="C29" s="9" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>1084</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>1085</v>
       </c>
       <c r="E29" s="22" t="s">
         <v>34</v>
@@ -27188,13 +27182,13 @@
         <v>100</v>
       </c>
       <c r="I29" s="7" t="s">
+        <v>1085</v>
+      </c>
+      <c r="J29" s="1" t="s">
         <v>1086</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="K29" s="1" t="s">
         <v>1087</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>1088</v>
       </c>
       <c r="L29" s="1">
         <v>5</v>
@@ -27221,7 +27215,7 @@
         <v>41</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="U29" s="16" t="s">
         <v>161</v>
@@ -27236,7 +27230,7 @@
       </c>
       <c r="Z29" s="16"/>
       <c r="AA29" s="16" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AB29" s="16"/>
       <c r="AC29" t="s">
@@ -27251,10 +27245,10 @@
         <v>20</v>
       </c>
       <c r="C30" s="9" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>1089</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>1090</v>
       </c>
       <c r="E30" s="22" t="s">
         <v>34</v>
@@ -27263,19 +27257,19 @@
         <v>58</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>37</v>
       </c>
       <c r="I30" s="7" t="s">
+        <v>1090</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>1091</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="K30" s="1" t="s">
         <v>1092</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>1093</v>
       </c>
       <c r="L30" s="1">
         <v>5</v>
@@ -27314,7 +27308,7 @@
       </c>
       <c r="Z30" s="16"/>
       <c r="AA30" s="16" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AB30" s="16"/>
       <c r="AC30" t="s">
@@ -27329,10 +27323,10 @@
         <v>20</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E31" s="22" t="s">
         <v>34</v>
@@ -27347,13 +27341,13 @@
         <v>73</v>
       </c>
       <c r="I31" s="7" t="s">
+        <v>1094</v>
+      </c>
+      <c r="J31" s="1" t="s">
         <v>1095</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="K31" s="1" t="s">
         <v>1096</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>1097</v>
       </c>
       <c r="L31" s="1">
         <v>5</v>
@@ -27407,10 +27401,10 @@
         <v>20</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E32" s="22" t="s">
         <v>34</v>
@@ -27425,13 +27419,13 @@
         <v>67</v>
       </c>
       <c r="I32" s="7" t="s">
+        <v>1097</v>
+      </c>
+      <c r="J32" s="1" t="s">
         <v>1098</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="K32" s="1" t="s">
         <v>1099</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>1100</v>
       </c>
       <c r="L32" s="1">
         <v>5</v>
@@ -27485,10 +27479,10 @@
         <v>20</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E33" s="22" t="s">
         <v>34</v>
@@ -27503,13 +27497,13 @@
         <v>73</v>
       </c>
       <c r="I33" s="7" t="s">
+        <v>1100</v>
+      </c>
+      <c r="J33" s="1" t="s">
         <v>1101</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="K33" s="1" t="s">
         <v>1102</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>1103</v>
       </c>
       <c r="L33" s="1">
         <v>5</v>
@@ -27563,10 +27557,10 @@
         <v>20</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E34" s="22" t="s">
         <v>34</v>
@@ -27581,13 +27575,13 @@
         <v>73</v>
       </c>
       <c r="I34" s="7" t="s">
+        <v>1103</v>
+      </c>
+      <c r="J34" s="1" t="s">
         <v>1104</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="K34" s="1" t="s">
         <v>1105</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>1106</v>
       </c>
       <c r="L34" s="1">
         <v>5</v>
@@ -27641,10 +27635,10 @@
         <v>20</v>
       </c>
       <c r="C35" s="9" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>1107</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>1108</v>
       </c>
       <c r="E35" s="22" t="s">
         <v>34</v>
@@ -27653,19 +27647,19 @@
         <v>58</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>37</v>
       </c>
       <c r="I35" s="7" t="s">
+        <v>1108</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>1109</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="K35" s="1" t="s">
         <v>1110</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>1111</v>
       </c>
       <c r="L35" s="1">
         <v>4</v>
@@ -27719,10 +27713,10 @@
         <v>20</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E36" s="22" t="s">
         <v>34</v>
@@ -27737,13 +27731,13 @@
         <v>214</v>
       </c>
       <c r="I36" s="7" t="s">
+        <v>1112</v>
+      </c>
+      <c r="J36" s="1" t="s">
         <v>1113</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="K36" s="1" t="s">
         <v>1114</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>1115</v>
       </c>
       <c r="L36" s="1">
         <v>5</v>
@@ -27782,7 +27776,7 @@
       </c>
       <c r="Z36" s="16"/>
       <c r="AA36" s="15" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AB36" s="15"/>
       <c r="AC36" t="s">
@@ -27797,13 +27791,13 @@
         <v>20</v>
       </c>
       <c r="C37" s="9" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>1116</v>
       </c>
-      <c r="D37" s="9" t="s">
-        <v>1117</v>
-      </c>
       <c r="E37" s="22" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>58</v>
@@ -27815,13 +27809,13 @@
         <v>37</v>
       </c>
       <c r="I37" s="7" t="s">
+        <v>1117</v>
+      </c>
+      <c r="J37" s="1" t="s">
         <v>1118</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="K37" s="1" t="s">
         <v>1119</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>1120</v>
       </c>
       <c r="L37" s="1">
         <v>4</v>
@@ -27875,10 +27869,10 @@
         <v>20</v>
       </c>
       <c r="C38" s="9" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D38" s="9" t="s">
         <v>1121</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>1122</v>
       </c>
       <c r="E38" s="22" t="s">
         <v>34</v>
@@ -27893,13 +27887,13 @@
         <v>214</v>
       </c>
       <c r="I38" s="7" t="s">
+        <v>1122</v>
+      </c>
+      <c r="J38" s="1" t="s">
         <v>1123</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="K38" s="1" t="s">
         <v>1124</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>1125</v>
       </c>
       <c r="L38" s="1">
         <v>5</v>
@@ -27953,31 +27947,31 @@
         <v>20</v>
       </c>
       <c r="C39" s="9" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D39" s="9" t="s">
         <v>1126</v>
       </c>
-      <c r="D39" s="9" t="s">
-        <v>1127</v>
-      </c>
       <c r="E39" s="22" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>35</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>37</v>
       </c>
       <c r="I39" s="7" t="s">
+        <v>1127</v>
+      </c>
+      <c r="J39" s="1" t="s">
         <v>1128</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="K39" s="1" t="s">
         <v>1129</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>1130</v>
       </c>
       <c r="L39" s="1">
         <v>5</v>
@@ -28004,7 +27998,7 @@
         <v>41</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="U39" s="16" t="s">
         <v>161</v>
@@ -28019,7 +28013,7 @@
       </c>
       <c r="Z39" s="16"/>
       <c r="AA39" s="16" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AB39" s="16"/>
       <c r="AC39" t="s">
@@ -28034,13 +28028,13 @@
         <v>20</v>
       </c>
       <c r="C40" s="9" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D40" s="9" t="s">
         <v>1126</v>
       </c>
-      <c r="D40" s="9" t="s">
-        <v>1127</v>
-      </c>
       <c r="E40" s="22" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>123</v>
@@ -28052,13 +28046,13 @@
         <v>37</v>
       </c>
       <c r="I40" s="7" t="s">
+        <v>1130</v>
+      </c>
+      <c r="J40" s="1" t="s">
         <v>1131</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="K40" s="1" t="s">
         <v>1132</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>1133</v>
       </c>
       <c r="L40" s="1">
         <v>5</v>
@@ -28085,7 +28079,7 @@
         <v>41</v>
       </c>
       <c r="T40" s="1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="U40" s="16" t="s">
         <v>161</v>
@@ -28100,7 +28094,7 @@
       </c>
       <c r="Z40" s="16"/>
       <c r="AA40" s="16" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AB40" s="16"/>
       <c r="AC40" t="s">
@@ -28115,10 +28109,10 @@
         <v>20</v>
       </c>
       <c r="C41" s="9" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D41" s="9" t="s">
         <v>1135</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>1136</v>
       </c>
       <c r="E41" s="22" t="s">
         <v>34</v>
@@ -28133,13 +28127,13 @@
         <v>37</v>
       </c>
       <c r="I41" s="7" t="s">
+        <v>1136</v>
+      </c>
+      <c r="J41" s="1" t="s">
         <v>1137</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="K41" s="1" t="s">
         <v>1138</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>1139</v>
       </c>
       <c r="L41" s="1">
         <v>5</v>
@@ -28193,10 +28187,10 @@
         <v>20</v>
       </c>
       <c r="C42" s="9" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D42" s="9" t="s">
         <v>1135</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>1136</v>
       </c>
       <c r="E42" s="22" t="s">
         <v>34</v>
@@ -28211,13 +28205,13 @@
         <v>37</v>
       </c>
       <c r="I42" s="7" t="s">
+        <v>1139</v>
+      </c>
+      <c r="J42" s="1" t="s">
         <v>1140</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="K42" s="1" t="s">
         <v>1141</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>1142</v>
       </c>
       <c r="L42" s="1">
         <v>5</v>
@@ -28271,10 +28265,10 @@
         <v>20</v>
       </c>
       <c r="C43" s="9" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D43" s="9" t="s">
         <v>1135</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>1136</v>
       </c>
       <c r="E43" s="22" t="s">
         <v>34</v>
@@ -28289,13 +28283,13 @@
         <v>100</v>
       </c>
       <c r="I43" s="7" t="s">
+        <v>1142</v>
+      </c>
+      <c r="J43" s="1" t="s">
         <v>1143</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="K43" s="12" t="s">
         <v>1144</v>
-      </c>
-      <c r="K43" s="12" t="s">
-        <v>1145</v>
       </c>
       <c r="L43" s="1">
         <v>5</v>
@@ -28349,13 +28343,13 @@
         <v>20</v>
       </c>
       <c r="C44" s="9" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D44" s="9" t="s">
         <v>1146</v>
       </c>
-      <c r="D44" s="9" t="s">
-        <v>1147</v>
-      </c>
       <c r="E44" s="22" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>202</v>
@@ -28367,13 +28361,13 @@
         <v>239</v>
       </c>
       <c r="I44" s="7" t="s">
+        <v>1147</v>
+      </c>
+      <c r="J44" s="1" t="s">
         <v>1148</v>
       </c>
-      <c r="J44" s="1" t="s">
+      <c r="K44" s="1" t="s">
         <v>1149</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>1150</v>
       </c>
       <c r="L44" s="1">
         <v>5</v>
@@ -28412,7 +28406,7 @@
       </c>
       <c r="Z44" s="16"/>
       <c r="AA44" s="16" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AB44" s="16"/>
       <c r="AC44" t="s">
@@ -28427,10 +28421,10 @@
         <v>20</v>
       </c>
       <c r="C45" s="9" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D45" s="9" t="s">
         <v>1151</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>1152</v>
       </c>
       <c r="E45" s="22" t="s">
         <v>34</v>
@@ -28445,13 +28439,13 @@
         <v>37</v>
       </c>
       <c r="I45" s="7" t="s">
+        <v>1152</v>
+      </c>
+      <c r="J45" s="1" t="s">
         <v>1153</v>
       </c>
-      <c r="J45" s="1" t="s">
+      <c r="K45" s="1" t="s">
         <v>1154</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>1155</v>
       </c>
       <c r="L45" s="1">
         <v>5</v>
@@ -28505,10 +28499,10 @@
         <v>20</v>
       </c>
       <c r="C46" s="9" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D46" s="9" t="s">
         <v>1156</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>1157</v>
       </c>
       <c r="E46" s="22" t="s">
         <v>34</v>
@@ -28523,13 +28517,13 @@
         <v>37</v>
       </c>
       <c r="I46" s="7" t="s">
+        <v>1157</v>
+      </c>
+      <c r="J46" s="1" t="s">
         <v>1158</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="K46" s="1" t="s">
         <v>1159</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>1160</v>
       </c>
       <c r="L46" s="1">
         <v>5</v>
@@ -28567,7 +28561,7 @@
         <v>44</v>
       </c>
       <c r="Z46" s="19" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="AA46" s="15" t="s">
         <v>44</v>
@@ -28585,10 +28579,10 @@
         <v>20</v>
       </c>
       <c r="C47" s="9" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D47" s="9" t="s">
         <v>1162</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>1163</v>
       </c>
       <c r="E47" s="22" t="s">
         <v>49</v>
@@ -28603,13 +28597,13 @@
         <v>100</v>
       </c>
       <c r="I47" s="7" t="s">
+        <v>1163</v>
+      </c>
+      <c r="J47" s="7" t="s">
         <v>1164</v>
       </c>
-      <c r="J47" s="7" t="s">
+      <c r="K47" s="1" t="s">
         <v>1165</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>1166</v>
       </c>
       <c r="L47" s="1">
         <v>5</v>
@@ -28664,10 +28658,10 @@
         <v>20</v>
       </c>
       <c r="C48" s="25" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D48" s="25" t="s">
         <v>1167</v>
-      </c>
-      <c r="D48" s="25" t="s">
-        <v>1168</v>
       </c>
       <c r="E48" s="26" t="s">
         <v>49</v>
@@ -28682,13 +28676,13 @@
         <v>239</v>
       </c>
       <c r="I48" s="23" t="s">
+        <v>1168</v>
+      </c>
+      <c r="J48" s="23" t="s">
         <v>1169</v>
       </c>
-      <c r="J48" s="23" t="s">
+      <c r="K48" s="28" t="s">
         <v>1170</v>
-      </c>
-      <c r="K48" s="28" t="s">
-        <v>1171</v>
       </c>
       <c r="L48" s="28">
         <v>5</v>
@@ -28727,7 +28721,7 @@
       </c>
       <c r="Z48" s="16"/>
       <c r="AA48" s="16" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AB48" s="16"/>
       <c r="AC48" t="s">
@@ -28742,10 +28736,10 @@
         <v>20</v>
       </c>
       <c r="C49" s="9" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D49" s="9" t="s">
         <v>1172</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>1173</v>
       </c>
       <c r="E49" s="22" t="s">
         <v>34</v>
@@ -28760,13 +28754,13 @@
         <v>100</v>
       </c>
       <c r="I49" s="7" t="s">
+        <v>1173</v>
+      </c>
+      <c r="J49" s="7" t="s">
         <v>1174</v>
       </c>
-      <c r="J49" s="7" t="s">
+      <c r="K49" s="1" t="s">
         <v>1175</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>1176</v>
       </c>
       <c r="L49" s="1">
         <v>5</v>
@@ -28820,10 +28814,10 @@
         <v>20</v>
       </c>
       <c r="C50" s="9" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D50" s="9" t="s">
         <v>1172</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>1173</v>
       </c>
       <c r="E50" s="22" t="s">
         <v>49</v>
@@ -28838,13 +28832,13 @@
         <v>351</v>
       </c>
       <c r="I50" s="7" t="s">
+        <v>1176</v>
+      </c>
+      <c r="J50" s="7" t="s">
         <v>1177</v>
       </c>
-      <c r="J50" s="7" t="s">
+      <c r="K50" s="1" t="s">
         <v>1178</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>1179</v>
       </c>
       <c r="L50" s="1">
         <v>5</v>
@@ -28898,31 +28892,31 @@
         <v>20</v>
       </c>
       <c r="C51" s="9" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D51" s="9" t="s">
         <v>1180</v>
       </c>
-      <c r="D51" s="9" t="s">
-        <v>1181</v>
-      </c>
       <c r="E51" s="22" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>35</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>36</v>
+        <v>974</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>37</v>
       </c>
       <c r="I51" s="7" t="s">
+        <v>1181</v>
+      </c>
+      <c r="J51" s="7" t="s">
         <v>1182</v>
       </c>
-      <c r="J51" s="7" t="s">
+      <c r="K51" s="1" t="s">
         <v>1183</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>1184</v>
       </c>
       <c r="L51" s="1">
         <v>5</v>
@@ -28949,7 +28943,7 @@
         <v>41</v>
       </c>
       <c r="T51" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="U51" s="16" t="s">
         <v>161</v>
@@ -28964,14 +28958,14 @@
       </c>
       <c r="Z51" s="16"/>
       <c r="AA51" s="16" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AB51" s="16"/>
       <c r="AC51" t="s">
         <v>42</v>
       </c>
       <c r="AD51" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:29">
@@ -28982,10 +28976,10 @@
         <v>20</v>
       </c>
       <c r="C52" s="9" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D52" s="9" t="s">
         <v>1186</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>1187</v>
       </c>
       <c r="E52" s="22" t="s">
         <v>49</v>
@@ -29000,13 +28994,13 @@
         <v>214</v>
       </c>
       <c r="I52" s="7" t="s">
+        <v>1187</v>
+      </c>
+      <c r="J52" s="7" t="s">
         <v>1188</v>
       </c>
-      <c r="J52" s="7" t="s">
+      <c r="K52" s="1" t="s">
         <v>1189</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>1190</v>
       </c>
       <c r="L52" s="1">
         <v>5</v>
@@ -29045,7 +29039,7 @@
       </c>
       <c r="Z52" s="16"/>
       <c r="AA52" s="15" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AB52" s="15"/>
       <c r="AC52" t="s">
@@ -29060,10 +29054,10 @@
         <v>20</v>
       </c>
       <c r="C53" s="9" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D53" s="9" t="s">
         <v>1191</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>1192</v>
       </c>
       <c r="E53" s="22" t="s">
         <v>49</v>
@@ -29075,16 +29069,16 @@
         <v>51</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="I53" s="7" t="s">
+        <v>1192</v>
+      </c>
+      <c r="J53" s="7" t="s">
         <v>1193</v>
       </c>
-      <c r="J53" s="7" t="s">
+      <c r="K53" s="1" t="s">
         <v>1194</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>1195</v>
       </c>
       <c r="L53" s="1">
         <v>5</v>
@@ -29123,7 +29117,7 @@
       </c>
       <c r="Z53" s="16"/>
       <c r="AA53" s="15" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AB53" s="15"/>
       <c r="AC53" t="s">
@@ -29138,10 +29132,10 @@
         <v>20</v>
       </c>
       <c r="C54" s="9" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D54" s="9" t="s">
         <v>1196</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>1197</v>
       </c>
       <c r="E54" s="22" t="s">
         <v>196</v>
@@ -29156,13 +29150,13 @@
         <v>214</v>
       </c>
       <c r="I54" s="7" t="s">
+        <v>1197</v>
+      </c>
+      <c r="J54" s="7" t="s">
         <v>1198</v>
       </c>
-      <c r="J54" s="7" t="s">
+      <c r="K54" s="1" t="s">
         <v>1199</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>1200</v>
       </c>
       <c r="L54" s="1">
         <v>5</v>
@@ -29201,7 +29195,7 @@
       </c>
       <c r="Z54" s="16"/>
       <c r="AA54" s="15" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AB54" s="15"/>
       <c r="AC54" t="s">
@@ -29216,10 +29210,10 @@
         <v>20</v>
       </c>
       <c r="C55" s="25" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D55" s="25" t="s">
         <v>1201</v>
-      </c>
-      <c r="D55" s="25" t="s">
-        <v>1202</v>
       </c>
       <c r="E55" s="26"/>
       <c r="F55" s="6" t="s">
@@ -29232,13 +29226,13 @@
         <v>37</v>
       </c>
       <c r="I55" s="23" t="s">
+        <v>1202</v>
+      </c>
+      <c r="J55" s="23" t="s">
         <v>1203</v>
       </c>
-      <c r="J55" s="23" t="s">
+      <c r="K55" s="28" t="s">
         <v>1204</v>
-      </c>
-      <c r="K55" s="28" t="s">
-        <v>1205</v>
       </c>
       <c r="L55" s="28">
         <v>5</v>
@@ -29265,7 +29259,7 @@
         <v>41</v>
       </c>
       <c r="T55" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="U55" s="16" t="s">
         <v>44</v>
@@ -29275,21 +29269,21 @@
         <v>44</v>
       </c>
       <c r="X55" s="19" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="Y55" s="16" t="s">
         <v>161</v>
       </c>
       <c r="Z55" s="16"/>
       <c r="AA55" s="16" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AB55" s="16"/>
       <c r="AC55" t="s">
         <v>42</v>
       </c>
       <c r="AF55" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:29">
@@ -29300,13 +29294,13 @@
         <v>20</v>
       </c>
       <c r="C56" s="9" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D56" s="9" t="s">
         <v>1207</v>
       </c>
-      <c r="D56" s="9" t="s">
-        <v>1208</v>
-      </c>
       <c r="E56" s="22" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>419</v>
@@ -29318,13 +29312,13 @@
         <v>37</v>
       </c>
       <c r="I56" s="7" t="s">
+        <v>1208</v>
+      </c>
+      <c r="J56" s="7" t="s">
         <v>1209</v>
       </c>
-      <c r="J56" s="7" t="s">
+      <c r="K56" s="1" t="s">
         <v>1210</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>1211</v>
       </c>
       <c r="L56" s="1">
         <v>5</v>
@@ -29378,10 +29372,10 @@
         <v>20</v>
       </c>
       <c r="C57" s="9" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D57" s="9" t="s">
         <v>1212</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>1213</v>
       </c>
       <c r="E57" s="22" t="s">
         <v>196</v>
@@ -29396,13 +29390,13 @@
         <v>37</v>
       </c>
       <c r="I57" s="7" t="s">
+        <v>1213</v>
+      </c>
+      <c r="J57" s="7" t="s">
         <v>1214</v>
       </c>
-      <c r="J57" s="7" t="s">
+      <c r="K57" s="1" t="s">
         <v>1215</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>1216</v>
       </c>
       <c r="L57" s="1">
         <v>7</v>
@@ -29456,10 +29450,10 @@
         <v>20</v>
       </c>
       <c r="C58" s="9" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D58" s="9" t="s">
         <v>1212</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>1213</v>
       </c>
       <c r="E58" s="22" t="s">
         <v>196</v>
@@ -29474,13 +29468,13 @@
         <v>37</v>
       </c>
       <c r="I58" s="7" t="s">
+        <v>1216</v>
+      </c>
+      <c r="J58" s="7" t="s">
         <v>1217</v>
       </c>
-      <c r="J58" s="7" t="s">
+      <c r="K58" s="1" t="s">
         <v>1218</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>1219</v>
       </c>
       <c r="L58" s="1">
         <v>5</v>
@@ -29534,10 +29528,10 @@
         <v>20</v>
       </c>
       <c r="C59" s="9" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D59" s="9" t="s">
         <v>1212</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>1213</v>
       </c>
       <c r="E59" s="22" t="s">
         <v>196</v>
@@ -29552,13 +29546,13 @@
         <v>37</v>
       </c>
       <c r="I59" s="7" t="s">
+        <v>1219</v>
+      </c>
+      <c r="J59" s="7" t="s">
         <v>1220</v>
       </c>
-      <c r="J59" s="7" t="s">
+      <c r="K59" s="1" t="s">
         <v>1221</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>1222</v>
       </c>
       <c r="L59" s="1">
         <v>5</v>
@@ -29612,10 +29606,10 @@
         <v>20</v>
       </c>
       <c r="C60" s="9" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D60" s="9" t="s">
         <v>1212</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>1213</v>
       </c>
       <c r="E60" s="22" t="s">
         <v>196</v>
@@ -29630,13 +29624,13 @@
         <v>73</v>
       </c>
       <c r="I60" s="7" t="s">
+        <v>1222</v>
+      </c>
+      <c r="J60" s="7" t="s">
         <v>1223</v>
       </c>
-      <c r="J60" s="7" t="s">
+      <c r="K60" s="1" t="s">
         <v>1224</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>1225</v>
       </c>
       <c r="L60" s="1">
         <v>5</v>
@@ -29690,13 +29684,13 @@
         <v>20</v>
       </c>
       <c r="C61" s="9" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D61" s="9" t="s">
         <v>1226</v>
       </c>
-      <c r="D61" s="9" t="s">
-        <v>1227</v>
-      </c>
       <c r="E61" s="22" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>58</v>
@@ -29708,13 +29702,13 @@
         <v>37</v>
       </c>
       <c r="I61" s="7" t="s">
+        <v>1227</v>
+      </c>
+      <c r="J61" s="7" t="s">
         <v>1228</v>
       </c>
-      <c r="J61" s="7" t="s">
+      <c r="K61" s="7" t="s">
         <v>1229</v>
-      </c>
-      <c r="K61" s="7" t="s">
-        <v>1230</v>
       </c>
       <c r="L61" s="1">
         <v>5</v>
@@ -29768,13 +29762,13 @@
         <v>20</v>
       </c>
       <c r="C62" s="9" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D62" s="9" t="s">
         <v>1226</v>
       </c>
-      <c r="D62" s="9" t="s">
-        <v>1227</v>
-      </c>
       <c r="E62" s="22" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>58</v>
@@ -29786,13 +29780,13 @@
         <v>37</v>
       </c>
       <c r="I62" s="7" t="s">
+        <v>1230</v>
+      </c>
+      <c r="J62" s="7" t="s">
         <v>1231</v>
       </c>
-      <c r="J62" s="7" t="s">
+      <c r="K62" s="7" t="s">
         <v>1232</v>
-      </c>
-      <c r="K62" s="7" t="s">
-        <v>1233</v>
       </c>
       <c r="L62" s="1">
         <v>5</v>
@@ -29846,10 +29840,10 @@
         <v>20</v>
       </c>
       <c r="C63" s="9" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D63" s="9" t="s">
         <v>1234</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>1235</v>
       </c>
       <c r="E63" s="22" t="s">
         <v>34</v>
@@ -29864,13 +29858,13 @@
         <v>351</v>
       </c>
       <c r="I63" s="7" t="s">
+        <v>1235</v>
+      </c>
+      <c r="J63" s="7" t="s">
         <v>1236</v>
       </c>
-      <c r="J63" s="7" t="s">
+      <c r="K63" s="7" t="s">
         <v>1237</v>
-      </c>
-      <c r="K63" s="7" t="s">
-        <v>1238</v>
       </c>
       <c r="L63" s="1">
         <v>5</v>
@@ -29908,7 +29902,7 @@
         <v>44</v>
       </c>
       <c r="Z63" s="19" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="AA63" s="15" t="s">
         <v>44</v>
@@ -29926,10 +29920,10 @@
         <v>20</v>
       </c>
       <c r="C64" s="9" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D64" s="9" t="s">
         <v>1240</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>1241</v>
       </c>
       <c r="E64" s="22" t="s">
         <v>34</v>
@@ -29944,13 +29938,13 @@
         <v>351</v>
       </c>
       <c r="I64" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="K64" s="1" t="s">
         <v>1242</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>1242</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>1243</v>
       </c>
       <c r="L64" s="1">
         <v>4</v>
@@ -30004,10 +29998,10 @@
         <v>20</v>
       </c>
       <c r="C65" s="9" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D65" s="9" t="s">
         <v>1244</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>1245</v>
       </c>
       <c r="E65" s="22" t="s">
         <v>49</v>
@@ -30022,13 +30016,13 @@
         <v>239</v>
       </c>
       <c r="I65" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="K65" s="1" t="s">
         <v>1246</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>1246</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>1247</v>
       </c>
       <c r="L65" s="1">
         <v>6</v>
@@ -30067,7 +30061,7 @@
       </c>
       <c r="Z65" s="16"/>
       <c r="AA65" s="16" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AB65" s="16"/>
       <c r="AC65" t="s">
@@ -30082,10 +30076,10 @@
         <v>20</v>
       </c>
       <c r="C66" s="9" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D66" s="9" t="s">
         <v>1248</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>1249</v>
       </c>
       <c r="E66" s="22" t="s">
         <v>34</v>
@@ -30100,13 +30094,13 @@
         <v>37</v>
       </c>
       <c r="I66" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="K66" s="1" t="s">
         <v>1250</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>1250</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>1251</v>
       </c>
       <c r="L66" s="1">
         <v>6</v>
@@ -30160,10 +30154,10 @@
         <v>20</v>
       </c>
       <c r="C67" s="9" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D67" s="9" t="s">
         <v>1252</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>1253</v>
       </c>
       <c r="E67" s="22" t="s">
         <v>157</v>
@@ -30178,13 +30172,13 @@
         <v>274</v>
       </c>
       <c r="I67" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="J67" s="1" t="s">
         <v>1254</v>
       </c>
-      <c r="J67" s="1" t="s">
+      <c r="K67" s="1" t="s">
         <v>1255</v>
-      </c>
-      <c r="K67" s="1" t="s">
-        <v>1256</v>
       </c>
       <c r="L67" s="1">
         <v>4</v>
@@ -30238,10 +30232,10 @@
         <v>20</v>
       </c>
       <c r="C68" s="9" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D68" s="9" t="s">
         <v>1252</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>1253</v>
       </c>
       <c r="E68" s="22" t="s">
         <v>157</v>
@@ -30256,13 +30250,13 @@
         <v>239</v>
       </c>
       <c r="I68" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="J68" s="1" t="s">
         <v>1257</v>
       </c>
-      <c r="J68" s="1" t="s">
+      <c r="K68" s="1" t="s">
         <v>1258</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>1259</v>
       </c>
       <c r="L68" s="1">
         <v>6</v>
@@ -30316,10 +30310,10 @@
         <v>20</v>
       </c>
       <c r="C69" s="9" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D69" s="9" t="s">
         <v>1260</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>1261</v>
       </c>
       <c r="E69" s="22" t="s">
         <v>34</v>
@@ -30334,13 +30328,13 @@
         <v>100</v>
       </c>
       <c r="I69" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="K69" s="1" t="s">
         <v>1262</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>1262</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>1263</v>
       </c>
       <c r="L69" s="1">
         <v>6</v>
@@ -30394,10 +30388,10 @@
         <v>20</v>
       </c>
       <c r="C70" s="9" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D70" s="9" t="s">
         <v>1264</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>1265</v>
       </c>
       <c r="E70" s="22" t="s">
         <v>34</v>
@@ -30412,13 +30406,13 @@
         <v>37</v>
       </c>
       <c r="I70" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="K70" s="1" t="s">
         <v>1266</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>1266</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>1267</v>
       </c>
       <c r="L70" s="1">
         <v>6</v>
@@ -30472,10 +30466,10 @@
         <v>20</v>
       </c>
       <c r="C71" s="9" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D71" s="9" t="s">
         <v>1264</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>1265</v>
       </c>
       <c r="E71" s="22" t="s">
         <v>34</v>
@@ -30490,13 +30484,13 @@
         <v>37</v>
       </c>
       <c r="I71" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="K71" s="1" t="s">
         <v>1268</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>1268</v>
-      </c>
-      <c r="K71" s="1" t="s">
-        <v>1269</v>
       </c>
       <c r="L71" s="1">
         <v>8</v>
@@ -30550,10 +30544,10 @@
         <v>20</v>
       </c>
       <c r="C72" s="9" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D72" s="9" t="s">
         <v>1270</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>1271</v>
       </c>
       <c r="E72" s="22" t="s">
         <v>49</v>
@@ -30568,13 +30562,13 @@
         <v>73</v>
       </c>
       <c r="I72" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="K72" s="1" t="s">
         <v>1272</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>1272</v>
-      </c>
-      <c r="K72" s="1" t="s">
-        <v>1273</v>
       </c>
       <c r="L72" s="1">
         <v>4</v>
@@ -30628,10 +30622,10 @@
         <v>20</v>
       </c>
       <c r="C73" s="9" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D73" s="9" t="s">
         <v>1270</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>1271</v>
       </c>
       <c r="E73" s="22" t="s">
         <v>34</v>
@@ -30640,19 +30634,19 @@
         <v>58</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H73" s="6" t="s">
         <v>37</v>
       </c>
       <c r="I73" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="J73" s="1" t="s">
         <v>1274</v>
       </c>
-      <c r="J73" s="1" t="s">
+      <c r="K73" s="1" t="s">
         <v>1275</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>1276</v>
       </c>
       <c r="L73" s="1">
         <v>5</v>
@@ -30706,10 +30700,10 @@
         <v>20</v>
       </c>
       <c r="C74" s="9" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D74" s="9" t="s">
         <v>1270</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>1271</v>
       </c>
       <c r="E74" s="22" t="s">
         <v>34</v>
@@ -30724,13 +30718,13 @@
         <v>214</v>
       </c>
       <c r="I74" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="K74" s="1" t="s">
         <v>1277</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>1277</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>1278</v>
       </c>
       <c r="L74" s="1">
         <v>6</v>
@@ -30784,10 +30778,10 @@
         <v>20</v>
       </c>
       <c r="C75" s="9" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D75" s="9" t="s">
         <v>1270</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>1271</v>
       </c>
       <c r="E75" s="22" t="s">
         <v>34</v>
@@ -30802,13 +30796,13 @@
         <v>214</v>
       </c>
       <c r="I75" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="K75" s="1" t="s">
         <v>1279</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>1279</v>
-      </c>
-      <c r="K75" s="1" t="s">
-        <v>1280</v>
       </c>
       <c r="L75" s="1">
         <v>7</v>
@@ -30862,10 +30856,10 @@
         <v>20</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="E76" s="22" t="s">
         <v>34</v>
@@ -30880,13 +30874,13 @@
         <v>239</v>
       </c>
       <c r="I76" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="K76" s="1" t="s">
         <v>1282</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>1282</v>
-      </c>
-      <c r="K76" s="1" t="s">
-        <v>1283</v>
       </c>
       <c r="L76" s="1">
         <v>4</v>
@@ -30925,14 +30919,14 @@
       </c>
       <c r="Z76" s="16"/>
       <c r="AA76" s="15" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AB76" s="15"/>
       <c r="AC76" t="s">
         <v>42</v>
       </c>
       <c r="AE76" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="1:29">
@@ -30943,10 +30937,10 @@
         <v>20</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="E77" s="22" t="s">
         <v>49</v>
@@ -30961,13 +30955,13 @@
         <v>73</v>
       </c>
       <c r="I77" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="K77" s="1" t="s">
         <v>1286</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>1286</v>
-      </c>
-      <c r="K77" s="1" t="s">
-        <v>1287</v>
       </c>
       <c r="L77" s="1">
         <v>8</v>
@@ -31021,10 +31015,10 @@
         <v>20</v>
       </c>
       <c r="C78" s="9" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D78" s="12" t="s">
         <v>1288</v>
-      </c>
-      <c r="D78" s="12" t="s">
-        <v>1289</v>
       </c>
       <c r="E78" s="22" t="s">
         <v>34</v>
@@ -31039,13 +31033,13 @@
         <v>73</v>
       </c>
       <c r="I78" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="K78" s="1" t="s">
         <v>1290</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>1290</v>
-      </c>
-      <c r="K78" s="1" t="s">
-        <v>1291</v>
       </c>
       <c r="L78" s="1">
         <v>8</v>
@@ -31099,10 +31093,10 @@
         <v>20</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="E79" s="22" t="s">
         <v>34</v>
@@ -31117,13 +31111,13 @@
         <v>100</v>
       </c>
       <c r="I79" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="J79" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="J79" s="1" t="s">
+      <c r="K79" s="1" t="s">
         <v>1294</v>
-      </c>
-      <c r="K79" s="1" t="s">
-        <v>1295</v>
       </c>
       <c r="L79" s="1">
         <v>4</v>
@@ -31177,10 +31171,10 @@
         <v>20</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="E80" s="22" t="s">
         <v>34</v>
@@ -31195,13 +31189,13 @@
         <v>100</v>
       </c>
       <c r="I80" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="K80" s="1" t="s">
         <v>1297</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>1297</v>
-      </c>
-      <c r="K80" s="1" t="s">
-        <v>1298</v>
       </c>
       <c r="L80" s="1">
         <v>6</v>
@@ -31255,10 +31249,10 @@
         <v>20</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="E81" s="22" t="s">
         <v>34</v>
@@ -31273,13 +31267,13 @@
         <v>73</v>
       </c>
       <c r="I81" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="K81" s="1" t="s">
         <v>1300</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>1300</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>1301</v>
       </c>
       <c r="L81" s="1">
         <v>6</v>
@@ -31333,10 +31327,10 @@
         <v>20</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="E82" s="22" t="s">
         <v>34</v>
@@ -31351,13 +31345,13 @@
         <v>73</v>
       </c>
       <c r="I82" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="K82" s="1" t="s">
         <v>1303</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>1303</v>
-      </c>
-      <c r="K82" s="1" t="s">
-        <v>1304</v>
       </c>
       <c r="L82" s="1">
         <v>6</v>
@@ -31411,10 +31405,10 @@
         <v>20</v>
       </c>
       <c r="C83" s="9" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D83" s="9" t="s">
         <v>1305</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>1306</v>
       </c>
       <c r="E83" s="22" t="s">
         <v>34</v>
@@ -31429,13 +31423,13 @@
         <v>37</v>
       </c>
       <c r="I83" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="K83" s="1" t="s">
         <v>1307</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>1307</v>
-      </c>
-      <c r="K83" s="1" t="s">
-        <v>1308</v>
       </c>
       <c r="L83" s="1">
         <v>8</v>
@@ -31489,10 +31483,10 @@
         <v>20</v>
       </c>
       <c r="C84" s="9" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D84" s="9" t="s">
         <v>1305</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>1306</v>
       </c>
       <c r="E84" s="22" t="s">
         <v>34</v>
@@ -31507,13 +31501,13 @@
         <v>124</v>
       </c>
       <c r="I84" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="K84" s="1" t="s">
         <v>1309</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>1309</v>
-      </c>
-      <c r="K84" s="1" t="s">
-        <v>1310</v>
       </c>
       <c r="L84" s="1">
         <v>5</v>
@@ -31568,7 +31562,7 @@
       <formula1>"python,javascript,typescript,java,c&amp;cpp,"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G84">
-      <formula1>"数据结构和算法,文件处理,数学问题和科学计算,文本处理,网络编程,前端,人工智能算法,安全,数据可视化图形应用,日期和时间处理,数据库,"</formula1>
+      <formula1>"Data Structures and Algorithms,File Handling,Mathematical Problems and Scientific Computing,Text Processing,Network Programming,Frontend,人工智能算法,Security,Data Visualization and Graphic Applications,Date and Time Processing,数据库,"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H$1:H$1048576">
       <formula1>"num,string,list,dict,martix,dataType,text_file,special_file,none,directory,time,picture_file,func,"</formula1>
@@ -31717,10 +31711,10 @@
         <v>22</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>1311</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>1312</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>34</v>
@@ -31735,13 +31729,13 @@
         <v>351</v>
       </c>
       <c r="I2" s="7" t="s">
+        <v>1312</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>1313</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>1314</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>1315</v>
       </c>
       <c r="L2" s="1">
         <v>5</v>
@@ -31796,10 +31790,10 @@
         <v>22</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>1316</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>1317</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>49</v>
@@ -31811,16 +31805,16 @@
         <v>80</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="I3" s="7" t="s">
+        <v>1317</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>1318</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>1319</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>1320</v>
       </c>
       <c r="L3" s="1">
         <v>5</v>
@@ -31875,10 +31869,10 @@
         <v>22</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>1321</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>1322</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>196</v>
@@ -31893,13 +31887,13 @@
         <v>37</v>
       </c>
       <c r="I4" s="7" t="s">
+        <v>1322</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>1323</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>1323</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>1324</v>
       </c>
       <c r="L4" s="1">
         <v>5</v>
@@ -31954,10 +31948,10 @@
         <v>22</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>1325</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>1326</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>34</v>
@@ -31972,13 +31966,13 @@
         <v>37</v>
       </c>
       <c r="I5" s="7" t="s">
+        <v>1326</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>1327</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>1327</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>1328</v>
       </c>
       <c r="L5" s="1">
         <v>5</v>
@@ -32033,10 +32027,10 @@
         <v>22</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>1325</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>1326</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>34</v>
@@ -32051,13 +32045,13 @@
         <v>37</v>
       </c>
       <c r="I6" s="7" t="s">
+        <v>1328</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>1329</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>1329</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>1330</v>
       </c>
       <c r="L6" s="1">
         <v>5</v>
@@ -32112,10 +32106,10 @@
         <v>22</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>1325</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>1326</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>34</v>
@@ -32130,13 +32124,13 @@
         <v>100</v>
       </c>
       <c r="I7" s="7" t="s">
+        <v>1330</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>1331</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>1332</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>1333</v>
       </c>
       <c r="L7" s="1">
         <v>5</v>
@@ -32191,10 +32185,10 @@
         <v>22</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>1325</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>1326</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>34</v>
@@ -32209,13 +32203,13 @@
         <v>100</v>
       </c>
       <c r="I8" s="7" t="s">
+        <v>1333</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>1334</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>1335</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>1336</v>
       </c>
       <c r="L8" s="1">
         <v>5</v>
@@ -32270,10 +32264,10 @@
         <v>22</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>1337</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>1338</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>418</v>
@@ -32288,13 +32282,13 @@
         <v>239</v>
       </c>
       <c r="I9" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>1339</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>1340</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>1341</v>
       </c>
       <c r="L9" s="1">
         <v>5</v>
@@ -32349,10 +32343,10 @@
         <v>22</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>1337</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>1338</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>418</v>
@@ -32367,13 +32361,13 @@
         <v>37</v>
       </c>
       <c r="I10" s="7" t="s">
+        <v>1341</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>1342</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>1343</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>1344</v>
       </c>
       <c r="L10" s="1">
         <v>5</v>
@@ -32428,10 +32422,10 @@
         <v>22</v>
       </c>
       <c r="C11" s="9" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>1345</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>1346</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>34</v>
@@ -32446,13 +32440,13 @@
         <v>73</v>
       </c>
       <c r="I11" s="7" t="s">
+        <v>1346</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>1347</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>1348</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>1349</v>
       </c>
       <c r="L11" s="1">
         <v>5</v>
@@ -32507,10 +32501,10 @@
         <v>22</v>
       </c>
       <c r="C12" s="9" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>1345</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>1346</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>34</v>
@@ -32525,13 +32519,13 @@
         <v>73</v>
       </c>
       <c r="I12" s="7" t="s">
+        <v>1349</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>1350</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>1351</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>1352</v>
       </c>
       <c r="L12" s="1">
         <v>5</v>
@@ -32586,10 +32580,10 @@
         <v>22</v>
       </c>
       <c r="C13" s="9" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>1353</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>1354</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>34</v>
@@ -32604,13 +32598,13 @@
         <v>37</v>
       </c>
       <c r="I13" s="7" t="s">
+        <v>1354</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>1355</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>1356</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>1357</v>
       </c>
       <c r="L13" s="1">
         <v>5</v>
@@ -32657,7 +32651,7 @@
         <v>128</v>
       </c>
       <c r="AE13" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="14" ht="92.4" spans="1:29">
@@ -32668,10 +32662,10 @@
         <v>22</v>
       </c>
       <c r="C14" s="9" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>1359</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>1360</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>34</v>
@@ -32686,13 +32680,13 @@
         <v>37</v>
       </c>
       <c r="I14" s="7" t="s">
+        <v>1360</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>1361</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>1362</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>1363</v>
       </c>
       <c r="L14" s="1">
         <v>5</v>
@@ -32747,10 +32741,10 @@
         <v>22</v>
       </c>
       <c r="C15" s="9" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>1364</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>1365</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>34</v>
@@ -32765,13 +32759,13 @@
         <v>124</v>
       </c>
       <c r="I15" s="7" t="s">
+        <v>1365</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>1366</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>1367</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>1368</v>
       </c>
       <c r="L15" s="1">
         <v>5</v>
@@ -32826,10 +32820,10 @@
         <v>22</v>
       </c>
       <c r="C16" s="9" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>1369</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>1370</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>34</v>
@@ -32844,13 +32838,13 @@
         <v>351</v>
       </c>
       <c r="I16" s="7" t="s">
+        <v>1370</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>1371</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>1372</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>1373</v>
       </c>
       <c r="L16" s="1">
         <v>5</v>
@@ -32905,10 +32899,10 @@
         <v>22</v>
       </c>
       <c r="C17" s="9" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>1369</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>1370</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>34</v>
@@ -32923,13 +32917,13 @@
         <v>100</v>
       </c>
       <c r="I17" s="7" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>1374</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>1375</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>1376</v>
       </c>
       <c r="L17" s="1">
         <v>5</v>
@@ -32984,10 +32978,10 @@
         <v>22</v>
       </c>
       <c r="C18" s="9" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>1377</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>1378</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>34</v>
@@ -33002,13 +32996,13 @@
         <v>100</v>
       </c>
       <c r="I18" s="7" t="s">
+        <v>1378</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>1379</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>1380</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>1381</v>
       </c>
       <c r="L18" s="1">
         <v>5</v>
@@ -33063,10 +33057,10 @@
         <v>22</v>
       </c>
       <c r="C19" s="9" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>1377</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>1378</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>34</v>
@@ -33081,13 +33075,13 @@
         <v>37</v>
       </c>
       <c r="I19" s="7" t="s">
+        <v>1381</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>1382</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="K19" s="1" t="s">
         <v>1383</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>1384</v>
       </c>
       <c r="L19" s="1">
         <v>5</v>
@@ -33142,10 +33136,10 @@
         <v>22</v>
       </c>
       <c r="C20" s="9" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>1377</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>1378</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>34</v>
@@ -33160,13 +33154,13 @@
         <v>124</v>
       </c>
       <c r="I20" s="7" t="s">
+        <v>1384</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>1385</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>1386</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>1387</v>
       </c>
       <c r="L20" s="1">
         <v>5</v>
@@ -33221,10 +33215,10 @@
         <v>22</v>
       </c>
       <c r="C21" s="9" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>1377</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>1378</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>34</v>
@@ -33239,13 +33233,13 @@
         <v>37</v>
       </c>
       <c r="I21" s="7" t="s">
+        <v>1387</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>1388</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="K21" s="1" t="s">
         <v>1389</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>1390</v>
       </c>
       <c r="L21" s="1">
         <v>5</v>
@@ -33300,10 +33294,10 @@
         <v>22</v>
       </c>
       <c r="C22" s="9" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>1391</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>1392</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>49</v>
@@ -33318,13 +33312,13 @@
         <v>73</v>
       </c>
       <c r="I22" s="7" t="s">
+        <v>1392</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>1393</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="K22" s="1" t="s">
         <v>1394</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>1395</v>
       </c>
       <c r="L22" s="1">
         <v>5</v>
@@ -33379,10 +33373,10 @@
         <v>22</v>
       </c>
       <c r="C23" s="9" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>1396</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>1397</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>34</v>
@@ -33397,13 +33391,13 @@
         <v>239</v>
       </c>
       <c r="I23" s="7" t="s">
+        <v>1397</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>1398</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="K23" s="1" t="s">
         <v>1399</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>1400</v>
       </c>
       <c r="L23" s="1">
         <v>5</v>
@@ -33458,10 +33452,10 @@
         <v>22</v>
       </c>
       <c r="C24" s="9" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>1396</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>1397</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>34</v>
@@ -33476,13 +33470,13 @@
         <v>37</v>
       </c>
       <c r="I24" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>1401</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="K24" s="1" t="s">
         <v>1402</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>1403</v>
       </c>
       <c r="L24" s="1">
         <v>5</v>
@@ -33537,10 +33531,10 @@
         <v>22</v>
       </c>
       <c r="C25" s="9" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>1396</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>1397</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>34</v>
@@ -33555,13 +33549,13 @@
         <v>239</v>
       </c>
       <c r="I25" s="7" t="s">
+        <v>1403</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>1404</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="K25" s="1" t="s">
         <v>1405</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>1406</v>
       </c>
       <c r="L25" s="1">
         <v>5</v>
@@ -33616,10 +33610,10 @@
         <v>22</v>
       </c>
       <c r="C26" s="9" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>1396</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>1397</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>34</v>
@@ -33634,13 +33628,13 @@
         <v>37</v>
       </c>
       <c r="I26" s="7" t="s">
+        <v>1406</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>1407</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="K26" s="1" t="s">
         <v>1408</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>1409</v>
       </c>
       <c r="L26" s="1">
         <v>6</v>
@@ -33695,10 +33689,10 @@
         <v>22</v>
       </c>
       <c r="C27" s="9" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>1410</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>1411</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>49</v>
@@ -33710,16 +33704,16 @@
         <v>80</v>
       </c>
       <c r="H27" s="6" t="s">
+        <v>1411</v>
+      </c>
+      <c r="I27" s="7" t="s">
         <v>1412</v>
       </c>
-      <c r="I27" s="7" t="s">
+      <c r="J27" s="1" t="s">
         <v>1413</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="K27" s="1" t="s">
         <v>1414</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>1415</v>
       </c>
       <c r="L27" s="1">
         <v>5</v>
@@ -33774,10 +33768,10 @@
         <v>22</v>
       </c>
       <c r="C28" s="9" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>1416</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>1417</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>196</v>
@@ -33792,13 +33786,13 @@
         <v>37</v>
       </c>
       <c r="I28" s="7" t="s">
+        <v>1417</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>1418</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="K28" s="1" t="s">
         <v>1419</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>1420</v>
       </c>
       <c r="L28" s="1">
         <v>5</v>
@@ -33853,10 +33847,10 @@
         <v>22</v>
       </c>
       <c r="C29" s="9" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>1421</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>1422</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>34</v>
@@ -33871,13 +33865,13 @@
         <v>351</v>
       </c>
       <c r="I29" s="7" t="s">
+        <v>1422</v>
+      </c>
+      <c r="J29" s="1" t="s">
         <v>1423</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="K29" s="1" t="s">
         <v>1424</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>1425</v>
       </c>
       <c r="L29" s="1">
         <v>5</v>
@@ -33932,10 +33926,10 @@
         <v>22</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>34</v>
@@ -33950,13 +33944,13 @@
         <v>100</v>
       </c>
       <c r="I30" s="7" t="s">
+        <v>1426</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>1426</v>
+      </c>
+      <c r="K30" s="1" t="s">
         <v>1427</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>1427</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>1428</v>
       </c>
       <c r="L30" s="1">
         <v>5</v>
@@ -34011,10 +34005,10 @@
         <v>22</v>
       </c>
       <c r="C31" s="9" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>1429</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>1430</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>34</v>
@@ -34029,13 +34023,13 @@
         <v>100</v>
       </c>
       <c r="I31" s="7" t="s">
+        <v>1430</v>
+      </c>
+      <c r="J31" s="7" t="s">
         <v>1431</v>
       </c>
-      <c r="J31" s="7" t="s">
+      <c r="K31" s="7" t="s">
         <v>1432</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>1433</v>
       </c>
       <c r="L31" s="1">
         <v>5</v>
@@ -34090,10 +34084,10 @@
         <v>22</v>
       </c>
       <c r="C32" s="9" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>1434</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>1435</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>34</v>
@@ -34108,13 +34102,13 @@
         <v>100</v>
       </c>
       <c r="I32" s="7" t="s">
+        <v>1435</v>
+      </c>
+      <c r="J32" s="7" t="s">
         <v>1436</v>
       </c>
-      <c r="J32" s="7" t="s">
+      <c r="K32" s="7" t="s">
         <v>1437</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>1438</v>
       </c>
       <c r="L32" s="1">
         <v>5</v>
@@ -34172,7 +34166,7 @@
         <v>458</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>34</v>
@@ -34187,13 +34181,13 @@
         <v>351</v>
       </c>
       <c r="I33" s="7" t="s">
+        <v>1439</v>
+      </c>
+      <c r="J33" s="7" t="s">
         <v>1440</v>
       </c>
-      <c r="J33" s="7" t="s">
+      <c r="K33" s="7" t="s">
         <v>1441</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>1442</v>
       </c>
       <c r="L33" s="1">
         <v>4</v>
@@ -34248,10 +34242,10 @@
         <v>22</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>34</v>
@@ -34266,13 +34260,13 @@
         <v>37</v>
       </c>
       <c r="I34" s="7" t="s">
+        <v>1443</v>
+      </c>
+      <c r="J34" s="7" t="s">
         <v>1444</v>
       </c>
-      <c r="J34" s="7" t="s">
+      <c r="K34" s="7" t="s">
         <v>1445</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>1446</v>
       </c>
       <c r="L34" s="1">
         <v>5</v>
@@ -34327,10 +34321,10 @@
         <v>22</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>49</v>
@@ -34345,13 +34339,13 @@
         <v>239</v>
       </c>
       <c r="I35" s="7" t="s">
+        <v>1447</v>
+      </c>
+      <c r="J35" s="7" t="s">
         <v>1448</v>
       </c>
-      <c r="J35" s="7" t="s">
+      <c r="K35" s="7" t="s">
         <v>1449</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>1450</v>
       </c>
       <c r="L35" s="1">
         <v>6</v>
@@ -34378,7 +34372,7 @@
         <v>41</v>
       </c>
       <c r="T35" s="14" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="U35" s="16" t="s">
         <v>161</v>
@@ -34408,10 +34402,10 @@
         <v>22</v>
       </c>
       <c r="C36" s="9" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>1452</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>1453</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>49</v>
@@ -34426,13 +34420,13 @@
         <v>185</v>
       </c>
       <c r="I36" s="7" t="s">
+        <v>1453</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>1453</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>1454</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>1454</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>1455</v>
       </c>
       <c r="L36" s="1">
         <v>6</v>
@@ -34487,10 +34481,10 @@
         <v>22</v>
       </c>
       <c r="C37" s="9" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>1456</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>1457</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>49</v>
@@ -34505,13 +34499,13 @@
         <v>351</v>
       </c>
       <c r="I37" s="7" t="s">
+        <v>1457</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>1457</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>1458</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>1458</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>1459</v>
       </c>
       <c r="L37" s="1">
         <v>6</v>
@@ -34566,10 +34560,10 @@
         <v>22</v>
       </c>
       <c r="C38" s="9" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D38" s="9" t="s">
         <v>1456</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>1457</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>34</v>
@@ -34584,13 +34578,13 @@
         <v>37</v>
       </c>
       <c r="I38" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="J38" s="17" t="s">
         <v>1460</v>
       </c>
-      <c r="J38" s="17" t="s">
+      <c r="K38" s="7" t="s">
         <v>1461</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>1462</v>
       </c>
       <c r="L38" s="1">
         <v>4</v>
@@ -34645,10 +34639,10 @@
         <v>22</v>
       </c>
       <c r="C39" s="9" t="s">
+        <v>1462</v>
+      </c>
+      <c r="D39" s="9" t="s">
         <v>1463</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>1464</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>34</v>
@@ -34663,13 +34657,13 @@
         <v>37</v>
       </c>
       <c r="I39" s="20" t="s">
+        <v>1464</v>
+      </c>
+      <c r="J39" s="20" t="s">
         <v>1465</v>
       </c>
-      <c r="J39" s="20" t="s">
+      <c r="K39" s="7" t="s">
         <v>1466</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>1467</v>
       </c>
       <c r="L39" s="1">
         <v>6</v>
@@ -34724,10 +34718,10 @@
         <v>22</v>
       </c>
       <c r="C40" s="9" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D40" s="9" t="s">
         <v>1468</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>1469</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>34</v>
@@ -34742,13 +34736,13 @@
         <v>239</v>
       </c>
       <c r="I40" s="7" t="s">
+        <v>1469</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>1469</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>1470</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>1470</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>1471</v>
       </c>
       <c r="L40" s="1">
         <v>5</v>
@@ -34803,10 +34797,10 @@
         <v>22</v>
       </c>
       <c r="C41" s="9" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D41" s="9" t="s">
         <v>1472</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>1473</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>34</v>
@@ -34821,13 +34815,13 @@
         <v>37</v>
       </c>
       <c r="I41" s="7" t="s">
+        <v>1473</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>1473</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>1474</v>
-      </c>
-      <c r="J41" s="7" t="s">
-        <v>1474</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>1475</v>
       </c>
       <c r="L41" s="1">
         <v>5</v>
@@ -34882,10 +34876,10 @@
         <v>22</v>
       </c>
       <c r="C42" s="9" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D42" s="9" t="s">
         <v>1476</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>1477</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>34</v>
@@ -34897,16 +34891,16 @@
         <v>80</v>
       </c>
       <c r="H42" s="6" t="s">
+        <v>1477</v>
+      </c>
+      <c r="I42" s="7" t="s">
         <v>1478</v>
       </c>
-      <c r="I42" s="7" t="s">
+      <c r="J42" s="7" t="s">
+        <v>1478</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>1479</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>1479</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>1480</v>
       </c>
       <c r="L42" s="1">
         <v>8</v>
@@ -34953,7 +34947,7 @@
         <v>468</v>
       </c>
       <c r="AE42" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="43" ht="82.8" spans="1:29">
@@ -34964,10 +34958,10 @@
         <v>22</v>
       </c>
       <c r="C43" s="9" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D43" s="9" t="s">
         <v>1482</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>1483</v>
       </c>
       <c r="E43" s="10" t="s">
         <v>34</v>
@@ -34982,13 +34976,13 @@
         <v>100</v>
       </c>
       <c r="I43" s="1" t="s">
+        <v>1483</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>1483</v>
+      </c>
+      <c r="K43" s="1" t="s">
         <v>1484</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>1484</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>1485</v>
       </c>
       <c r="L43" s="1">
         <v>5</v>
@@ -35043,10 +35037,10 @@
         <v>22</v>
       </c>
       <c r="C44" s="9" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D44" s="9" t="s">
         <v>1486</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>1487</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>34</v>
@@ -35061,13 +35055,13 @@
         <v>37</v>
       </c>
       <c r="I44" s="1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="K44" s="1" t="s">
         <v>1488</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>1488</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>1489</v>
       </c>
       <c r="L44" s="1">
         <v>6</v>
@@ -35122,10 +35116,10 @@
         <v>22</v>
       </c>
       <c r="C45" s="9" t="s">
+        <v>1489</v>
+      </c>
+      <c r="D45" s="9" t="s">
         <v>1490</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>1491</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>34</v>
@@ -35140,13 +35134,13 @@
         <v>37</v>
       </c>
       <c r="I45" s="1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="K45" s="1" t="s">
         <v>1492</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>1492</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>1493</v>
       </c>
       <c r="L45" s="1">
         <v>5</v>
@@ -35201,10 +35195,10 @@
         <v>22</v>
       </c>
       <c r="C46" s="9" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D46" s="9" t="s">
         <v>1494</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>1495</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>34</v>
@@ -35219,13 +35213,13 @@
         <v>37</v>
       </c>
       <c r="I46" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="K46" s="1" t="s">
         <v>1496</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>1496</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>1497</v>
       </c>
       <c r="L46" s="1">
         <v>5</v>
@@ -35280,10 +35274,10 @@
         <v>22</v>
       </c>
       <c r="C47" s="9" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D47" s="9" t="s">
         <v>1498</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>1499</v>
       </c>
       <c r="E47" s="10" t="s">
         <v>34</v>
@@ -35298,13 +35292,13 @@
         <v>100</v>
       </c>
       <c r="I47" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="K47" s="1" t="s">
         <v>1500</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>1500</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>1501</v>
       </c>
       <c r="L47" s="1">
         <v>7</v>
@@ -35359,10 +35353,10 @@
         <v>22</v>
       </c>
       <c r="C48" s="9" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D48" s="9" t="s">
         <v>1502</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>1503</v>
       </c>
       <c r="E48" s="10" t="s">
         <v>34</v>
@@ -35374,16 +35368,16 @@
         <v>295</v>
       </c>
       <c r="H48" s="6" t="s">
+        <v>1503</v>
+      </c>
+      <c r="I48" s="1" t="s">
         <v>1504</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="J48" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="K48" s="1" t="s">
         <v>1505</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>1505</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>1506</v>
       </c>
       <c r="L48" s="1">
         <v>6</v>
@@ -35438,10 +35432,10 @@
         <v>22</v>
       </c>
       <c r="C49" s="9" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D49" s="9" t="s">
         <v>1502</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>1503</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>34</v>
@@ -35453,16 +35447,16 @@
         <v>295</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="I49" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="K49" s="1" t="s">
         <v>1507</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>1507</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>1508</v>
       </c>
       <c r="L49" s="1">
         <v>6</v>
@@ -35517,10 +35511,10 @@
         <v>22</v>
       </c>
       <c r="C50" s="9" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D50" s="9" t="s">
         <v>1494</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>1495</v>
       </c>
       <c r="E50" s="10" t="s">
         <v>34</v>
@@ -35535,13 +35529,13 @@
         <v>37</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="L50" s="1">
         <v>5</v>
@@ -35596,10 +35590,10 @@
         <v>22</v>
       </c>
       <c r="C51" s="9" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D51" s="9" t="s">
         <v>1494</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>1495</v>
       </c>
       <c r="E51" s="10" t="s">
         <v>34</v>
@@ -35614,13 +35608,13 @@
         <v>37</v>
       </c>
       <c r="I51" s="1" t="s">
+        <v>1509</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>1509</v>
+      </c>
+      <c r="K51" s="1" t="s">
         <v>1510</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>1510</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>1511</v>
       </c>
       <c r="L51" s="1">
         <v>5</v>
@@ -35675,10 +35669,10 @@
         <v>22</v>
       </c>
       <c r="C52" s="9" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D52" s="9" t="s">
         <v>1494</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>1495</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>34</v>
@@ -35693,13 +35687,13 @@
         <v>37</v>
       </c>
       <c r="I52" s="1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="K52" s="1" t="s">
         <v>1512</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>1512</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>1513</v>
       </c>
       <c r="L52" s="1">
         <v>6</v>
@@ -35752,7 +35746,7 @@
       <formula1>"python,javascript,typescript,java,c&amp;cpp,"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G52">
-      <formula1>"数据结构和算法,文件处理,数学问题和科学计算,文本处理,网络编程,前端,人工智能算法,安全,数据可视化图形应用,日期和时间处理,数据库,"</formula1>
+      <formula1>"Data Structures and Algorithms,File Handling,Mathematical Problems and Scientific Computing,Text Processing,Network Programming,Frontend,人工智能算法,Security,Data Visualization and Graphic Applications,Date and Time Processing,数据库,"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H$1:H$1048576">
       <formula1>"num,string,list,dict,martix,dataType,text_file,special_file,none,directory,time,picture_file,func,"</formula1>
@@ -35895,10 +35889,10 @@
         <v>24</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>1513</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>1514</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>1515</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>49</v>
@@ -35913,13 +35907,13 @@
         <v>239</v>
       </c>
       <c r="I2" s="7" t="s">
+        <v>1515</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>1515</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>1516</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>1516</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>1517</v>
       </c>
       <c r="L2" s="1">
         <v>6</v>
@@ -35946,13 +35940,13 @@
         <v>41</v>
       </c>
       <c r="T2" s="14" t="s">
+        <v>1517</v>
+      </c>
+      <c r="U2" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="V2" s="19" t="s">
         <v>1518</v>
-      </c>
-      <c r="U2" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="V2" s="19" t="s">
-        <v>1519</v>
       </c>
       <c r="W2" s="15" t="s">
         <v>44</v>
@@ -35978,10 +35972,10 @@
         <v>24</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>1520</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>1521</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>49</v>
@@ -35996,13 +35990,13 @@
         <v>214</v>
       </c>
       <c r="I3" s="7" t="s">
+        <v>1521</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>1522</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>1523</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>1524</v>
       </c>
       <c r="L3" s="1">
         <v>6</v>
@@ -36057,10 +36051,10 @@
         <v>24</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>1525</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>1526</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>49</v>
@@ -36075,13 +36069,13 @@
         <v>73</v>
       </c>
       <c r="I4" s="7" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>1527</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>1528</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>1529</v>
       </c>
       <c r="L4" s="1">
         <v>5</v>
@@ -36137,10 +36131,10 @@
         <v>24</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>49</v>
@@ -36155,13 +36149,13 @@
         <v>73</v>
       </c>
       <c r="I5" s="7" t="s">
+        <v>1530</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>1531</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>1532</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>1533</v>
       </c>
       <c r="L5" s="1">
         <v>5</v>
@@ -36217,10 +36211,10 @@
         <v>24</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>1534</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>1535</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>34</v>
@@ -36235,13 +36229,13 @@
         <v>73</v>
       </c>
       <c r="I6" s="7" t="s">
+        <v>1535</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>1536</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>1537</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>1538</v>
       </c>
       <c r="L6" s="1">
         <v>6</v>
@@ -36297,10 +36291,10 @@
         <v>24</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>1539</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>1540</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>34</v>
@@ -36315,13 +36309,13 @@
         <v>37</v>
       </c>
       <c r="I7" s="7" t="s">
+        <v>1540</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>1541</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>1542</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>1543</v>
       </c>
       <c r="L7" s="1">
         <v>5</v>
@@ -36376,10 +36370,10 @@
         <v>24</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>1539</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>1540</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>34</v>
@@ -36394,13 +36388,13 @@
         <v>100</v>
       </c>
       <c r="I8" s="7" t="s">
+        <v>1543</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>1544</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="12" t="s">
         <v>1545</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>1546</v>
       </c>
       <c r="L8" s="1">
         <v>5</v>
@@ -36455,10 +36449,10 @@
         <v>24</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>1539</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>1540</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>34</v>
@@ -36473,13 +36467,13 @@
         <v>37</v>
       </c>
       <c r="I9" s="7" t="s">
+        <v>1546</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>1547</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>1548</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>1549</v>
       </c>
       <c r="L9" s="1">
         <v>5</v>
@@ -36526,7 +36520,7 @@
         <v>128</v>
       </c>
       <c r="AD9" s="1" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:29">
@@ -36537,10 +36531,10 @@
         <v>24</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>1539</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>1540</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>34</v>
@@ -36555,13 +36549,13 @@
         <v>100</v>
       </c>
       <c r="I10" s="7" t="s">
+        <v>1550</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>1551</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>1552</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>1553</v>
       </c>
       <c r="L10" s="1">
         <v>5</v>
@@ -36616,10 +36610,10 @@
         <v>24</v>
       </c>
       <c r="C11" s="9" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>1554</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>1555</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>49</v>
@@ -36634,13 +36628,13 @@
         <v>239</v>
       </c>
       <c r="I11" s="7" t="s">
+        <v>1555</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>1556</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>1557</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>1558</v>
       </c>
       <c r="L11" s="1">
         <v>5</v>
@@ -36687,7 +36681,7 @@
         <v>128</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:31">
@@ -36698,10 +36692,10 @@
         <v>24</v>
       </c>
       <c r="C12" s="9" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>1560</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>1561</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>49</v>
@@ -36716,13 +36710,13 @@
         <v>214</v>
       </c>
       <c r="I12" s="7" t="s">
+        <v>1561</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>1562</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>1563</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>1564</v>
       </c>
       <c r="L12" s="1">
         <v>9</v>
@@ -36769,10 +36763,10 @@
         <v>128</v>
       </c>
       <c r="AD12" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="AE12" s="1" t="s">
         <v>1565</v>
-      </c>
-      <c r="AE12" s="1" t="s">
-        <v>1566</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:29">
@@ -36783,10 +36777,10 @@
         <v>24</v>
       </c>
       <c r="C13" s="9" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>1567</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>1568</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>49</v>
@@ -36801,13 +36795,13 @@
         <v>100</v>
       </c>
       <c r="I13" s="7" t="s">
+        <v>1568</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>1569</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>1570</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>1571</v>
       </c>
       <c r="L13" s="1">
         <v>5</v>
@@ -36862,10 +36856,10 @@
         <v>24</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>49</v>
@@ -36877,16 +36871,16 @@
         <v>80</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I14" s="7" t="s">
+        <v>1572</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>1573</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>1574</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>1575</v>
       </c>
       <c r="L14" s="1">
         <v>5</v>
@@ -36941,10 +36935,10 @@
         <v>24</v>
       </c>
       <c r="C15" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>1576</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>1577</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>49</v>
@@ -36956,16 +36950,16 @@
         <v>80</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I15" s="7" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>1578</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>1579</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>1580</v>
       </c>
       <c r="L15" s="1">
         <v>5</v>
@@ -37012,7 +37006,7 @@
         <v>128</v>
       </c>
       <c r="AD15" s="1" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:29">
@@ -37023,10 +37017,10 @@
         <v>24</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>34</v>
@@ -37041,13 +37035,13 @@
         <v>37</v>
       </c>
       <c r="I16" s="7" t="s">
+        <v>1582</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>1583</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>1584</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>1585</v>
       </c>
       <c r="L16" s="1">
         <v>5</v>
@@ -37102,10 +37096,10 @@
         <v>24</v>
       </c>
       <c r="C17" s="9" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>1586</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>1587</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>34</v>
@@ -37120,13 +37114,13 @@
         <v>100</v>
       </c>
       <c r="I17" s="7" t="s">
+        <v>1587</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>1588</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>1589</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>1590</v>
       </c>
       <c r="L17" s="1">
         <v>5</v>
@@ -37181,10 +37175,10 @@
         <v>24</v>
       </c>
       <c r="C18" s="9" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>1591</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>1592</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>49</v>
@@ -37199,13 +37193,13 @@
         <v>73</v>
       </c>
       <c r="I18" s="7" t="s">
+        <v>1592</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>1593</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="12" t="s">
         <v>1594</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>1595</v>
       </c>
       <c r="L18" s="1">
         <v>5</v>
@@ -37260,10 +37254,10 @@
         <v>24</v>
       </c>
       <c r="C19" s="9" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>1596</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>1597</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>34</v>
@@ -37278,13 +37272,13 @@
         <v>37</v>
       </c>
       <c r="I19" s="7" t="s">
+        <v>1597</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>1598</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="K19" s="1" t="s">
         <v>1599</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>1600</v>
       </c>
       <c r="L19" s="1">
         <v>5</v>
@@ -37339,10 +37333,10 @@
         <v>24</v>
       </c>
       <c r="C20" s="9" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>1596</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>1597</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>49</v>
@@ -37357,13 +37351,13 @@
         <v>214</v>
       </c>
       <c r="I20" s="7" t="s">
+        <v>1600</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>1601</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>1602</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>1603</v>
       </c>
       <c r="L20" s="1">
         <v>5</v>
@@ -37410,7 +37404,7 @@
         <v>128</v>
       </c>
       <c r="AD20" s="1" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:29">
@@ -37421,10 +37415,10 @@
         <v>24</v>
       </c>
       <c r="C21" s="9" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>1605</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>1606</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>49</v>
@@ -37439,13 +37433,13 @@
         <v>100</v>
       </c>
       <c r="I21" s="7" t="s">
+        <v>1606</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>1607</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="K21" s="1" t="s">
         <v>1608</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>1609</v>
       </c>
       <c r="L21" s="1">
         <v>5</v>
@@ -37500,10 +37494,10 @@
         <v>24</v>
       </c>
       <c r="C22" s="9" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>1610</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>1611</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>49</v>
@@ -37518,13 +37512,13 @@
         <v>52</v>
       </c>
       <c r="I22" s="7" t="s">
+        <v>1611</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>1612</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="K22" s="1" t="s">
         <v>1613</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>1614</v>
       </c>
       <c r="L22" s="1">
         <v>5</v>
@@ -37579,10 +37573,10 @@
         <v>24</v>
       </c>
       <c r="C23" s="9" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>1615</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>1616</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>49</v>
@@ -37597,13 +37591,13 @@
         <v>214</v>
       </c>
       <c r="I23" s="7" t="s">
+        <v>1616</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>1616</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>1617</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>1617</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>1618</v>
       </c>
       <c r="L23" s="1">
         <v>5</v>
@@ -37630,7 +37624,7 @@
         <v>41</v>
       </c>
       <c r="T23" s="14" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="U23" s="15" t="s">
         <v>44</v>
@@ -37661,10 +37655,10 @@
         <v>24</v>
       </c>
       <c r="C24" s="9" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>1620</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>1621</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>49</v>
@@ -37679,13 +37673,13 @@
         <v>214</v>
       </c>
       <c r="I24" s="7" t="s">
+        <v>1621</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>1621</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>1622</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>1622</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>1623</v>
       </c>
       <c r="L24" s="1">
         <v>5</v>
@@ -37740,10 +37734,10 @@
         <v>24</v>
       </c>
       <c r="C25" s="9" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>1624</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>1625</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>49</v>
@@ -37758,13 +37752,13 @@
         <v>100</v>
       </c>
       <c r="I25" s="7" t="s">
+        <v>1625</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>1625</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>1626</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>1626</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>1627</v>
       </c>
       <c r="L25" s="1">
         <v>5</v>
@@ -37819,10 +37813,10 @@
         <v>24</v>
       </c>
       <c r="C26" s="9" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>1624</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>1625</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>49</v>
@@ -37837,13 +37831,13 @@
         <v>100</v>
       </c>
       <c r="I26" s="7" t="s">
+        <v>1627</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>1627</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>1628</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>1628</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>1629</v>
       </c>
       <c r="L26" s="1">
         <v>7</v>
@@ -37898,10 +37892,10 @@
         <v>24</v>
       </c>
       <c r="C27" s="9" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>1630</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>1631</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>49</v>
@@ -37916,13 +37910,13 @@
         <v>73</v>
       </c>
       <c r="I27" s="7" t="s">
+        <v>1631</v>
+      </c>
+      <c r="J27" s="7" t="s">
         <v>1632</v>
       </c>
-      <c r="J27" s="7" t="s">
+      <c r="K27" s="7" t="s">
         <v>1633</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>1634</v>
       </c>
       <c r="L27" s="1">
         <v>5</v>
@@ -37977,10 +37971,10 @@
         <v>24</v>
       </c>
       <c r="C28" s="9" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>1635</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>1636</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>49</v>
@@ -37995,13 +37989,13 @@
         <v>73</v>
       </c>
       <c r="I28" s="7" t="s">
+        <v>1636</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>1636</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>1637</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>1637</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>1638</v>
       </c>
       <c r="L28" s="1">
         <v>25</v>
@@ -38056,10 +38050,10 @@
         <v>24</v>
       </c>
       <c r="C29" s="9" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>1639</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>1640</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>49</v>
@@ -38071,16 +38065,16 @@
         <v>36</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="I29" s="7" t="s">
+        <v>1640</v>
+      </c>
+      <c r="J29" s="7" t="s">
         <v>1641</v>
       </c>
-      <c r="J29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>1642</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>1643</v>
       </c>
       <c r="L29" s="1">
         <v>5</v>
@@ -38135,10 +38129,10 @@
         <v>24</v>
       </c>
       <c r="C30" s="9" t="s">
+        <v>1643</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>1644</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>1645</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>49</v>
@@ -38150,16 +38144,16 @@
         <v>51</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I30" s="7" t="s">
+        <v>1645</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>1646</v>
       </c>
-      <c r="J30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>1647</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>1648</v>
       </c>
       <c r="L30" s="1">
         <v>5</v>
@@ -38214,10 +38208,10 @@
         <v>24</v>
       </c>
       <c r="C31" s="9" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>1649</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>1650</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>34</v>
@@ -38232,13 +38226,13 @@
         <v>37</v>
       </c>
       <c r="I31" s="7" t="s">
+        <v>1650</v>
+      </c>
+      <c r="J31" s="7" t="s">
         <v>1651</v>
       </c>
-      <c r="J31" s="7" t="s">
+      <c r="K31" s="7" t="s">
         <v>1652</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>1653</v>
       </c>
       <c r="L31" s="1">
         <v>5</v>
@@ -38293,10 +38287,10 @@
         <v>24</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>99</v>
@@ -38308,16 +38302,16 @@
         <v>51</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I32" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>1655</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>1655</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>1656</v>
       </c>
       <c r="L32" s="1">
         <v>4</v>
@@ -38344,7 +38338,7 @@
         <v>41</v>
       </c>
       <c r="T32" s="14" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="U32" s="15" t="s">
         <v>44</v>
@@ -38366,7 +38360,7 @@
         <v>42</v>
       </c>
       <c r="AE32" s="1" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:29">
@@ -38377,10 +38371,10 @@
         <v>24</v>
       </c>
       <c r="C33" s="9" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>1659</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>1660</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>34</v>
@@ -38395,13 +38389,13 @@
         <v>214</v>
       </c>
       <c r="I33" s="7" t="s">
+        <v>1660</v>
+      </c>
+      <c r="J33" s="7" t="s">
         <v>1661</v>
       </c>
-      <c r="J33" s="7" t="s">
+      <c r="K33" s="7" t="s">
         <v>1662</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>1663</v>
       </c>
       <c r="L33" s="1">
         <v>5</v>
@@ -38456,13 +38450,13 @@
         <v>24</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>1664</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>1665</v>
-      </c>
       <c r="E34" s="10" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>35</v>
@@ -38474,13 +38468,13 @@
         <v>214</v>
       </c>
       <c r="I34" s="1" t="s">
+        <v>1665</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>1665</v>
+      </c>
+      <c r="K34" s="1" t="s">
         <v>1666</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>1666</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>1667</v>
       </c>
       <c r="L34" s="1">
         <v>6</v>
@@ -38532,10 +38526,10 @@
         <v>24</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>34</v>
@@ -38550,13 +38544,13 @@
         <v>37</v>
       </c>
       <c r="I35" s="1" t="s">
+        <v>1668</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>1669</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="K35" s="1" t="s">
         <v>1670</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>1671</v>
       </c>
       <c r="L35" s="1">
         <v>6</v>
@@ -38608,10 +38602,10 @@
         <v>24</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>34</v>
@@ -38626,13 +38620,13 @@
         <v>37</v>
       </c>
       <c r="I36" s="1" t="s">
+        <v>1671</v>
+      </c>
+      <c r="J36" s="17" t="s">
         <v>1672</v>
       </c>
-      <c r="J36" s="17" t="s">
+      <c r="K36" s="1" t="s">
         <v>1673</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>1674</v>
       </c>
       <c r="L36" s="1">
         <v>5</v>
@@ -38684,10 +38678,10 @@
         <v>24</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>1674</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>1675</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>1676</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>196</v>
@@ -38702,13 +38696,13 @@
         <v>214</v>
       </c>
       <c r="I37" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="J37" s="1" t="s">
         <v>1677</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="K37" s="1" t="s">
         <v>1678</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>1679</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -38735,7 +38729,7 @@
         <v>41</v>
       </c>
       <c r="T37" s="14" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="U37" s="15" t="s">
         <v>161</v>
@@ -38761,10 +38755,10 @@
         <v>24</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>1681</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>1682</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>49</v>
@@ -38779,13 +38773,13 @@
         <v>214</v>
       </c>
       <c r="I38" s="1" t="s">
+        <v>1682</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>1682</v>
+      </c>
+      <c r="K38" s="1" t="s">
         <v>1683</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>1683</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>1684</v>
       </c>
       <c r="L38" s="1">
         <v>5</v>
@@ -38837,10 +38831,10 @@
         <v>24</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>1684</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>1685</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>1686</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>34</v>
@@ -38855,13 +38849,13 @@
         <v>37</v>
       </c>
       <c r="I39" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="K39" s="1" t="s">
         <v>1687</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>1687</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>1688</v>
       </c>
       <c r="L39" s="1">
         <v>5</v>
@@ -38913,10 +38907,10 @@
         <v>24</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>34</v>
@@ -38931,13 +38925,13 @@
         <v>100</v>
       </c>
       <c r="I40" s="1" t="s">
+        <v>1689</v>
+      </c>
+      <c r="J40" s="17" t="s">
+        <v>1689</v>
+      </c>
+      <c r="K40" s="1" t="s">
         <v>1690</v>
-      </c>
-      <c r="J40" s="17" t="s">
-        <v>1690</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>1691</v>
       </c>
       <c r="L40" s="1">
         <v>13</v>
@@ -38989,10 +38983,10 @@
         <v>24</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>1692</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>1693</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>49</v>
@@ -39007,13 +39001,13 @@
         <v>100</v>
       </c>
       <c r="I41" s="1" t="s">
+        <v>1693</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>1693</v>
+      </c>
+      <c r="K41" s="1" t="s">
         <v>1694</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>1694</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>1695</v>
       </c>
       <c r="L41" s="1">
         <v>6</v>
@@ -39065,10 +39059,10 @@
         <v>24</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>49</v>
@@ -39083,13 +39077,13 @@
         <v>214</v>
       </c>
       <c r="I42" s="1" t="s">
+        <v>1696</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>1696</v>
+      </c>
+      <c r="K42" s="1" t="s">
         <v>1697</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>1697</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>1698</v>
       </c>
       <c r="L42" s="1">
         <v>6</v>
@@ -39116,7 +39110,7 @@
         <v>41</v>
       </c>
       <c r="T42" s="14" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="U42" s="15" t="s">
         <v>44</v>
@@ -39143,10 +39137,10 @@
         <v>24</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="E43" s="10" t="s">
         <v>49</v>
@@ -39161,13 +39155,13 @@
         <v>214</v>
       </c>
       <c r="I43" s="1" t="s">
+        <v>1700</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>1700</v>
+      </c>
+      <c r="K43" s="1" t="s">
         <v>1701</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>1701</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>1702</v>
       </c>
       <c r="L43" s="1">
         <v>4</v>
@@ -39219,10 +39213,10 @@
         <v>24</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>1702</v>
+      </c>
+      <c r="D44" s="12" t="s">
         <v>1703</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>1704</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>34</v>
@@ -39237,13 +39231,13 @@
         <v>37</v>
       </c>
       <c r="I44" s="1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="K44" s="1" t="s">
         <v>1705</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>1705</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>1706</v>
       </c>
       <c r="L44" s="1">
         <v>6</v>
@@ -39295,10 +39289,10 @@
         <v>24</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>1707</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>1708</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>99</v>
@@ -39313,13 +39307,13 @@
         <v>100</v>
       </c>
       <c r="I45" s="1" t="s">
+        <v>1708</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>1708</v>
+      </c>
+      <c r="K45" s="1" t="s">
         <v>1709</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>1709</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>1710</v>
       </c>
       <c r="L45" s="1">
         <v>12</v>
@@ -39371,10 +39365,10 @@
         <v>24</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>99</v>
@@ -39389,13 +39383,13 @@
         <v>100</v>
       </c>
       <c r="I46" s="1" t="s">
+        <v>1711</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>1711</v>
+      </c>
+      <c r="K46" s="1" t="s">
         <v>1712</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>1712</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>1713</v>
       </c>
       <c r="L46" s="1">
         <v>10</v>
@@ -39447,10 +39441,10 @@
         <v>24</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>1713</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>1714</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>1715</v>
       </c>
       <c r="E47" s="10" t="s">
         <v>99</v>
@@ -39465,13 +39459,13 @@
         <v>100</v>
       </c>
       <c r="I47" s="1" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>1715</v>
+      </c>
+      <c r="K47" s="1" t="s">
         <v>1716</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>1716</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>1717</v>
       </c>
       <c r="L47" s="1">
         <v>7</v>
@@ -39523,10 +39517,10 @@
         <v>24</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>1718</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>1719</v>
       </c>
       <c r="E48" s="10" t="s">
         <v>99</v>
@@ -39541,13 +39535,13 @@
         <v>100</v>
       </c>
       <c r="I48" s="1" t="s">
+        <v>1719</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>1719</v>
+      </c>
+      <c r="K48" s="1" t="s">
         <v>1720</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>1720</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>1721</v>
       </c>
       <c r="L48" s="1">
         <v>6</v>
@@ -39597,7 +39591,7 @@
       <formula1>"python,javascript,typescript,java,c&amp;cpp,"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G48">
-      <formula1>"数据结构和算法,文件处理,数学问题和科学计算,文本处理,网络编程,前端,人工智能算法,安全,数据可视化图形应用,日期和时间处理,数据库,"</formula1>
+      <formula1>"Data Structures and Algorithms,File Handling,Mathematical Problems and Scientific Computing,Text Processing,Network Programming,Frontend,人工智能算法,Security,Data Visualization and Graphic Applications,Date and Time Processing,数据库,"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H$1:H$1048576">
       <formula1>"num,string,list,dict,martix,dataType,text_file,special_file,none,directory,time,picture_file,func,"</formula1>
@@ -39738,10 +39732,10 @@
         <v>26</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>1722</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>1723</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>34</v>
@@ -39750,19 +39744,19 @@
         <v>58</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>37</v>
       </c>
       <c r="I2" s="7" t="s">
+        <v>1723</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>1725</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>1726</v>
       </c>
       <c r="L2" s="1">
         <v>5</v>
@@ -39815,10 +39809,10 @@
         <v>26</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>1727</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>1728</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>49</v>
@@ -39830,16 +39824,16 @@
         <v>51</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I3" s="7" t="s">
+        <v>1728</v>
+      </c>
+      <c r="J3" s="12" t="s">
         <v>1729</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="K3" s="12" t="s">
         <v>1730</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>1731</v>
       </c>
       <c r="L3" s="1">
         <v>5</v>
@@ -39894,10 +39888,10 @@
         <v>26</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>1727</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>1728</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>49</v>
@@ -39909,16 +39903,16 @@
         <v>51</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I4" s="7" t="s">
+        <v>1731</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>1732</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>1733</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>1734</v>
       </c>
       <c r="L4" s="1">
         <v>4</v>
@@ -39971,10 +39965,10 @@
         <v>26</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>1734</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>1735</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>1736</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>49</v>
@@ -39986,16 +39980,16 @@
         <v>80</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="I5" s="7" t="s">
+        <v>1736</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>1737</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>1738</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>1739</v>
       </c>
       <c r="L5" s="1">
         <v>5</v>
@@ -40024,7 +40018,7 @@
         <v>44</v>
       </c>
       <c r="V5" s="14" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="W5" s="15" t="s">
         <v>44</v>
@@ -40034,7 +40028,7 @@
         <v>44</v>
       </c>
       <c r="Z5" s="14" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="AA5" s="15" t="s">
         <v>44</v>
@@ -40052,13 +40046,13 @@
         <v>26</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>1741</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>1742</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>1743</v>
-      </c>
       <c r="E6" s="10" t="s">
-        <v>1744</v>
+        <v>66</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>202</v>
@@ -40070,13 +40064,13 @@
         <v>214</v>
       </c>
       <c r="I6" s="7" t="s">
+        <v>1743</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>1744</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>1745</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>1746</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>1747</v>
       </c>
       <c r="L6" s="1">
         <v>5</v>
@@ -40129,10 +40123,10 @@
         <v>26</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>49</v>
@@ -40147,13 +40141,13 @@
         <v>73</v>
       </c>
       <c r="I7" s="7" t="s">
+        <v>1748</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>1749</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>1750</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>1751</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>1752</v>
       </c>
       <c r="L7" s="1">
         <v>5</v>
@@ -40206,10 +40200,10 @@
         <v>26</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>157</v>
@@ -40224,13 +40218,13 @@
         <v>274</v>
       </c>
       <c r="I8" s="7" t="s">
+        <v>1753</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>1754</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>1755</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>1756</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>1757</v>
       </c>
       <c r="L8" s="1">
         <v>5</v>
@@ -40283,10 +40277,10 @@
         <v>26</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>34</v>
@@ -40301,13 +40295,13 @@
         <v>73</v>
       </c>
       <c r="I9" s="7" t="s">
+        <v>1758</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>1759</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>1760</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>1761</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>1762</v>
       </c>
       <c r="L9" s="1">
         <v>5</v>
@@ -40360,10 +40354,10 @@
         <v>26</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>157</v>
@@ -40378,13 +40372,13 @@
         <v>124</v>
       </c>
       <c r="I10" s="7" t="s">
+        <v>1763</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>1764</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>1765</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>1766</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>1767</v>
       </c>
       <c r="L10" s="1">
         <v>5</v>
@@ -40437,13 +40431,13 @@
         <v>26</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>123</v>
@@ -40455,13 +40449,13 @@
         <v>124</v>
       </c>
       <c r="I11" s="7" t="s">
+        <v>1768</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>1769</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>1770</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>1771</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>1772</v>
       </c>
       <c r="L11" s="1">
         <v>5</v>
@@ -40514,10 +40508,10 @@
         <v>26</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>49</v>
@@ -40532,13 +40526,13 @@
         <v>100</v>
       </c>
       <c r="I12" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>1774</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>1775</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>1776</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>1777</v>
       </c>
       <c r="L12" s="1">
         <v>5</v>
@@ -40591,10 +40585,10 @@
         <v>26</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>49</v>
@@ -40609,13 +40603,13 @@
         <v>73</v>
       </c>
       <c r="I13" s="7" t="s">
+        <v>1778</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>1779</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>1780</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>1781</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>1782</v>
       </c>
       <c r="L13" s="1">
         <v>5</v>
@@ -40670,13 +40664,13 @@
         <v>26</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>1744</v>
+        <v>66</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>202</v>
@@ -40688,13 +40682,13 @@
         <v>73</v>
       </c>
       <c r="I14" s="7" t="s">
+        <v>1783</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>1784</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>1785</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>1786</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>1787</v>
       </c>
       <c r="L14" s="1">
         <v>5</v>
@@ -40749,10 +40743,10 @@
         <v>26</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>34</v>
@@ -40767,13 +40761,13 @@
         <v>37</v>
       </c>
       <c r="I15" s="7" t="s">
+        <v>1787</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>1788</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>1789</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>1790</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>1791</v>
       </c>
       <c r="L15" s="1">
         <v>4</v>
@@ -40828,10 +40822,10 @@
         <v>26</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>49</v>
@@ -40846,13 +40840,13 @@
         <v>67</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="L16" s="1">
         <v>5</v>
@@ -40907,10 +40901,10 @@
         <v>26</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>34</v>
@@ -40925,13 +40919,13 @@
         <v>214</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="L17" s="1">
         <v>7</v>
@@ -40986,10 +40980,10 @@
         <v>26</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>34</v>
@@ -41004,13 +40998,13 @@
         <v>214</v>
       </c>
       <c r="I18" s="1" t="s">
+        <v>1800</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>1801</v>
+      </c>
+      <c r="K18" s="12" t="s">
         <v>1802</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>1803</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>1804</v>
       </c>
       <c r="L18" s="1">
         <v>5</v>
@@ -41065,10 +41059,10 @@
         <v>26</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>157</v>
@@ -41083,13 +41077,13 @@
         <v>604</v>
       </c>
       <c r="I19" s="1" t="s">
+        <v>1805</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>1806</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>1807</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>1808</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>1809</v>
       </c>
       <c r="L19" s="1">
         <v>5</v>
@@ -41144,10 +41138,10 @@
         <v>26</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>34</v>
@@ -41162,13 +41156,13 @@
         <v>67</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="L20" s="1">
         <v>6</v>
@@ -41223,10 +41217,10 @@
         <v>26</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>49</v>
@@ -41241,13 +41235,13 @@
         <v>73</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="L21" s="1">
         <v>6</v>
@@ -41302,10 +41296,10 @@
         <v>26</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>34</v>
@@ -41320,13 +41314,13 @@
         <v>100</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="L22" s="1">
         <v>6</v>
@@ -41381,10 +41375,10 @@
         <v>26</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>34</v>
@@ -41399,13 +41393,13 @@
         <v>124</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="L23" s="1">
         <v>5</v>
@@ -41460,10 +41454,10 @@
         <v>26</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>49</v>
@@ -41478,13 +41472,13 @@
         <v>52</v>
       </c>
       <c r="I24" s="1" t="s">
+        <v>1826</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>1827</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>1828</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>1829</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>1830</v>
       </c>
       <c r="L24" s="1">
         <v>5</v>
@@ -41537,10 +41531,10 @@
         <v>26</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>34</v>
@@ -41555,13 +41549,13 @@
         <v>37</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
       <c r="L25" s="1">
         <v>6</v>
@@ -41614,10 +41608,10 @@
         <v>26</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>34</v>
@@ -41632,13 +41626,13 @@
         <v>124</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
       <c r="L26" s="1">
         <v>5</v>
@@ -41693,10 +41687,10 @@
         <v>26</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>34</v>
@@ -41711,13 +41705,13 @@
         <v>124</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
       <c r="L27" s="1">
         <v>6</v>
@@ -41772,10 +41766,10 @@
         <v>26</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>34</v>
@@ -41787,16 +41781,16 @@
         <v>59</v>
       </c>
       <c r="H28" s="11" t="s">
+        <v>1839</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>1840</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>1840</v>
+      </c>
+      <c r="K28" s="1" t="s">
         <v>1841</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>1842</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>1842</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>1843</v>
       </c>
       <c r="L28" s="1">
         <v>5</v>
@@ -41851,10 +41845,10 @@
         <v>26</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>49</v>
@@ -41869,13 +41863,13 @@
         <v>73</v>
       </c>
       <c r="I29" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
       <c r="J29" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
       <c r="L29" s="1">
         <v>7</v>
@@ -41930,10 +41924,10 @@
         <v>26</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>34</v>
@@ -41945,16 +41939,16 @@
         <v>59</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="L30" s="1">
         <v>6</v>
@@ -42009,10 +42003,10 @@
         <v>26</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>34</v>
@@ -42027,13 +42021,13 @@
         <v>37</v>
       </c>
       <c r="I31" s="1" t="s">
+        <v>1852</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>1853</v>
+      </c>
+      <c r="K31" s="1" t="s">
         <v>1854</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>1855</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>1856</v>
       </c>
       <c r="L31" s="1">
         <v>7</v>
@@ -42088,10 +42082,10 @@
         <v>26</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>34</v>
@@ -42106,13 +42100,13 @@
         <v>124</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
       <c r="L32" s="1">
         <v>6</v>
@@ -42165,7 +42159,7 @@
       <formula1>"python,javascript,typescript,java,c&amp;cpp,"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G32">
-      <formula1>"数据结构和算法,文件处理,数学问题和科学计算,文本处理,网络编程,前端,人工智能算法,安全,数据可视化图形应用,日期和时间处理,数据库,"</formula1>
+      <formula1>"Data Structures and Algorithms,File Handling,Mathematical Problems and Scientific Computing,Text Processing,Network Programming,Frontend,人工智能算法,Security,Data Visualization and Graphic Applications,Date and Time Processing,数据库,"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H$1:H$1048576">
       <formula1>"num,string,list,dict,martix,dataType,text_file,special_file,none,directory,time,picture_file,func,"</formula1>
